--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="74580" yWindow="5655" windowWidth="19995" windowHeight="19500" tabRatio="827"/>
+    <workbookView xWindow="74580" yWindow="5655" windowWidth="19995" windowHeight="19500" tabRatio="827" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
-    <sheet name="Cases by Outcome" sheetId="16" r:id="rId2"/>
-    <sheet name="Outbreaks" sheetId="22" r:id="rId3"/>
+    <sheet name="Cases by Outcome" sheetId="15" r:id="rId2"/>
+    <sheet name="Outbreaks" sheetId="21" r:id="rId3"/>
     <sheet name="Cases by Age" sheetId="13" r:id="rId4"/>
     <sheet name="Cases by Episode Date" sheetId="14" r:id="rId5"/>
-    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId6"/>
-    <sheet name="Cases by Gender" sheetId="15" r:id="rId7"/>
-    <sheet name="Cumulative Cases by Episode Dat" sheetId="18" r:id="rId8"/>
-    <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
-    <sheet name="Currently Hospitalized" sheetId="20" r:id="rId10"/>
-    <sheet name="Ever Hospitalized" sheetId="21" r:id="rId11"/>
-    <sheet name="Severity Indicators by Age Grou" sheetId="23" r:id="rId12"/>
-    <sheet name="Source of Infection" sheetId="24" r:id="rId13"/>
+    <sheet name="Cases by Reported Date" sheetId="16" r:id="rId6"/>
+    <sheet name="Cumulative Cases by Episode Dat" sheetId="17" r:id="rId7"/>
+    <sheet name="Cumulative Cases by Reported Da" sheetId="18" r:id="rId8"/>
+    <sheet name="Currently Hospitalized" sheetId="19" r:id="rId9"/>
+    <sheet name="Ever Hospitalized" sheetId="20" r:id="rId10"/>
+    <sheet name="Source of Infection" sheetId="22" r:id="rId11"/>
+    <sheet name="Cases by Gender" sheetId="23" r:id="rId12"/>
+    <sheet name="Severity Indicators by Age Grou" sheetId="24" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of June 25, 2020</t>
+    <t>Data as of June 26, 2020</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
@@ -53,52 +53,37 @@
     <t>Case Count</t>
   </si>
   <si>
-    <t>70-79</t>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>60-69</t>
+  </si>
+  <si>
+    <t>50-59</t>
+  </si>
+  <si>
+    <t>80-89</t>
+  </si>
+  <si>
+    <t>40-49</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>90+</t>
   </si>
   <si>
     <t>20-29</t>
   </si>
   <si>
-    <t>50-59</t>
-  </si>
-  <si>
     <t>≤19</t>
   </si>
   <si>
-    <t>40-49</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>80-89</t>
-  </si>
-  <si>
-    <t>90+</t>
-  </si>
-  <si>
-    <t>30-39</t>
-  </si>
-  <si>
-    <t>60-69</t>
+    <t>70-79</t>
   </si>
   <si>
     <t>Episode Date</t>
-  </si>
-  <si>
-    <t>Client Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Transgender</t>
-  </si>
-  <si>
-    <t>Male</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -125,13 +110,13 @@
     <t>% of Total Cases</t>
   </si>
   <si>
-    <t>Currently Intubated</t>
+    <t>Currently Hospitalized</t>
   </si>
   <si>
     <t>Currently in ICU</t>
   </si>
   <si>
-    <t>Currently Hospitalized</t>
+    <t>Currently Intubated</t>
   </si>
   <si>
     <t>Ever Intubated</t>
@@ -146,19 +131,13 @@
     <t>Outbreak Count</t>
   </si>
   <si>
-    <t>ICU Cases</t>
-  </si>
-  <si>
-    <t>Hospitalized Cases</t>
-  </si>
-  <si>
-    <t>Intubated Cases</t>
-  </si>
-  <si>
     <t>Most Likely Source</t>
   </si>
   <si>
     <t>Community</t>
+  </si>
+  <si>
+    <t>Close contact with a case</t>
   </si>
   <si>
     <t>Institutional</t>
@@ -167,10 +146,31 @@
     <t>Travel</t>
   </si>
   <si>
-    <t>Close contact with a case</t>
+    <t>Healthcare</t>
   </si>
   <si>
-    <t>Healthcare</t>
+    <t>Client Gender</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>ICU Cases</t>
+  </si>
+  <si>
+    <t>Hospitalized Cases</t>
+  </si>
+  <si>
+    <t>Intubated Cases</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,23 +518,25 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -542,92 +544,102 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>1806</v>
       </c>
       <c r="C2">
-        <v>0.34668176000000001</v>
+        <v>12.721893490999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>393</v>
       </c>
       <c r="C3">
-        <v>0.42450827800000002</v>
+        <v>2.7683854609999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C4">
-        <v>1.648507146</v>
+        <v>2.0005635389999998</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C4">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2">
-        <v>284</v>
-      </c>
-      <c r="C2">
-        <v>2.0093391820000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24.205256571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3">
-        <v>393</v>
-      </c>
-      <c r="C3">
-        <v>2.78052922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56.195244055000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4">
-        <v>1796</v>
-      </c>
-      <c r="C4">
-        <v>12.706947785000001</v>
+        <v>3.604505632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>5.6445556950000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>10.350438047999999</v>
       </c>
     </row>
   </sheetData>
@@ -637,11 +649,98 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>7548</v>
+      </c>
+      <c r="C2">
+        <v>53.169907016000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>6394</v>
+      </c>
+      <c r="C3">
+        <v>45.040856579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4.2265427000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4.9309665000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>241</v>
+      </c>
+      <c r="C6">
+        <v>1.697661313</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C6">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -650,21 +749,21 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -681,7 +780,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -698,7 +797,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -741,15 +840,15 @@
         <v>93</v>
       </c>
       <c r="D6">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>77</v>
@@ -758,15 +857,15 @@
         <v>107</v>
       </c>
       <c r="D7">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E7">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>64</v>
@@ -775,15 +874,15 @@
         <v>88</v>
       </c>
       <c r="D8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E8">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>26</v>
@@ -792,15 +891,15 @@
         <v>37</v>
       </c>
       <c r="D9">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E9">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -809,15 +908,15 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E10">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -840,116 +939,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>24.270990446999999</v>
+        <v>14196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>3.544494721</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>5.6309703369999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>56.209150327000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>10.344394167999999</v>
+        <v>12292</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>14134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>12215</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:B4">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -964,12 +1000,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -981,9 +1017,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -998,35 +1041,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>5.7167114760000004</v>
+        <v>5.7340095800000004</v>
       </c>
       <c r="C2">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>14.044148861</v>
+        <v>14.053254438</v>
       </c>
       <c r="C3">
-        <v>1985</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>14.029998585</v>
+        <v>14.060298676</v>
       </c>
       <c r="C4">
-        <v>1983</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1034,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>14.114900241000001</v>
+        <v>14.053254438</v>
       </c>
       <c r="C5">
         <v>1995</v>
@@ -1045,51 +1088,51 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>15.820008489999999</v>
+        <v>15.856579318</v>
       </c>
       <c r="C6">
-        <v>2236</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>10.902787604</v>
+        <v>10.897435896999999</v>
       </c>
       <c r="C7">
-        <v>1541</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>7.1529644829999999</v>
+        <v>7.1639898559999997</v>
       </c>
       <c r="C8">
-        <v>1011</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>10.478279325999999</v>
+        <v>10.481825865999999</v>
       </c>
       <c r="C9">
-        <v>1481</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>7.4925711049999997</v>
+        <v>7.4598478439999996</v>
       </c>
       <c r="C10">
         <v>1059</v>
@@ -1097,29 +1140,26 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>0.247629829</v>
+        <v>0.239504086</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C11">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1137,135 +1177,135 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B14">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B18">
         <v>73</v>
@@ -1273,471 +1313,471 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B26">
-        <v>194</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B31">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B32">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B33">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B34">
-        <v>143</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B35">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B36">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B37">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B38">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B39">
-        <v>206</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B40">
-        <v>160</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B41">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B42">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B43">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B44">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B45">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B46">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B47">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B48">
-        <v>114</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B49">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B50">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B51">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B52">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B53">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B54">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B55">
-        <v>111</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B56">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B57">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B58">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B59">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B60">
-        <v>218</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B61">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B62">
-        <v>133</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B63">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B64">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B65">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B66">
-        <v>221</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B67">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B68">
-        <v>222</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B69">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B70">
-        <v>245</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B71">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B72">
-        <v>204</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B73">
-        <v>299</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B74">
-        <v>276</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B75">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B76">
-        <v>186</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B77">
         <v>187</v>
@@ -1745,359 +1785,359 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B78">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B79">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B80">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B81">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B82">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B83">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B84">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B85">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B86">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B87">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B88">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B89">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B90">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B91">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B92">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B93">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B94">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B95">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B96">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B97">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B98">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B99">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B100">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B101">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B102">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B103">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B104">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B105">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B106">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B107">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B108">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B109">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B110">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B111">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B112">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B113">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B114">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B116">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2105,7 +2145,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -2113,23 +2153,23 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2137,23 +2177,23 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2161,7 +2201,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -2169,7 +2209,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2177,15 +2217,23 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
     </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B132">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState ref="A2:B133">
+    <sortCondition descending="1" ref="A2:A133"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2193,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2206,7 +2254,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -2214,31 +2262,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B3">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B5">
         <v>61</v>
@@ -2246,23 +2294,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -2270,311 +2318,311 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B17">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B21">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B22">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B23">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B24">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B25">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B26">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B28">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B29">
-        <v>443</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B30">
-        <v>177</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B31">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B32">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B33">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B34">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B35">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B36">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B37">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B38">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B39">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B40">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B41">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B42">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B43">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B44">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B45">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B46">
-        <v>102</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B47">
         <v>102</v>
@@ -2582,535 +2630,535 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B48">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B49">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B50">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B51">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B52">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B53">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B54">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B55">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B56">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B57">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B58">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B59">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B60">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B61">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B62">
-        <v>108</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B63">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B64">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B65">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B66">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B67">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B68">
-        <v>310</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B69">
-        <v>195</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B70">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B71">
-        <v>367</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B72">
-        <v>295</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B73">
-        <v>231</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B74">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B75">
-        <v>276</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B76">
-        <v>170</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B77">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B78">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B79">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B80">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B81">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B82">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B83">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B84">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B85">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B86">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B87">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B88">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B89">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B90">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B91">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B92">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B93">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B94">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B95">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B96">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B97">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B98">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B99">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B100">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B101">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B103">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B104">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B106">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B107">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3118,7 +3166,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -3126,15 +3174,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3142,23 +3190,23 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3166,7 +3214,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3174,7 +3222,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3182,7 +3230,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3190,7 +3238,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3198,15 +3246,23 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>43853</v>
       </c>
-      <c r="B125">
+      <c r="B126">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B125">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState ref="A2:B126">
+    <sortCondition descending="1" ref="A2:A126"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3214,91 +3270,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>53.169661808000001</v>
-      </c>
-      <c r="C2">
-        <v>7515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>4.2450828000000003E-2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>4.2450828000000003E-2</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>45.033253148</v>
-      </c>
-      <c r="C5">
-        <v>6365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1.7121833879999999</v>
-      </c>
-      <c r="C6">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D132"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3311,1533 +3286,1533 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2">
-        <v>12215</v>
+        <v>12292</v>
       </c>
       <c r="C2">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="D2">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B3">
-        <v>12215</v>
+        <v>12292</v>
       </c>
       <c r="C3">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="D3">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B4">
-        <v>12215</v>
+        <v>12292</v>
       </c>
       <c r="C4">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="D4">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B5">
-        <v>12214</v>
+        <v>12292</v>
       </c>
       <c r="C5">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="D5">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B6">
-        <v>12211</v>
+        <v>12290</v>
       </c>
       <c r="C6">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="D6">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B7">
-        <v>12211</v>
+        <v>12286</v>
       </c>
       <c r="C7">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="D7">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B8">
-        <v>12211</v>
+        <v>12286</v>
       </c>
       <c r="C8">
-        <v>690</v>
+        <v>652</v>
       </c>
       <c r="D8">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B9">
-        <v>12210</v>
+        <v>12285</v>
       </c>
       <c r="C9">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="D9">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B10">
-        <v>12210</v>
+        <v>12284</v>
       </c>
       <c r="C10">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="D10">
-        <v>1071</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B11">
-        <v>12208</v>
+        <v>12284</v>
       </c>
       <c r="C11">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="D11">
-        <v>1070</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B12">
-        <v>12207</v>
+        <v>12280</v>
       </c>
       <c r="C12">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="D12">
-        <v>1070</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B13">
-        <v>12205</v>
+        <v>12279</v>
       </c>
       <c r="C13">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D13">
-        <v>1070</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B14">
-        <v>12202</v>
+        <v>12276</v>
       </c>
       <c r="C14">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D14">
-        <v>1070</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B15">
-        <v>12199</v>
+        <v>12274</v>
       </c>
       <c r="C15">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="D15">
-        <v>1069</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B16">
-        <v>12193</v>
+        <v>12270</v>
       </c>
       <c r="C16">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D16">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B17">
-        <v>12168</v>
+        <v>12255</v>
       </c>
       <c r="C17">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D17">
-        <v>1068</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B18">
-        <v>12098</v>
+        <v>12167</v>
       </c>
       <c r="C18">
         <v>209</v>
       </c>
       <c r="D18">
-        <v>1066</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B19">
-        <v>12034</v>
+        <v>12098</v>
       </c>
       <c r="C19">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D19">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B20">
-        <v>11942</v>
+        <v>12034</v>
       </c>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
-        <v>1062</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B21">
-        <v>11854</v>
+        <v>11942</v>
       </c>
       <c r="C21">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D21">
-        <v>1059</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B22">
-        <v>11776</v>
+        <v>11854</v>
       </c>
       <c r="C22">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D22">
-        <v>1057</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B23">
-        <v>11686</v>
+        <v>11776</v>
       </c>
       <c r="C23">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D23">
-        <v>1054</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B24">
-        <v>11575</v>
+        <v>11686</v>
       </c>
       <c r="C24">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24">
-        <v>1050</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B25">
-        <v>11471</v>
+        <v>11574</v>
       </c>
       <c r="C25">
         <v>188</v>
       </c>
       <c r="D25">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B26">
-        <v>11360</v>
+        <v>11470</v>
       </c>
       <c r="C26">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B27">
-        <v>11175</v>
+        <v>11359</v>
       </c>
       <c r="C27">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D27">
-        <v>1043</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B28">
-        <v>11087</v>
+        <v>11176</v>
       </c>
       <c r="C28">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D28">
-        <v>1043</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B29">
-        <v>10985</v>
+        <v>11087</v>
       </c>
       <c r="C29">
         <v>173</v>
       </c>
       <c r="D29">
-        <v>1041</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B30">
-        <v>10862</v>
+        <v>10986</v>
       </c>
       <c r="C30">
         <v>171</v>
       </c>
       <c r="D30">
-        <v>1036</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B31">
-        <v>10746</v>
+        <v>10864</v>
       </c>
       <c r="C31">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31">
-        <v>1032</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B32">
-        <v>10593</v>
+        <v>10749</v>
       </c>
       <c r="C32">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D32">
-        <v>1024</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B33">
-        <v>10414</v>
+        <v>10595</v>
       </c>
       <c r="C33">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D33">
-        <v>1020</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B34">
-        <v>10241</v>
+        <v>10415</v>
       </c>
       <c r="C34">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D34">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B35">
-        <v>10102</v>
+        <v>10242</v>
       </c>
       <c r="C35">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D35">
-        <v>1013</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B36">
-        <v>9973</v>
+        <v>10103</v>
       </c>
       <c r="C36">
         <v>152</v>
       </c>
       <c r="D36">
-        <v>1011</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B37">
-        <v>9831</v>
+        <v>9974</v>
       </c>
       <c r="C37">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D37">
-        <v>1006</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B38">
-        <v>9644</v>
+        <v>9832</v>
       </c>
       <c r="C38">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D38">
-        <v>1002</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B39">
-        <v>9490</v>
+        <v>9645</v>
       </c>
       <c r="C39">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D39">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B40">
-        <v>9294</v>
+        <v>9491</v>
       </c>
       <c r="C40">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D40">
-        <v>992</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B41">
-        <v>9141</v>
+        <v>9295</v>
       </c>
       <c r="C41">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D41">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B42">
-        <v>8999</v>
+        <v>9141</v>
       </c>
       <c r="C42">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D42">
-        <v>975</v>
+        <v>991</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B43">
-        <v>8829</v>
+        <v>8999</v>
       </c>
       <c r="C43">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43">
-        <v>966</v>
+        <v>977</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B44">
-        <v>8625</v>
+        <v>8829</v>
       </c>
       <c r="C44">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44">
-        <v>961</v>
+        <v>968</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B45">
-        <v>8465</v>
+        <v>8625</v>
       </c>
       <c r="C45">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D45">
-        <v>954</v>
+        <v>963</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B46">
-        <v>8324</v>
+        <v>8463</v>
       </c>
       <c r="C46">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D46">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B47">
-        <v>8189</v>
+        <v>8323</v>
       </c>
       <c r="C47">
         <v>121</v>
       </c>
       <c r="D47">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B48">
-        <v>8016</v>
+        <v>8188</v>
       </c>
       <c r="C48">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D48">
-        <v>918</v>
+        <v>932</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B49">
-        <v>7907</v>
+        <v>8015</v>
       </c>
       <c r="C49">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49">
-        <v>913</v>
+        <v>920</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B50">
-        <v>7786</v>
+        <v>7906</v>
       </c>
       <c r="C50">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D50">
-        <v>899</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B51">
-        <v>7619</v>
+        <v>7785</v>
       </c>
       <c r="C51">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B52">
-        <v>7452</v>
+        <v>7619</v>
       </c>
       <c r="C52">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D52">
-        <v>877</v>
+        <v>891</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B53">
-        <v>7342</v>
+        <v>7451</v>
       </c>
       <c r="C53">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D53">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B54">
-        <v>7196</v>
+        <v>7341</v>
       </c>
       <c r="C54">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D54">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B55">
-        <v>7050</v>
+        <v>7194</v>
       </c>
       <c r="C55">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>847</v>
+        <v>863</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B56">
-        <v>6946</v>
+        <v>7048</v>
       </c>
       <c r="C56">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D56">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B57">
-        <v>6803</v>
+        <v>6944</v>
       </c>
       <c r="C57">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D57">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B58">
-        <v>6619</v>
+        <v>6801</v>
       </c>
       <c r="C58">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D58">
-        <v>822</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B59">
-        <v>6446</v>
+        <v>6617</v>
       </c>
       <c r="C59">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59">
-        <v>809</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B60">
-        <v>6285</v>
+        <v>6444</v>
       </c>
       <c r="C60">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D60">
-        <v>788</v>
+        <v>812</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B61">
-        <v>6093</v>
+        <v>6284</v>
       </c>
       <c r="C61">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D61">
-        <v>767</v>
+        <v>791</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B62">
-        <v>5904</v>
+        <v>6092</v>
       </c>
       <c r="C62">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D62">
-        <v>755</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B63">
-        <v>5783</v>
+        <v>5903</v>
       </c>
       <c r="C63">
         <v>72</v>
       </c>
       <c r="D63">
-        <v>744</v>
+        <v>758</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B64">
-        <v>5644</v>
+        <v>5782</v>
       </c>
       <c r="C64">
         <v>71</v>
       </c>
       <c r="D64">
-        <v>729</v>
+        <v>747</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B65">
-        <v>5463</v>
+        <v>5643</v>
       </c>
       <c r="C65">
         <v>70</v>
       </c>
       <c r="D65">
-        <v>717</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B66">
-        <v>5307</v>
+        <v>5463</v>
       </c>
       <c r="C66">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66">
-        <v>698</v>
+        <v>720</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B67">
-        <v>5119</v>
+        <v>5305</v>
       </c>
       <c r="C67">
         <v>67</v>
       </c>
       <c r="D67">
-        <v>667</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B68">
-        <v>4964</v>
+        <v>5117</v>
       </c>
       <c r="C68">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D68">
-        <v>649</v>
+        <v>670</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B69">
-        <v>4763</v>
+        <v>4962</v>
       </c>
       <c r="C69">
         <v>61</v>
       </c>
       <c r="D69">
-        <v>630</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B70">
-        <v>4644</v>
+        <v>4760</v>
       </c>
       <c r="C70">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D70">
-        <v>607</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B71">
-        <v>4427</v>
+        <v>4642</v>
       </c>
       <c r="C71">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D71">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B72">
-        <v>4176</v>
+        <v>4427</v>
       </c>
       <c r="C72">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D72">
-        <v>557</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B73">
-        <v>3995</v>
+        <v>4176</v>
       </c>
       <c r="C73">
         <v>47</v>
       </c>
       <c r="D73">
-        <v>536</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B74">
-        <v>3735</v>
+        <v>3996</v>
       </c>
       <c r="C74">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D74">
-        <v>501</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B75">
-        <v>3487</v>
+        <v>3737</v>
       </c>
       <c r="C75">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D75">
-        <v>477</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B76">
-        <v>3225</v>
+        <v>3490</v>
       </c>
       <c r="C76">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D76">
-        <v>448</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B77">
-        <v>3064</v>
+        <v>3229</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B78">
-        <v>2906</v>
+        <v>3067</v>
       </c>
       <c r="C78">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78">
-        <v>398</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B79">
-        <v>2730</v>
+        <v>2909</v>
       </c>
       <c r="C79">
         <v>30</v>
       </c>
       <c r="D79">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B80">
-        <v>2581</v>
+        <v>2733</v>
       </c>
       <c r="C80">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B81">
-        <v>2442</v>
+        <v>2584</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D81">
-        <v>311</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B82">
-        <v>2295</v>
+        <v>2446</v>
       </c>
       <c r="C82">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B83">
-        <v>2166</v>
+        <v>2298</v>
       </c>
       <c r="C83">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B84">
-        <v>2071</v>
+        <v>2169</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B85">
-        <v>1962</v>
+        <v>2075</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B86">
-        <v>1854</v>
+        <v>1966</v>
       </c>
       <c r="C86">
         <v>16</v>
       </c>
       <c r="D86">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B87">
-        <v>1731</v>
+        <v>1858</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D87">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B88">
-        <v>1606</v>
+        <v>1734</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B89">
-        <v>1513</v>
+        <v>1611</v>
       </c>
       <c r="C89">
         <v>13</v>
       </c>
       <c r="D89">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B90">
-        <v>1436</v>
+        <v>1516</v>
       </c>
       <c r="C90">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B91">
-        <v>1364</v>
+        <v>1440</v>
       </c>
       <c r="C91">
         <v>12</v>
       </c>
       <c r="D91">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B92">
-        <v>1276</v>
+        <v>1366</v>
       </c>
       <c r="C92">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B93">
-        <v>1199</v>
+        <v>1278</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B94">
-        <v>1122</v>
+        <v>1202</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D94">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B95">
-        <v>1052</v>
+        <v>1125</v>
       </c>
       <c r="C95">
         <v>6</v>
       </c>
       <c r="D95">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B96">
-        <v>981</v>
+        <v>1054</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B97">
-        <v>894</v>
+        <v>982</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B98">
-        <v>843</v>
+        <v>895</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B99">
-        <v>777</v>
+        <v>845</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B100">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B101">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B102">
-        <v>543</v>
+        <v>631</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B103">
-        <v>446</v>
+        <v>544</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B104">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B105">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B106">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B107">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B108">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B109">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B110">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4848,10 +4823,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B111">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4862,10 +4837,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B112">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4876,10 +4851,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B113">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -4890,10 +4865,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B114">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4904,10 +4879,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B115">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4918,10 +4893,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B116">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4932,10 +4907,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B117">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4946,10 +4921,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B118">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4960,10 +4935,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B119">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4974,10 +4949,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B120">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4988,10 +4963,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5002,10 +4977,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B122">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5016,10 +4991,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B123">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5030,10 +5005,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5044,10 +5019,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5058,10 +5033,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5072,10 +5047,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5086,10 +5061,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5100,10 +5075,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5114,10 +5089,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5128,10 +5103,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5142,32 +5117,43 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
         <v>43851</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>1</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D132">
-    <sortCondition descending="1" ref="A1"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5177,1354 +5163,1354 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2">
-        <v>12215</v>
+        <v>12292</v>
       </c>
       <c r="C2">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="D2">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B3">
-        <v>12215</v>
+        <v>12290</v>
       </c>
       <c r="C3">
-        <v>819</v>
+        <v>778</v>
       </c>
       <c r="D3">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B4">
-        <v>12212</v>
+        <v>12288</v>
       </c>
       <c r="C4">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="D4">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B5">
-        <v>12205</v>
+        <v>12282</v>
       </c>
       <c r="C5">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="D5">
-        <v>1071</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B6">
-        <v>12202</v>
+        <v>12273</v>
       </c>
       <c r="C6">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="D6">
-        <v>1071</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B7">
-        <v>12200</v>
+        <v>12270</v>
       </c>
       <c r="C7">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="D7">
-        <v>1071</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B8">
-        <v>12189</v>
+        <v>12267</v>
       </c>
       <c r="C8">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="D8">
-        <v>1067</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B9">
-        <v>12177</v>
+        <v>12254</v>
       </c>
       <c r="C9">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="D9">
-        <v>1067</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B10">
-        <v>12167</v>
+        <v>12243</v>
       </c>
       <c r="C10">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="D10">
-        <v>1067</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B11">
-        <v>12148</v>
+        <v>12227</v>
       </c>
       <c r="C11">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D11">
-        <v>1065</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B12">
-        <v>12119</v>
+        <v>12207</v>
       </c>
       <c r="C12">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D12">
-        <v>1062</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B13">
-        <v>12089</v>
+        <v>12165</v>
       </c>
       <c r="C13">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D13">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B14">
-        <v>12049</v>
+        <v>12127</v>
       </c>
       <c r="C14">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D14">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B15">
-        <v>11986</v>
+        <v>12079</v>
       </c>
       <c r="C15">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D15">
-        <v>1060</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B16">
-        <v>11914</v>
+        <v>11996</v>
       </c>
       <c r="C16">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D16">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B17">
-        <v>11835</v>
+        <v>11919</v>
       </c>
       <c r="C17">
         <v>194</v>
       </c>
       <c r="D17">
-        <v>1057</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B18">
-        <v>11697</v>
+        <v>11833</v>
       </c>
       <c r="C18">
         <v>192</v>
       </c>
       <c r="D18">
-        <v>1056</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B19">
-        <v>11616</v>
+        <v>11695</v>
       </c>
       <c r="C19">
         <v>190</v>
       </c>
       <c r="D19">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B20">
-        <v>11518</v>
+        <v>11614</v>
       </c>
       <c r="C20">
         <v>188</v>
       </c>
       <c r="D20">
-        <v>1049</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B21">
-        <v>11417</v>
+        <v>11516</v>
       </c>
       <c r="C21">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B22">
-        <v>11285</v>
+        <v>11416</v>
       </c>
       <c r="C22">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D22">
-        <v>1045</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B23">
-        <v>11162</v>
+        <v>11283</v>
       </c>
       <c r="C23">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23">
-        <v>1042</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B24">
-        <v>11022</v>
+        <v>11160</v>
       </c>
       <c r="C24">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D24">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B25">
-        <v>10845</v>
+        <v>11020</v>
       </c>
       <c r="C25">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D25">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B26">
-        <v>10671</v>
+        <v>10844</v>
       </c>
       <c r="C26">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D26">
-        <v>1038</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B27">
-        <v>10503</v>
+        <v>10670</v>
       </c>
       <c r="C27">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D27">
-        <v>1034</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B28">
-        <v>10379</v>
+        <v>10505</v>
       </c>
       <c r="C28">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28">
-        <v>1032</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B29">
-        <v>10203</v>
+        <v>10381</v>
       </c>
       <c r="C29">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D29">
-        <v>1026</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B30">
-        <v>9773</v>
+        <v>10205</v>
       </c>
       <c r="C30">
         <v>160</v>
       </c>
       <c r="D30">
-        <v>1015</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B31">
-        <v>9607</v>
+        <v>9775</v>
       </c>
       <c r="C31">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D31">
-        <v>1008</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B32">
-        <v>9457</v>
+        <v>9610</v>
       </c>
       <c r="C32">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D32">
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B33">
-        <v>9325</v>
+        <v>9458</v>
       </c>
       <c r="C33">
         <v>147</v>
       </c>
       <c r="D33">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B34">
-        <v>9157</v>
+        <v>9326</v>
       </c>
       <c r="C34">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34">
-        <v>996</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B35">
-        <v>9011</v>
+        <v>9158</v>
       </c>
       <c r="C35">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D35">
-        <v>992</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B36">
-        <v>8844</v>
+        <v>9012</v>
       </c>
       <c r="C36">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D36">
-        <v>986</v>
+        <v>995</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B37">
-        <v>8703</v>
+        <v>8847</v>
       </c>
       <c r="C37">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D37">
-        <v>981</v>
+        <v>989</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B38">
-        <v>8543</v>
+        <v>8706</v>
       </c>
       <c r="C38">
         <v>135</v>
       </c>
       <c r="D38">
-        <v>975</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B39">
-        <v>8349</v>
+        <v>8546</v>
       </c>
       <c r="C39">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39">
-        <v>962</v>
+        <v>978</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B40">
-        <v>8175</v>
+        <v>8351</v>
       </c>
       <c r="C40">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D40">
-        <v>955</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B41">
-        <v>8013</v>
+        <v>8177</v>
       </c>
       <c r="C41">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41">
-        <v>942</v>
+        <v>958</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B42">
-        <v>7841</v>
+        <v>8015</v>
       </c>
       <c r="C42">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D42">
-        <v>929</v>
+        <v>945</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B43">
-        <v>7665</v>
+        <v>7843</v>
       </c>
       <c r="C43">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D43">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B44">
-        <v>7529</v>
+        <v>7667</v>
       </c>
       <c r="C44">
         <v>117</v>
       </c>
       <c r="D44">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B45">
-        <v>7407</v>
+        <v>7530</v>
       </c>
       <c r="C45">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D45">
-        <v>909</v>
+        <v>918</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B46">
-        <v>7248</v>
+        <v>7408</v>
       </c>
       <c r="C46">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D46">
-        <v>901</v>
+        <v>912</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B47">
-        <v>7160</v>
+        <v>7249</v>
       </c>
       <c r="C47">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47">
-        <v>887</v>
+        <v>904</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B48">
-        <v>7066</v>
+        <v>7161</v>
       </c>
       <c r="C48">
         <v>110</v>
       </c>
       <c r="D48">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B49">
-        <v>6923</v>
+        <v>7067</v>
       </c>
       <c r="C49">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D49">
-        <v>869</v>
+        <v>883</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B50">
-        <v>6808</v>
+        <v>6924</v>
       </c>
       <c r="C50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D50">
-        <v>857</v>
+        <v>872</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B51">
-        <v>6672</v>
+        <v>6809</v>
       </c>
       <c r="C51">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D51">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B52">
-        <v>6557</v>
+        <v>6674</v>
       </c>
       <c r="C52">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D52">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B53">
-        <v>6396</v>
+        <v>6558</v>
       </c>
       <c r="C53">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D53">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B54">
-        <v>6244</v>
+        <v>6396</v>
       </c>
       <c r="C54">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D54">
-        <v>821</v>
+        <v>836</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B55">
-        <v>6102</v>
+        <v>6244</v>
       </c>
       <c r="C55">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D55">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B56">
-        <v>5962</v>
+        <v>6102</v>
       </c>
       <c r="C56">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D56">
-        <v>799</v>
+        <v>815</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B57">
-        <v>5824</v>
+        <v>5962</v>
       </c>
       <c r="C57">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D57">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B58">
-        <v>5649</v>
+        <v>5824</v>
       </c>
       <c r="C58">
         <v>77</v>
       </c>
       <c r="D58">
-        <v>774</v>
+        <v>792</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B59">
-        <v>5464</v>
+        <v>5649</v>
       </c>
       <c r="C59">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D59">
-        <v>749</v>
+        <v>777</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B60">
-        <v>5312</v>
+        <v>5463</v>
       </c>
       <c r="C60">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D60">
-        <v>736</v>
+        <v>752</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B61">
-        <v>5146</v>
+        <v>5310</v>
       </c>
       <c r="C61">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D61">
-        <v>720</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B62">
-        <v>5004</v>
+        <v>5144</v>
       </c>
       <c r="C62">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D62">
-        <v>702</v>
+        <v>723</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B63">
-        <v>4907</v>
+        <v>5002</v>
       </c>
       <c r="C63">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D63">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B64">
-        <v>4784</v>
+        <v>4905</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64">
-        <v>674</v>
+        <v>697</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B65">
-        <v>4621</v>
+        <v>4782</v>
       </c>
       <c r="C65">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65">
-        <v>658</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B66">
-        <v>4447</v>
+        <v>4618</v>
       </c>
       <c r="C66">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D66">
-        <v>632</v>
+        <v>661</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B67">
-        <v>4251</v>
+        <v>4445</v>
       </c>
       <c r="C67">
         <v>54</v>
       </c>
       <c r="D67">
-        <v>605</v>
+        <v>635</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B68">
-        <v>4060</v>
+        <v>4249</v>
       </c>
       <c r="C68">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D68">
-        <v>585</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B69">
-        <v>3778</v>
+        <v>4059</v>
       </c>
       <c r="C69">
         <v>49</v>
       </c>
       <c r="D69">
-        <v>559</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B70">
-        <v>3603</v>
+        <v>3777</v>
       </c>
       <c r="C70">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D70">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B71">
-        <v>3447</v>
+        <v>3601</v>
       </c>
       <c r="C71">
         <v>44</v>
       </c>
       <c r="D71">
-        <v>531</v>
+        <v>545</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B72">
-        <v>3136</v>
+        <v>3446</v>
       </c>
       <c r="C72">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D72">
-        <v>481</v>
+        <v>533</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B73">
-        <v>2888</v>
+        <v>3136</v>
       </c>
       <c r="C73">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D73">
-        <v>441</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B74">
-        <v>2687</v>
+        <v>2888</v>
       </c>
       <c r="C74">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>412</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B75">
-        <v>2501</v>
+        <v>2687</v>
       </c>
       <c r="C75">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D75">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B76">
-        <v>2269</v>
+        <v>2501</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D76">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B77">
-        <v>2131</v>
+        <v>2269</v>
       </c>
       <c r="C77">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D77">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B78">
-        <v>2024</v>
+        <v>2131</v>
       </c>
       <c r="C78">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B79">
-        <v>1919</v>
+        <v>2024</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D79">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B80">
-        <v>1774</v>
+        <v>1919</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B81">
-        <v>1642</v>
+        <v>1774</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81">
-        <v>201</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B82">
-        <v>1489</v>
+        <v>1643</v>
       </c>
       <c r="C82">
         <v>14</v>
       </c>
       <c r="D82">
-        <v>158</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B83">
-        <v>1388</v>
+        <v>1490</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D83">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B84">
-        <v>1333</v>
+        <v>1389</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
       <c r="D84">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B85">
-        <v>1228</v>
+        <v>1334</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B86">
-        <v>1121</v>
+        <v>1229</v>
       </c>
       <c r="C86">
         <v>9</v>
       </c>
       <c r="D86">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B87">
-        <v>1027</v>
+        <v>1122</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D87">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B88">
-        <v>935</v>
+        <v>1028</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B89">
-        <v>858</v>
+        <v>936</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B90">
-        <v>782</v>
+        <v>858</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B91">
-        <v>753</v>
+        <v>782</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B92">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B93">
-        <v>604</v>
+        <v>710</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B94">
-        <v>489</v>
+        <v>604</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B95">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B96">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B97">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -6535,38 +6521,38 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B98">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B99">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B100">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -6577,10 +6563,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B101">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -6591,10 +6577,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B102">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -6605,10 +6591,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B103">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -6619,10 +6605,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B104">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -6633,10 +6619,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B105">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -6647,10 +6633,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B106">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6661,24 +6647,24 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B107">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B108">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -6689,10 +6675,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B109">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -6703,10 +6689,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B110">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -6717,10 +6703,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B111">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -6731,24 +6717,24 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B112">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B113">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -6759,10 +6745,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -6773,10 +6759,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B115">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -6787,10 +6773,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B116">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -6801,10 +6787,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -6815,10 +6801,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -6829,10 +6815,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -6843,10 +6829,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -6857,10 +6843,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -6871,10 +6857,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -6885,10 +6871,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -6899,10 +6885,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -6913,22 +6899,96 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>43853</v>
       </c>
-      <c r="B125">
+      <c r="B126">
         <v>2</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D125">
-    <sortCondition descending="1" ref="A1"/>
-  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>237</v>
+      </c>
+      <c r="C2">
+        <v>1.6694843619999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>0.39447731800000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0.32403493900000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="74580" yWindow="5655" windowWidth="19995" windowHeight="19500" tabRatio="827" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="74580" yWindow="5655" windowWidth="19995" windowHeight="19500" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
-    <sheet name="Cases by Outcome" sheetId="15" r:id="rId2"/>
-    <sheet name="Outbreaks" sheetId="21" r:id="rId3"/>
+    <sheet name="Cases by Outcome" sheetId="16" r:id="rId2"/>
+    <sheet name="Outbreaks" sheetId="22" r:id="rId3"/>
     <sheet name="Cases by Age" sheetId="13" r:id="rId4"/>
-    <sheet name="Cases by Episode Date" sheetId="14" r:id="rId5"/>
-    <sheet name="Cases by Reported Date" sheetId="16" r:id="rId6"/>
-    <sheet name="Cumulative Cases by Episode Dat" sheetId="17" r:id="rId7"/>
-    <sheet name="Cumulative Cases by Reported Da" sheetId="18" r:id="rId8"/>
-    <sheet name="Currently Hospitalized" sheetId="19" r:id="rId9"/>
-    <sheet name="Ever Hospitalized" sheetId="20" r:id="rId10"/>
-    <sheet name="Source of Infection" sheetId="22" r:id="rId11"/>
-    <sheet name="Cases by Gender" sheetId="23" r:id="rId12"/>
-    <sheet name="Severity Indicators by Age Grou" sheetId="24" r:id="rId13"/>
+    <sheet name="Cases by Gender" sheetId="15" r:id="rId5"/>
+    <sheet name="Cases by Episode Date" sheetId="14" r:id="rId6"/>
+    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId7"/>
+    <sheet name="Cumulative Cases by Episode Dat" sheetId="18" r:id="rId8"/>
+    <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
+    <sheet name="Currently Hospitalized" sheetId="20" r:id="rId10"/>
+    <sheet name="Ever Hospitalized" sheetId="21" r:id="rId11"/>
+    <sheet name="Severity Indicators by Age Grou" sheetId="23" r:id="rId12"/>
+    <sheet name="Source of Infection" sheetId="24" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of June 26, 2020</t>
+    <t>Data as of June 27, 2020</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
@@ -53,37 +53,52 @@
     <t>Case Count</t>
   </si>
   <si>
+    <t>≤19</t>
+  </si>
+  <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>50-59</t>
+  </si>
+  <si>
+    <t>70-79</t>
+  </si>
+  <si>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>40-49</t>
+  </si>
+  <si>
+    <t>90+</t>
+  </si>
+  <si>
+    <t>80-89</t>
   </si>
   <si>
     <t>60-69</t>
   </si>
   <si>
-    <t>50-59</t>
+    <t>Episode Date</t>
   </si>
   <si>
-    <t>80-89</t>
+    <t>Client Gender</t>
   </si>
   <si>
-    <t>40-49</t>
+    <t>Female</t>
   </si>
   <si>
-    <t>30-39</t>
+    <t>Male</t>
   </si>
   <si>
-    <t>90+</t>
+    <t>Other</t>
   </si>
   <si>
-    <t>20-29</t>
-  </si>
-  <si>
-    <t>≤19</t>
-  </si>
-  <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t>Episode Date</t>
+    <t>Transgender</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -110,10 +125,10 @@
     <t>% of Total Cases</t>
   </si>
   <si>
-    <t>Currently Hospitalized</t>
+    <t>Currently in ICU</t>
   </si>
   <si>
-    <t>Currently in ICU</t>
+    <t>Currently Hospitalized</t>
   </si>
   <si>
     <t>Currently Intubated</t>
@@ -122,46 +137,13 @@
     <t>Ever Intubated</t>
   </si>
   <si>
+    <t>Ever Hospitalized</t>
+  </si>
+  <si>
     <t>Ever in ICU</t>
   </si>
   <si>
-    <t>Ever Hospitalized</t>
-  </si>
-  <si>
     <t>Outbreak Count</t>
-  </si>
-  <si>
-    <t>Most Likely Source</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Close contact with a case</t>
-  </si>
-  <si>
-    <t>Institutional</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Client Gender</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Transgender</t>
-  </si>
-  <si>
-    <t>Male</t>
   </si>
   <si>
     <t>ICU Cases</t>
@@ -171,6 +153,24 @@
   </si>
   <si>
     <t>Intubated Cases</t>
+  </si>
+  <si>
+    <t>Most Likely Source</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>Close contact with a case</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,8 +518,70 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>0.38515406200000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>230</v>
+      </c>
+      <c r="C3">
+        <v>1.610644258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>0.30812324899999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -530,62 +592,267 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>1806</v>
+        <v>285</v>
       </c>
       <c r="C2">
-        <v>12.721893490999999</v>
+        <v>1.9957983189999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>393</v>
+        <v>1813</v>
       </c>
       <c r="C3">
-        <v>2.7683854609999998</v>
+        <v>12.696078431</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="C4">
-        <v>2.0005635389999998</v>
+        <v>2.766106443</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C4">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>84</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>144</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>295</v>
+      </c>
+      <c r="E6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>107</v>
+      </c>
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>332</v>
+      </c>
+      <c r="E7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>202</v>
+      </c>
+      <c r="D8">
+        <v>354</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>391</v>
+      </c>
+      <c r="D9">
+        <v>373</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>353</v>
+      </c>
+      <c r="D10">
+        <v>168</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -596,7 +863,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -604,55 +871,273 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>24.205256571</v>
+        <v>24.293011088</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>56.195244055000003</v>
+        <v>5.6309953909999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>3.604505632</v>
+        <v>10.315186246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>5.6445556950000002</v>
+        <v>3.6128067769999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>10.350438047999999</v>
+        <v>56.148000498000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>14280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>12391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>820</v>
+      </c>
+      <c r="C2">
+        <v>5.7422969190000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3">
+        <v>14.145658263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2015</v>
+      </c>
+      <c r="C4">
+        <v>14.110644258000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2003</v>
+      </c>
+      <c r="C5">
+        <v>14.026610644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2258</v>
+      </c>
+      <c r="C6">
+        <v>15.812324930000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1552</v>
+      </c>
+      <c r="C7">
+        <v>10.868347339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1022</v>
+      </c>
+      <c r="C8">
+        <v>7.1568627449999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1491</v>
+      </c>
+      <c r="C9">
+        <v>10.441176471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1065</v>
+      </c>
+      <c r="C10">
+        <v>7.4579831929999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>0.23809523799999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,7 +1149,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -675,1576 +1160,1164 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>7548</v>
+        <v>7597</v>
       </c>
       <c r="C2">
-        <v>53.169907016000003</v>
+        <v>53.200280112000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>6394</v>
+        <v>6431</v>
       </c>
       <c r="C3">
-        <v>45.040856579</v>
+        <v>45.035014005999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4.2265427000000001E-2</v>
+        <v>4.2016807000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>4.9309665000000003E-2</v>
+        <v>4.9019607999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6">
-        <v>1.697661313</v>
+        <v>1.6736694679999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C6">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>49</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>84</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>143</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>93</v>
-      </c>
-      <c r="D6">
-        <v>292</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>77</v>
-      </c>
-      <c r="C7">
-        <v>107</v>
-      </c>
-      <c r="D7">
-        <v>333</v>
-      </c>
-      <c r="E7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>88</v>
-      </c>
-      <c r="D8">
-        <v>353</v>
-      </c>
-      <c r="E8">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>37</v>
-      </c>
-      <c r="D9">
-        <v>373</v>
-      </c>
-      <c r="E9">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>167</v>
-      </c>
-      <c r="E10">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E11">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
+      <c r="A2" s="1">
+        <v>44009</v>
       </c>
       <c r="B2">
-        <v>14196</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="A3" s="1">
+        <v>44008</v>
       </c>
       <c r="B3">
-        <v>1081</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B4">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>12292</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B26">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B27">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B29">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B30">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B31">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B32">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B33">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B34">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B36">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B37">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B38">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B39">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B40">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B41">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B42">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B43">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B44">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B46">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B47">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B48">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B49">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B50">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B51">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B52">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B53">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B54">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B55">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B56">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B57">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B58">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B59">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B60">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B61">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B62">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B63">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B64">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B65">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B66">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B67">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B68">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B69">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B70">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B71">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B72">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B73">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B74">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B75">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B76">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B77">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B78">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B79">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B80">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B81">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B82">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B83">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B84">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B85">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B86">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B87">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B88">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B89">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B90">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B91">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B92">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B93">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B94">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B95">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B96">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B97">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B98">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B99">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B100">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B101">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B102">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B103">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B105">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B106">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B107">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B108">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B109">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B110">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B112">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sortState ref="A2:B134">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>5.7340095800000004</v>
-      </c>
-      <c r="C2">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>14.053254438</v>
-      </c>
-      <c r="C3">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>14.060298676</v>
-      </c>
-      <c r="C4">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>14.053254438</v>
-      </c>
-      <c r="C5">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>15.856579318</v>
-      </c>
-      <c r="C6">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10.897435896999999</v>
-      </c>
-      <c r="C7">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>7.1639898559999997</v>
-      </c>
-      <c r="C8">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>10.481825865999999</v>
-      </c>
-      <c r="C9">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>7.4598478439999996</v>
-      </c>
-      <c r="C10">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>0.239504086</v>
-      </c>
-      <c r="C11">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B133"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44008</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44007</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44006</v>
-      </c>
-      <c r="B4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44005</v>
-      </c>
-      <c r="B5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>44004</v>
-      </c>
-      <c r="B6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>44003</v>
-      </c>
-      <c r="B7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44002</v>
-      </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44001</v>
-      </c>
-      <c r="B9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44000</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43999</v>
-      </c>
-      <c r="B11">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43998</v>
-      </c>
-      <c r="B12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43997</v>
-      </c>
-      <c r="B13">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43996</v>
-      </c>
-      <c r="B14">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43995</v>
-      </c>
-      <c r="B15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43994</v>
-      </c>
-      <c r="B16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43993</v>
-      </c>
-      <c r="B17">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43992</v>
-      </c>
-      <c r="B18">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43991</v>
-      </c>
-      <c r="B19">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43990</v>
-      </c>
-      <c r="B20">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43989</v>
-      </c>
-      <c r="B21">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43988</v>
-      </c>
-      <c r="B22">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43987</v>
-      </c>
-      <c r="B23">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43986</v>
-      </c>
-      <c r="B24">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43985</v>
-      </c>
-      <c r="B25">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43984</v>
-      </c>
-      <c r="B26">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B27">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43982</v>
-      </c>
-      <c r="B28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43981</v>
-      </c>
-      <c r="B29">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43980</v>
-      </c>
-      <c r="B30">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43979</v>
-      </c>
-      <c r="B31">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B32">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43977</v>
-      </c>
-      <c r="B33">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43976</v>
-      </c>
-      <c r="B34">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43975</v>
-      </c>
-      <c r="B35">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43974</v>
-      </c>
-      <c r="B36">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43973</v>
-      </c>
-      <c r="B37">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43972</v>
-      </c>
-      <c r="B38">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43971</v>
-      </c>
-      <c r="B39">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43970</v>
-      </c>
-      <c r="B40">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43969</v>
-      </c>
-      <c r="B41">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>43968</v>
-      </c>
-      <c r="B42">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43967</v>
-      </c>
-      <c r="B43">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B44">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43965</v>
-      </c>
-      <c r="B45">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>43964</v>
-      </c>
-      <c r="B46">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>43963</v>
-      </c>
-      <c r="B47">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>43962</v>
-      </c>
-      <c r="B48">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>43961</v>
-      </c>
-      <c r="B49">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>43960</v>
-      </c>
-      <c r="B50">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>43959</v>
-      </c>
-      <c r="B51">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B52">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>43957</v>
-      </c>
-      <c r="B53">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B54">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>43955</v>
-      </c>
-      <c r="B55">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>43954</v>
-      </c>
-      <c r="B56">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43953</v>
-      </c>
-      <c r="B57">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B58">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>43951</v>
-      </c>
-      <c r="B59">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>43950</v>
-      </c>
-      <c r="B60">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>43949</v>
-      </c>
-      <c r="B61">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>43948</v>
-      </c>
-      <c r="B62">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>43947</v>
-      </c>
-      <c r="B63">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B64">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>43945</v>
-      </c>
-      <c r="B65">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>43944</v>
-      </c>
-      <c r="B66">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>43943</v>
-      </c>
-      <c r="B67">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>43942</v>
-      </c>
-      <c r="B68">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>43941</v>
-      </c>
-      <c r="B69">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>43940</v>
-      </c>
-      <c r="B70">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B71">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B72">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B73">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B74">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B75">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>43934</v>
-      </c>
-      <c r="B76">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>43933</v>
-      </c>
-      <c r="B77">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>43932</v>
-      </c>
-      <c r="B78">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B79">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B80">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B81">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B82">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B83">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B84">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>43925</v>
-      </c>
-      <c r="B85">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B86">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B87">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B88">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B89">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>43920</v>
-      </c>
-      <c r="B90">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B91">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B92">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B93">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B95">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B96">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B97">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B98">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B99">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B100">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B101">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>43908</v>
-      </c>
-      <c r="B102">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B104">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B105">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B106">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B107">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B108">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B109">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B110">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B111">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B113">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B114">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B115">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B116">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B117">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B118">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B119">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>43881</v>
-      </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>43876</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>43875</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>43868</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>43862</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>43852</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>43851</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:B133">
-    <sortCondition descending="1" ref="A2:A133"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B126"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2254,7 +2327,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -2262,63 +2335,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B9">
         <v>67</v>
@@ -2326,311 +2399,311 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B18">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B22">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B24">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B25">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B26">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B27">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B28">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B29">
-        <v>186</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B30">
-        <v>443</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B31">
-        <v>176</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B32">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B33">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B34">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B35">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B36">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B37">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B38">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B39">
-        <v>210</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B40">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B41">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B42">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B43">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B44">
-        <v>143</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B45">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B46">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B47">
-        <v>102</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B48">
         <v>102</v>
@@ -2638,543 +2711,543 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B49">
-        <v>157</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B50">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B51">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B52">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B53">
-        <v>173</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B54">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B55">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B56">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B57">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B58">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B59">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B60">
-        <v>169</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B61">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B62">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B63">
-        <v>108</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B64">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B65">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B66">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B67">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B68">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B69">
-        <v>310</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B70">
-        <v>195</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B71">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B72">
-        <v>366</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B73">
-        <v>295</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B74">
-        <v>231</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B75">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B76">
-        <v>276</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B77">
-        <v>170</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B78">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B79">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B80">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B81">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B82">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B83">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B84">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B85">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B86">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B87">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B88">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B89">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B90">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B91">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B92">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B93">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B94">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B95">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B96">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B97">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B98">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B99">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B100">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B101">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B102">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B103">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B106">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B107">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B108">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -3182,15 +3255,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -3198,23 +3271,23 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3222,7 +3295,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3230,7 +3303,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3238,7 +3311,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3246,7 +3319,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3254,31 +3327,42 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>43853</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B126">
-    <sortCondition descending="1" ref="A2:A126"/>
+  <sortState ref="A2:B127">
+    <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3286,1547 +3370,1547 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B2">
-        <v>12292</v>
+        <v>12391</v>
       </c>
       <c r="C2">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="D2">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B3">
-        <v>12292</v>
+        <v>12391</v>
       </c>
       <c r="C3">
-        <v>815</v>
+        <v>778</v>
       </c>
       <c r="D3">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B4">
-        <v>12292</v>
+        <v>12391</v>
       </c>
       <c r="C4">
-        <v>799</v>
+        <v>769</v>
       </c>
       <c r="D4">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B5">
-        <v>12292</v>
+        <v>12391</v>
       </c>
       <c r="C5">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="D5">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B6">
-        <v>12290</v>
+        <v>12390</v>
       </c>
       <c r="C6">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="D6">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B7">
-        <v>12286</v>
+        <v>12387</v>
       </c>
       <c r="C7">
-        <v>688</v>
+        <v>651</v>
       </c>
       <c r="D7">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B8">
-        <v>12286</v>
+        <v>12382</v>
       </c>
       <c r="C8">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="D8">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B9">
-        <v>12285</v>
+        <v>12381</v>
       </c>
       <c r="C9">
-        <v>619</v>
+        <v>564</v>
       </c>
       <c r="D9">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B10">
-        <v>12284</v>
+        <v>12380</v>
       </c>
       <c r="C10">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="D10">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B11">
-        <v>12284</v>
+        <v>12380</v>
       </c>
       <c r="C11">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="D11">
-        <v>1077</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B12">
-        <v>12280</v>
+        <v>12380</v>
       </c>
       <c r="C12">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="D12">
-        <v>1076</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B13">
-        <v>12279</v>
+        <v>12375</v>
       </c>
       <c r="C13">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="D13">
-        <v>1075</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B14">
-        <v>12276</v>
+        <v>12372</v>
       </c>
       <c r="C14">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="D14">
-        <v>1074</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B15">
-        <v>12274</v>
+        <v>12369</v>
       </c>
       <c r="C15">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="D15">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B16">
-        <v>12270</v>
+        <v>12367</v>
       </c>
       <c r="C16">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="D16">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B17">
-        <v>12255</v>
+        <v>12330</v>
       </c>
       <c r="C17">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D17">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B18">
-        <v>12167</v>
+        <v>12261</v>
       </c>
       <c r="C18">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D18">
-        <v>1072</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B19">
-        <v>12098</v>
+        <v>12173</v>
       </c>
       <c r="C19">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D19">
-        <v>1070</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B20">
-        <v>12034</v>
+        <v>12104</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20">
-        <v>1068</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B21">
-        <v>11942</v>
+        <v>12039</v>
       </c>
       <c r="C21">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D21">
-        <v>1066</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B22">
-        <v>11854</v>
+        <v>11947</v>
       </c>
       <c r="C22">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D22">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B23">
-        <v>11776</v>
+        <v>11859</v>
       </c>
       <c r="C23">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D23">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B24">
-        <v>11686</v>
+        <v>11781</v>
       </c>
       <c r="C24">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D24">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B25">
-        <v>11574</v>
+        <v>11691</v>
       </c>
       <c r="C25">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D25">
-        <v>1054</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B26">
-        <v>11470</v>
+        <v>11579</v>
       </c>
       <c r="C26">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D26">
-        <v>1052</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B27">
-        <v>11359</v>
+        <v>11476</v>
       </c>
       <c r="C27">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D27">
-        <v>1050</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B28">
-        <v>11176</v>
+        <v>11365</v>
       </c>
       <c r="C28">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D28">
-        <v>1047</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B29">
-        <v>11087</v>
+        <v>11181</v>
       </c>
       <c r="C29">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D29">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B30">
-        <v>10986</v>
+        <v>11090</v>
       </c>
       <c r="C30">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D30">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B31">
-        <v>10864</v>
+        <v>10988</v>
       </c>
       <c r="C31">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D31">
-        <v>1039</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B32">
-        <v>10749</v>
+        <v>10867</v>
       </c>
       <c r="C32">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D32">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B33">
-        <v>10595</v>
+        <v>10752</v>
       </c>
       <c r="C33">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D33">
-        <v>1027</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B34">
-        <v>10415</v>
+        <v>10596</v>
       </c>
       <c r="C34">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D34">
-        <v>1023</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B35">
-        <v>10242</v>
+        <v>10422</v>
       </c>
       <c r="C35">
         <v>155</v>
       </c>
       <c r="D35">
-        <v>1017</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B36">
-        <v>10103</v>
+        <v>10250</v>
       </c>
       <c r="C36">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D36">
-        <v>1016</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B37">
-        <v>9974</v>
+        <v>10110</v>
       </c>
       <c r="C37">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D37">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B38">
-        <v>9832</v>
+        <v>9981</v>
       </c>
       <c r="C38">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D38">
-        <v>1008</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B39">
-        <v>9645</v>
+        <v>9839</v>
       </c>
       <c r="C39">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D39">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B40">
-        <v>9491</v>
+        <v>9652</v>
       </c>
       <c r="C40">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D40">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B41">
-        <v>9295</v>
+        <v>9498</v>
       </c>
       <c r="C41">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D41">
-        <v>994</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B42">
-        <v>9141</v>
+        <v>9301</v>
       </c>
       <c r="C42">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42">
-        <v>991</v>
+        <v>997</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B43">
-        <v>8999</v>
+        <v>9146</v>
       </c>
       <c r="C43">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D43">
-        <v>977</v>
+        <v>994</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B44">
-        <v>8829</v>
+        <v>9003</v>
       </c>
       <c r="C44">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44">
-        <v>968</v>
+        <v>980</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B45">
-        <v>8625</v>
+        <v>8833</v>
       </c>
       <c r="C45">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B46">
-        <v>8463</v>
+        <v>8628</v>
       </c>
       <c r="C46">
         <v>125</v>
       </c>
       <c r="D46">
-        <v>956</v>
+        <v>966</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B47">
-        <v>8323</v>
+        <v>8465</v>
       </c>
       <c r="C47">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47">
-        <v>944</v>
+        <v>959</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B48">
-        <v>8188</v>
+        <v>8325</v>
       </c>
       <c r="C48">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D48">
-        <v>932</v>
+        <v>947</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B49">
-        <v>8015</v>
+        <v>8190</v>
       </c>
       <c r="C49">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49">
-        <v>920</v>
+        <v>935</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B50">
-        <v>7906</v>
+        <v>8017</v>
       </c>
       <c r="C50">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D50">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B51">
-        <v>7785</v>
+        <v>7909</v>
       </c>
       <c r="C51">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D51">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B52">
-        <v>7619</v>
+        <v>7786</v>
       </c>
       <c r="C52">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B53">
-        <v>7451</v>
+        <v>7619</v>
       </c>
       <c r="C53">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D53">
-        <v>880</v>
+        <v>894</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B54">
-        <v>7341</v>
+        <v>7452</v>
       </c>
       <c r="C54">
         <v>102</v>
       </c>
       <c r="D54">
-        <v>870</v>
+        <v>883</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B55">
-        <v>7194</v>
+        <v>7339</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55">
-        <v>863</v>
+        <v>873</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B56">
-        <v>7048</v>
+        <v>7196</v>
       </c>
       <c r="C56">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D56">
-        <v>850</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B57">
-        <v>6944</v>
+        <v>7050</v>
       </c>
       <c r="C57">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D57">
-        <v>847</v>
+        <v>853</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B58">
-        <v>6801</v>
+        <v>6946</v>
       </c>
       <c r="C58">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B59">
-        <v>6617</v>
+        <v>6802</v>
       </c>
       <c r="C59">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D59">
-        <v>825</v>
+        <v>840</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B60">
-        <v>6444</v>
+        <v>6617</v>
       </c>
       <c r="C60">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D60">
-        <v>812</v>
+        <v>828</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B61">
-        <v>6284</v>
+        <v>6445</v>
       </c>
       <c r="C61">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D61">
-        <v>791</v>
+        <v>815</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B62">
-        <v>6092</v>
+        <v>6284</v>
       </c>
       <c r="C62">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D62">
-        <v>770</v>
+        <v>794</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B63">
-        <v>5903</v>
+        <v>6092</v>
       </c>
       <c r="C63">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D63">
-        <v>758</v>
+        <v>773</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B64">
-        <v>5782</v>
+        <v>5903</v>
       </c>
       <c r="C64">
         <v>71</v>
       </c>
       <c r="D64">
-        <v>747</v>
+        <v>761</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B65">
-        <v>5643</v>
+        <v>5783</v>
       </c>
       <c r="C65">
         <v>70</v>
       </c>
       <c r="D65">
-        <v>732</v>
+        <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B66">
-        <v>5463</v>
+        <v>5644</v>
       </c>
       <c r="C66">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66">
-        <v>720</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B67">
-        <v>5305</v>
+        <v>5463</v>
       </c>
       <c r="C67">
         <v>67</v>
       </c>
       <c r="D67">
-        <v>701</v>
+        <v>723</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B68">
-        <v>5117</v>
+        <v>5306</v>
       </c>
       <c r="C68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68">
-        <v>670</v>
+        <v>704</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B69">
-        <v>4962</v>
+        <v>5118</v>
       </c>
       <c r="C69">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D69">
-        <v>652</v>
+        <v>672</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B70">
-        <v>4760</v>
+        <v>4963</v>
       </c>
       <c r="C70">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70">
-        <v>633</v>
+        <v>655</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B71">
-        <v>4642</v>
+        <v>4760</v>
       </c>
       <c r="C71">
         <v>59</v>
       </c>
       <c r="D71">
-        <v>609</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B72">
-        <v>4427</v>
+        <v>4642</v>
       </c>
       <c r="C72">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D72">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B73">
-        <v>4176</v>
+        <v>4425</v>
       </c>
       <c r="C73">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D73">
-        <v>559</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B74">
-        <v>3996</v>
+        <v>4172</v>
       </c>
       <c r="C74">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D74">
-        <v>538</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B75">
-        <v>3737</v>
+        <v>3990</v>
       </c>
       <c r="C75">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D75">
-        <v>503</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B76">
-        <v>3490</v>
+        <v>3733</v>
       </c>
       <c r="C76">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D76">
-        <v>478</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B77">
-        <v>3229</v>
+        <v>3490</v>
       </c>
       <c r="C77">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D77">
-        <v>449</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B78">
-        <v>3067</v>
+        <v>3229</v>
       </c>
       <c r="C78">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D78">
-        <v>426</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B79">
-        <v>2909</v>
+        <v>3066</v>
       </c>
       <c r="C79">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D79">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B80">
-        <v>2733</v>
+        <v>2909</v>
       </c>
       <c r="C80">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80">
-        <v>377</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B81">
-        <v>2584</v>
+        <v>2733</v>
       </c>
       <c r="C81">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B82">
-        <v>2446</v>
+        <v>2585</v>
       </c>
       <c r="C82">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D82">
-        <v>312</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B83">
-        <v>2298</v>
+        <v>2446</v>
       </c>
       <c r="C83">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D83">
-        <v>291</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B84">
-        <v>2169</v>
+        <v>2298</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D84">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B85">
-        <v>2075</v>
+        <v>2169</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D85">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B86">
-        <v>1966</v>
+        <v>2075</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D86">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B87">
-        <v>1858</v>
+        <v>1966</v>
       </c>
       <c r="C87">
         <v>16</v>
       </c>
       <c r="D87">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B88">
-        <v>1734</v>
+        <v>1858</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B89">
-        <v>1611</v>
+        <v>1733</v>
       </c>
       <c r="C89">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B90">
-        <v>1516</v>
+        <v>1611</v>
       </c>
       <c r="C90">
         <v>13</v>
       </c>
       <c r="D90">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B91">
-        <v>1440</v>
+        <v>1516</v>
       </c>
       <c r="C91">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B92">
-        <v>1366</v>
+        <v>1440</v>
       </c>
       <c r="C92">
         <v>12</v>
       </c>
       <c r="D92">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B93">
-        <v>1278</v>
+        <v>1366</v>
       </c>
       <c r="C93">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B94">
-        <v>1202</v>
+        <v>1278</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B95">
-        <v>1125</v>
+        <v>1202</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D95">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B96">
-        <v>1054</v>
+        <v>1126</v>
       </c>
       <c r="C96">
         <v>6</v>
       </c>
       <c r="D96">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B97">
-        <v>982</v>
+        <v>1055</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B98">
-        <v>895</v>
+        <v>984</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B99">
-        <v>845</v>
+        <v>896</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B100">
-        <v>779</v>
+        <v>846</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B101">
-        <v>705</v>
+        <v>780</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B102">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B103">
-        <v>544</v>
+        <v>632</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B104">
-        <v>446</v>
+        <v>545</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B105">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B106">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B107">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B108">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B109">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B110">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B111">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4837,10 +4921,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B112">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4851,10 +4935,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B113">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -4865,10 +4949,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B114">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4879,10 +4963,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B115">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4893,10 +4977,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B116">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4907,10 +4991,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B117">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4921,10 +5005,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B118">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4935,10 +5019,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B119">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4949,10 +5033,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B120">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4963,10 +5047,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B121">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4977,10 +5061,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4991,10 +5075,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5005,10 +5089,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5019,10 +5103,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5033,10 +5117,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5047,10 +5131,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5061,10 +5145,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5075,10 +5159,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5089,10 +5173,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5103,10 +5187,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5117,10 +5201,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5131,29 +5215,46 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>43851</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <v>1</v>
       </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sortState ref="A2:D134">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5163,1371 +5264,1371 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B2">
-        <v>12292</v>
+        <v>12391</v>
       </c>
       <c r="C2">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="D2">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B3">
-        <v>12290</v>
+        <v>12389</v>
       </c>
       <c r="C3">
-        <v>778</v>
+        <v>749</v>
       </c>
       <c r="D3">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B4">
-        <v>12288</v>
+        <v>12385</v>
       </c>
       <c r="C4">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="D4">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B5">
-        <v>12282</v>
+        <v>12383</v>
       </c>
       <c r="C5">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="D5">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B6">
-        <v>12273</v>
+        <v>12376</v>
       </c>
       <c r="C6">
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="D6">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B7">
-        <v>12270</v>
+        <v>12365</v>
       </c>
       <c r="C7">
-        <v>544</v>
+        <v>503</v>
       </c>
       <c r="D7">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B8">
-        <v>12267</v>
+        <v>12360</v>
       </c>
       <c r="C8">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="D8">
-        <v>1077</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B9">
-        <v>12254</v>
+        <v>12355</v>
       </c>
       <c r="C9">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="D9">
-        <v>1073</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B10">
-        <v>12243</v>
+        <v>12339</v>
       </c>
       <c r="C10">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="D10">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B11">
-        <v>12227</v>
+        <v>12325</v>
       </c>
       <c r="C11">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="D11">
-        <v>1072</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B12">
-        <v>12207</v>
+        <v>12303</v>
       </c>
       <c r="C12">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="D12">
-        <v>1069</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B13">
-        <v>12165</v>
+        <v>12273</v>
       </c>
       <c r="C13">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D13">
-        <v>1066</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B14">
-        <v>12127</v>
+        <v>12211</v>
       </c>
       <c r="C14">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D14">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B15">
-        <v>12079</v>
+        <v>12157</v>
       </c>
       <c r="C15">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D15">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B16">
-        <v>11996</v>
+        <v>12093</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D16">
-        <v>1064</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B17">
-        <v>11919</v>
+        <v>12004</v>
       </c>
       <c r="C17">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D17">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B18">
-        <v>11833</v>
+        <v>11922</v>
       </c>
       <c r="C18">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D18">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B19">
-        <v>11695</v>
+        <v>11836</v>
       </c>
       <c r="C19">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D19">
-        <v>1060</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B20">
-        <v>11614</v>
+        <v>11700</v>
       </c>
       <c r="C20">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D20">
-        <v>1056</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B21">
-        <v>11516</v>
+        <v>11618</v>
       </c>
       <c r="C21">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D21">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B22">
-        <v>11416</v>
+        <v>11520</v>
       </c>
       <c r="C22">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D22">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B23">
-        <v>11283</v>
+        <v>11420</v>
       </c>
       <c r="C23">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D23">
-        <v>1049</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B24">
-        <v>11160</v>
+        <v>11287</v>
       </c>
       <c r="C24">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D24">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B25">
-        <v>11020</v>
+        <v>11164</v>
       </c>
       <c r="C25">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D25">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B26">
-        <v>10844</v>
+        <v>11023</v>
       </c>
       <c r="C26">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D26">
-        <v>1042</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B27">
-        <v>10670</v>
+        <v>10847</v>
       </c>
       <c r="C27">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D27">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B28">
-        <v>10505</v>
+        <v>10673</v>
       </c>
       <c r="C28">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D28">
-        <v>1037</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B29">
-        <v>10381</v>
+        <v>10507</v>
       </c>
       <c r="C29">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D29">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B30">
-        <v>10205</v>
+        <v>10383</v>
       </c>
       <c r="C30">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30">
-        <v>1030</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B31">
-        <v>9775</v>
+        <v>10206</v>
       </c>
       <c r="C31">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D31">
-        <v>1019</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B32">
-        <v>9610</v>
+        <v>9777</v>
       </c>
       <c r="C32">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32">
-        <v>1012</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B33">
-        <v>9458</v>
+        <v>9615</v>
       </c>
       <c r="C33">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D33">
-        <v>1006</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B34">
-        <v>9326</v>
+        <v>9467</v>
       </c>
       <c r="C34">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D34">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B35">
-        <v>9158</v>
+        <v>9334</v>
       </c>
       <c r="C35">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B36">
-        <v>9012</v>
+        <v>9166</v>
       </c>
       <c r="C36">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D36">
-        <v>995</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B37">
-        <v>8847</v>
+        <v>9020</v>
       </c>
       <c r="C37">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D37">
-        <v>989</v>
+        <v>998</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B38">
-        <v>8706</v>
+        <v>8855</v>
       </c>
       <c r="C38">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D38">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B39">
-        <v>8546</v>
+        <v>8714</v>
       </c>
       <c r="C39">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D39">
-        <v>978</v>
+        <v>987</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B40">
-        <v>8351</v>
+        <v>8554</v>
       </c>
       <c r="C40">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D40">
-        <v>965</v>
+        <v>981</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B41">
-        <v>8177</v>
+        <v>8357</v>
       </c>
       <c r="C41">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41">
-        <v>958</v>
+        <v>968</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B42">
-        <v>8015</v>
+        <v>8183</v>
       </c>
       <c r="C42">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D42">
-        <v>945</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B43">
-        <v>7843</v>
+        <v>8021</v>
       </c>
       <c r="C43">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43">
-        <v>932</v>
+        <v>948</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B44">
-        <v>7667</v>
+        <v>7849</v>
       </c>
       <c r="C44">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B45">
-        <v>7530</v>
+        <v>7673</v>
       </c>
       <c r="C45">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D45">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B46">
-        <v>7408</v>
+        <v>7535</v>
       </c>
       <c r="C46">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46">
-        <v>912</v>
+        <v>921</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B47">
-        <v>7249</v>
+        <v>7412</v>
       </c>
       <c r="C47">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47">
-        <v>904</v>
+        <v>915</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B48">
-        <v>7161</v>
+        <v>7253</v>
       </c>
       <c r="C48">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D48">
-        <v>890</v>
+        <v>907</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B49">
-        <v>7067</v>
+        <v>7165</v>
       </c>
       <c r="C49">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D49">
-        <v>883</v>
+        <v>893</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B50">
-        <v>6924</v>
+        <v>7071</v>
       </c>
       <c r="C50">
         <v>106</v>
       </c>
       <c r="D50">
-        <v>872</v>
+        <v>886</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B51">
-        <v>6809</v>
+        <v>6929</v>
       </c>
       <c r="C51">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51">
-        <v>860</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B52">
-        <v>6674</v>
+        <v>6813</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D52">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B53">
-        <v>6558</v>
+        <v>6676</v>
       </c>
       <c r="C53">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D53">
-        <v>845</v>
+        <v>854</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B54">
-        <v>6396</v>
+        <v>6560</v>
       </c>
       <c r="C54">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B55">
-        <v>6244</v>
+        <v>6397</v>
       </c>
       <c r="C55">
         <v>91</v>
       </c>
       <c r="D55">
-        <v>824</v>
+        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B56">
-        <v>6102</v>
+        <v>6245</v>
       </c>
       <c r="C56">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B57">
-        <v>5962</v>
+        <v>6103</v>
       </c>
       <c r="C57">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D57">
-        <v>802</v>
+        <v>818</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B58">
-        <v>5824</v>
+        <v>5963</v>
       </c>
       <c r="C58">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D58">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B59">
-        <v>5649</v>
+        <v>5824</v>
       </c>
       <c r="C59">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59">
-        <v>777</v>
+        <v>794</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B60">
-        <v>5463</v>
+        <v>5649</v>
       </c>
       <c r="C60">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D60">
-        <v>752</v>
+        <v>779</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B61">
-        <v>5310</v>
+        <v>5463</v>
       </c>
       <c r="C61">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D61">
-        <v>739</v>
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B62">
-        <v>5144</v>
+        <v>5309</v>
       </c>
       <c r="C62">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D62">
-        <v>723</v>
+        <v>741</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B63">
-        <v>5002</v>
+        <v>5142</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63">
-        <v>705</v>
+        <v>725</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B64">
-        <v>4905</v>
+        <v>5000</v>
       </c>
       <c r="C64">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D64">
-        <v>697</v>
+        <v>707</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B65">
-        <v>4782</v>
+        <v>4903</v>
       </c>
       <c r="C65">
         <v>58</v>
       </c>
       <c r="D65">
-        <v>677</v>
+        <v>699</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B66">
-        <v>4618</v>
+        <v>4781</v>
       </c>
       <c r="C66">
         <v>57</v>
       </c>
       <c r="D66">
-        <v>661</v>
+        <v>679</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B67">
-        <v>4445</v>
+        <v>4618</v>
       </c>
       <c r="C67">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D67">
-        <v>635</v>
+        <v>663</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B68">
-        <v>4249</v>
+        <v>4445</v>
       </c>
       <c r="C68">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D68">
-        <v>608</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B69">
-        <v>4059</v>
+        <v>4249</v>
       </c>
       <c r="C69">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D69">
-        <v>587</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B70">
-        <v>3777</v>
+        <v>4058</v>
       </c>
       <c r="C70">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D70">
-        <v>561</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B71">
-        <v>3601</v>
+        <v>3776</v>
       </c>
       <c r="C71">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D71">
-        <v>545</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B72">
-        <v>3446</v>
+        <v>3601</v>
       </c>
       <c r="C72">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D72">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B73">
-        <v>3136</v>
+        <v>3445</v>
       </c>
       <c r="C73">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D73">
-        <v>483</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B74">
-        <v>2888</v>
+        <v>3135</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D74">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B75">
-        <v>2687</v>
+        <v>2887</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D75">
-        <v>413</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B76">
-        <v>2501</v>
+        <v>2686</v>
       </c>
       <c r="C76">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D76">
-        <v>381</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B77">
-        <v>2269</v>
+        <v>2501</v>
       </c>
       <c r="C77">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D77">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B78">
-        <v>2131</v>
+        <v>2268</v>
       </c>
       <c r="C78">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D78">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B79">
-        <v>2024</v>
+        <v>2130</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D79">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B80">
-        <v>1919</v>
+        <v>2023</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D80">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B81">
-        <v>1774</v>
+        <v>1918</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B82">
-        <v>1643</v>
+        <v>1773</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>201</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B83">
-        <v>1490</v>
+        <v>1642</v>
       </c>
       <c r="C83">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>158</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B84">
-        <v>1389</v>
+        <v>1489</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B85">
-        <v>1334</v>
+        <v>1388</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B86">
-        <v>1229</v>
+        <v>1333</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B87">
-        <v>1122</v>
+        <v>1228</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B88">
-        <v>1028</v>
+        <v>1121</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B89">
-        <v>936</v>
+        <v>1027</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D89">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B90">
-        <v>858</v>
+        <v>935</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B91">
-        <v>782</v>
+        <v>857</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B92">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B93">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B94">
-        <v>604</v>
+        <v>709</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B95">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B96">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B97">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B98">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -6535,41 +6636,41 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B99">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B100">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B101">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -6577,13 +6678,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B102">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -6591,13 +6692,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B103">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -6605,13 +6706,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B104">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -6619,13 +6720,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B105">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -6633,13 +6734,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B106">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -6647,13 +6748,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B107">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -6661,27 +6762,27 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B108">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B109">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -6689,13 +6790,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B110">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -6703,13 +6804,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B111">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6717,13 +6818,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B112">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -6731,27 +6832,27 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B114">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -6759,13 +6860,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B115">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -6773,10 +6874,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -6787,10 +6888,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B117">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -6801,10 +6902,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -6815,10 +6916,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -6829,10 +6930,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -6843,10 +6944,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -6857,10 +6958,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B122">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -6871,10 +6972,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -6885,10 +6986,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -6899,10 +7000,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -6913,82 +7014,36 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>43853</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <v>2</v>
       </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>237</v>
-      </c>
-      <c r="C2">
-        <v>1.6694843619999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>56</v>
-      </c>
-      <c r="C3">
-        <v>0.39447731800000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>46</v>
-      </c>
-      <c r="C4">
-        <v>0.32403493900000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sortState ref="A2:D127">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Cases by Outcome" sheetId="16" r:id="rId2"/>
     <sheet name="Outbreaks" sheetId="22" r:id="rId3"/>
     <sheet name="Cases by Age" sheetId="13" r:id="rId4"/>
-    <sheet name="Cases by Gender" sheetId="15" r:id="rId5"/>
-    <sheet name="Cases by Episode Date" sheetId="14" r:id="rId6"/>
+    <sheet name="Cases by Episode Date" sheetId="14" r:id="rId5"/>
+    <sheet name="Cases by Gender" sheetId="15" r:id="rId6"/>
     <sheet name="Cases by Reported Date" sheetId="17" r:id="rId7"/>
     <sheet name="Cumulative Cases by Episode Dat" sheetId="18" r:id="rId8"/>
     <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
@@ -41,7 +41,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of June 27, 2020</t>
+    <t>Data as of June 28, 2020</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
@@ -53,7 +53,7 @@
     <t>Case Count</t>
   </si>
   <si>
-    <t>≤19</t>
+    <t>20-29</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -62,31 +62,34 @@
     <t>50-59</t>
   </si>
   <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t>20-29</t>
+    <t>90+</t>
   </si>
   <si>
     <t>30-39</t>
   </si>
   <si>
+    <t>70-79</t>
+  </si>
+  <si>
     <t>40-49</t>
   </si>
   <si>
-    <t>90+</t>
+    <t>60-69</t>
+  </si>
+  <si>
+    <t>≤19</t>
   </si>
   <si>
     <t>80-89</t>
-  </si>
-  <si>
-    <t>60-69</t>
   </si>
   <si>
     <t>Episode Date</t>
   </si>
   <si>
     <t>Client Gender</t>
+  </si>
+  <si>
+    <t>Transgender</t>
   </si>
   <si>
     <t>Female</t>
@@ -96,9 +99,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Transgender</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -134,13 +134,13 @@
     <t>Currently Intubated</t>
   </si>
   <si>
+    <t>Ever in ICU</t>
+  </si>
+  <si>
     <t>Ever Intubated</t>
   </si>
   <si>
     <t>Ever Hospitalized</t>
-  </si>
-  <si>
-    <t>Ever in ICU</t>
   </si>
   <si>
     <t>Outbreak Count</t>
@@ -158,19 +158,19 @@
     <t>Most Likely Source</t>
   </si>
   <si>
-    <t>Community</t>
+    <t>Close contact with a case</t>
+  </si>
+  <si>
+    <t>Institutional</t>
   </si>
   <si>
     <t>Travel</t>
   </si>
   <si>
-    <t>Healthcare</t>
+    <t>Community</t>
   </si>
   <si>
-    <t>Institutional</t>
-  </si>
-  <si>
-    <t>Close contact with a case</t>
+    <t>Healthcare</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -517,15 +517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -547,7 +543,7 @@
         <v>55</v>
       </c>
       <c r="C2">
-        <v>0.38515406200000002</v>
+        <v>0.38542396600000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -555,10 +551,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C3">
-        <v>1.610644258</v>
+        <v>1.5276804479999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -569,11 +565,11 @@
         <v>44</v>
       </c>
       <c r="C4">
-        <v>0.30812324899999999</v>
+        <v>0.30833917300000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,8 +582,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -606,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="C2">
-        <v>1.9957983189999999</v>
+        <v>2.7610371410000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,10 +611,10 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>1813</v>
+        <v>284</v>
       </c>
       <c r="C3">
-        <v>12.696078431</v>
+        <v>1.9901892080000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -628,14 +622,14 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>395</v>
+        <v>1809</v>
       </c>
       <c r="C4">
-        <v>2.766106443</v>
+        <v>12.676944639</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -644,43 +638,40 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -688,36 +679,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>1</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
+        <v>83</v>
+      </c>
+      <c r="C4">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>1</v>
-      </c>
-      <c r="D4">
-        <v>84</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -725,16 +716,16 @@
         <v>11</v>
       </c>
       <c r="B5">
+        <v>143</v>
+      </c>
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
         <v>7</v>
-      </c>
-      <c r="D5">
-        <v>144</v>
-      </c>
-      <c r="E5">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -742,84 +733,84 @@
         <v>7</v>
       </c>
       <c r="B6">
+        <v>295</v>
+      </c>
+      <c r="C6">
         <v>94</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>76</v>
+      </c>
+      <c r="E6">
         <v>32</v>
-      </c>
-      <c r="D6">
-        <v>295</v>
-      </c>
-      <c r="E6">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
+        <v>332</v>
+      </c>
+      <c r="C7">
         <v>107</v>
       </c>
-      <c r="C7">
-        <v>96</v>
-      </c>
       <c r="D7">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="E7">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="C8">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>354</v>
+        <v>63</v>
       </c>
       <c r="E8">
-        <v>64</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
+        <v>372</v>
+      </c>
+      <c r="C9">
         <v>37</v>
       </c>
-      <c r="C9">
-        <v>391</v>
-      </c>
       <c r="D9">
-        <v>373</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
+        <v>169</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>353</v>
-      </c>
       <c r="D10">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -843,7 +834,7 @@
   <sortState ref="A2:E11">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -852,13 +843,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -874,43 +864,46 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>24.293011088</v>
+        <v>56.135121709000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>5.6309953909999999</v>
+        <v>24.279682067</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4">
-        <v>10.315186246</v>
+        <v>10.332836562000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>3.6128067769999999</v>
+        <v>5.6507699950000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>56.148000498000002</v>
+        <v>3.6015896669999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sortState ref="A2:B6">
+    <sortCondition descending="1" ref="B2"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -918,50 +911,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>14270</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>14280</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>12360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1090</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>12391</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sortState ref="A2:B4">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -972,9 +962,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -987,7 +974,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -995,59 +982,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>820</v>
+        <v>5.7743517869999996</v>
       </c>
       <c r="C2">
-        <v>5.7422969190000002</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2020</v>
+        <v>14.14856342</v>
       </c>
       <c r="C3">
-        <v>14.145658263</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2015</v>
+        <v>14.092501752</v>
       </c>
       <c r="C4">
-        <v>14.110644258000001</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1055,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>2003</v>
+        <v>14.00840925</v>
       </c>
       <c r="C5">
-        <v>14.026610644</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1066,54 +1046,54 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2258</v>
+        <v>15.802382621</v>
       </c>
       <c r="C6">
-        <v>15.812324930000001</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>1552</v>
+        <v>10.868955851000001</v>
       </c>
       <c r="C7">
-        <v>10.868347339</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1022</v>
+        <v>7.1408549399999997</v>
       </c>
       <c r="C8">
-        <v>7.1568627449999997</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>1491</v>
+        <v>10.46250876</v>
       </c>
       <c r="C9">
-        <v>10.441176471</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1065</v>
+        <v>7.4702172390000001</v>
       </c>
       <c r="C10">
-        <v>7.4579831929999996</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1121,1204 +1101,1210 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>0.23125438000000001</v>
       </c>
       <c r="C11">
-        <v>0.23809523799999999</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sortState ref="A2:C11">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B22">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B27">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B30">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B31">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B32">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B33">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B34">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B36">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B37">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B38">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B40">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B41">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B42">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B43">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B44">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B46">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B47">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B48">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B49">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B50">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B51">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B52">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B53">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B54">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B55">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B56">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B57">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B58">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B59">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B60">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B61">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B62">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B63">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B64">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B66">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B67">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B68">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B69">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B70">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B71">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B72">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B73">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B74">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B75">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B76">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B77">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B78">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B79">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B80">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B81">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B82">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B83">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B84">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B85">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B86">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B87">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B88">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B89">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B90">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B91">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B92">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B93">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B94">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B95">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B96">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B97">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B98">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B99">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B100">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B101">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B102">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B103">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B104">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B105">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B106">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B107">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B108">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B109">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B110">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B113">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B123">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>7597</v>
-      </c>
-      <c r="C2">
-        <v>53.200280112000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>6431</v>
-      </c>
-      <c r="C3">
-        <v>45.035014005999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>4.2016807000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>4.9019607999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>239</v>
-      </c>
-      <c r="C6">
-        <v>1.6736694679999999</v>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sortState ref="A2:B135">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44009</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44008</v>
+        <v>53.118430273000001</v>
+      </c>
+      <c r="C2">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44007</v>
+        <v>45.101611773000002</v>
+      </c>
+      <c r="C3">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
+        <v>1.6888577440000001</v>
+      </c>
+      <c r="C4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44006</v>
-      </c>
       <c r="B5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>44005</v>
+        <v>4.9053959000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>44004</v>
-      </c>
-      <c r="B7">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44003</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44002</v>
-      </c>
-      <c r="B9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44001</v>
-      </c>
-      <c r="B10">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>44000</v>
-      </c>
-      <c r="B11">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43999</v>
-      </c>
-      <c r="B12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43998</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43997</v>
-      </c>
-      <c r="B14">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43996</v>
-      </c>
-      <c r="B15">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43995</v>
-      </c>
-      <c r="B16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43994</v>
-      </c>
-      <c r="B17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43993</v>
-      </c>
-      <c r="B18">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43992</v>
-      </c>
-      <c r="B19">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43991</v>
-      </c>
-      <c r="B20">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43990</v>
-      </c>
-      <c r="B21">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43989</v>
-      </c>
-      <c r="B22">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43988</v>
-      </c>
-      <c r="B23">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43987</v>
-      </c>
-      <c r="B24">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43986</v>
-      </c>
-      <c r="B25">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43985</v>
-      </c>
-      <c r="B26">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43984</v>
-      </c>
-      <c r="B27">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B28">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43982</v>
-      </c>
-      <c r="B29">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43981</v>
-      </c>
-      <c r="B30">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43980</v>
-      </c>
-      <c r="B31">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43979</v>
-      </c>
-      <c r="B32">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B33">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43977</v>
-      </c>
-      <c r="B34">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43976</v>
-      </c>
-      <c r="B35">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43975</v>
-      </c>
-      <c r="B36">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43974</v>
-      </c>
-      <c r="B37">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43973</v>
-      </c>
-      <c r="B38">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43972</v>
-      </c>
-      <c r="B39">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43971</v>
-      </c>
-      <c r="B40">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43970</v>
-      </c>
-      <c r="B41">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>43969</v>
-      </c>
-      <c r="B42">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43968</v>
-      </c>
-      <c r="B43">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43967</v>
-      </c>
-      <c r="B44">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B45">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>43965</v>
-      </c>
-      <c r="B46">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>43964</v>
-      </c>
-      <c r="B47">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>43963</v>
-      </c>
-      <c r="B48">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>43962</v>
-      </c>
-      <c r="B49">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>43961</v>
-      </c>
-      <c r="B50">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>43960</v>
-      </c>
-      <c r="B51">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>43959</v>
-      </c>
-      <c r="B52">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B53">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>43957</v>
-      </c>
-      <c r="B54">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B55">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>43955</v>
-      </c>
-      <c r="B56">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43954</v>
-      </c>
-      <c r="B57">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43953</v>
-      </c>
-      <c r="B58">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B59">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>43951</v>
-      </c>
-      <c r="B60">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>43950</v>
-      </c>
-      <c r="B61">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>43949</v>
-      </c>
-      <c r="B62">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>43948</v>
-      </c>
-      <c r="B63">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>43947</v>
-      </c>
-      <c r="B64">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B65">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>43945</v>
-      </c>
-      <c r="B66">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>43944</v>
-      </c>
-      <c r="B67">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>43943</v>
-      </c>
-      <c r="B68">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>43942</v>
-      </c>
-      <c r="B69">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>43941</v>
-      </c>
-      <c r="B70">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>43940</v>
-      </c>
-      <c r="B71">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B72">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B73">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B74">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B75">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B76">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>43934</v>
-      </c>
-      <c r="B77">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>43933</v>
-      </c>
-      <c r="B78">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>43932</v>
-      </c>
-      <c r="B79">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B80">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B81">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B82">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B83">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B84">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B85">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>43925</v>
-      </c>
-      <c r="B86">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B87">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B88">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B89">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B90">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>43920</v>
-      </c>
-      <c r="B91">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B92">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B93">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B94">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B95">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B96">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B97">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B98">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B99">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B100">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B101">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B102">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>43908</v>
-      </c>
-      <c r="B103">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B104">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B105">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B106">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B107">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B108">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B109">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B110">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B111">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B112">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B113">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B114">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B115">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B116">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B117">
+        <v>4.2046251E-2</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B118">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B119">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B120">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>43881</v>
-      </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>43876</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>43875</v>
-      </c>
-      <c r="B129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>43868</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>43862</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>43852</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>43851</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:B134">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState ref="A2:C6">
+    <sortCondition descending="1" ref="C1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2335,343 +2321,343 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B19">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B23">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B24">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B25">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B26">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B27">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B28">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B30">
-        <v>186</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B31">
-        <v>442</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B32">
-        <v>173</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B33">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B34">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B35">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B36">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B37">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B38">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B39">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B40">
-        <v>212</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B41">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B42">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B43">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B44">
         <v>188</v>
@@ -2679,39 +2665,39 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B45">
-        <v>144</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B46">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B47">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B48">
-        <v>102</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B49">
         <v>101</v>
@@ -2719,527 +2705,527 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B50">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B51">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B52">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B53">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B54">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B55">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B56">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B57">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B58">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B59">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B60">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B61">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B62">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B63">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B64">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B65">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B66">
-        <v>180</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B67">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B68">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B69">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B70">
-        <v>310</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B71">
-        <v>195</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B72">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B73">
-        <v>366</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B74">
-        <v>295</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B75">
-        <v>231</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B76">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B77">
-        <v>276</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B78">
-        <v>170</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B79">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B80">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B81">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B82">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B83">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B84">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B85">
-        <v>71</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B86">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B87">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B88">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B89">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B90">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B91">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B92">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B93">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B94">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B95">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B96">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B97">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B98">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B99">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B101">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B102">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B103">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B104">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B108">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B109">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -3247,15 +3233,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -3263,15 +3249,15 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3279,23 +3265,23 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3303,7 +3289,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3311,7 +3297,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3319,7 +3305,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3327,7 +3313,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3335,34 +3321,39 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
         <v>43853</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B127">
+  <sortState ref="A2:B128">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3381,1550 +3372,1550 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B2">
-        <v>12391</v>
+        <v>12360</v>
       </c>
       <c r="C2">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="D2">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B3">
-        <v>12391</v>
+        <v>12360</v>
       </c>
       <c r="C3">
-        <v>778</v>
+        <v>813</v>
       </c>
       <c r="D3">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B4">
-        <v>12391</v>
+        <v>12360</v>
       </c>
       <c r="C4">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="D4">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B5">
-        <v>12391</v>
+        <v>12360</v>
       </c>
       <c r="C5">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="D5">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B6">
-        <v>12390</v>
+        <v>12359</v>
       </c>
       <c r="C6">
-        <v>698</v>
+        <v>748</v>
       </c>
       <c r="D6">
-        <v>1084</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B7">
-        <v>12387</v>
+        <v>12358</v>
       </c>
       <c r="C7">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="D7">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B8">
-        <v>12382</v>
+        <v>12356</v>
       </c>
       <c r="C8">
-        <v>603</v>
+        <v>638</v>
       </c>
       <c r="D8">
-        <v>1083</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B9">
-        <v>12381</v>
+        <v>12350</v>
       </c>
       <c r="C9">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="D9">
-        <v>1083</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B10">
-        <v>12380</v>
+        <v>12349</v>
       </c>
       <c r="C10">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="D10">
-        <v>1083</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B11">
-        <v>12380</v>
+        <v>12347</v>
       </c>
       <c r="C11">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="D11">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B12">
-        <v>12380</v>
+        <v>12347</v>
       </c>
       <c r="C12">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="D12">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B13">
-        <v>12375</v>
+        <v>12347</v>
       </c>
       <c r="C13">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="D13">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B14">
-        <v>12372</v>
+        <v>12341</v>
       </c>
       <c r="C14">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D14">
-        <v>1078</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B15">
-        <v>12369</v>
+        <v>12337</v>
       </c>
       <c r="C15">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="D15">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B16">
-        <v>12367</v>
+        <v>12325</v>
       </c>
       <c r="C16">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="D16">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B17">
-        <v>12330</v>
+        <v>12322</v>
       </c>
       <c r="C17">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D17">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B18">
-        <v>12261</v>
+        <v>12286</v>
       </c>
       <c r="C18">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D18">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B19">
-        <v>12173</v>
+        <v>12217</v>
       </c>
       <c r="C19">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D19">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B20">
-        <v>12104</v>
+        <v>12129</v>
       </c>
       <c r="C20">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D20">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B21">
-        <v>12039</v>
+        <v>12060</v>
       </c>
       <c r="C21">
         <v>192</v>
       </c>
       <c r="D21">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B22">
-        <v>11947</v>
+        <v>11995</v>
       </c>
       <c r="C22">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D22">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B23">
-        <v>11859</v>
+        <v>11901</v>
       </c>
       <c r="C23">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D23">
-        <v>1066</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B24">
-        <v>11781</v>
+        <v>11813</v>
       </c>
       <c r="C24">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D24">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B25">
-        <v>11691</v>
+        <v>11735</v>
       </c>
       <c r="C25">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D25">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B26">
-        <v>11579</v>
+        <v>11645</v>
       </c>
       <c r="C26">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D26">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B27">
-        <v>11476</v>
+        <v>11530</v>
       </c>
       <c r="C27">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D27">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B28">
-        <v>11365</v>
+        <v>11427</v>
       </c>
       <c r="C28">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D28">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B29">
-        <v>11181</v>
+        <v>11315</v>
       </c>
       <c r="C29">
         <v>171</v>
       </c>
       <c r="D29">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B30">
-        <v>11090</v>
+        <v>11131</v>
       </c>
       <c r="C30">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D30">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B31">
-        <v>10988</v>
+        <v>11039</v>
       </c>
       <c r="C31">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B32">
-        <v>10867</v>
+        <v>10937</v>
       </c>
       <c r="C32">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B33">
-        <v>10752</v>
+        <v>10816</v>
       </c>
       <c r="C33">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D33">
-        <v>1038</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B34">
-        <v>10596</v>
+        <v>10701</v>
       </c>
       <c r="C34">
         <v>158</v>
       </c>
       <c r="D34">
-        <v>1030</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B35">
-        <v>10422</v>
+        <v>10545</v>
       </c>
       <c r="C35">
         <v>155</v>
       </c>
       <c r="D35">
-        <v>1026</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B36">
-        <v>10250</v>
+        <v>10370</v>
       </c>
       <c r="C36">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D36">
-        <v>1020</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B37">
-        <v>10110</v>
+        <v>10197</v>
       </c>
       <c r="C37">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B38">
-        <v>9981</v>
+        <v>10057</v>
       </c>
       <c r="C38">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B39">
-        <v>9839</v>
+        <v>9928</v>
       </c>
       <c r="C39">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B40">
-        <v>9652</v>
+        <v>9786</v>
       </c>
       <c r="C40">
         <v>140</v>
       </c>
       <c r="D40">
-        <v>1007</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B41">
-        <v>9498</v>
+        <v>9599</v>
       </c>
       <c r="C41">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B42">
-        <v>9301</v>
+        <v>9445</v>
       </c>
       <c r="C42">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42">
-        <v>997</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B43">
-        <v>9146</v>
+        <v>9247</v>
       </c>
       <c r="C43">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43">
-        <v>994</v>
+        <v>998</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B44">
-        <v>9003</v>
+        <v>9093</v>
       </c>
       <c r="C44">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44">
-        <v>980</v>
+        <v>995</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B45">
-        <v>8833</v>
+        <v>8950</v>
       </c>
       <c r="C45">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45">
-        <v>971</v>
+        <v>981</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B46">
-        <v>8628</v>
+        <v>8781</v>
       </c>
       <c r="C46">
         <v>125</v>
       </c>
       <c r="D46">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B47">
-        <v>8465</v>
+        <v>8577</v>
       </c>
       <c r="C47">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D47">
-        <v>959</v>
+        <v>967</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B48">
-        <v>8325</v>
+        <v>8415</v>
       </c>
       <c r="C48">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D48">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B49">
-        <v>8190</v>
+        <v>8276</v>
       </c>
       <c r="C49">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49">
-        <v>935</v>
+        <v>948</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B50">
-        <v>8017</v>
+        <v>8143</v>
       </c>
       <c r="C50">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D50">
-        <v>923</v>
+        <v>936</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B51">
-        <v>7909</v>
+        <v>7970</v>
       </c>
       <c r="C51">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D51">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B52">
-        <v>7786</v>
+        <v>7863</v>
       </c>
       <c r="C52">
         <v>108</v>
       </c>
       <c r="D52">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B53">
-        <v>7619</v>
+        <v>7741</v>
       </c>
       <c r="C53">
         <v>106</v>
       </c>
       <c r="D53">
-        <v>894</v>
+        <v>906</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B54">
-        <v>7452</v>
+        <v>7575</v>
       </c>
       <c r="C54">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D54">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B55">
-        <v>7339</v>
+        <v>7410</v>
       </c>
       <c r="C55">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>873</v>
+        <v>884</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B56">
-        <v>7196</v>
+        <v>7299</v>
       </c>
       <c r="C56">
         <v>97</v>
       </c>
       <c r="D56">
-        <v>866</v>
+        <v>874</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B57">
-        <v>7050</v>
+        <v>7156</v>
       </c>
       <c r="C57">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D57">
-        <v>853</v>
+        <v>867</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B58">
-        <v>6946</v>
+        <v>7011</v>
       </c>
       <c r="C58">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D58">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B59">
-        <v>6802</v>
+        <v>6907</v>
       </c>
       <c r="C59">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59">
-        <v>840</v>
+        <v>851</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B60">
-        <v>6617</v>
+        <v>6765</v>
       </c>
       <c r="C60">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D60">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B61">
-        <v>6445</v>
+        <v>6581</v>
       </c>
       <c r="C61">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61">
-        <v>815</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B62">
-        <v>6284</v>
+        <v>6410</v>
       </c>
       <c r="C62">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D62">
-        <v>794</v>
+        <v>816</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B63">
-        <v>6092</v>
+        <v>6251</v>
       </c>
       <c r="C63">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D63">
-        <v>773</v>
+        <v>795</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B64">
-        <v>5903</v>
+        <v>6061</v>
       </c>
       <c r="C64">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D64">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B65">
-        <v>5783</v>
+        <v>5874</v>
       </c>
       <c r="C65">
         <v>70</v>
       </c>
       <c r="D65">
-        <v>750</v>
+        <v>762</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B66">
-        <v>5644</v>
+        <v>5756</v>
       </c>
       <c r="C66">
         <v>69</v>
       </c>
       <c r="D66">
-        <v>735</v>
+        <v>751</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B67">
-        <v>5463</v>
+        <v>5618</v>
       </c>
       <c r="C67">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D67">
-        <v>723</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B68">
-        <v>5306</v>
+        <v>5441</v>
       </c>
       <c r="C68">
         <v>66</v>
       </c>
       <c r="D68">
-        <v>704</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B69">
-        <v>5118</v>
+        <v>5285</v>
       </c>
       <c r="C69">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D69">
-        <v>672</v>
+        <v>705</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B70">
-        <v>4963</v>
+        <v>5099</v>
       </c>
       <c r="C70">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D70">
-        <v>655</v>
+        <v>673</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B71">
-        <v>4760</v>
+        <v>4944</v>
       </c>
       <c r="C71">
         <v>59</v>
       </c>
       <c r="D71">
-        <v>636</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B72">
-        <v>4642</v>
+        <v>4744</v>
       </c>
       <c r="C72">
         <v>58</v>
       </c>
       <c r="D72">
-        <v>611</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B73">
-        <v>4425</v>
+        <v>4626</v>
       </c>
       <c r="C73">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D73">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B74">
-        <v>4172</v>
+        <v>4409</v>
       </c>
       <c r="C74">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D74">
-        <v>561</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B75">
-        <v>3990</v>
+        <v>4157</v>
       </c>
       <c r="C75">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D75">
-        <v>539</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B76">
-        <v>3733</v>
+        <v>3976</v>
       </c>
       <c r="C76">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D76">
-        <v>504</v>
+        <v>541</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B77">
-        <v>3490</v>
+        <v>3722</v>
       </c>
       <c r="C77">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D77">
-        <v>479</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B78">
-        <v>3229</v>
+        <v>3479</v>
       </c>
       <c r="C78">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D78">
-        <v>450</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B79">
-        <v>3066</v>
+        <v>3222</v>
       </c>
       <c r="C79">
         <v>32</v>
       </c>
       <c r="D79">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B80">
-        <v>2909</v>
+        <v>3060</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D80">
-        <v>399</v>
+        <v>428</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B81">
-        <v>2733</v>
+        <v>2904</v>
       </c>
       <c r="C81">
         <v>29</v>
       </c>
       <c r="D81">
-        <v>377</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B82">
-        <v>2585</v>
+        <v>2731</v>
       </c>
       <c r="C82">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82">
-        <v>352</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B83">
-        <v>2446</v>
+        <v>2583</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D83">
-        <v>312</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B84">
-        <v>2298</v>
+        <v>2444</v>
       </c>
       <c r="C84">
         <v>23</v>
       </c>
       <c r="D84">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B85">
-        <v>2169</v>
+        <v>2296</v>
       </c>
       <c r="C85">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B86">
-        <v>2075</v>
+        <v>2168</v>
       </c>
       <c r="C86">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B87">
-        <v>1966</v>
+        <v>2075</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B88">
-        <v>1858</v>
+        <v>1966</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B89">
-        <v>1733</v>
+        <v>1858</v>
       </c>
       <c r="C89">
         <v>15</v>
       </c>
       <c r="D89">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B90">
-        <v>1611</v>
+        <v>1733</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B91">
-        <v>1516</v>
+        <v>1613</v>
       </c>
       <c r="C91">
         <v>13</v>
       </c>
       <c r="D91">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B92">
-        <v>1440</v>
+        <v>1517</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B93">
-        <v>1366</v>
+        <v>1440</v>
       </c>
       <c r="C93">
         <v>12</v>
       </c>
       <c r="D93">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B94">
-        <v>1278</v>
+        <v>1366</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B95">
-        <v>1202</v>
+        <v>1278</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D95">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B96">
-        <v>1126</v>
+        <v>1202</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B97">
-        <v>1055</v>
+        <v>1126</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
       <c r="D97">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B98">
-        <v>984</v>
+        <v>1055</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B99">
-        <v>896</v>
+        <v>984</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B100">
-        <v>846</v>
+        <v>896</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B101">
-        <v>780</v>
+        <v>846</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B102">
-        <v>706</v>
+        <v>780</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B103">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B104">
-        <v>545</v>
+        <v>632</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B105">
-        <v>447</v>
+        <v>545</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B106">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B107">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B108">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B109">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B110">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B111">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B112">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4935,10 +4926,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B113">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -4949,10 +4940,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B114">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4963,10 +4954,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B115">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4977,10 +4968,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B116">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4991,10 +4982,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B117">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5005,10 +4996,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B118">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -5019,10 +5010,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B119">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -5033,10 +5024,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B120">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -5047,10 +5038,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B121">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5061,10 +5052,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5075,10 +5066,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B123">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5089,10 +5080,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5103,10 +5094,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5117,10 +5108,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5131,10 +5122,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5145,10 +5136,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5159,10 +5150,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5173,10 +5164,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5187,10 +5178,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5201,10 +5192,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5215,10 +5206,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5229,33 +5220,45 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
         <v>43851</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>1</v>
       </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D134">
+  <sortState ref="A2:D135">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5278,1368 +5281,1368 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B2">
-        <v>12391</v>
+        <v>12360</v>
       </c>
       <c r="C2">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="D2">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B3">
-        <v>12389</v>
+        <v>12359</v>
       </c>
       <c r="C3">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="D3">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B4">
-        <v>12385</v>
+        <v>12351</v>
       </c>
       <c r="C4">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="D4">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B5">
-        <v>12383</v>
+        <v>12345</v>
       </c>
       <c r="C5">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="D5">
-        <v>1084</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B6">
-        <v>12376</v>
+        <v>12342</v>
       </c>
       <c r="C6">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="D6">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B7">
-        <v>12365</v>
+        <v>12336</v>
       </c>
       <c r="C7">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="D7">
-        <v>1082</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B8">
-        <v>12360</v>
+        <v>12326</v>
       </c>
       <c r="C8">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="D8">
-        <v>1082</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B9">
-        <v>12355</v>
+        <v>12321</v>
       </c>
       <c r="C9">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D9">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B10">
-        <v>12339</v>
+        <v>12316</v>
       </c>
       <c r="C10">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="D10">
-        <v>1076</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B11">
-        <v>12325</v>
+        <v>12300</v>
       </c>
       <c r="C11">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="D11">
-        <v>1076</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B12">
-        <v>12303</v>
+        <v>12286</v>
       </c>
       <c r="C12">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="D12">
-        <v>1075</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B13">
-        <v>12273</v>
+        <v>12264</v>
       </c>
       <c r="C13">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D13">
-        <v>1072</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B14">
-        <v>12211</v>
+        <v>12233</v>
       </c>
       <c r="C14">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D14">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B15">
-        <v>12157</v>
+        <v>12170</v>
       </c>
       <c r="C15">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D15">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B16">
-        <v>12093</v>
+        <v>12112</v>
       </c>
       <c r="C16">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D16">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B17">
-        <v>12004</v>
+        <v>12047</v>
       </c>
       <c r="C17">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D17">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B18">
-        <v>11922</v>
+        <v>11959</v>
       </c>
       <c r="C18">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D18">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B19">
-        <v>11836</v>
+        <v>11877</v>
       </c>
       <c r="C19">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D19">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B20">
-        <v>11700</v>
+        <v>11791</v>
       </c>
       <c r="C20">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D20">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B21">
-        <v>11618</v>
+        <v>11653</v>
       </c>
       <c r="C21">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D21">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B22">
-        <v>11520</v>
+        <v>11571</v>
       </c>
       <c r="C22">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D22">
-        <v>1056</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B23">
-        <v>11420</v>
+        <v>11473</v>
       </c>
       <c r="C23">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D23">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B24">
-        <v>11287</v>
+        <v>11373</v>
       </c>
       <c r="C24">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24">
-        <v>1052</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B25">
-        <v>11164</v>
+        <v>11240</v>
       </c>
       <c r="C25">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D25">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B26">
-        <v>11023</v>
+        <v>11117</v>
       </c>
       <c r="C26">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B27">
-        <v>10847</v>
+        <v>10975</v>
       </c>
       <c r="C27">
         <v>166</v>
       </c>
       <c r="D27">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B28">
-        <v>10673</v>
+        <v>10799</v>
       </c>
       <c r="C28">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D28">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B29">
-        <v>10507</v>
+        <v>10625</v>
       </c>
       <c r="C29">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B30">
-        <v>10383</v>
+        <v>10459</v>
       </c>
       <c r="C30">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D30">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B31">
-        <v>10206</v>
+        <v>10335</v>
       </c>
       <c r="C31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D31">
-        <v>1033</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B32">
-        <v>9777</v>
+        <v>10158</v>
       </c>
       <c r="C32">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32">
-        <v>1022</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B33">
-        <v>9615</v>
+        <v>9730</v>
       </c>
       <c r="C33">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D33">
-        <v>1015</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B34">
-        <v>9467</v>
+        <v>9568</v>
       </c>
       <c r="C34">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D34">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B35">
-        <v>9334</v>
+        <v>9420</v>
       </c>
       <c r="C35">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B36">
-        <v>9166</v>
+        <v>9287</v>
       </c>
       <c r="C36">
         <v>137</v>
       </c>
       <c r="D36">
-        <v>1003</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B37">
-        <v>9020</v>
+        <v>9119</v>
       </c>
       <c r="C37">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37">
-        <v>998</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B38">
-        <v>8855</v>
+        <v>8973</v>
       </c>
       <c r="C38">
         <v>132</v>
       </c>
       <c r="D38">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B39">
-        <v>8714</v>
+        <v>8809</v>
       </c>
       <c r="C39">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39">
-        <v>987</v>
+        <v>993</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B40">
-        <v>8554</v>
+        <v>8667</v>
       </c>
       <c r="C40">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B41">
-        <v>8357</v>
+        <v>8508</v>
       </c>
       <c r="C41">
         <v>127</v>
       </c>
       <c r="D41">
-        <v>968</v>
+        <v>982</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B42">
-        <v>8183</v>
+        <v>8313</v>
       </c>
       <c r="C42">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D42">
-        <v>961</v>
+        <v>969</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B43">
-        <v>8021</v>
+        <v>8139</v>
       </c>
       <c r="C43">
         <v>119</v>
       </c>
       <c r="D43">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B44">
-        <v>7849</v>
+        <v>7978</v>
       </c>
       <c r="C44">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D44">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B45">
-        <v>7673</v>
+        <v>7807</v>
       </c>
       <c r="C45">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D45">
-        <v>926</v>
+        <v>936</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B46">
-        <v>7535</v>
+        <v>7630</v>
       </c>
       <c r="C46">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B47">
-        <v>7412</v>
+        <v>7495</v>
       </c>
       <c r="C47">
         <v>109</v>
       </c>
       <c r="D47">
-        <v>915</v>
+        <v>922</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B48">
-        <v>7253</v>
+        <v>7372</v>
       </c>
       <c r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D48">
-        <v>907</v>
+        <v>916</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B49">
-        <v>7165</v>
+        <v>7213</v>
       </c>
       <c r="C49">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49">
-        <v>893</v>
+        <v>908</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B50">
-        <v>7071</v>
+        <v>7126</v>
       </c>
       <c r="C50">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D50">
-        <v>886</v>
+        <v>894</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B51">
-        <v>6929</v>
+        <v>7034</v>
       </c>
       <c r="C51">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D51">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B52">
-        <v>6813</v>
+        <v>6892</v>
       </c>
       <c r="C52">
         <v>101</v>
       </c>
       <c r="D52">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B53">
-        <v>6676</v>
+        <v>6777</v>
       </c>
       <c r="C53">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D53">
-        <v>854</v>
+        <v>864</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B54">
-        <v>6560</v>
+        <v>6641</v>
       </c>
       <c r="C54">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D54">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B55">
-        <v>6397</v>
+        <v>6526</v>
       </c>
       <c r="C55">
         <v>91</v>
       </c>
       <c r="D55">
-        <v>839</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B56">
-        <v>6245</v>
+        <v>6363</v>
       </c>
       <c r="C56">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D56">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B57">
-        <v>6103</v>
+        <v>6212</v>
       </c>
       <c r="C57">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D57">
-        <v>818</v>
+        <v>828</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B58">
-        <v>5963</v>
+        <v>6071</v>
       </c>
       <c r="C58">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D58">
-        <v>805</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B59">
-        <v>5824</v>
+        <v>5933</v>
       </c>
       <c r="C59">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D59">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B60">
-        <v>5649</v>
+        <v>5795</v>
       </c>
       <c r="C60">
         <v>74</v>
       </c>
       <c r="D60">
-        <v>779</v>
+        <v>795</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B61">
-        <v>5463</v>
+        <v>5623</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D61">
-        <v>754</v>
+        <v>780</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B62">
-        <v>5309</v>
+        <v>5438</v>
       </c>
       <c r="C62">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D62">
-        <v>741</v>
+        <v>755</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B63">
-        <v>5142</v>
+        <v>5286</v>
       </c>
       <c r="C63">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D63">
-        <v>725</v>
+        <v>742</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B64">
-        <v>5000</v>
+        <v>5120</v>
       </c>
       <c r="C64">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>707</v>
+        <v>726</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B65">
-        <v>4903</v>
+        <v>4981</v>
       </c>
       <c r="C65">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D65">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B66">
-        <v>4781</v>
+        <v>4886</v>
       </c>
       <c r="C66">
         <v>57</v>
       </c>
       <c r="D66">
-        <v>679</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B67">
-        <v>4618</v>
+        <v>4765</v>
       </c>
       <c r="C67">
         <v>56</v>
       </c>
       <c r="D67">
-        <v>663</v>
+        <v>680</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B68">
-        <v>4445</v>
+        <v>4603</v>
       </c>
       <c r="C68">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D68">
-        <v>637</v>
+        <v>664</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B69">
-        <v>4249</v>
+        <v>4431</v>
       </c>
       <c r="C69">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D69">
-        <v>610</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B70">
-        <v>4058</v>
+        <v>4236</v>
       </c>
       <c r="C70">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D70">
-        <v>589</v>
+        <v>611</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B71">
-        <v>3776</v>
+        <v>4046</v>
       </c>
       <c r="C71">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D71">
-        <v>563</v>
+        <v>590</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B72">
-        <v>3601</v>
+        <v>3765</v>
       </c>
       <c r="C72">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D72">
-        <v>546</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B73">
-        <v>3445</v>
+        <v>3593</v>
       </c>
       <c r="C73">
         <v>43</v>
       </c>
       <c r="D73">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B74">
-        <v>3135</v>
+        <v>3439</v>
       </c>
       <c r="C74">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D74">
-        <v>484</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B75">
-        <v>2887</v>
+        <v>3130</v>
       </c>
       <c r="C75">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>443</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B76">
-        <v>2686</v>
+        <v>2884</v>
       </c>
       <c r="C76">
         <v>30</v>
       </c>
       <c r="D76">
-        <v>414</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B77">
-        <v>2501</v>
+        <v>2685</v>
       </c>
       <c r="C77">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77">
-        <v>381</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B78">
-        <v>2268</v>
+        <v>2500</v>
       </c>
       <c r="C78">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D78">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B79">
-        <v>2130</v>
+        <v>2267</v>
       </c>
       <c r="C79">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B80">
-        <v>2023</v>
+        <v>2129</v>
       </c>
       <c r="C80">
         <v>22</v>
       </c>
       <c r="D80">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B81">
-        <v>1918</v>
+        <v>2022</v>
       </c>
       <c r="C81">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D81">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B82">
-        <v>1773</v>
+        <v>1917</v>
       </c>
       <c r="C82">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B83">
-        <v>1642</v>
+        <v>1772</v>
       </c>
       <c r="C83">
         <v>15</v>
       </c>
       <c r="D83">
-        <v>201</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B84">
-        <v>1489</v>
+        <v>1642</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84">
-        <v>158</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B85">
-        <v>1388</v>
+        <v>1489</v>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D85">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B86">
-        <v>1333</v>
+        <v>1388</v>
       </c>
       <c r="C86">
         <v>11</v>
       </c>
       <c r="D86">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B87">
-        <v>1228</v>
+        <v>1333</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B88">
-        <v>1121</v>
+        <v>1228</v>
       </c>
       <c r="C88">
         <v>10</v>
       </c>
       <c r="D88">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B89">
-        <v>1027</v>
+        <v>1121</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B90">
-        <v>935</v>
+        <v>1027</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B91">
-        <v>857</v>
+        <v>935</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B92">
-        <v>781</v>
+        <v>857</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B93">
-        <v>752</v>
+        <v>781</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B94">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B95">
-        <v>603</v>
+        <v>709</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B96">
-        <v>488</v>
+        <v>603</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B97">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B98">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B99">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -6650,38 +6653,38 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B100">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B101">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B102">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6692,10 +6695,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B103">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6706,10 +6709,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B104">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6720,10 +6723,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B105">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6734,10 +6737,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B106">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6748,10 +6751,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B107">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6762,10 +6765,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B108">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6776,24 +6779,24 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B109">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B110">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6804,10 +6807,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B111">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6818,10 +6821,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B112">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6832,10 +6835,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B113">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6846,24 +6849,24 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B114">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6874,13 +6877,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B116">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -6888,10 +6891,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B117">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -6902,10 +6905,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -6916,10 +6919,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -6930,10 +6933,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -6944,10 +6947,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -6958,10 +6961,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -6972,10 +6975,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B123">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -6986,10 +6989,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7000,10 +7003,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7014,10 +7017,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7028,22 +7031,36 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
         <v>43853</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>2</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D127">
+  <sortState ref="A2:D128">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -17,8 +17,8 @@
     <sheet name="Outbreaks" sheetId="22" r:id="rId3"/>
     <sheet name="Cases by Age" sheetId="13" r:id="rId4"/>
     <sheet name="Cases by Episode Date" sheetId="14" r:id="rId5"/>
-    <sheet name="Cases by Gender" sheetId="15" r:id="rId6"/>
-    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId7"/>
+    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId6"/>
+    <sheet name="Cases by Gender" sheetId="15" r:id="rId7"/>
     <sheet name="Cumulative Cases by Episode Dat" sheetId="18" r:id="rId8"/>
     <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
     <sheet name="Currently Hospitalized" sheetId="20" r:id="rId10"/>
@@ -41,7 +41,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of June 28, 2020</t>
+    <t>Data as of June 29, 2020</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
@@ -53,22 +53,10 @@
     <t>Case Count</t>
   </si>
   <si>
-    <t>20-29</t>
+    <t>70-79</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>50-59</t>
-  </si>
-  <si>
-    <t>90+</t>
-  </si>
-  <si>
-    <t>30-39</t>
-  </si>
-  <si>
-    <t>70-79</t>
+    <t>≤19</t>
   </si>
   <si>
     <t>40-49</t>
@@ -77,10 +65,22 @@
     <t>60-69</t>
   </si>
   <si>
-    <t>≤19</t>
+    <t>20-29</t>
   </si>
   <si>
     <t>80-89</t>
+  </si>
+  <si>
+    <t>90+</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>50-59</t>
   </si>
   <si>
     <t>Episode Date</t>
@@ -89,16 +89,16 @@
     <t>Client Gender</t>
   </si>
   <si>
-    <t>Transgender</t>
+    <t>Other</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>Transgender</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Male</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -125,22 +125,22 @@
     <t>% of Total Cases</t>
   </si>
   <si>
-    <t>Currently in ICU</t>
-  </si>
-  <si>
     <t>Currently Hospitalized</t>
   </si>
   <si>
     <t>Currently Intubated</t>
   </si>
   <si>
+    <t>Currently in ICU</t>
+  </si>
+  <si>
     <t>Ever in ICU</t>
   </si>
   <si>
-    <t>Ever Intubated</t>
+    <t>Ever Hospitalized</t>
   </si>
   <si>
-    <t>Ever Hospitalized</t>
+    <t>Ever Intubated</t>
   </si>
   <si>
     <t>Outbreak Count</t>
@@ -161,10 +161,10 @@
     <t>Close contact with a case</t>
   </si>
   <si>
-    <t>Institutional</t>
+    <t>Travel</t>
   </si>
   <si>
-    <t>Travel</t>
+    <t>Institutional</t>
   </si>
   <si>
     <t>Community</t>
@@ -492,7 +492,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,10 +540,10 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="C2">
-        <v>0.38542396600000001</v>
+        <v>1.494413408</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -551,10 +551,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>1.5276804479999999</v>
+        <v>0.30726257000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -562,14 +562,14 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>0.30833917300000002</v>
+        <v>0.38407821199999997</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -580,9 +580,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -603,7 +600,7 @@
         <v>394</v>
       </c>
       <c r="C2">
-        <v>2.7610371410000001</v>
+        <v>2.7513966480000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -611,10 +608,10 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>284</v>
+        <v>1810</v>
       </c>
       <c r="C3">
-        <v>1.9901892080000001</v>
+        <v>12.639664804000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -622,14 +619,14 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>1809</v>
+        <v>284</v>
       </c>
       <c r="C4">
-        <v>12.676944639</v>
+        <v>1.9832402229999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -638,7 +635,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -648,30 +645,30 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>13</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -679,143 +676,143 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>50</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>83</v>
       </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>8</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>143</v>
       </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>24</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
         <v>295</v>
       </c>
-      <c r="C6">
-        <v>94</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>76</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7">
+        <v>107</v>
+      </c>
+      <c r="C7">
+        <v>98</v>
+      </c>
+      <c r="D7">
         <v>332</v>
       </c>
-      <c r="C7">
-        <v>107</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>77</v>
-      </c>
-      <c r="E7">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>203</v>
+      </c>
+      <c r="D8">
         <v>352</v>
       </c>
-      <c r="C8">
-        <v>87</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>63</v>
-      </c>
-      <c r="E8">
-        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>372</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="D9">
+        <v>373</v>
+      </c>
+      <c r="E9">
         <v>26</v>
-      </c>
-      <c r="E9">
-        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>355</v>
+      </c>
+      <c r="D10">
         <v>169</v>
       </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
         <v>1</v>
-      </c>
-      <c r="E10">
-        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -834,7 +831,7 @@
   <sortState ref="A2:E11">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -843,7 +840,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -864,46 +861,43 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>56.135121709000003</v>
+        <v>56.285432585999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>24.279682067</v>
+        <v>5.619916194</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>10.332836562000001</v>
+        <v>3.5863938869999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>5.6507699950000001</v>
+        <v>24.205077643999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>3.6015896669999998</v>
+        <v>10.303179689</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B6">
-    <sortCondition descending="1" ref="B2"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -917,41 +911,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>14270</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
+      <c r="B2">
+        <v>14320</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>12360</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1090</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4">
+        <v>12432</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:B4">
-    <sortCondition descending="1" ref="A1"/>
+    <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -970,11 +964,11 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -982,7 +976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -999,98 +995,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>5.7743517869999996</v>
+        <v>5.7960893850000001</v>
       </c>
       <c r="C2">
-        <v>824</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>14.14856342</v>
+        <v>14.224860335000001</v>
       </c>
       <c r="C3">
-        <v>2019</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>14.092501752</v>
+        <v>14.071229049999999</v>
       </c>
       <c r="C4">
-        <v>2011</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>14.00840925</v>
+        <v>14.043296089</v>
       </c>
       <c r="C5">
-        <v>1999</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>15.802382621</v>
+        <v>15.782122905</v>
       </c>
       <c r="C6">
-        <v>2255</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>10.868955851000001</v>
+        <v>10.872905028</v>
       </c>
       <c r="C7">
-        <v>1551</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>7.1408549399999997</v>
+        <v>7.1229050279999999</v>
       </c>
       <c r="C8">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>10.46250876</v>
+        <v>10.418994413</v>
       </c>
       <c r="C9">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>7.4702172390000001</v>
+        <v>7.4441340780000003</v>
       </c>
       <c r="C10">
         <v>1066</v>
@@ -1098,29 +1094,29 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.23125438000000001</v>
+        <v>0.22346368699999999</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:C11">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1138,71 +1134,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B10">
         <v>41</v>
@@ -1210,559 +1206,559 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B17">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B29">
-        <v>191</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B34">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B35">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B36">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B37">
-        <v>143</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B38">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B39">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B40">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B41">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B42">
-        <v>208</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B43">
-        <v>161</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B44">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B45">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B46">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B47">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B48">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B49">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B51">
-        <v>112</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B52">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B53">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B54">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B55">
-        <v>124</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B56">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B57">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B58">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B59">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B60">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B61">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B62">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B63">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B64">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B65">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B66">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B67">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B68">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B69">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B70">
-        <v>176</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B71">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B72">
-        <v>144</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B73">
-        <v>244</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B74">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B75">
-        <v>204</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B76">
-        <v>293</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B77">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B78">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B79">
-        <v>186</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B80">
         <v>186</v>
@@ -1770,255 +1766,255 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B81">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B82">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B83">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B84">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B85">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B86">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B87">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B88">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B89">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B90">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B91">
-        <v>106</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B92">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B93">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B94">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B95">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B96">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B97">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B98">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B99">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B100">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B101">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B102">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B103">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B104">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B105">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B106">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B107">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B108">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B109">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B110">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B111">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B112">
         <v>30</v>
@@ -2026,103 +2022,103 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B113">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B115">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2130,7 +2126,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2138,23 +2134,23 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2162,23 +2158,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -2186,7 +2182,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2194,7 +2190,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -2202,107 +2198,31 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
     </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B135">
+  <sortState ref="A2:B136">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>53.118430273000001</v>
-      </c>
-      <c r="C2">
-        <v>7580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>45.101611773000002</v>
-      </c>
-      <c r="C3">
-        <v>6436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1.6888577440000001</v>
-      </c>
-      <c r="C4">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>4.9053959000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>4.2046251E-2</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:C6">
-    <sortCondition descending="1" ref="C1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2321,455 +2241,455 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B20">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B24">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B25">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B26">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B27">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B28">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B29">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B31">
-        <v>186</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B32">
-        <v>441</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B33">
-        <v>173</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B34">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B35">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B36">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B37">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B38">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B39">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B40">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B41">
-        <v>210</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B42">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B43">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B44">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B45">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B46">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B47">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B48">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B49">
-        <v>101</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B51">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B52">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B53">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B54">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B55">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B56">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B57">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B58">
         <v>155</v>
@@ -2777,463 +2697,463 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B59">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B60">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B61">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B62">
-        <v>168</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B63">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B64">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B65">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B66">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B67">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B68">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B69">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B70">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B71">
-        <v>309</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B72">
-        <v>192</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B73">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B74">
-        <v>365</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B75">
-        <v>293</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B76">
-        <v>229</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B77">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B78">
-        <v>276</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B79">
-        <v>170</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B80">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B81">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B82">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B83">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B84">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B85">
-        <v>129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B86">
-        <v>71</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B87">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B88">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B89">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B90">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B91">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B92">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B93">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B94">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B95">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B96">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B97">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B98">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B99">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B100">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B101">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B102">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B103">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B104">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B106">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B107">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B110">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -3241,15 +3161,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -3257,15 +3177,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3273,23 +3193,23 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3297,7 +3217,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3305,7 +3225,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3313,7 +3233,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3321,7 +3241,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3329,26 +3249,115 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
         <v>43853</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B128">
+  <sortState ref="A2:B129">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>4.1899441000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>53.156424581000003</v>
+      </c>
+      <c r="C3">
+        <v>7612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>4.8882681999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1.6689944130000001</v>
+      </c>
+      <c r="C5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>45.083798883</v>
+      </c>
+      <c r="C6">
+        <v>6456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3372,1564 +3381,1564 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B2">
-        <v>12360</v>
+        <v>12432</v>
       </c>
       <c r="C2">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="D2">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B3">
-        <v>12360</v>
+        <v>12432</v>
       </c>
       <c r="C3">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="D3">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B4">
-        <v>12360</v>
+        <v>12432</v>
       </c>
       <c r="C4">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D4">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B5">
-        <v>12360</v>
+        <v>12432</v>
       </c>
       <c r="C5">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D5">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B6">
-        <v>12359</v>
+        <v>12432</v>
       </c>
       <c r="C6">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="D6">
-        <v>1089</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B7">
-        <v>12358</v>
+        <v>12431</v>
       </c>
       <c r="C7">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D7">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B8">
-        <v>12356</v>
+        <v>12430</v>
       </c>
       <c r="C8">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D8">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B9">
-        <v>12350</v>
+        <v>12428</v>
       </c>
       <c r="C9">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D9">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B10">
-        <v>12349</v>
+        <v>12422</v>
       </c>
       <c r="C10">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D10">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B11">
-        <v>12347</v>
+        <v>12421</v>
       </c>
       <c r="C11">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D11">
-        <v>1086</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B12">
-        <v>12347</v>
+        <v>12419</v>
       </c>
       <c r="C12">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D12">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B13">
-        <v>12347</v>
+        <v>12419</v>
       </c>
       <c r="C13">
         <v>406</v>
       </c>
       <c r="D13">
-        <v>1083</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B14">
-        <v>12341</v>
+        <v>12419</v>
       </c>
       <c r="C14">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D14">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B15">
-        <v>12337</v>
+        <v>12412</v>
       </c>
       <c r="C15">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D15">
-        <v>1079</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B16">
-        <v>12325</v>
+        <v>12407</v>
       </c>
       <c r="C16">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D16">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B17">
-        <v>12322</v>
+        <v>12392</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D17">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B18">
-        <v>12286</v>
+        <v>12332</v>
       </c>
       <c r="C18">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B19">
-        <v>12217</v>
+        <v>12295</v>
       </c>
       <c r="C19">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D19">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B20">
-        <v>12129</v>
+        <v>12225</v>
       </c>
       <c r="C20">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B21">
-        <v>12060</v>
+        <v>12136</v>
       </c>
       <c r="C21">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D21">
-        <v>1074</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B22">
-        <v>11995</v>
+        <v>12065</v>
       </c>
       <c r="C22">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D22">
-        <v>1072</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B23">
-        <v>11901</v>
+        <v>12000</v>
       </c>
       <c r="C23">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D23">
-        <v>1070</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B24">
-        <v>11813</v>
+        <v>11905</v>
       </c>
       <c r="C24">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D24">
-        <v>1067</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B25">
-        <v>11735</v>
+        <v>11817</v>
       </c>
       <c r="C25">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D25">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B26">
-        <v>11645</v>
+        <v>11739</v>
       </c>
       <c r="C26">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D26">
-        <v>1062</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B27">
-        <v>11530</v>
+        <v>11649</v>
       </c>
       <c r="C27">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D27">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B28">
-        <v>11427</v>
+        <v>11534</v>
       </c>
       <c r="C28">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D28">
-        <v>1056</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B29">
-        <v>11315</v>
+        <v>11430</v>
       </c>
       <c r="C29">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D29">
-        <v>1054</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B30">
-        <v>11131</v>
+        <v>11318</v>
       </c>
       <c r="C30">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30">
-        <v>1051</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B31">
-        <v>11039</v>
+        <v>11134</v>
       </c>
       <c r="C31">
         <v>162</v>
       </c>
       <c r="D31">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B32">
-        <v>10937</v>
+        <v>11042</v>
       </c>
       <c r="C32">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D32">
-        <v>1048</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B33">
-        <v>10816</v>
+        <v>10940</v>
       </c>
       <c r="C33">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D33">
-        <v>1043</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B34">
-        <v>10701</v>
+        <v>10819</v>
       </c>
       <c r="C34">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D34">
-        <v>1039</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B35">
-        <v>10545</v>
+        <v>10704</v>
       </c>
       <c r="C35">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D35">
-        <v>1031</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B36">
-        <v>10370</v>
+        <v>10548</v>
       </c>
       <c r="C36">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D36">
-        <v>1027</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B37">
-        <v>10197</v>
+        <v>10373</v>
       </c>
       <c r="C37">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B38">
-        <v>10057</v>
+        <v>10201</v>
       </c>
       <c r="C38">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D38">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B39">
-        <v>9928</v>
+        <v>10061</v>
       </c>
       <c r="C39">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D39">
-        <v>1018</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B40">
-        <v>9786</v>
+        <v>9932</v>
       </c>
       <c r="C40">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D40">
-        <v>1012</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B41">
-        <v>9599</v>
+        <v>9790</v>
       </c>
       <c r="C41">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D41">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B42">
-        <v>9445</v>
+        <v>9603</v>
       </c>
       <c r="C42">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D42">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B43">
-        <v>9247</v>
+        <v>9449</v>
       </c>
       <c r="C43">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43">
-        <v>998</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B44">
-        <v>9093</v>
+        <v>9251</v>
       </c>
       <c r="C44">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B45">
-        <v>8950</v>
+        <v>9097</v>
       </c>
       <c r="C45">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D45">
-        <v>981</v>
+        <v>997</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B46">
-        <v>8781</v>
+        <v>8954</v>
       </c>
       <c r="C46">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D46">
-        <v>972</v>
+        <v>983</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B47">
-        <v>8577</v>
+        <v>8785</v>
       </c>
       <c r="C47">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D47">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B48">
-        <v>8415</v>
+        <v>8581</v>
       </c>
       <c r="C48">
         <v>118</v>
       </c>
       <c r="D48">
-        <v>960</v>
+        <v>969</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B49">
-        <v>8276</v>
+        <v>8419</v>
       </c>
       <c r="C49">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50">
-        <v>8143</v>
+        <v>8281</v>
       </c>
       <c r="C50">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D50">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B51">
-        <v>7970</v>
+        <v>8148</v>
       </c>
       <c r="C51">
         <v>108</v>
       </c>
       <c r="D51">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B52">
-        <v>7863</v>
+        <v>7976</v>
       </c>
       <c r="C52">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D52">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B53">
-        <v>7741</v>
+        <v>7869</v>
       </c>
       <c r="C53">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D53">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B54">
-        <v>7575</v>
+        <v>7747</v>
       </c>
       <c r="C54">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D54">
-        <v>895</v>
+        <v>907</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B55">
-        <v>7410</v>
+        <v>7581</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55">
-        <v>884</v>
+        <v>896</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B56">
-        <v>7299</v>
+        <v>7416</v>
       </c>
       <c r="C56">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D56">
-        <v>874</v>
+        <v>885</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B57">
-        <v>7156</v>
+        <v>7305</v>
       </c>
       <c r="C57">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D57">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B58">
-        <v>7011</v>
+        <v>7162</v>
       </c>
       <c r="C58">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D58">
-        <v>854</v>
+        <v>868</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B59">
-        <v>6907</v>
+        <v>7017</v>
       </c>
       <c r="C59">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B60">
-        <v>6765</v>
+        <v>6913</v>
       </c>
       <c r="C60">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D60">
-        <v>841</v>
+        <v>852</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B61">
-        <v>6581</v>
+        <v>6771</v>
       </c>
       <c r="C61">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B62">
-        <v>6410</v>
+        <v>6586</v>
       </c>
       <c r="C62">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D62">
-        <v>816</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B63">
-        <v>6251</v>
+        <v>6415</v>
       </c>
       <c r="C63">
         <v>78</v>
       </c>
       <c r="D63">
-        <v>795</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B64">
-        <v>6061</v>
+        <v>6256</v>
       </c>
       <c r="C64">
         <v>73</v>
       </c>
       <c r="D64">
-        <v>774</v>
+        <v>796</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B65">
-        <v>5874</v>
+        <v>6066</v>
       </c>
       <c r="C65">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D65">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B66">
-        <v>5756</v>
+        <v>5879</v>
       </c>
       <c r="C66">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D66">
-        <v>751</v>
+        <v>763</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B67">
-        <v>5618</v>
+        <v>5760</v>
       </c>
       <c r="C67">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D67">
-        <v>736</v>
+        <v>752</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B68">
-        <v>5441</v>
+        <v>5622</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D68">
-        <v>724</v>
+        <v>738</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B69">
-        <v>5285</v>
+        <v>5445</v>
       </c>
       <c r="C69">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D69">
-        <v>705</v>
+        <v>726</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B70">
-        <v>5099</v>
+        <v>5289</v>
       </c>
       <c r="C70">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D70">
-        <v>673</v>
+        <v>707</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B71">
-        <v>4944</v>
+        <v>5103</v>
       </c>
       <c r="C71">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D71">
-        <v>656</v>
+        <v>674</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B72">
-        <v>4744</v>
+        <v>4948</v>
       </c>
       <c r="C72">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D72">
-        <v>637</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B73">
-        <v>4626</v>
+        <v>4748</v>
       </c>
       <c r="C73">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D73">
-        <v>612</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B74">
-        <v>4409</v>
+        <v>4630</v>
       </c>
       <c r="C74">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D74">
-        <v>588</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B75">
-        <v>4157</v>
+        <v>4413</v>
       </c>
       <c r="C75">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D75">
-        <v>562</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B76">
-        <v>3976</v>
+        <v>4161</v>
       </c>
       <c r="C76">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D76">
-        <v>541</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B77">
-        <v>3722</v>
+        <v>3979</v>
       </c>
       <c r="C77">
         <v>40</v>
       </c>
       <c r="D77">
-        <v>506</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B78">
-        <v>3479</v>
+        <v>3725</v>
       </c>
       <c r="C78">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D78">
-        <v>480</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B79">
-        <v>3222</v>
+        <v>3482</v>
       </c>
       <c r="C79">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D79">
-        <v>451</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B80">
-        <v>3060</v>
+        <v>3229</v>
       </c>
       <c r="C80">
         <v>31</v>
       </c>
       <c r="D80">
-        <v>428</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B81">
-        <v>2904</v>
+        <v>3067</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B82">
-        <v>2731</v>
+        <v>2911</v>
       </c>
       <c r="C82">
         <v>28</v>
       </c>
       <c r="D82">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B83">
-        <v>2583</v>
+        <v>2738</v>
       </c>
       <c r="C83">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B84">
-        <v>2444</v>
+        <v>2591</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D84">
-        <v>313</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B85">
-        <v>2296</v>
+        <v>2453</v>
       </c>
       <c r="C85">
         <v>22</v>
       </c>
       <c r="D85">
-        <v>292</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B86">
-        <v>2168</v>
+        <v>2305</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D86">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B87">
-        <v>2075</v>
+        <v>2177</v>
       </c>
       <c r="C87">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D87">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B88">
-        <v>1966</v>
+        <v>2085</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B89">
-        <v>1858</v>
+        <v>1974</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89">
-        <v>187</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B90">
-        <v>1733</v>
+        <v>1866</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B91">
-        <v>1613</v>
+        <v>1742</v>
       </c>
       <c r="C91">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B92">
-        <v>1517</v>
+        <v>1620</v>
       </c>
       <c r="C92">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B93">
-        <v>1440</v>
+        <v>1522</v>
       </c>
       <c r="C93">
         <v>12</v>
       </c>
       <c r="D93">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B94">
-        <v>1366</v>
+        <v>1445</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B95">
-        <v>1278</v>
+        <v>1371</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B96">
-        <v>1202</v>
+        <v>1283</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B97">
-        <v>1126</v>
+        <v>1206</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
       <c r="D97">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B98">
-        <v>1055</v>
+        <v>1129</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B99">
-        <v>984</v>
+        <v>1056</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B100">
-        <v>896</v>
+        <v>985</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B101">
-        <v>846</v>
+        <v>897</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B102">
-        <v>780</v>
+        <v>846</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B103">
-        <v>706</v>
+        <v>780</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B104">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B105">
-        <v>545</v>
+        <v>632</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B106">
-        <v>447</v>
+        <v>545</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B107">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B108">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B109">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B110">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B111">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B112">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B113">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -4940,10 +4949,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B114">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4954,10 +4963,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B115">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4968,10 +4977,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B116">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4982,10 +4991,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B117">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4996,10 +5005,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B118">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -5010,10 +5019,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B119">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -5024,10 +5033,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B120">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -5038,10 +5047,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B121">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5052,10 +5061,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B122">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5066,10 +5075,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5080,10 +5089,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5094,10 +5103,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5108,10 +5117,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5122,10 +5131,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B127">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5136,10 +5145,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5150,10 +5159,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5164,10 +5173,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5178,10 +5187,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B131">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5192,10 +5201,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5206,10 +5215,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5220,10 +5229,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5234,29 +5243,43 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>43851</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>1</v>
       </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D135">
+  <sortState ref="A2:D136">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5281,1382 +5304,1382 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B2">
-        <v>12360</v>
+        <v>12432</v>
       </c>
       <c r="C2">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="D2">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B3">
-        <v>12359</v>
+        <v>12432</v>
       </c>
       <c r="C3">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="D3">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B4">
-        <v>12351</v>
+        <v>12425</v>
       </c>
       <c r="C4">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="D4">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B5">
-        <v>12345</v>
+        <v>12414</v>
       </c>
       <c r="C5">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="D5">
-        <v>1089</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B6">
-        <v>12342</v>
+        <v>12404</v>
       </c>
       <c r="C6">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="D6">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B7">
-        <v>12336</v>
+        <v>12401</v>
       </c>
       <c r="C7">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D7">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B8">
-        <v>12326</v>
+        <v>12393</v>
       </c>
       <c r="C8">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D8">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B9">
-        <v>12321</v>
+        <v>12382</v>
       </c>
       <c r="C9">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D9">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B10">
-        <v>12316</v>
+        <v>12375</v>
       </c>
       <c r="C10">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="D10">
-        <v>1084</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B11">
-        <v>12300</v>
+        <v>12366</v>
       </c>
       <c r="C11">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D11">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B12">
-        <v>12286</v>
+        <v>12346</v>
       </c>
       <c r="C12">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D12">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B13">
-        <v>12264</v>
+        <v>12325</v>
       </c>
       <c r="C13">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D13">
-        <v>1076</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B14">
-        <v>12233</v>
+        <v>12296</v>
       </c>
       <c r="C14">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D14">
-        <v>1073</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B15">
-        <v>12170</v>
+        <v>12255</v>
       </c>
       <c r="C15">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15">
-        <v>1070</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B16">
-        <v>12112</v>
+        <v>12180</v>
       </c>
       <c r="C16">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B17">
-        <v>12047</v>
+        <v>12118</v>
       </c>
       <c r="C17">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D17">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B18">
-        <v>11959</v>
+        <v>12050</v>
       </c>
       <c r="C18">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D18">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B19">
-        <v>11877</v>
+        <v>11962</v>
       </c>
       <c r="C19">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D19">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B20">
-        <v>11791</v>
+        <v>11880</v>
       </c>
       <c r="C20">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D20">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B21">
-        <v>11653</v>
+        <v>11794</v>
       </c>
       <c r="C21">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D21">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B22">
-        <v>11571</v>
+        <v>11656</v>
       </c>
       <c r="C22">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D22">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B23">
-        <v>11473</v>
+        <v>11574</v>
       </c>
       <c r="C23">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D23">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B24">
-        <v>11373</v>
+        <v>11476</v>
       </c>
       <c r="C24">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D24">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B25">
-        <v>11240</v>
+        <v>11376</v>
       </c>
       <c r="C25">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B26">
-        <v>11117</v>
+        <v>11243</v>
       </c>
       <c r="C26">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D26">
-        <v>1050</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B27">
-        <v>10975</v>
+        <v>11120</v>
       </c>
       <c r="C27">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D27">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B28">
-        <v>10799</v>
+        <v>10978</v>
       </c>
       <c r="C28">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D28">
-        <v>1046</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B29">
-        <v>10625</v>
+        <v>10802</v>
       </c>
       <c r="C29">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B30">
-        <v>10459</v>
+        <v>10629</v>
       </c>
       <c r="C30">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D30">
-        <v>1041</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B31">
-        <v>10335</v>
+        <v>10463</v>
       </c>
       <c r="C31">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D31">
-        <v>1039</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B32">
-        <v>10158</v>
+        <v>10339</v>
       </c>
       <c r="C32">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32">
-        <v>1034</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B33">
-        <v>9730</v>
+        <v>10162</v>
       </c>
       <c r="C33">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D33">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B34">
-        <v>9568</v>
+        <v>9735</v>
       </c>
       <c r="C34">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34">
-        <v>1016</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B35">
-        <v>9420</v>
+        <v>9572</v>
       </c>
       <c r="C35">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D35">
-        <v>1010</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B36">
-        <v>9287</v>
+        <v>9424</v>
       </c>
       <c r="C36">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D36">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B37">
-        <v>9119</v>
+        <v>9291</v>
       </c>
       <c r="C37">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B38">
-        <v>8973</v>
+        <v>9123</v>
       </c>
       <c r="C38">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D38">
-        <v>999</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B39">
-        <v>8809</v>
+        <v>8977</v>
       </c>
       <c r="C39">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B40">
-        <v>8667</v>
+        <v>8813</v>
       </c>
       <c r="C40">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D40">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B41">
-        <v>8508</v>
+        <v>8671</v>
       </c>
       <c r="C41">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41">
-        <v>982</v>
+        <v>990</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B42">
-        <v>8313</v>
+        <v>8512</v>
       </c>
       <c r="C42">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B43">
-        <v>8139</v>
+        <v>8317</v>
       </c>
       <c r="C43">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D43">
-        <v>962</v>
+        <v>971</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B44">
-        <v>7978</v>
+        <v>8143</v>
       </c>
       <c r="C44">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44">
-        <v>949</v>
+        <v>964</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B45">
-        <v>7807</v>
+        <v>7982</v>
       </c>
       <c r="C45">
         <v>113</v>
       </c>
       <c r="D45">
-        <v>936</v>
+        <v>951</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B46">
-        <v>7630</v>
+        <v>7811</v>
       </c>
       <c r="C46">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46">
-        <v>927</v>
+        <v>938</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B47">
-        <v>7495</v>
+        <v>7634</v>
       </c>
       <c r="C47">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D47">
-        <v>922</v>
+        <v>929</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B48">
-        <v>7372</v>
+        <v>7499</v>
       </c>
       <c r="C48">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48">
-        <v>916</v>
+        <v>924</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B49">
-        <v>7213</v>
+        <v>7377</v>
       </c>
       <c r="C49">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49">
-        <v>908</v>
+        <v>918</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50">
-        <v>7126</v>
+        <v>7218</v>
       </c>
       <c r="C50">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D50">
-        <v>894</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B51">
-        <v>7034</v>
+        <v>7131</v>
       </c>
       <c r="C51">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D51">
-        <v>887</v>
+        <v>896</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B52">
-        <v>6892</v>
+        <v>7040</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B53">
-        <v>6777</v>
+        <v>6898</v>
       </c>
       <c r="C53">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B54">
-        <v>6641</v>
+        <v>6783</v>
       </c>
       <c r="C54">
         <v>95</v>
       </c>
       <c r="D54">
-        <v>855</v>
+        <v>865</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B55">
-        <v>6526</v>
+        <v>6647</v>
       </c>
       <c r="C55">
         <v>91</v>
       </c>
       <c r="D55">
-        <v>849</v>
+        <v>856</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B56">
-        <v>6363</v>
+        <v>6532</v>
       </c>
       <c r="C56">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D56">
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B57">
-        <v>6212</v>
+        <v>6369</v>
       </c>
       <c r="C57">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B58">
-        <v>6071</v>
+        <v>6218</v>
       </c>
       <c r="C58">
         <v>82</v>
       </c>
       <c r="D58">
-        <v>819</v>
+        <v>829</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B59">
-        <v>5933</v>
+        <v>6076</v>
       </c>
       <c r="C59">
         <v>78</v>
       </c>
       <c r="D59">
-        <v>806</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B60">
-        <v>5795</v>
+        <v>5938</v>
       </c>
       <c r="C60">
         <v>74</v>
       </c>
       <c r="D60">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B61">
-        <v>5623</v>
+        <v>5800</v>
       </c>
       <c r="C61">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D61">
-        <v>780</v>
+        <v>796</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B62">
-        <v>5438</v>
+        <v>5628</v>
       </c>
       <c r="C62">
         <v>69</v>
       </c>
       <c r="D62">
-        <v>755</v>
+        <v>781</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B63">
-        <v>5286</v>
+        <v>5442</v>
       </c>
       <c r="C63">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63">
-        <v>742</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B64">
-        <v>5120</v>
+        <v>5290</v>
       </c>
       <c r="C64">
         <v>62</v>
       </c>
       <c r="D64">
-        <v>726</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B65">
-        <v>4981</v>
+        <v>5124</v>
       </c>
       <c r="C65">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D65">
-        <v>708</v>
+        <v>727</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B66">
-        <v>4886</v>
+        <v>4985</v>
       </c>
       <c r="C66">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D66">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B67">
-        <v>4765</v>
+        <v>4890</v>
       </c>
       <c r="C67">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D67">
-        <v>680</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B68">
-        <v>4603</v>
+        <v>4769</v>
       </c>
       <c r="C68">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D68">
-        <v>664</v>
+        <v>681</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B69">
-        <v>4431</v>
+        <v>4607</v>
       </c>
       <c r="C69">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D69">
-        <v>638</v>
+        <v>665</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B70">
-        <v>4236</v>
+        <v>4435</v>
       </c>
       <c r="C70">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D70">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B71">
-        <v>4046</v>
+        <v>4240</v>
       </c>
       <c r="C71">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D71">
-        <v>590</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B72">
-        <v>3765</v>
+        <v>4050</v>
       </c>
       <c r="C72">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D72">
-        <v>564</v>
+        <v>591</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B73">
-        <v>3593</v>
+        <v>3769</v>
       </c>
       <c r="C73">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D73">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B74">
-        <v>3439</v>
+        <v>3597</v>
       </c>
       <c r="C74">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D74">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B75">
-        <v>3130</v>
+        <v>3443</v>
       </c>
       <c r="C75">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D75">
-        <v>486</v>
+        <v>537</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B76">
-        <v>2884</v>
+        <v>3132</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D76">
-        <v>445</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B77">
-        <v>2685</v>
+        <v>2886</v>
       </c>
       <c r="C77">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77">
-        <v>416</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B78">
-        <v>2500</v>
+        <v>2686</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>381</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B79">
-        <v>2267</v>
+        <v>2499</v>
       </c>
       <c r="C79">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D79">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B80">
-        <v>2129</v>
+        <v>2267</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D80">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B81">
-        <v>2022</v>
+        <v>2129</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D81">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B82">
-        <v>1917</v>
+        <v>2022</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D82">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B83">
-        <v>1772</v>
+        <v>1917</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B84">
-        <v>1642</v>
+        <v>1772</v>
       </c>
       <c r="C84">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B85">
-        <v>1489</v>
+        <v>1642</v>
       </c>
       <c r="C85">
         <v>14</v>
       </c>
       <c r="D85">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B86">
-        <v>1388</v>
+        <v>1489</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D86">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B87">
-        <v>1333</v>
+        <v>1388</v>
       </c>
       <c r="C87">
         <v>11</v>
       </c>
       <c r="D87">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B88">
-        <v>1228</v>
+        <v>1333</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B89">
-        <v>1121</v>
+        <v>1228</v>
       </c>
       <c r="C89">
         <v>10</v>
       </c>
       <c r="D89">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B90">
-        <v>1027</v>
+        <v>1121</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B91">
-        <v>935</v>
+        <v>1027</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D91">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B92">
-        <v>857</v>
+        <v>935</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B93">
-        <v>781</v>
+        <v>857</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B94">
-        <v>752</v>
+        <v>781</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B95">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B96">
-        <v>603</v>
+        <v>709</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B97">
-        <v>488</v>
+        <v>603</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B98">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B99">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B100">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6667,38 +6690,38 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B101">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B102">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B103">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6709,10 +6732,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B104">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6723,10 +6746,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B105">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6737,10 +6760,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B106">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6751,10 +6774,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B107">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6765,10 +6788,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B108">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6779,10 +6802,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B109">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6793,24 +6816,24 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B110">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B111">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6821,10 +6844,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B112">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6835,10 +6858,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B113">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6849,10 +6872,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B114">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6863,24 +6886,24 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B115">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B116">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6891,13 +6914,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B117">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -6905,10 +6928,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B118">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -6919,10 +6942,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -6933,10 +6956,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -6947,10 +6970,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -6961,10 +6984,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -6975,10 +6998,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -6989,10 +7012,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7003,10 +7026,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7017,10 +7040,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7031,10 +7054,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -7045,22 +7068,36 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
         <v>43853</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>2</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D128">
+  <sortState ref="A2:D129">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -41,7 +41,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of June 29, 2020</t>
+    <t>Data as of June 30, 2020</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
@@ -53,13 +53,25 @@
     <t>Case Count</t>
   </si>
   <si>
+    <t>50-59</t>
+  </si>
+  <si>
     <t>70-79</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>≤19</t>
   </si>
   <si>
+    <t>90+</t>
+  </si>
+  <si>
     <t>40-49</t>
+  </si>
+  <si>
+    <t>80-89</t>
   </si>
   <si>
     <t>60-69</t>
@@ -68,19 +80,7 @@
     <t>20-29</t>
   </si>
   <si>
-    <t>80-89</t>
-  </si>
-  <si>
-    <t>90+</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>30-39</t>
-  </si>
-  <si>
-    <t>50-59</t>
   </si>
   <si>
     <t>Episode Date</t>
@@ -95,10 +95,10 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Transgender</t>
+    <t>Male</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>Transgender</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -134,13 +134,13 @@
     <t>Currently in ICU</t>
   </si>
   <si>
+    <t>Ever Intubated</t>
+  </si>
+  <si>
     <t>Ever in ICU</t>
   </si>
   <si>
     <t>Ever Hospitalized</t>
-  </si>
-  <si>
-    <t>Ever Intubated</t>
   </si>
   <si>
     <t>Outbreak Count</t>
@@ -158,19 +158,19 @@
     <t>Most Likely Source</t>
   </si>
   <si>
-    <t>Close contact with a case</t>
+    <t>Community</t>
   </si>
   <si>
     <t>Travel</t>
   </si>
   <si>
-    <t>Institutional</t>
-  </si>
-  <si>
-    <t>Community</t>
+    <t>Close contact with a case</t>
   </si>
   <si>
     <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Institutional</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,10 +540,10 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C2">
-        <v>1.494413408</v>
+        <v>1.452296574</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -551,10 +551,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>0.30726257000000001</v>
+        <v>0.29184907199999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -562,14 +562,14 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>0.38407821199999997</v>
+        <v>0.36133694700000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -580,6 +580,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -597,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>394</v>
+        <v>284</v>
       </c>
       <c r="C2">
-        <v>2.7513966480000001</v>
+        <v>1.9734556320000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -608,10 +611,10 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>1810</v>
+        <v>394</v>
       </c>
       <c r="C3">
-        <v>12.639664804000001</v>
+        <v>2.7378222499999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -619,14 +622,14 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>284</v>
+        <v>1813</v>
       </c>
       <c r="C4">
-        <v>1.9832402229999999</v>
+        <v>12.598151623</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -634,9 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -659,7 +660,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -676,7 +677,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -693,10 +694,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -705,12 +706,12 @@
         <v>83</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -727,10 +728,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -739,21 +740,21 @@
         <v>295</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>107</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E7">
         <v>77</v>
@@ -761,13 +762,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>87</v>
       </c>
       <c r="C8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8">
         <v>352</v>
@@ -778,7 +779,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>37</v>
@@ -787,7 +788,7 @@
         <v>395</v>
       </c>
       <c r="D9">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E9">
         <v>26</v>
@@ -795,13 +796,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D10">
         <v>169</v>
@@ -812,7 +813,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -831,7 +832,7 @@
   <sortState ref="A2:E11">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -840,7 +841,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -861,7 +862,7 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>56.285432585999999</v>
+        <v>24.190382727999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -869,7 +870,7 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>5.619916194</v>
+        <v>5.605986261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -877,7 +878,7 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>3.5863938869999998</v>
+        <v>56.391069676000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -885,7 +886,7 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>24.205077643999999</v>
+        <v>10.255152109999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -893,11 +894,11 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>10.303179689</v>
+        <v>3.5574092249999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -905,7 +906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -922,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>14320</v>
+        <v>14391</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -930,7 +933,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -938,14 +941,14 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>12432</v>
+        <v>12503</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:B4">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -968,7 +971,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -976,9 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -995,109 +996,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>5.7960893850000001</v>
+        <v>5.850879022</v>
       </c>
       <c r="C2">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>14.224860335000001</v>
+        <v>14.251963032000001</v>
       </c>
       <c r="C3">
-        <v>2037</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>14.071229049999999</v>
+        <v>14.064345771999999</v>
       </c>
       <c r="C4">
-        <v>2015</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>14.043296089</v>
+        <v>14.057396984</v>
       </c>
       <c r="C5">
-        <v>2011</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>15.782122905</v>
+        <v>15.780696269</v>
       </c>
       <c r="C6">
-        <v>2260</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>10.872905028</v>
+        <v>10.867903550999999</v>
       </c>
       <c r="C7">
-        <v>1557</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>7.1229050279999999</v>
+        <v>7.1086095479999996</v>
       </c>
       <c r="C8">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>10.418994413</v>
+        <v>10.374539643</v>
       </c>
       <c r="C9">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>7.4441340780000003</v>
+        <v>7.4213049819999997</v>
       </c>
       <c r="C10">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0.22346368699999999</v>
+        <v>0.22236119800000001</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -1107,13 +1108,13 @@
   <sortState ref="A2:C11">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1134,767 +1135,767 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B30">
-        <v>191</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B31">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B35">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B36">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B37">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B38">
-        <v>143</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B39">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B40">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B41">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B42">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B43">
-        <v>208</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B44">
-        <v>161</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B45">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B46">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B47">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B48">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B49">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B50">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B51">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B52">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B53">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B54">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B55">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B56">
-        <v>124</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B57">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B58">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B59">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B60">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B61">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B62">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B63">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B64">
-        <v>216</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B65">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B66">
-        <v>131</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B67">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B68">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B69">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B70">
-        <v>221</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B71">
-        <v>176</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B72">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B73">
-        <v>144</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B74">
-        <v>244</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B75">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B76">
-        <v>204</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B77">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B78">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B79">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B80">
-        <v>186</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B81">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B82">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B83">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B84">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B85">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B86">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B87">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B88">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B89">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B90">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B91">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B92">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B93">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B94">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B95">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B96">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -1902,231 +1903,231 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B98">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B99">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B100">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B101">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B102">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B103">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B104">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B105">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B106">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B107">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B108">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B109">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B110">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B111">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B112">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B113">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B116">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2134,7 +2135,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -2142,23 +2143,23 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -2166,23 +2167,23 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2190,7 +2191,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -2198,7 +2199,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2206,23 +2207,31 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
     </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B136">
+  <sortState ref="A2:B137">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2241,463 +2250,463 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B21">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B25">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B26">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B27">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B28">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B29">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B30">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B32">
-        <v>186</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B33">
-        <v>440</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B34">
-        <v>173</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B35">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B36">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B37">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B38">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B39">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B40">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B41">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B42">
-        <v>210</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B43">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B44">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B45">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B46">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B47">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B48">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B49">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B50">
-        <v>101</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B51">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B52">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B53">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B54">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B55">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B56">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B57">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B58">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B59">
         <v>155</v>
@@ -2705,463 +2714,463 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B60">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B61">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B62">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B63">
-        <v>168</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B64">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B65">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B66">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B67">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B68">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B69">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B70">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B71">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B72">
-        <v>309</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B73">
-        <v>192</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B74">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B75">
-        <v>366</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B76">
-        <v>293</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B77">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B78">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B79">
-        <v>275</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B80">
-        <v>170</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B81">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B82">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B83">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B84">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B85">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B86">
-        <v>129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B87">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B88">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B89">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B90">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B91">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B92">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B93">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B94">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B95">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B96">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B97">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B98">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B99">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B100">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B101">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B103">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B104">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B105">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B106">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B107">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B110">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B111">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -3169,15 +3178,15 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -3185,15 +3194,15 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3201,23 +3210,23 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3225,7 +3234,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3233,7 +3242,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3241,7 +3250,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3249,7 +3258,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -3257,17 +3266,25 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
         <v>43853</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B129">
+  <sortState ref="A2:B130">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3276,7 +3293,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3297,7 +3314,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>4.1899441000000003E-2</v>
+        <v>4.1692725E-2</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -3308,10 +3325,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>53.156424581000003</v>
+        <v>53.095684802999997</v>
       </c>
       <c r="C3">
-        <v>7612</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3319,18 +3336,18 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>4.8882681999999997E-2</v>
+        <v>45.153220763</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>1.6689944130000001</v>
+        <v>1.6607601970000001</v>
       </c>
       <c r="C5">
         <v>239</v>
@@ -3341,24 +3358,22 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>45.083798883</v>
+        <v>4.8641511999999998E-2</v>
       </c>
       <c r="C6">
-        <v>6456</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3381,1578 +3396,1578 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2">
-        <v>12432</v>
+        <v>12503</v>
       </c>
       <c r="C2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D2">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B3">
-        <v>12432</v>
+        <v>12503</v>
       </c>
       <c r="C3">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D3">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B4">
-        <v>12432</v>
+        <v>12502</v>
       </c>
       <c r="C4">
-        <v>782</v>
+        <v>752</v>
       </c>
       <c r="D4">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B5">
-        <v>12432</v>
+        <v>12502</v>
       </c>
       <c r="C5">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="D5">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B6">
-        <v>12432</v>
+        <v>12502</v>
       </c>
       <c r="C6">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="D6">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B7">
-        <v>12431</v>
+        <v>12502</v>
       </c>
       <c r="C7">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="D7">
-        <v>1092</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B8">
-        <v>12430</v>
+        <v>12502</v>
       </c>
       <c r="C8">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D8">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B9">
-        <v>12428</v>
+        <v>12501</v>
       </c>
       <c r="C9">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="D9">
-        <v>1090</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B10">
-        <v>12422</v>
+        <v>12499</v>
       </c>
       <c r="C10">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D10">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B11">
-        <v>12421</v>
+        <v>12492</v>
       </c>
       <c r="C11">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="D11">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B12">
-        <v>12419</v>
+        <v>12491</v>
       </c>
       <c r="C12">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="D12">
-        <v>1088</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B13">
-        <v>12419</v>
+        <v>12489</v>
       </c>
       <c r="C13">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="D13">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B14">
-        <v>12419</v>
+        <v>12489</v>
       </c>
       <c r="C14">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D14">
-        <v>1085</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B15">
-        <v>12412</v>
+        <v>12487</v>
       </c>
       <c r="C15">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D15">
-        <v>1084</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B16">
-        <v>12407</v>
+        <v>12480</v>
       </c>
       <c r="C16">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D16">
-        <v>1081</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B17">
-        <v>12392</v>
+        <v>12474</v>
       </c>
       <c r="C17">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D17">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B18">
-        <v>12332</v>
+        <v>12402</v>
       </c>
       <c r="C18">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D18">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B19">
-        <v>12295</v>
+        <v>12341</v>
       </c>
       <c r="C19">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D19">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B20">
-        <v>12225</v>
+        <v>12304</v>
       </c>
       <c r="C20">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D20">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B21">
-        <v>12136</v>
+        <v>12235</v>
       </c>
       <c r="C21">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D21">
-        <v>1078</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B22">
-        <v>12065</v>
+        <v>12146</v>
       </c>
       <c r="C22">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D22">
-        <v>1076</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B23">
-        <v>12000</v>
+        <v>12074</v>
       </c>
       <c r="C23">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B24">
-        <v>11905</v>
+        <v>12008</v>
       </c>
       <c r="C24">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D24">
-        <v>1072</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B25">
-        <v>11817</v>
+        <v>11913</v>
       </c>
       <c r="C25">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D25">
-        <v>1069</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B26">
-        <v>11739</v>
+        <v>11824</v>
       </c>
       <c r="C26">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D26">
-        <v>1067</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B27">
-        <v>11649</v>
+        <v>11746</v>
       </c>
       <c r="C27">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D27">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B28">
-        <v>11534</v>
+        <v>11656</v>
       </c>
       <c r="C28">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D28">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B29">
-        <v>11430</v>
+        <v>11541</v>
       </c>
       <c r="C29">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D29">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B30">
-        <v>11318</v>
+        <v>11436</v>
       </c>
       <c r="C30">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D30">
-        <v>1056</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B31">
-        <v>11134</v>
+        <v>11324</v>
       </c>
       <c r="C31">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D31">
-        <v>1053</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B32">
-        <v>11042</v>
+        <v>11140</v>
       </c>
       <c r="C32">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B33">
-        <v>10940</v>
+        <v>11048</v>
       </c>
       <c r="C33">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D33">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B34">
-        <v>10819</v>
+        <v>10946</v>
       </c>
       <c r="C34">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D34">
-        <v>1045</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B35">
-        <v>10704</v>
+        <v>10825</v>
       </c>
       <c r="C35">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D35">
-        <v>1041</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B36">
-        <v>10548</v>
+        <v>10710</v>
       </c>
       <c r="C36">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D36">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B37">
-        <v>10373</v>
+        <v>10554</v>
       </c>
       <c r="C37">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D37">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B38">
-        <v>10201</v>
+        <v>10379</v>
       </c>
       <c r="C38">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D38">
-        <v>1023</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B39">
-        <v>10061</v>
+        <v>10206</v>
       </c>
       <c r="C39">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D39">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B40">
-        <v>9932</v>
+        <v>10065</v>
       </c>
       <c r="C40">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B41">
-        <v>9790</v>
+        <v>9936</v>
       </c>
       <c r="C41">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B42">
-        <v>9603</v>
+        <v>9794</v>
       </c>
       <c r="C42">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42">
-        <v>1010</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B43">
-        <v>9449</v>
+        <v>9607</v>
       </c>
       <c r="C43">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B44">
-        <v>9251</v>
+        <v>9454</v>
       </c>
       <c r="C44">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44">
-        <v>1000</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B45">
-        <v>9097</v>
+        <v>9257</v>
       </c>
       <c r="C45">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D45">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B46">
-        <v>8954</v>
+        <v>9103</v>
       </c>
       <c r="C46">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46">
-        <v>983</v>
+        <v>997</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B47">
-        <v>8785</v>
+        <v>8960</v>
       </c>
       <c r="C47">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47">
-        <v>974</v>
+        <v>983</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B48">
-        <v>8581</v>
+        <v>8791</v>
       </c>
       <c r="C48">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B49">
-        <v>8419</v>
+        <v>8587</v>
       </c>
       <c r="C49">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D49">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B50">
-        <v>8281</v>
+        <v>8425</v>
       </c>
       <c r="C50">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50">
-        <v>950</v>
+        <v>962</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B51">
-        <v>8148</v>
+        <v>8286</v>
       </c>
       <c r="C51">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51">
-        <v>938</v>
+        <v>950</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B52">
-        <v>7976</v>
+        <v>8153</v>
       </c>
       <c r="C52">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D52">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B53">
-        <v>7869</v>
+        <v>7982</v>
       </c>
       <c r="C53">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B54">
-        <v>7747</v>
+        <v>7875</v>
       </c>
       <c r="C54">
         <v>101</v>
       </c>
       <c r="D54">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B55">
-        <v>7581</v>
+        <v>7753</v>
       </c>
       <c r="C55">
         <v>99</v>
       </c>
       <c r="D55">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B56">
-        <v>7416</v>
+        <v>7587</v>
       </c>
       <c r="C56">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D56">
-        <v>885</v>
+        <v>896</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B57">
-        <v>7305</v>
+        <v>7421</v>
       </c>
       <c r="C57">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D57">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B58">
-        <v>7162</v>
+        <v>7310</v>
       </c>
       <c r="C58">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D58">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B59">
-        <v>7017</v>
+        <v>7167</v>
       </c>
       <c r="C59">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D59">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B60">
-        <v>6913</v>
+        <v>7022</v>
       </c>
       <c r="C60">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D60">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B61">
-        <v>6771</v>
+        <v>6918</v>
       </c>
       <c r="C61">
         <v>81</v>
       </c>
       <c r="D61">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B62">
-        <v>6586</v>
+        <v>6777</v>
       </c>
       <c r="C62">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D62">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B63">
-        <v>6415</v>
+        <v>6591</v>
       </c>
       <c r="C63">
         <v>78</v>
       </c>
       <c r="D63">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B64">
-        <v>6256</v>
+        <v>6420</v>
       </c>
       <c r="C64">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D64">
-        <v>796</v>
+        <v>817</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B65">
-        <v>6066</v>
+        <v>6260</v>
       </c>
       <c r="C65">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D65">
-        <v>775</v>
+        <v>796</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B66">
-        <v>5879</v>
+        <v>6070</v>
       </c>
       <c r="C66">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D66">
-        <v>763</v>
+        <v>775</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B67">
-        <v>5760</v>
+        <v>5884</v>
       </c>
       <c r="C67">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D67">
-        <v>752</v>
+        <v>763</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B68">
-        <v>5622</v>
+        <v>5765</v>
       </c>
       <c r="C68">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D68">
-        <v>738</v>
+        <v>752</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B69">
-        <v>5445</v>
+        <v>5627</v>
       </c>
       <c r="C69">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D69">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B70">
-        <v>5289</v>
+        <v>5451</v>
       </c>
       <c r="C70">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70">
-        <v>707</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B71">
-        <v>5103</v>
+        <v>5295</v>
       </c>
       <c r="C71">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D71">
-        <v>674</v>
+        <v>707</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B72">
-        <v>4948</v>
+        <v>5107</v>
       </c>
       <c r="C72">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D72">
-        <v>657</v>
+        <v>674</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B73">
-        <v>4748</v>
+        <v>4952</v>
       </c>
       <c r="C73">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D73">
-        <v>638</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B74">
-        <v>4630</v>
+        <v>4752</v>
       </c>
       <c r="C74">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D74">
-        <v>613</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B75">
-        <v>4413</v>
+        <v>4634</v>
       </c>
       <c r="C75">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D75">
-        <v>589</v>
+        <v>613</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B76">
-        <v>4161</v>
+        <v>4417</v>
       </c>
       <c r="C76">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D76">
-        <v>563</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B77">
-        <v>3979</v>
+        <v>4165</v>
       </c>
       <c r="C77">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D77">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B78">
-        <v>3725</v>
+        <v>3983</v>
       </c>
       <c r="C78">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D78">
-        <v>507</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B79">
-        <v>3482</v>
+        <v>3730</v>
       </c>
       <c r="C79">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D79">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B80">
-        <v>3229</v>
+        <v>3489</v>
       </c>
       <c r="C80">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D80">
-        <v>452</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B81">
-        <v>3067</v>
+        <v>3241</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D81">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B82">
-        <v>2911</v>
+        <v>3078</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D82">
-        <v>401</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B83">
-        <v>2738</v>
+        <v>2923</v>
       </c>
       <c r="C83">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B84">
-        <v>2591</v>
+        <v>2748</v>
       </c>
       <c r="C84">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84">
-        <v>354</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B85">
-        <v>2453</v>
+        <v>2600</v>
       </c>
       <c r="C85">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D85">
-        <v>314</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B86">
-        <v>2305</v>
+        <v>2463</v>
       </c>
       <c r="C86">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86">
-        <v>293</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B87">
-        <v>2177</v>
+        <v>2316</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D87">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B88">
-        <v>2085</v>
+        <v>2187</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D88">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B89">
-        <v>1974</v>
+        <v>2096</v>
       </c>
       <c r="C89">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B90">
-        <v>1866</v>
+        <v>1988</v>
       </c>
       <c r="C90">
         <v>14</v>
       </c>
       <c r="D90">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B91">
-        <v>1742</v>
+        <v>1879</v>
       </c>
       <c r="C91">
         <v>14</v>
       </c>
       <c r="D91">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B92">
-        <v>1620</v>
+        <v>1757</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B93">
-        <v>1522</v>
+        <v>1631</v>
       </c>
       <c r="C93">
         <v>12</v>
       </c>
       <c r="D93">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B94">
-        <v>1445</v>
+        <v>1531</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B95">
-        <v>1371</v>
+        <v>1450</v>
       </c>
       <c r="C95">
         <v>11</v>
       </c>
       <c r="D95">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B96">
-        <v>1283</v>
+        <v>1376</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B97">
-        <v>1206</v>
+        <v>1288</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D97">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B98">
-        <v>1129</v>
+        <v>1208</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B99">
-        <v>1056</v>
+        <v>1131</v>
       </c>
       <c r="C99">
         <v>5</v>
       </c>
       <c r="D99">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B100">
-        <v>985</v>
+        <v>1059</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B101">
-        <v>897</v>
+        <v>987</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B102">
-        <v>846</v>
+        <v>899</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B103">
-        <v>780</v>
+        <v>848</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B104">
-        <v>706</v>
+        <v>783</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B105">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B106">
-        <v>545</v>
+        <v>634</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B107">
-        <v>447</v>
+        <v>548</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B108">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B109">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B110">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B111">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B112">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B113">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B114">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4963,10 +4978,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B115">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4977,10 +4992,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B116">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4991,10 +5006,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B117">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5005,10 +5020,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B118">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -5019,10 +5034,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B119">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -5033,10 +5048,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B120">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -5047,10 +5062,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B121">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5061,10 +5076,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B122">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5075,10 +5090,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5089,10 +5104,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5103,10 +5118,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5117,10 +5132,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5131,10 +5146,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5145,10 +5160,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B128">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5159,10 +5174,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5173,10 +5188,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5187,10 +5202,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B131">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5201,10 +5216,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5215,10 +5230,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5229,10 +5244,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5243,10 +5258,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5257,29 +5272,43 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>43851</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <v>1</v>
       </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D136">
+  <sortState ref="A2:D137">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5304,1396 +5333,1396 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2">
-        <v>12432</v>
+        <v>12503</v>
       </c>
       <c r="C2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D2">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B3">
-        <v>12432</v>
+        <v>12500</v>
       </c>
       <c r="C3">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="D3">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B4">
-        <v>12425</v>
+        <v>12497</v>
       </c>
       <c r="C4">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="D4">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B5">
-        <v>12414</v>
+        <v>12490</v>
       </c>
       <c r="C5">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="D5">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B6">
-        <v>12404</v>
+        <v>12480</v>
       </c>
       <c r="C6">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D6">
-        <v>1091</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B7">
-        <v>12401</v>
+        <v>12470</v>
       </c>
       <c r="C7">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="D7">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B8">
-        <v>12393</v>
+        <v>12467</v>
       </c>
       <c r="C8">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D8">
-        <v>1090</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B9">
-        <v>12382</v>
+        <v>12456</v>
       </c>
       <c r="C9">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D9">
-        <v>1089</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B10">
-        <v>12375</v>
+        <v>12442</v>
       </c>
       <c r="C10">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D10">
-        <v>1088</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B11">
-        <v>12366</v>
+        <v>12431</v>
       </c>
       <c r="C11">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="D11">
-        <v>1086</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B12">
-        <v>12346</v>
+        <v>12420</v>
       </c>
       <c r="C12">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D12">
-        <v>1082</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B13">
-        <v>12325</v>
+        <v>12395</v>
       </c>
       <c r="C13">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D13">
-        <v>1081</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B14">
-        <v>12296</v>
+        <v>12367</v>
       </c>
       <c r="C14">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D14">
-        <v>1078</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B15">
-        <v>12255</v>
+        <v>12336</v>
       </c>
       <c r="C15">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D15">
-        <v>1075</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B16">
-        <v>12180</v>
+        <v>12270</v>
       </c>
       <c r="C16">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D16">
-        <v>1072</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B17">
-        <v>12118</v>
+        <v>12190</v>
       </c>
       <c r="C17">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D17">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B18">
-        <v>12050</v>
+        <v>12123</v>
       </c>
       <c r="C18">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D18">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B19">
-        <v>11962</v>
+        <v>12055</v>
       </c>
       <c r="C19">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D19">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B20">
-        <v>11880</v>
+        <v>11967</v>
       </c>
       <c r="C20">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D20">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B21">
-        <v>11794</v>
+        <v>11886</v>
       </c>
       <c r="C21">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D21">
-        <v>1067</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B22">
-        <v>11656</v>
+        <v>11800</v>
       </c>
       <c r="C22">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D22">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B23">
-        <v>11574</v>
+        <v>11662</v>
       </c>
       <c r="C23">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D23">
-        <v>1062</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B24">
-        <v>11476</v>
+        <v>11580</v>
       </c>
       <c r="C24">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D24">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B25">
-        <v>11376</v>
+        <v>11482</v>
       </c>
       <c r="C25">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D25">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B26">
-        <v>11243</v>
+        <v>11381</v>
       </c>
       <c r="C26">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D26">
-        <v>1055</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B27">
-        <v>11120</v>
+        <v>11248</v>
       </c>
       <c r="C27">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D27">
-        <v>1052</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B28">
-        <v>10978</v>
+        <v>11125</v>
       </c>
       <c r="C28">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D28">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B29">
-        <v>10802</v>
+        <v>10983</v>
       </c>
       <c r="C29">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B30">
-        <v>10629</v>
+        <v>10807</v>
       </c>
       <c r="C30">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B31">
-        <v>10463</v>
+        <v>10634</v>
       </c>
       <c r="C31">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D31">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B32">
-        <v>10339</v>
+        <v>10468</v>
       </c>
       <c r="C32">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D32">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B33">
-        <v>10162</v>
+        <v>10344</v>
       </c>
       <c r="C33">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B34">
-        <v>9735</v>
+        <v>10166</v>
       </c>
       <c r="C34">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D34">
-        <v>1025</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B35">
-        <v>9572</v>
+        <v>9739</v>
       </c>
       <c r="C35">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B36">
-        <v>9424</v>
+        <v>9577</v>
       </c>
       <c r="C36">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D36">
-        <v>1012</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B37">
-        <v>9291</v>
+        <v>9429</v>
       </c>
       <c r="C37">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D37">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B38">
-        <v>9123</v>
+        <v>9296</v>
       </c>
       <c r="C38">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38">
-        <v>1006</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B39">
-        <v>8977</v>
+        <v>9128</v>
       </c>
       <c r="C39">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B40">
-        <v>8813</v>
+        <v>8982</v>
       </c>
       <c r="C40">
         <v>125</v>
       </c>
       <c r="D40">
-        <v>995</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B41">
-        <v>8671</v>
+        <v>8817</v>
       </c>
       <c r="C41">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B42">
-        <v>8512</v>
+        <v>8675</v>
       </c>
       <c r="C42">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B43">
-        <v>8317</v>
+        <v>8516</v>
       </c>
       <c r="C43">
         <v>121</v>
       </c>
       <c r="D43">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B44">
-        <v>8143</v>
+        <v>8321</v>
       </c>
       <c r="C44">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D44">
-        <v>964</v>
+        <v>971</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B45">
-        <v>7982</v>
+        <v>8147</v>
       </c>
       <c r="C45">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D45">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B46">
-        <v>7811</v>
+        <v>7986</v>
       </c>
       <c r="C46">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D46">
-        <v>938</v>
+        <v>951</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B47">
-        <v>7634</v>
+        <v>7815</v>
       </c>
       <c r="C47">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D47">
-        <v>929</v>
+        <v>938</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B48">
-        <v>7499</v>
+        <v>7638</v>
       </c>
       <c r="C48">
         <v>105</v>
       </c>
       <c r="D48">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B49">
-        <v>7377</v>
+        <v>7503</v>
       </c>
       <c r="C49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B50">
-        <v>7218</v>
+        <v>7381</v>
       </c>
       <c r="C50">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D50">
-        <v>910</v>
+        <v>918</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B51">
-        <v>7131</v>
+        <v>7222</v>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B52">
-        <v>7040</v>
+        <v>7135</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D52">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B53">
-        <v>6898</v>
+        <v>7044</v>
       </c>
       <c r="C53">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D53">
-        <v>877</v>
+        <v>888</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B54">
-        <v>6783</v>
+        <v>6902</v>
       </c>
       <c r="C54">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D54">
-        <v>865</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B55">
-        <v>6647</v>
+        <v>6787</v>
       </c>
       <c r="C55">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D55">
-        <v>856</v>
+        <v>865</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B56">
-        <v>6532</v>
+        <v>6651</v>
       </c>
       <c r="C56">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D56">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B57">
-        <v>6369</v>
+        <v>6536</v>
       </c>
       <c r="C57">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D57">
-        <v>841</v>
+        <v>850</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B58">
-        <v>6218</v>
+        <v>6373</v>
       </c>
       <c r="C58">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D58">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B59">
-        <v>6076</v>
+        <v>6222</v>
       </c>
       <c r="C59">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D59">
-        <v>820</v>
+        <v>829</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B60">
-        <v>5938</v>
+        <v>6080</v>
       </c>
       <c r="C60">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D60">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B61">
-        <v>5800</v>
+        <v>5942</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D61">
-        <v>796</v>
+        <v>807</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B62">
-        <v>5628</v>
+        <v>5803</v>
       </c>
       <c r="C62">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D62">
-        <v>781</v>
+        <v>796</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B63">
-        <v>5442</v>
+        <v>5631</v>
       </c>
       <c r="C63">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D63">
-        <v>756</v>
+        <v>781</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B64">
-        <v>5290</v>
+        <v>5445</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>743</v>
+        <v>756</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B65">
-        <v>5124</v>
+        <v>5293</v>
       </c>
       <c r="C65">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D65">
-        <v>727</v>
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B66">
-        <v>4985</v>
+        <v>5127</v>
       </c>
       <c r="C66">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D66">
-        <v>709</v>
+        <v>727</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B67">
-        <v>4890</v>
+        <v>4988</v>
       </c>
       <c r="C67">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D67">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B68">
-        <v>4769</v>
+        <v>4893</v>
       </c>
       <c r="C68">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D68">
-        <v>681</v>
+        <v>701</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B69">
-        <v>4607</v>
+        <v>4772</v>
       </c>
       <c r="C69">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D69">
-        <v>665</v>
+        <v>681</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B70">
-        <v>4435</v>
+        <v>4610</v>
       </c>
       <c r="C70">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D70">
-        <v>639</v>
+        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B71">
-        <v>4240</v>
+        <v>4438</v>
       </c>
       <c r="C71">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D71">
-        <v>612</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B72">
-        <v>4050</v>
+        <v>4242</v>
       </c>
       <c r="C72">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D72">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B73">
-        <v>3769</v>
+        <v>4053</v>
       </c>
       <c r="C73">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D73">
-        <v>565</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B74">
-        <v>3597</v>
+        <v>3772</v>
       </c>
       <c r="C74">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D74">
-        <v>548</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B75">
-        <v>3443</v>
+        <v>3599</v>
       </c>
       <c r="C75">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D75">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B76">
-        <v>3132</v>
+        <v>3445</v>
       </c>
       <c r="C76">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D76">
-        <v>487</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B77">
-        <v>2886</v>
+        <v>3135</v>
       </c>
       <c r="C77">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D77">
-        <v>446</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B78">
-        <v>2686</v>
+        <v>2888</v>
       </c>
       <c r="C78">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78">
-        <v>417</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B79">
-        <v>2499</v>
+        <v>2688</v>
       </c>
       <c r="C79">
         <v>26</v>
       </c>
       <c r="D79">
-        <v>382</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B80">
-        <v>2267</v>
+        <v>2501</v>
       </c>
       <c r="C80">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D80">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B81">
-        <v>2129</v>
+        <v>2269</v>
       </c>
       <c r="C81">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D81">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B82">
-        <v>2022</v>
+        <v>2131</v>
       </c>
       <c r="C82">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D82">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B83">
-        <v>1917</v>
+        <v>2024</v>
       </c>
       <c r="C83">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D83">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B84">
-        <v>1772</v>
+        <v>1917</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B85">
-        <v>1642</v>
+        <v>1772</v>
       </c>
       <c r="C85">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B86">
-        <v>1489</v>
+        <v>1642</v>
       </c>
       <c r="C86">
         <v>14</v>
       </c>
       <c r="D86">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B87">
-        <v>1388</v>
+        <v>1489</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D87">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B88">
-        <v>1333</v>
+        <v>1388</v>
       </c>
       <c r="C88">
         <v>11</v>
       </c>
       <c r="D88">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B89">
-        <v>1228</v>
+        <v>1333</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B90">
-        <v>1121</v>
+        <v>1228</v>
       </c>
       <c r="C90">
         <v>10</v>
       </c>
       <c r="D90">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B91">
-        <v>1027</v>
+        <v>1121</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B92">
-        <v>935</v>
+        <v>1027</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B93">
-        <v>857</v>
+        <v>935</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B94">
-        <v>781</v>
+        <v>857</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B95">
-        <v>752</v>
+        <v>781</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B96">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="C96">
         <v>4</v>
       </c>
       <c r="D96">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B97">
-        <v>603</v>
+        <v>709</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B98">
-        <v>488</v>
+        <v>603</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B99">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B100">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B101">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6704,38 +6733,38 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B102">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B103">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B104">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6746,10 +6775,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B105">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6760,10 +6789,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B106">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6774,10 +6803,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B107">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6788,10 +6817,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B108">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6802,10 +6831,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B109">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6816,10 +6845,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B110">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6830,24 +6859,24 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B111">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B112">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6858,10 +6887,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B113">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6872,10 +6901,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B114">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6886,10 +6915,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B115">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6900,24 +6929,24 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B116">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B117">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6928,13 +6957,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B118">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -6942,10 +6971,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B119">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -6956,10 +6985,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B120">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -6970,10 +6999,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -6984,10 +7013,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -6998,10 +7027,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7012,10 +7041,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B124">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7026,10 +7055,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B125">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7040,10 +7069,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7054,10 +7083,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -7068,10 +7097,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -7082,22 +7111,36 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
         <v>43853</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>2</v>
       </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D129">
+  <sortState ref="A2:D130">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
-    <sheet name="Cases by Outcome" sheetId="16" r:id="rId2"/>
-    <sheet name="Outbreaks" sheetId="22" r:id="rId3"/>
+    <sheet name="Outbreaks" sheetId="22" r:id="rId2"/>
+    <sheet name="Cases by Outcome" sheetId="16" r:id="rId3"/>
     <sheet name="Cases by Age" sheetId="13" r:id="rId4"/>
     <sheet name="Cases by Episode Date" sheetId="14" r:id="rId5"/>
     <sheet name="Cases by Reported Date" sheetId="17" r:id="rId6"/>
@@ -23,8 +23,8 @@
     <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
     <sheet name="Currently Hospitalized" sheetId="20" r:id="rId10"/>
     <sheet name="Ever Hospitalized" sheetId="21" r:id="rId11"/>
-    <sheet name="Severity Indicators by Age Grou" sheetId="23" r:id="rId12"/>
-    <sheet name="Source of Infection" sheetId="24" r:id="rId13"/>
+    <sheet name="Source of Infection" sheetId="23" r:id="rId12"/>
+    <sheet name="Severity Indicators by Age Grou" sheetId="24" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of June 30, 2020</t>
+    <t>Data as of July 1, 2020</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
@@ -56,31 +56,31 @@
     <t>50-59</t>
   </si>
   <si>
-    <t>70-79</t>
+    <t>40-49</t>
+  </si>
+  <si>
+    <t>60-69</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>≤19</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>≤19</t>
-  </si>
-  <si>
-    <t>90+</t>
-  </si>
-  <si>
-    <t>40-49</t>
-  </si>
-  <si>
     <t>80-89</t>
   </si>
   <si>
-    <t>60-69</t>
+    <t>70-79</t>
   </si>
   <si>
     <t>20-29</t>
   </si>
   <si>
-    <t>30-39</t>
+    <t>90+</t>
   </si>
   <si>
     <t>Episode Date</t>
@@ -89,16 +89,16 @@
     <t>Client Gender</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <t>Transgender</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Transgender</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -125,16 +125,13 @@
     <t>% of Total Cases</t>
   </si>
   <si>
-    <t>Currently Hospitalized</t>
-  </si>
-  <si>
     <t>Currently Intubated</t>
   </si>
   <si>
     <t>Currently in ICU</t>
   </si>
   <si>
-    <t>Ever Intubated</t>
+    <t>Currently Hospitalized</t>
   </si>
   <si>
     <t>Ever in ICU</t>
@@ -143,7 +140,28 @@
     <t>Ever Hospitalized</t>
   </si>
   <si>
+    <t>Ever Intubated</t>
+  </si>
+  <si>
     <t>Outbreak Count</t>
+  </si>
+  <si>
+    <t>Most Likely Source</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Close contact with a case</t>
   </si>
   <si>
     <t>ICU Cases</t>
@@ -153,24 +171,6 @@
   </si>
   <si>
     <t>Intubated Cases</t>
-  </si>
-  <si>
-    <t>Most Likely Source</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Close contact with a case</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Institutional</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,9 +520,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -540,10 +537,10 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>1.452296574</v>
+        <v>0.27647221500000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -551,10 +548,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>0.29184907199999999</v>
+        <v>0.31794304699999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -562,10 +559,10 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="C4">
-        <v>0.36133694700000002</v>
+        <v>1.2994194080000001</v>
       </c>
     </row>
   </sheetData>
@@ -580,9 +577,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -600,10 +594,10 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C2">
-        <v>1.9734556320000001</v>
+        <v>2.7370749239999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -611,10 +605,10 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>394</v>
+        <v>1820</v>
       </c>
       <c r="C3">
-        <v>2.7378222499999998</v>
+        <v>12.579485761999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -622,10 +616,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>1813</v>
+        <v>284</v>
       </c>
       <c r="C4">
-        <v>12.598151623</v>
+        <v>1.9629527229999999</v>
       </c>
     </row>
   </sheetData>
@@ -634,6 +628,72 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>5.5825833129999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>10.301629774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>3.4906348820000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>24.227681829000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>56.397470202000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -646,21 +706,21 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -680,13 +740,13 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -694,16 +754,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -711,7 +771,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -720,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -734,7 +794,7 @@
         <v>95</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>295</v>
@@ -745,7 +805,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>107</v>
@@ -762,13 +822,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>87</v>
       </c>
       <c r="C8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D8">
         <v>352</v>
@@ -796,16 +856,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -813,7 +873,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -836,123 +896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>24.190382727999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>5.605986261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>56.391069676000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>10.255152109999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>3.5574092249999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>14391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>12503</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:B4">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -967,10 +911,58 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>14468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>12574</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B4">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -979,7 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -996,13 +990,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>5.850879022</v>
+        <v>5.8888581699999998</v>
       </c>
       <c r="C2">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1010,32 +1004,32 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>14.251963032000001</v>
+        <v>14.300525297</v>
       </c>
       <c r="C3">
-        <v>2051</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>14.064345771999999</v>
+        <v>14.058612109</v>
       </c>
       <c r="C4">
-        <v>2024</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>14.057396984</v>
+        <v>14.065523915</v>
       </c>
       <c r="C5">
-        <v>2023</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1043,32 +1037,32 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15.780696269</v>
+        <v>15.752004424000001</v>
       </c>
       <c r="C6">
-        <v>2271</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>10.867903550999999</v>
+        <v>10.851534421</v>
       </c>
       <c r="C7">
-        <v>1564</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>7.1086095479999996</v>
+        <v>7.0846004980000004</v>
       </c>
       <c r="C8">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,32 +1070,32 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>10.374539643</v>
+        <v>10.360796240000001</v>
       </c>
       <c r="C9">
-        <v>1493</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>7.4213049819999997</v>
+        <v>7.4232789600000002</v>
       </c>
       <c r="C10">
-        <v>1068</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.22236119800000001</v>
+        <v>0.214265966</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1114,11 +1108,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1135,87 +1127,87 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B12">
         <v>45</v>
@@ -1223,631 +1215,631 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B23">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B31">
-        <v>191</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B32">
-        <v>96</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B36">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B37">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B38">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B39">
-        <v>143</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B40">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B41">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B42">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B43">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B44">
-        <v>207</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B45">
-        <v>161</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B46">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B47">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B48">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B49">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B50">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B52">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B53">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B54">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B55">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B56">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B57">
-        <v>124</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B58">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B59">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B60">
-        <v>111</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B61">
-        <v>152</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B62">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B63">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B64">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B65">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B66">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B67">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B68">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B69">
-        <v>190</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B70">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B71">
-        <v>223</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B72">
-        <v>176</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B73">
-        <v>220</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B74">
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B75">
-        <v>244</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B76">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B77">
-        <v>204</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B78">
-        <v>291</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B79">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B80">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B81">
-        <v>187</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B82">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B83">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B84">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B85">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B86">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B87">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B88">
-        <v>117</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B89">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B90">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B91">
         <v>143</v>
@@ -1855,55 +1847,55 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B92">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B93">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B94">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B95">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B96">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B97">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B98">
         <v>93</v>
@@ -1911,231 +1903,231 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B99">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B100">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B101">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B102">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B103">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B104">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B105">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B106">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B107">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B108">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B109">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B110">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B111">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B112">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B113">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B114">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B115">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -2143,7 +2135,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -2151,23 +2143,23 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2175,23 +2167,23 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -2199,7 +2191,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2207,7 +2199,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -2215,14 +2207,22 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
     </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B137">
+  <sortState ref="A2:B138">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2231,9 +2231,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2250,471 +2252,471 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B14">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B18">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B22">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B26">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B28">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B29">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B30">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B31">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B33">
-        <v>186</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B34">
-        <v>440</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B35">
-        <v>172</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B36">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B37">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B38">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B39">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B40">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B41">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B42">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B43">
-        <v>210</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B44">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B45">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B46">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B47">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B48">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B50">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51">
-        <v>101</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B52">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B53">
-        <v>156</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B54">
-        <v>129</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B55">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B56">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B57">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B58">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B59">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B60">
         <v>155</v>
@@ -2722,463 +2724,463 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B61">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B62">
-        <v>188</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B63">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B64">
-        <v>168</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B65">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B66">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B67">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B68">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B69">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B70">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B71">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B72">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B73">
-        <v>309</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B74">
-        <v>193</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B75">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B76">
-        <v>365</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B77">
-        <v>294</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B78">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B79">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B80">
-        <v>275</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B81">
-        <v>170</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B82">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B83">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B84">
-        <v>173</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B85">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B86">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B87">
-        <v>129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B88">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B89">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B90">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B91">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B92">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B93">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B94">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B95">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B96">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B97">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B98">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B99">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B100">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B101">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B102">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B104">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B105">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B106">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B109">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B111">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B112">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -3186,15 +3188,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -3202,15 +3204,15 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3218,23 +3220,23 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3242,7 +3244,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3250,7 +3252,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3258,7 +3260,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -3266,7 +3268,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -3274,14 +3276,22 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
         <v>43853</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B130">
+  <sortState ref="A2:B131">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3293,7 +3303,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3314,10 +3324,10 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>4.1692725E-2</v>
+        <v>4.8382637999999999E-2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3325,10 +3335,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>53.095684802999997</v>
+        <v>45.217030688000001</v>
       </c>
       <c r="C3">
-        <v>7641</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3336,18 +3346,18 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>45.153220763</v>
+        <v>4.1470831999999999E-2</v>
       </c>
       <c r="C4">
-        <v>6498</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1.6607601970000001</v>
+        <v>1.6519214820000001</v>
       </c>
       <c r="C5">
         <v>239</v>
@@ -3358,10 +3368,10 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>4.8641511999999998E-2</v>
+        <v>53.041194359999999</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>7674</v>
       </c>
     </row>
   </sheetData>
@@ -3371,7 +3381,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3396,1424 +3406,1424 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2">
-        <v>12503</v>
+        <v>12574</v>
       </c>
       <c r="C2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D2">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B3">
-        <v>12503</v>
+        <v>12574</v>
       </c>
       <c r="C3">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D3">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B4">
-        <v>12502</v>
+        <v>12574</v>
       </c>
       <c r="C4">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="D4">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B5">
-        <v>12502</v>
+        <v>12572</v>
       </c>
       <c r="C5">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="D5">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B6">
-        <v>12502</v>
+        <v>12572</v>
       </c>
       <c r="C6">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="D6">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B7">
-        <v>12502</v>
+        <v>12572</v>
       </c>
       <c r="C7">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="D7">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B8">
-        <v>12502</v>
+        <v>12571</v>
       </c>
       <c r="C8">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="D8">
-        <v>1095</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B9">
-        <v>12501</v>
+        <v>12571</v>
       </c>
       <c r="C9">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D9">
-        <v>1094</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B10">
-        <v>12499</v>
+        <v>12570</v>
       </c>
       <c r="C10">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D10">
-        <v>1093</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B11">
-        <v>12492</v>
+        <v>12569</v>
       </c>
       <c r="C11">
         <v>471</v>
       </c>
       <c r="D11">
-        <v>1093</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B12">
-        <v>12491</v>
+        <v>12563</v>
       </c>
       <c r="C12">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="D12">
-        <v>1093</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B13">
-        <v>12489</v>
+        <v>12562</v>
       </c>
       <c r="C13">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="D13">
-        <v>1091</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B14">
-        <v>12489</v>
+        <v>12560</v>
       </c>
       <c r="C14">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="D14">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B15">
-        <v>12487</v>
+        <v>12560</v>
       </c>
       <c r="C15">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D15">
-        <v>1088</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B16">
-        <v>12480</v>
+        <v>12557</v>
       </c>
       <c r="C16">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D16">
-        <v>1087</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B17">
-        <v>12474</v>
+        <v>12545</v>
       </c>
       <c r="C17">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D17">
-        <v>1084</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B18">
-        <v>12402</v>
+        <v>12496</v>
       </c>
       <c r="C18">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D18">
-        <v>1083</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B19">
-        <v>12341</v>
+        <v>12423</v>
       </c>
       <c r="C19">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D19">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B20">
-        <v>12304</v>
+        <v>12361</v>
       </c>
       <c r="C20">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D20">
-        <v>1082</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B21">
-        <v>12235</v>
+        <v>12324</v>
       </c>
       <c r="C21">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D21">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B22">
-        <v>12146</v>
+        <v>12255</v>
       </c>
       <c r="C22">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D22">
-        <v>1081</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B23">
-        <v>12074</v>
+        <v>12164</v>
       </c>
       <c r="C23">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D23">
-        <v>1079</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B24">
-        <v>12008</v>
+        <v>12092</v>
       </c>
       <c r="C24">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D24">
-        <v>1077</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B25">
-        <v>11913</v>
+        <v>12024</v>
       </c>
       <c r="C25">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D25">
-        <v>1075</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B26">
-        <v>11824</v>
+        <v>11928</v>
       </c>
       <c r="C26">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D26">
-        <v>1072</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B27">
-        <v>11746</v>
+        <v>11838</v>
       </c>
       <c r="C27">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D27">
-        <v>1070</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B28">
-        <v>11656</v>
+        <v>11760</v>
       </c>
       <c r="C28">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D28">
-        <v>1066</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B29">
-        <v>11541</v>
+        <v>11670</v>
       </c>
       <c r="C29">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D29">
-        <v>1062</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B30">
-        <v>11436</v>
+        <v>11555</v>
       </c>
       <c r="C30">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D30">
-        <v>1060</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B31">
-        <v>11324</v>
+        <v>11449</v>
       </c>
       <c r="C31">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D31">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B32">
-        <v>11140</v>
+        <v>11337</v>
       </c>
       <c r="C32">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D32">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B33">
-        <v>11048</v>
+        <v>11153</v>
       </c>
       <c r="C33">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D33">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B34">
-        <v>10946</v>
+        <v>11061</v>
       </c>
       <c r="C34">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D34">
-        <v>1051</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B35">
-        <v>10825</v>
+        <v>10959</v>
       </c>
       <c r="C35">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D35">
-        <v>1046</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B36">
-        <v>10710</v>
+        <v>10838</v>
       </c>
       <c r="C36">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D36">
-        <v>1042</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B37">
-        <v>10554</v>
+        <v>10723</v>
       </c>
       <c r="C37">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D37">
-        <v>1034</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B38">
-        <v>10379</v>
+        <v>10568</v>
       </c>
       <c r="C38">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D38">
-        <v>1030</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B39">
-        <v>10206</v>
+        <v>10393</v>
       </c>
       <c r="C39">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D39">
-        <v>1024</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B40">
-        <v>10065</v>
+        <v>10222</v>
       </c>
       <c r="C40">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D40">
-        <v>1023</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B41">
-        <v>9936</v>
+        <v>10081</v>
       </c>
       <c r="C41">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D41">
-        <v>1021</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B42">
-        <v>9794</v>
+        <v>9952</v>
       </c>
       <c r="C42">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D42">
-        <v>1015</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B43">
-        <v>9607</v>
+        <v>9810</v>
       </c>
       <c r="C43">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D43">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B44">
-        <v>9454</v>
+        <v>9624</v>
       </c>
       <c r="C44">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D44">
-        <v>1009</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B45">
-        <v>9257</v>
+        <v>9471</v>
       </c>
       <c r="C45">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D45">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B46">
-        <v>9103</v>
+        <v>9274</v>
       </c>
       <c r="C46">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D46">
-        <v>997</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B47">
-        <v>8960</v>
+        <v>9120</v>
       </c>
       <c r="C47">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D47">
-        <v>983</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B48">
-        <v>8791</v>
+        <v>8977</v>
       </c>
       <c r="C48">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D48">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B49">
-        <v>8587</v>
+        <v>8808</v>
       </c>
       <c r="C49">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D49">
-        <v>969</v>
+        <v>977</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B50">
-        <v>8425</v>
+        <v>8604</v>
       </c>
       <c r="C50">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D50">
-        <v>962</v>
+        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51">
-        <v>8286</v>
+        <v>8442</v>
       </c>
       <c r="C51">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D51">
-        <v>950</v>
+        <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B52">
-        <v>8153</v>
+        <v>8303</v>
       </c>
       <c r="C52">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D52">
-        <v>938</v>
+        <v>953</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B53">
-        <v>7982</v>
+        <v>8170</v>
       </c>
       <c r="C53">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D53">
-        <v>925</v>
+        <v>941</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B54">
-        <v>7875</v>
+        <v>7997</v>
       </c>
       <c r="C54">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D54">
-        <v>920</v>
+        <v>929</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B55">
-        <v>7753</v>
+        <v>7889</v>
       </c>
       <c r="C55">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D55">
-        <v>907</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B56">
-        <v>7587</v>
+        <v>7767</v>
       </c>
       <c r="C56">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D56">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B57">
-        <v>7421</v>
+        <v>7598</v>
       </c>
       <c r="C57">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D57">
-        <v>885</v>
+        <v>898</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B58">
-        <v>7310</v>
+        <v>7432</v>
       </c>
       <c r="C58">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D58">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B59">
-        <v>7167</v>
+        <v>7321</v>
       </c>
       <c r="C59">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D59">
-        <v>868</v>
+        <v>877</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B60">
-        <v>7022</v>
+        <v>7177</v>
       </c>
       <c r="C60">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D60">
-        <v>855</v>
+        <v>870</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B61">
-        <v>6918</v>
+        <v>7032</v>
       </c>
       <c r="C61">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D61">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B62">
-        <v>6777</v>
+        <v>6928</v>
       </c>
       <c r="C62">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D62">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B63">
-        <v>6591</v>
+        <v>6787</v>
       </c>
       <c r="C63">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D63">
-        <v>830</v>
+        <v>844</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B64">
-        <v>6420</v>
+        <v>6601</v>
       </c>
       <c r="C64">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>817</v>
+        <v>832</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B65">
-        <v>6260</v>
+        <v>6429</v>
       </c>
       <c r="C65">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D65">
-        <v>796</v>
+        <v>819</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B66">
-        <v>6070</v>
+        <v>6264</v>
       </c>
       <c r="C66">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D66">
-        <v>775</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B67">
-        <v>5884</v>
+        <v>6073</v>
       </c>
       <c r="C67">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D67">
-        <v>763</v>
+        <v>777</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B68">
-        <v>5765</v>
+        <v>5886</v>
       </c>
       <c r="C68">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D68">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B69">
-        <v>5627</v>
+        <v>5767</v>
       </c>
       <c r="C69">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D69">
-        <v>738</v>
+        <v>753</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B70">
-        <v>5451</v>
+        <v>5631</v>
       </c>
       <c r="C70">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D70">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B71">
-        <v>5295</v>
+        <v>5456</v>
       </c>
       <c r="C71">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D71">
-        <v>707</v>
+        <v>726</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B72">
-        <v>5107</v>
+        <v>5298</v>
       </c>
       <c r="C72">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D72">
-        <v>674</v>
+        <v>707</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B73">
-        <v>4952</v>
+        <v>5112</v>
       </c>
       <c r="C73">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D73">
-        <v>657</v>
+        <v>674</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B74">
-        <v>4752</v>
+        <v>4957</v>
       </c>
       <c r="C74">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D74">
-        <v>638</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B75">
-        <v>4634</v>
+        <v>4756</v>
       </c>
       <c r="C75">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D75">
-        <v>613</v>
+        <v>638</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B76">
-        <v>4417</v>
+        <v>4638</v>
       </c>
       <c r="C76">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D76">
-        <v>589</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B77">
-        <v>4165</v>
+        <v>4420</v>
       </c>
       <c r="C77">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D77">
-        <v>563</v>
+        <v>589</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B78">
-        <v>3983</v>
+        <v>4168</v>
       </c>
       <c r="C78">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D78">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B79">
-        <v>3730</v>
+        <v>3986</v>
       </c>
       <c r="C79">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D79">
-        <v>507</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B80">
-        <v>3489</v>
+        <v>3733</v>
       </c>
       <c r="C80">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B81">
-        <v>3241</v>
+        <v>3493</v>
       </c>
       <c r="C81">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D81">
-        <v>452</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B82">
-        <v>3078</v>
+        <v>3247</v>
       </c>
       <c r="C82">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D82">
-        <v>429</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B83">
-        <v>2923</v>
+        <v>3083</v>
       </c>
       <c r="C83">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D83">
-        <v>401</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B84">
-        <v>2748</v>
+        <v>2927</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D84">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B85">
-        <v>2600</v>
+        <v>2752</v>
       </c>
       <c r="C85">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D85">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B86">
-        <v>2463</v>
+        <v>2605</v>
       </c>
       <c r="C86">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D86">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B87">
-        <v>2316</v>
+        <v>2468</v>
       </c>
       <c r="C87">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87">
-        <v>293</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B88">
-        <v>2187</v>
+        <v>2320</v>
       </c>
       <c r="C88">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88">
-        <v>267</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B89">
-        <v>2096</v>
+        <v>2191</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B90">
-        <v>1988</v>
+        <v>2099</v>
       </c>
       <c r="C90">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B91">
-        <v>1879</v>
+        <v>1991</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B92">
-        <v>1757</v>
+        <v>1880</v>
       </c>
       <c r="C92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B93">
-        <v>1631</v>
+        <v>1759</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B94">
-        <v>1531</v>
+        <v>1633</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B95">
-        <v>1450</v>
+        <v>1534</v>
       </c>
       <c r="C95">
         <v>11</v>
       </c>
       <c r="D95">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B96">
-        <v>1376</v>
+        <v>1453</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B97">
-        <v>1288</v>
+        <v>1379</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B98">
-        <v>1208</v>
+        <v>1291</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B99">
-        <v>1131</v>
+        <v>1210</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B100">
-        <v>1059</v>
+        <v>1133</v>
       </c>
       <c r="C100">
         <v>5</v>
       </c>
       <c r="D100">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B101">
-        <v>987</v>
+        <v>1061</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B102">
-        <v>899</v>
+        <v>989</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B103">
-        <v>848</v>
+        <v>900</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -4824,164 +4834,164 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B104">
-        <v>783</v>
+        <v>849</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B105">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B106">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B107">
-        <v>548</v>
+        <v>636</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B108">
-        <v>449</v>
+        <v>549</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B109">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B110">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B111">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B112">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B113">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B114">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B115">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4992,10 +5002,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B116">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5006,10 +5016,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B117">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5020,10 +5030,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B118">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -5034,10 +5044,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B119">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -5048,10 +5058,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B120">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -5062,10 +5072,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B121">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5076,10 +5086,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B122">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5090,10 +5100,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B123">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5104,10 +5114,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5118,10 +5128,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5132,10 +5142,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5146,10 +5156,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5160,10 +5170,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B128">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5174,10 +5184,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B129">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5188,10 +5198,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5202,10 +5212,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5216,10 +5226,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5230,10 +5240,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B133">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5244,10 +5254,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5258,10 +5268,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5272,10 +5282,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5286,20 +5296,34 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
         <v>43851</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>1</v>
       </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D137">
+  <sortState ref="A2:D138">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5308,7 +5332,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5333,1410 +5357,1410 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2">
-        <v>12503</v>
+        <v>12574</v>
       </c>
       <c r="C2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D2">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B3">
-        <v>12500</v>
+        <v>12569</v>
       </c>
       <c r="C3">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="D3">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B4">
-        <v>12497</v>
+        <v>12562</v>
       </c>
       <c r="C4">
-        <v>681</v>
+        <v>654</v>
       </c>
       <c r="D4">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B5">
-        <v>12490</v>
+        <v>12559</v>
       </c>
       <c r="C5">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="D5">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B6">
-        <v>12480</v>
+        <v>12552</v>
       </c>
       <c r="C6">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="D6">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B7">
-        <v>12470</v>
+        <v>12541</v>
       </c>
       <c r="C7">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D7">
-        <v>1094</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B8">
-        <v>12467</v>
+        <v>12528</v>
       </c>
       <c r="C8">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="D8">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B9">
-        <v>12456</v>
+        <v>12524</v>
       </c>
       <c r="C9">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D9">
-        <v>1093</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B10">
-        <v>12442</v>
+        <v>12508</v>
       </c>
       <c r="C10">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D10">
-        <v>1092</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B11">
-        <v>12431</v>
+        <v>12494</v>
       </c>
       <c r="C11">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D11">
-        <v>1091</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B12">
-        <v>12420</v>
+        <v>12480</v>
       </c>
       <c r="C12">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="D12">
-        <v>1089</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B13">
-        <v>12395</v>
+        <v>12467</v>
       </c>
       <c r="C13">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D13">
-        <v>1085</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B14">
-        <v>12367</v>
+        <v>12436</v>
       </c>
       <c r="C14">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D14">
-        <v>1084</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B15">
-        <v>12336</v>
+        <v>12399</v>
       </c>
       <c r="C15">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D15">
-        <v>1080</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B16">
-        <v>12270</v>
+        <v>12357</v>
       </c>
       <c r="C16">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D16">
-        <v>1077</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B17">
-        <v>12190</v>
+        <v>12282</v>
       </c>
       <c r="C17">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D17">
-        <v>1074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B18">
-        <v>12123</v>
+        <v>12201</v>
       </c>
       <c r="C18">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D18">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B19">
-        <v>12055</v>
+        <v>12133</v>
       </c>
       <c r="C19">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D19">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B20">
-        <v>11967</v>
+        <v>12065</v>
       </c>
       <c r="C20">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D20">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B21">
-        <v>11886</v>
+        <v>11975</v>
       </c>
       <c r="C21">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D21">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B22">
-        <v>11800</v>
+        <v>11893</v>
       </c>
       <c r="C22">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D22">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B23">
-        <v>11662</v>
+        <v>11805</v>
       </c>
       <c r="C23">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D23">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B24">
-        <v>11580</v>
+        <v>11667</v>
       </c>
       <c r="C24">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D24">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B25">
-        <v>11482</v>
+        <v>11585</v>
       </c>
       <c r="C25">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D25">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B26">
-        <v>11381</v>
+        <v>11487</v>
       </c>
       <c r="C26">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D26">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B27">
-        <v>11248</v>
+        <v>11386</v>
       </c>
       <c r="C27">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D27">
-        <v>1057</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B28">
-        <v>11125</v>
+        <v>11255</v>
       </c>
       <c r="C28">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D28">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B29">
-        <v>10983</v>
+        <v>11132</v>
       </c>
       <c r="C29">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D29">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B30">
-        <v>10807</v>
+        <v>10990</v>
       </c>
       <c r="C30">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D30">
-        <v>1049</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B31">
-        <v>10634</v>
+        <v>10814</v>
       </c>
       <c r="C31">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D31">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B32">
-        <v>10468</v>
+        <v>10642</v>
       </c>
       <c r="C32">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D32">
-        <v>1044</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B33">
-        <v>10344</v>
+        <v>10475</v>
       </c>
       <c r="C33">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D33">
-        <v>1042</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B34">
-        <v>10166</v>
+        <v>10351</v>
       </c>
       <c r="C34">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D34">
-        <v>1037</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B35">
-        <v>9739</v>
+        <v>10173</v>
       </c>
       <c r="C35">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D35">
-        <v>1026</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B36">
-        <v>9577</v>
+        <v>9746</v>
       </c>
       <c r="C36">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D36">
-        <v>1019</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B37">
-        <v>9429</v>
+        <v>9584</v>
       </c>
       <c r="C37">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D37">
-        <v>1013</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B38">
-        <v>9296</v>
+        <v>9438</v>
       </c>
       <c r="C38">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D38">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B39">
-        <v>9128</v>
+        <v>9305</v>
       </c>
       <c r="C39">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D39">
-        <v>1006</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B40">
-        <v>8982</v>
+        <v>9137</v>
       </c>
       <c r="C40">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D40">
-        <v>1001</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B41">
-        <v>8817</v>
+        <v>8991</v>
       </c>
       <c r="C41">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D41">
-        <v>995</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B42">
-        <v>8675</v>
+        <v>8825</v>
       </c>
       <c r="C42">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D42">
-        <v>990</v>
+        <v>998</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B43">
-        <v>8516</v>
+        <v>8683</v>
       </c>
       <c r="C43">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D43">
-        <v>984</v>
+        <v>993</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B44">
-        <v>8321</v>
+        <v>8525</v>
       </c>
       <c r="C44">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D44">
-        <v>971</v>
+        <v>987</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B45">
-        <v>8147</v>
+        <v>8331</v>
       </c>
       <c r="C45">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D45">
-        <v>964</v>
+        <v>974</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B46">
-        <v>7986</v>
+        <v>8157</v>
       </c>
       <c r="C46">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D46">
-        <v>951</v>
+        <v>967</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B47">
-        <v>7815</v>
+        <v>7996</v>
       </c>
       <c r="C47">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D47">
-        <v>938</v>
+        <v>954</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B48">
-        <v>7638</v>
+        <v>7824</v>
       </c>
       <c r="C48">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D48">
-        <v>929</v>
+        <v>941</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B49">
-        <v>7503</v>
+        <v>7647</v>
       </c>
       <c r="C49">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D49">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B50">
-        <v>7381</v>
+        <v>7512</v>
       </c>
       <c r="C50">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D50">
-        <v>918</v>
+        <v>927</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51">
-        <v>7222</v>
+        <v>7391</v>
       </c>
       <c r="C51">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D51">
-        <v>910</v>
+        <v>921</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B52">
-        <v>7135</v>
+        <v>7228</v>
       </c>
       <c r="C52">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D52">
-        <v>896</v>
+        <v>913</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B53">
-        <v>7044</v>
+        <v>7142</v>
       </c>
       <c r="C53">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D53">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B54">
-        <v>6902</v>
+        <v>7049</v>
       </c>
       <c r="C54">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D54">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B55">
-        <v>6787</v>
+        <v>6908</v>
       </c>
       <c r="C55">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D55">
-        <v>865</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B56">
-        <v>6651</v>
+        <v>6793</v>
       </c>
       <c r="C56">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B57">
-        <v>6536</v>
+        <v>6656</v>
       </c>
       <c r="C57">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D57">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B58">
-        <v>6373</v>
+        <v>6541</v>
       </c>
       <c r="C58">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D58">
-        <v>841</v>
+        <v>852</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B59">
-        <v>6222</v>
+        <v>6378</v>
       </c>
       <c r="C59">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D59">
-        <v>829</v>
+        <v>843</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B60">
-        <v>6080</v>
+        <v>6227</v>
       </c>
       <c r="C60">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D60">
-        <v>820</v>
+        <v>831</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B61">
-        <v>5942</v>
+        <v>6085</v>
       </c>
       <c r="C61">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D61">
-        <v>807</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B62">
-        <v>5803</v>
+        <v>5946</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D62">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B63">
-        <v>5631</v>
+        <v>5808</v>
       </c>
       <c r="C63">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D63">
-        <v>781</v>
+        <v>798</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B64">
-        <v>5445</v>
+        <v>5634</v>
       </c>
       <c r="C64">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D64">
-        <v>756</v>
+        <v>783</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B65">
-        <v>5293</v>
+        <v>5447</v>
       </c>
       <c r="C65">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D65">
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B66">
-        <v>5127</v>
+        <v>5295</v>
       </c>
       <c r="C66">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D66">
-        <v>727</v>
+        <v>744</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B67">
-        <v>4988</v>
+        <v>5129</v>
       </c>
       <c r="C67">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D67">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B68">
-        <v>4893</v>
+        <v>4990</v>
       </c>
       <c r="C68">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D68">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B69">
-        <v>4772</v>
+        <v>4896</v>
       </c>
       <c r="C69">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D69">
-        <v>681</v>
+        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B70">
-        <v>4610</v>
+        <v>4775</v>
       </c>
       <c r="C70">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D70">
-        <v>665</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B71">
-        <v>4438</v>
+        <v>4614</v>
       </c>
       <c r="C71">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D71">
-        <v>639</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B72">
-        <v>4242</v>
+        <v>4437</v>
       </c>
       <c r="C72">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D72">
-        <v>612</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B73">
-        <v>4053</v>
+        <v>4243</v>
       </c>
       <c r="C73">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D73">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B74">
-        <v>3772</v>
+        <v>4054</v>
       </c>
       <c r="C74">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D74">
-        <v>565</v>
+        <v>591</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B75">
-        <v>3599</v>
+        <v>3776</v>
       </c>
       <c r="C75">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>548</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B76">
-        <v>3445</v>
+        <v>3602</v>
       </c>
       <c r="C76">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D76">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B77">
-        <v>3135</v>
+        <v>3448</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77">
-        <v>487</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B78">
-        <v>2888</v>
+        <v>3138</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78">
-        <v>446</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B79">
-        <v>2688</v>
+        <v>2890</v>
       </c>
       <c r="C79">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D79">
-        <v>417</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B80">
-        <v>2501</v>
+        <v>2690</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D80">
-        <v>382</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B81">
-        <v>2269</v>
+        <v>2503</v>
       </c>
       <c r="C81">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D81">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B82">
-        <v>2131</v>
+        <v>2271</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D82">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B83">
-        <v>2024</v>
+        <v>2132</v>
       </c>
       <c r="C83">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B84">
-        <v>1917</v>
+        <v>2025</v>
       </c>
       <c r="C84">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D84">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B85">
-        <v>1772</v>
+        <v>1917</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B86">
-        <v>1642</v>
+        <v>1772</v>
       </c>
       <c r="C86">
         <v>14</v>
       </c>
       <c r="D86">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B87">
-        <v>1489</v>
+        <v>1641</v>
       </c>
       <c r="C87">
         <v>14</v>
       </c>
       <c r="D87">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B88">
-        <v>1388</v>
+        <v>1488</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D88">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B89">
-        <v>1333</v>
+        <v>1387</v>
       </c>
       <c r="C89">
         <v>11</v>
       </c>
       <c r="D89">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B90">
-        <v>1228</v>
+        <v>1332</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B91">
-        <v>1121</v>
+        <v>1227</v>
       </c>
       <c r="C91">
         <v>10</v>
       </c>
       <c r="D91">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B92">
-        <v>1027</v>
+        <v>1120</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B93">
-        <v>935</v>
+        <v>1026</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B94">
-        <v>857</v>
+        <v>934</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B95">
-        <v>781</v>
+        <v>857</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B96">
-        <v>752</v>
+        <v>781</v>
       </c>
       <c r="C96">
         <v>4</v>
       </c>
       <c r="D96">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B97">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="C97">
         <v>4</v>
       </c>
       <c r="D97">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B98">
-        <v>603</v>
+        <v>709</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B99">
-        <v>488</v>
+        <v>603</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B100">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B101">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B102">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6747,38 +6771,38 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B103">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B104">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B105">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6789,10 +6813,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B106">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6803,10 +6827,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B107">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6817,10 +6841,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B108">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6831,10 +6855,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B109">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6845,10 +6869,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B110">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6859,10 +6883,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B111">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6873,24 +6897,24 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B112">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B113">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6901,10 +6925,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B114">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6915,10 +6939,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B115">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6929,10 +6953,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B116">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6943,24 +6967,24 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B117">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B118">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6971,13 +6995,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -6985,10 +7009,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -6999,10 +7023,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -7013,10 +7037,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -7027,10 +7051,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7041,10 +7065,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B124">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7055,10 +7079,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7069,10 +7093,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7083,10 +7107,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -7097,10 +7121,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -7111,10 +7135,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -7125,20 +7149,34 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
         <v>43853</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>2</v>
       </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D130">
+  <sortState ref="A2:D131">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -14,17 +14,17 @@
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
     <sheet name="Outbreaks" sheetId="22" r:id="rId2"/>
-    <sheet name="Cases by Outcome" sheetId="16" r:id="rId3"/>
-    <sheet name="Cases by Age" sheetId="13" r:id="rId4"/>
-    <sheet name="Cases by Episode Date" sheetId="14" r:id="rId5"/>
-    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId6"/>
-    <sheet name="Cases by Gender" sheetId="15" r:id="rId7"/>
+    <sheet name="Cases by Outcome" sheetId="14" r:id="rId3"/>
+    <sheet name="Cases by Episode Date" sheetId="15" r:id="rId4"/>
+    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId5"/>
+    <sheet name="Cases by Age" sheetId="13" r:id="rId6"/>
+    <sheet name="Cases by Gender" sheetId="16" r:id="rId7"/>
     <sheet name="Cumulative Cases by Episode Dat" sheetId="18" r:id="rId8"/>
     <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
     <sheet name="Currently Hospitalized" sheetId="20" r:id="rId10"/>
     <sheet name="Ever Hospitalized" sheetId="21" r:id="rId11"/>
-    <sheet name="Source of Infection" sheetId="23" r:id="rId12"/>
-    <sheet name="Severity Indicators by Age Grou" sheetId="24" r:id="rId13"/>
+    <sheet name="Severity Indicators by Age Grou" sheetId="23" r:id="rId12"/>
+    <sheet name="Source of Infection" sheetId="24" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of July 1, 2020</t>
+    <t>Data as of July 2, 2020</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
@@ -53,52 +53,34 @@
     <t>Case Count</t>
   </si>
   <si>
-    <t>50-59</t>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>80-89</t>
+  </si>
+  <si>
+    <t>60-69</t>
   </si>
   <si>
     <t>40-49</t>
   </si>
   <si>
-    <t>60-69</t>
+    <t>70-79</t>
   </si>
   <si>
-    <t>30-39</t>
+    <t>50-59</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>≤19</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>80-89</t>
-  </si>
-  <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t>20-29</t>
-  </si>
-  <si>
     <t>90+</t>
-  </si>
-  <si>
-    <t>Episode Date</t>
-  </si>
-  <si>
-    <t>Client Gender</t>
-  </si>
-  <si>
-    <t>Transgender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -111,6 +93,24 @@
   </si>
   <si>
     <t>All Cases</t>
+  </si>
+  <si>
+    <t>Episode Date</t>
+  </si>
+  <si>
+    <t>Client Gender</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Reported Date</t>
@@ -134,34 +134,16 @@
     <t>Currently Hospitalized</t>
   </si>
   <si>
-    <t>Ever in ICU</t>
+    <t>Ever Hospitalized</t>
   </si>
   <si>
-    <t>Ever Hospitalized</t>
+    <t>Ever in ICU</t>
   </si>
   <si>
     <t>Ever Intubated</t>
   </si>
   <si>
     <t>Outbreak Count</t>
-  </si>
-  <si>
-    <t>Most Likely Source</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Institutional</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Close contact with a case</t>
   </si>
   <si>
     <t>ICU Cases</t>
@@ -171,6 +153,24 @@
   </si>
   <si>
     <t>Intubated Cases</t>
+  </si>
+  <si>
+    <t>Most Likely Source</t>
+  </si>
+  <si>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>Close contact with a case</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Community</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,6 +520,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -537,10 +540,10 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>0.27647221500000002</v>
+        <v>0.24058289799999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -548,10 +551,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>0.31794304699999998</v>
+        <v>0.29557327500000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -559,10 +562,10 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C4">
-        <v>1.2994194080000001</v>
+        <v>1.271652461</v>
       </c>
     </row>
   </sheetData>
@@ -594,10 +597,10 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>396</v>
+        <v>1823</v>
       </c>
       <c r="C2">
-        <v>2.7370749239999999</v>
+        <v>12.530932087</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,10 +608,10 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>1820</v>
+        <v>398</v>
       </c>
       <c r="C3">
-        <v>12.579485761999999</v>
+        <v>2.73577124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -616,10 +619,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4">
-        <v>1.9629527229999999</v>
+        <v>1.9452845750000001</v>
       </c>
     </row>
   </sheetData>
@@ -628,72 +631,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>5.5825833129999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>10.301629774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>3.4906348820000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>24.227681829000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>56.397470202000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -706,21 +643,21 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -737,10 +674,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -754,24 +691,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -788,13 +725,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>95</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>295</v>
@@ -805,16 +742,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>99</v>
       </c>
       <c r="D7">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E7">
         <v>77</v>
@@ -822,7 +759,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>87</v>
@@ -831,7 +768,7 @@
         <v>206</v>
       </c>
       <c r="D8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E8">
         <v>63</v>
@@ -839,7 +776,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>37</v>
@@ -848,7 +785,7 @@
         <v>395</v>
       </c>
       <c r="D9">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E9">
         <v>26</v>
@@ -862,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D10">
         <v>172</v>
@@ -873,7 +810,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -892,6 +829,72 @@
   <sortState ref="A2:E11">
     <sortCondition ref="A1"/>
   </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>3.4587011730000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>56.415527875000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>5.5750393029999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>10.267263271999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>24.283468375999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -911,7 +914,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +932,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -937,26 +940,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>14468</v>
+        <v>14548</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>12574</v>
+        <v>12637</v>
       </c>
     </row>
   </sheetData>
@@ -969,148 +972,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>5.8888581699999998</v>
-      </c>
-      <c r="C2">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>14.300525297</v>
-      </c>
-      <c r="C3">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>14.058612109</v>
-      </c>
-      <c r="C4">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>14.065523915</v>
-      </c>
-      <c r="C5">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>15.752004424000001</v>
-      </c>
-      <c r="C6">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>10.851534421</v>
-      </c>
-      <c r="C7">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>7.0846004980000004</v>
-      </c>
-      <c r="C8">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>10.360796240000001</v>
-      </c>
-      <c r="C9">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>7.4232789600000002</v>
-      </c>
-      <c r="C10">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.214265966</v>
-      </c>
-      <c r="C11">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:C11">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B138"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1119,7 +985,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1127,183 +993,183 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B17">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B20">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B24">
         <v>75</v>
@@ -1311,831 +1177,831 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B32">
-        <v>190</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B37">
-        <v>166</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B38">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B39">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B40">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B41">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B42">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B43">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B44">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B45">
-        <v>207</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B46">
-        <v>161</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B47">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B48">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B49">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B50">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B51">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B52">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B53">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B54">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B55">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B56">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B57">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B58">
-        <v>123</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B59">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B60">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B61">
-        <v>111</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B62">
-        <v>152</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B63">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B64">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B65">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B66">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B67">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B68">
-        <v>131</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B69">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B70">
-        <v>189</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B71">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B72">
-        <v>219</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B73">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B74">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B75">
-        <v>144</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B76">
-        <v>244</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B77">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>204</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B79">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B80">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B81">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B82">
-        <v>187</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B83">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B84">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B85">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B86">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B87">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B88">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B89">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B90">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B91">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B92">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B93">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B94">
-        <v>110</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B95">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B96">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B97">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B98">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B99">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B100">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B101">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B102">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B103">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B104">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B105">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B106">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B107">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B108">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B109">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B110">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B111">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B112">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B113">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B114">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B115">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B116">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -2143,7 +2009,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2151,23 +2017,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -2175,23 +2041,23 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2199,7 +2065,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -2207,7 +2073,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -2215,27 +2081,33 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
     </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B138">
+  <sortState ref="A2:B139">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2252,479 +2124,479 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B23">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B27">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B28">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B29">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B30">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B31">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B32">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B34">
-        <v>186</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B35">
-        <v>440</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B36">
-        <v>172</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B37">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B38">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B39">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B40">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B41">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B42">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B43">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B44">
-        <v>209</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B45">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B46">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B47">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B48">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B49">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B50">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B51">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B52">
-        <v>100</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B53">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B54">
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B55">
-        <v>129</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B56">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B57">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B58">
-        <v>172</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B59">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B60">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B61">
         <v>155</v>
@@ -2732,463 +2604,463 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B62">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B63">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B64">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B65">
-        <v>168</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B66">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B67">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B68">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B69">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B70">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B71">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B72">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B73">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B74">
-        <v>306</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B75">
-        <v>194</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B76">
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B77">
-        <v>364</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>294</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B79">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B80">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B81">
-        <v>275</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B82">
-        <v>170</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B83">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B84">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B85">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B86">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B87">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B88">
-        <v>129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B89">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B90">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B91">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B92">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B93">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B94">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B95">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B96">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B97">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B98">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B99">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B100">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B101">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B102">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B103">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B105">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B106">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B107">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B109">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B110">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B112">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B113">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B114">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -3196,15 +3068,15 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -3212,15 +3084,15 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3228,23 +3100,23 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3252,7 +3124,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3260,7 +3132,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -3268,7 +3140,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -3276,7 +3148,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -3284,15 +3156,160 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
         <v>43853</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B131">
+  <sortState ref="A2:B132">
     <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>5.9664558699999999</v>
+      </c>
+      <c r="C2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>14.276876547000001</v>
+      </c>
+      <c r="C3">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>14.036293648999999</v>
+      </c>
+      <c r="C4">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>14.036293648999999</v>
+      </c>
+      <c r="C5">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>15.734121528999999</v>
+      </c>
+      <c r="C6">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10.867473192</v>
+      </c>
+      <c r="C7">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7.0800109979999997</v>
+      </c>
+      <c r="C8">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10.33131702</v>
+      </c>
+      <c r="C9">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>7.4580698380000001</v>
+      </c>
+      <c r="C10">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.21308771000000001</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C11">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3303,14 +3320,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3321,10 +3338,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>4.8382637999999999E-2</v>
+        <v>4.8116579999999999E-2</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -3332,46 +3349,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>45.217030688000001</v>
+        <v>53.065713500000001</v>
       </c>
       <c r="C3">
-        <v>6542</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>4.1470831999999999E-2</v>
+        <v>45.195215836999999</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>1.6519214820000001</v>
+        <v>4.1242782999999998E-2</v>
       </c>
       <c r="C5">
-        <v>239</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>53.041194359999999</v>
+        <v>1.649711301</v>
       </c>
       <c r="C6">
-        <v>7674</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3398,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3392,1620 +3409,1620 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2">
-        <v>12574</v>
+        <v>12637</v>
       </c>
       <c r="C2">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B3">
-        <v>12574</v>
+        <v>12637</v>
       </c>
       <c r="C3">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="D3">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B4">
-        <v>12574</v>
+        <v>12636</v>
       </c>
       <c r="C4">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="D4">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B5">
-        <v>12572</v>
+        <v>12636</v>
       </c>
       <c r="C5">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="D5">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B6">
-        <v>12572</v>
+        <v>12634</v>
       </c>
       <c r="C6">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="D6">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B7">
-        <v>12572</v>
+        <v>12634</v>
       </c>
       <c r="C7">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="D7">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B8">
-        <v>12571</v>
+        <v>12634</v>
       </c>
       <c r="C8">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="D8">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B9">
-        <v>12571</v>
+        <v>12633</v>
       </c>
       <c r="C9">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D9">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B10">
-        <v>12570</v>
+        <v>12633</v>
       </c>
       <c r="C10">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D10">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B11">
-        <v>12569</v>
+        <v>12631</v>
       </c>
       <c r="C11">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D11">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B12">
-        <v>12563</v>
+        <v>12630</v>
       </c>
       <c r="C12">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D12">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B13">
-        <v>12562</v>
+        <v>12625</v>
       </c>
       <c r="C13">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D13">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B14">
-        <v>12560</v>
+        <v>12622</v>
       </c>
       <c r="C14">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D14">
-        <v>1095</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B15">
-        <v>12560</v>
+        <v>12620</v>
       </c>
       <c r="C15">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D15">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B16">
-        <v>12557</v>
+        <v>12618</v>
       </c>
       <c r="C16">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D16">
-        <v>1092</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B17">
-        <v>12545</v>
+        <v>12613</v>
       </c>
       <c r="C17">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D17">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B18">
-        <v>12496</v>
+        <v>12555</v>
       </c>
       <c r="C18">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D18">
-        <v>1087</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B19">
-        <v>12423</v>
+        <v>12506</v>
       </c>
       <c r="C19">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D19">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B20">
-        <v>12361</v>
+        <v>12434</v>
       </c>
       <c r="C20">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D20">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B21">
-        <v>12324</v>
+        <v>12371</v>
       </c>
       <c r="C21">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D21">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B22">
-        <v>12255</v>
+        <v>12334</v>
       </c>
       <c r="C22">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D22">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B23">
-        <v>12164</v>
+        <v>12266</v>
       </c>
       <c r="C23">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D23">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B24">
-        <v>12092</v>
+        <v>12175</v>
       </c>
       <c r="C24">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D24">
-        <v>1082</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B25">
-        <v>12024</v>
+        <v>12103</v>
       </c>
       <c r="C25">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B26">
-        <v>11928</v>
+        <v>12035</v>
       </c>
       <c r="C26">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D26">
-        <v>1078</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B27">
-        <v>11838</v>
+        <v>11938</v>
       </c>
       <c r="C27">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D27">
-        <v>1075</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B28">
-        <v>11760</v>
+        <v>11848</v>
       </c>
       <c r="C28">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D28">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B29">
-        <v>11670</v>
+        <v>11770</v>
       </c>
       <c r="C29">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D29">
-        <v>1069</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B30">
-        <v>11555</v>
+        <v>11679</v>
       </c>
       <c r="C30">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D30">
-        <v>1065</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B31">
-        <v>11449</v>
+        <v>11564</v>
       </c>
       <c r="C31">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D31">
-        <v>1062</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B32">
-        <v>11337</v>
+        <v>11458</v>
       </c>
       <c r="C32">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D32">
-        <v>1060</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B33">
-        <v>11153</v>
+        <v>11346</v>
       </c>
       <c r="C33">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D33">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B34">
-        <v>11061</v>
+        <v>11161</v>
       </c>
       <c r="C34">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D34">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B35">
-        <v>10959</v>
+        <v>11069</v>
       </c>
       <c r="C35">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D35">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B36">
-        <v>10838</v>
+        <v>10967</v>
       </c>
       <c r="C36">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D36">
-        <v>1049</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B37">
-        <v>10723</v>
+        <v>10846</v>
       </c>
       <c r="C37">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D37">
-        <v>1045</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B38">
-        <v>10568</v>
+        <v>10731</v>
       </c>
       <c r="C38">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38">
-        <v>1037</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B39">
-        <v>10393</v>
+        <v>10575</v>
       </c>
       <c r="C39">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39">
-        <v>1033</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B40">
-        <v>10222</v>
+        <v>10400</v>
       </c>
       <c r="C40">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B41">
-        <v>10081</v>
+        <v>10231</v>
       </c>
       <c r="C41">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D41">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B42">
-        <v>9952</v>
+        <v>10090</v>
       </c>
       <c r="C42">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42">
-        <v>1024</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B43">
-        <v>9810</v>
+        <v>9961</v>
       </c>
       <c r="C43">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D43">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B44">
-        <v>9624</v>
+        <v>9819</v>
       </c>
       <c r="C44">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44">
-        <v>1014</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B45">
-        <v>9471</v>
+        <v>9632</v>
       </c>
       <c r="C45">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D45">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B46">
-        <v>9274</v>
+        <v>9479</v>
       </c>
       <c r="C46">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46">
-        <v>1003</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B47">
-        <v>9120</v>
+        <v>9282</v>
       </c>
       <c r="C47">
         <v>103</v>
       </c>
       <c r="D47">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B48">
-        <v>8977</v>
+        <v>9128</v>
       </c>
       <c r="C48">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48">
-        <v>986</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B49">
-        <v>8808</v>
+        <v>8984</v>
       </c>
       <c r="C49">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49">
-        <v>977</v>
+        <v>988</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B50">
-        <v>8604</v>
+        <v>8814</v>
       </c>
       <c r="C50">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B51">
-        <v>8442</v>
+        <v>8610</v>
       </c>
       <c r="C51">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D51">
-        <v>965</v>
+        <v>974</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B52">
-        <v>8303</v>
+        <v>8448</v>
       </c>
       <c r="C52">
         <v>90</v>
       </c>
       <c r="D52">
-        <v>953</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B53">
-        <v>8170</v>
+        <v>8309</v>
       </c>
       <c r="C53">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D53">
-        <v>941</v>
+        <v>955</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B54">
-        <v>7997</v>
+        <v>8176</v>
       </c>
       <c r="C54">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D54">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B55">
-        <v>7889</v>
+        <v>8003</v>
       </c>
       <c r="C55">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D55">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B56">
-        <v>7767</v>
+        <v>7895</v>
       </c>
       <c r="C56">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D56">
-        <v>910</v>
+        <v>927</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B57">
-        <v>7598</v>
+        <v>7773</v>
       </c>
       <c r="C57">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B58">
-        <v>7432</v>
+        <v>7602</v>
       </c>
       <c r="C58">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>887</v>
+        <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B59">
-        <v>7321</v>
+        <v>7434</v>
       </c>
       <c r="C59">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B60">
-        <v>7177</v>
+        <v>7323</v>
       </c>
       <c r="C60">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60">
-        <v>870</v>
+        <v>879</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B61">
-        <v>7032</v>
+        <v>7179</v>
       </c>
       <c r="C61">
         <v>72</v>
       </c>
       <c r="D61">
-        <v>857</v>
+        <v>872</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B62">
-        <v>6928</v>
+        <v>7034</v>
       </c>
       <c r="C62">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D62">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B63">
-        <v>6787</v>
+        <v>6930</v>
       </c>
       <c r="C63">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D63">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B64">
-        <v>6601</v>
+        <v>6789</v>
       </c>
       <c r="C64">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64">
-        <v>832</v>
+        <v>846</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B65">
-        <v>6429</v>
+        <v>6603</v>
       </c>
       <c r="C65">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D65">
-        <v>819</v>
+        <v>834</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B66">
-        <v>6264</v>
+        <v>6430</v>
       </c>
       <c r="C66">
         <v>62</v>
       </c>
       <c r="D66">
-        <v>798</v>
+        <v>821</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B67">
-        <v>6073</v>
+        <v>6266</v>
       </c>
       <c r="C67">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D67">
-        <v>777</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B68">
-        <v>5886</v>
+        <v>6075</v>
       </c>
       <c r="C68">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68">
-        <v>764</v>
+        <v>779</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B69">
-        <v>5767</v>
+        <v>5887</v>
       </c>
       <c r="C69">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D69">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B70">
-        <v>5631</v>
+        <v>5769</v>
       </c>
       <c r="C70">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D70">
-        <v>738</v>
+        <v>755</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B71">
-        <v>5456</v>
+        <v>5633</v>
       </c>
       <c r="C71">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D71">
-        <v>726</v>
+        <v>740</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B72">
-        <v>5298</v>
+        <v>5457</v>
       </c>
       <c r="C72">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D72">
-        <v>707</v>
+        <v>728</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B73">
-        <v>5112</v>
+        <v>5300</v>
       </c>
       <c r="C73">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D73">
-        <v>674</v>
+        <v>709</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B74">
-        <v>4957</v>
+        <v>5112</v>
       </c>
       <c r="C74">
         <v>48</v>
       </c>
       <c r="D74">
-        <v>657</v>
+        <v>676</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B75">
-        <v>4756</v>
+        <v>4957</v>
       </c>
       <c r="C75">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75">
-        <v>638</v>
+        <v>658</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B76">
-        <v>4638</v>
+        <v>4757</v>
       </c>
       <c r="C76">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D76">
-        <v>613</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B77">
-        <v>4420</v>
+        <v>4640</v>
       </c>
       <c r="C77">
         <v>44</v>
       </c>
       <c r="D77">
-        <v>589</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>4168</v>
+        <v>4420</v>
       </c>
       <c r="C78">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D78">
-        <v>563</v>
+        <v>590</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B79">
-        <v>3986</v>
+        <v>4168</v>
       </c>
       <c r="C79">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79">
-        <v>542</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B80">
-        <v>3733</v>
+        <v>3986</v>
       </c>
       <c r="C80">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80">
-        <v>506</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B81">
-        <v>3493</v>
+        <v>3734</v>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D81">
-        <v>480</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B82">
-        <v>3247</v>
+        <v>3494</v>
       </c>
       <c r="C82">
         <v>26</v>
       </c>
       <c r="D82">
-        <v>451</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B83">
-        <v>3083</v>
+        <v>3249</v>
       </c>
       <c r="C83">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D83">
-        <v>428</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B84">
-        <v>2927</v>
+        <v>3085</v>
       </c>
       <c r="C84">
         <v>24</v>
       </c>
       <c r="D84">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B85">
-        <v>2752</v>
+        <v>2929</v>
       </c>
       <c r="C85">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D85">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B86">
-        <v>2605</v>
+        <v>2752</v>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D86">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B87">
-        <v>2468</v>
+        <v>2605</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D87">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B88">
-        <v>2320</v>
+        <v>2471</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B89">
-        <v>2191</v>
+        <v>2324</v>
       </c>
       <c r="C89">
         <v>18</v>
       </c>
       <c r="D89">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B90">
-        <v>2099</v>
+        <v>2194</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B91">
-        <v>1991</v>
+        <v>2102</v>
       </c>
       <c r="C91">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B92">
-        <v>1880</v>
+        <v>1996</v>
       </c>
       <c r="C92">
         <v>13</v>
       </c>
       <c r="D92">
-        <v>185</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B93">
-        <v>1759</v>
+        <v>1883</v>
       </c>
       <c r="C93">
         <v>13</v>
       </c>
       <c r="D93">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B94">
-        <v>1633</v>
+        <v>1763</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B95">
-        <v>1534</v>
+        <v>1638</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B96">
-        <v>1453</v>
+        <v>1538</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
       <c r="D96">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B97">
-        <v>1379</v>
+        <v>1457</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B98">
-        <v>1291</v>
+        <v>1383</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B99">
-        <v>1210</v>
+        <v>1294</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
       <c r="D99">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B100">
-        <v>1133</v>
+        <v>1214</v>
       </c>
       <c r="C100">
         <v>5</v>
       </c>
       <c r="D100">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B101">
-        <v>1061</v>
+        <v>1136</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B102">
-        <v>989</v>
+        <v>1064</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B103">
-        <v>900</v>
+        <v>991</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B104">
-        <v>849</v>
+        <v>903</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B105">
-        <v>786</v>
+        <v>852</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B106">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B107">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B108">
-        <v>549</v>
+        <v>637</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B109">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B110">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B111">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B112">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B113">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B114">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B115">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B116">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5016,10 +5033,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B117">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5030,10 +5047,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B118">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -5044,10 +5061,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B119">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -5058,10 +5075,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B120">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -5072,10 +5089,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B121">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5086,10 +5103,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B122">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5100,10 +5117,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B123">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5114,10 +5131,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B124">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5128,10 +5145,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B125">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5142,10 +5159,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5156,10 +5173,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5170,10 +5187,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5184,10 +5201,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B129">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5198,10 +5215,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B130">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5212,10 +5229,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B131">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5226,10 +5243,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5240,10 +5257,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5254,10 +5271,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5268,10 +5285,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5282,10 +5299,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5296,10 +5313,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -5310,20 +5327,34 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>43851</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>1</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D138">
+  <sortState ref="A2:D139">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5332,7 +5363,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5346,1435 +5377,1435 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2">
-        <v>12574</v>
+        <v>12637</v>
       </c>
       <c r="C2">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B3">
-        <v>12569</v>
+        <v>12637</v>
       </c>
       <c r="C3">
-        <v>748</v>
+        <v>774</v>
       </c>
       <c r="D3">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B4">
-        <v>12562</v>
+        <v>12628</v>
       </c>
       <c r="C4">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="D4">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B5">
-        <v>12559</v>
+        <v>12620</v>
       </c>
       <c r="C5">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D5">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B6">
-        <v>12552</v>
+        <v>12617</v>
       </c>
       <c r="C6">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D6">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B7">
-        <v>12541</v>
+        <v>12609</v>
       </c>
       <c r="C7">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D7">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B8">
-        <v>12528</v>
+        <v>12596</v>
       </c>
       <c r="C8">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D8">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B9">
-        <v>12524</v>
+        <v>12581</v>
       </c>
       <c r="C9">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D9">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B10">
-        <v>12508</v>
+        <v>12576</v>
       </c>
       <c r="C10">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D10">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B11">
-        <v>12494</v>
+        <v>12559</v>
       </c>
       <c r="C11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D11">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B12">
-        <v>12480</v>
+        <v>12542</v>
       </c>
       <c r="C12">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D12">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B13">
-        <v>12467</v>
+        <v>12523</v>
       </c>
       <c r="C13">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D13">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B14">
-        <v>12436</v>
+        <v>12502</v>
       </c>
       <c r="C14">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D14">
-        <v>1089</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B15">
-        <v>12399</v>
+        <v>12467</v>
       </c>
       <c r="C15">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D15">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B16">
-        <v>12357</v>
+        <v>12413</v>
       </c>
       <c r="C16">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B17">
-        <v>12282</v>
+        <v>12367</v>
       </c>
       <c r="C17">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D17">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B18">
-        <v>12201</v>
+        <v>12292</v>
       </c>
       <c r="C18">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D18">
-        <v>1076</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B19">
-        <v>12133</v>
+        <v>12210</v>
       </c>
       <c r="C19">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D19">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B20">
-        <v>12065</v>
+        <v>12142</v>
       </c>
       <c r="C20">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D20">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B21">
-        <v>11975</v>
+        <v>12073</v>
       </c>
       <c r="C21">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D21">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B22">
-        <v>11893</v>
+        <v>11982</v>
       </c>
       <c r="C22">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D22">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B23">
-        <v>11805</v>
+        <v>11900</v>
       </c>
       <c r="C23">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B24">
-        <v>11667</v>
+        <v>11812</v>
       </c>
       <c r="C24">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D24">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B25">
-        <v>11585</v>
+        <v>11673</v>
       </c>
       <c r="C25">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D25">
-        <v>1066</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B26">
-        <v>11487</v>
+        <v>11591</v>
       </c>
       <c r="C26">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D26">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B27">
-        <v>11386</v>
+        <v>11493</v>
       </c>
       <c r="C27">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D27">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B28">
-        <v>11255</v>
+        <v>11392</v>
       </c>
       <c r="C28">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B29">
-        <v>11132</v>
+        <v>11261</v>
       </c>
       <c r="C29">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D29">
-        <v>1056</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B30">
-        <v>10990</v>
+        <v>11138</v>
       </c>
       <c r="C30">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D30">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B31">
-        <v>10814</v>
+        <v>10996</v>
       </c>
       <c r="C31">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D31">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B32">
-        <v>10642</v>
+        <v>10819</v>
       </c>
       <c r="C32">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B33">
-        <v>10475</v>
+        <v>10647</v>
       </c>
       <c r="C33">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D33">
-        <v>1047</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B34">
-        <v>10351</v>
+        <v>10480</v>
       </c>
       <c r="C34">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D34">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B35">
-        <v>10173</v>
+        <v>10356</v>
       </c>
       <c r="C35">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D35">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B36">
-        <v>9746</v>
+        <v>10178</v>
       </c>
       <c r="C36">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36">
-        <v>1029</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B37">
-        <v>9584</v>
+        <v>9750</v>
       </c>
       <c r="C37">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37">
-        <v>1022</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B38">
-        <v>9438</v>
+        <v>9589</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38">
-        <v>1016</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B39">
-        <v>9305</v>
+        <v>9443</v>
       </c>
       <c r="C39">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D39">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B40">
-        <v>9137</v>
+        <v>9310</v>
       </c>
       <c r="C40">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B41">
-        <v>8991</v>
+        <v>9143</v>
       </c>
       <c r="C41">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D41">
-        <v>1004</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B42">
-        <v>8825</v>
+        <v>8997</v>
       </c>
       <c r="C42">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D42">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B43">
-        <v>8683</v>
+        <v>8831</v>
       </c>
       <c r="C43">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43">
-        <v>993</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B44">
-        <v>8525</v>
+        <v>8689</v>
       </c>
       <c r="C44">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D44">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B45">
-        <v>8331</v>
+        <v>8530</v>
       </c>
       <c r="C45">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45">
-        <v>974</v>
+        <v>988</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B46">
-        <v>8157</v>
+        <v>8336</v>
       </c>
       <c r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B47">
-        <v>7996</v>
+        <v>8162</v>
       </c>
       <c r="C47">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47">
-        <v>954</v>
+        <v>968</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B48">
-        <v>7824</v>
+        <v>8001</v>
       </c>
       <c r="C48">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48">
-        <v>941</v>
+        <v>955</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B49">
-        <v>7647</v>
+        <v>7828</v>
       </c>
       <c r="C49">
         <v>88</v>
       </c>
       <c r="D49">
-        <v>932</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B50">
-        <v>7512</v>
+        <v>7651</v>
       </c>
       <c r="C50">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B51">
-        <v>7391</v>
+        <v>7516</v>
       </c>
       <c r="C51">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B52">
-        <v>7228</v>
+        <v>7395</v>
       </c>
       <c r="C52">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52">
-        <v>913</v>
+        <v>922</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B53">
-        <v>7142</v>
+        <v>7230</v>
       </c>
       <c r="C53">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D53">
-        <v>899</v>
+        <v>914</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B54">
-        <v>7049</v>
+        <v>7144</v>
       </c>
       <c r="C54">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>890</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B55">
-        <v>6908</v>
+        <v>7051</v>
       </c>
       <c r="C55">
         <v>80</v>
       </c>
       <c r="D55">
-        <v>879</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B56">
-        <v>6793</v>
+        <v>6910</v>
       </c>
       <c r="C56">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B57">
-        <v>6656</v>
+        <v>6795</v>
       </c>
       <c r="C57">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57">
-        <v>858</v>
+        <v>868</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B58">
-        <v>6541</v>
+        <v>6658</v>
       </c>
       <c r="C58">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D58">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B59">
-        <v>6378</v>
+        <v>6543</v>
       </c>
       <c r="C59">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D59">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B60">
-        <v>6227</v>
+        <v>6380</v>
       </c>
       <c r="C60">
         <v>69</v>
       </c>
       <c r="D60">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B61">
-        <v>6085</v>
+        <v>6229</v>
       </c>
       <c r="C61">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D61">
-        <v>822</v>
+        <v>832</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B62">
-        <v>5946</v>
+        <v>6087</v>
       </c>
       <c r="C62">
         <v>62</v>
       </c>
       <c r="D62">
-        <v>809</v>
+        <v>823</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B63">
-        <v>5808</v>
+        <v>5948</v>
       </c>
       <c r="C63">
         <v>59</v>
       </c>
       <c r="D63">
-        <v>798</v>
+        <v>810</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B64">
-        <v>5634</v>
+        <v>5809</v>
       </c>
       <c r="C64">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D64">
-        <v>783</v>
+        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B65">
-        <v>5447</v>
+        <v>5636</v>
       </c>
       <c r="C65">
         <v>56</v>
       </c>
       <c r="D65">
-        <v>758</v>
+        <v>784</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B66">
-        <v>5295</v>
+        <v>5449</v>
       </c>
       <c r="C66">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B67">
-        <v>5129</v>
+        <v>5298</v>
       </c>
       <c r="C67">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D67">
-        <v>728</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B68">
-        <v>4990</v>
+        <v>5131</v>
       </c>
       <c r="C68">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D68">
-        <v>710</v>
+        <v>729</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B69">
-        <v>4896</v>
+        <v>4992</v>
       </c>
       <c r="C69">
         <v>45</v>
       </c>
       <c r="D69">
-        <v>701</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B70">
-        <v>4775</v>
+        <v>4898</v>
       </c>
       <c r="C70">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D70">
-        <v>681</v>
+        <v>702</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B71">
-        <v>4614</v>
+        <v>4777</v>
       </c>
       <c r="C71">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D71">
-        <v>665</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B72">
-        <v>4437</v>
+        <v>4616</v>
       </c>
       <c r="C72">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D72">
-        <v>639</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B73">
-        <v>4243</v>
+        <v>4438</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D73">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B74">
-        <v>4054</v>
+        <v>4243</v>
       </c>
       <c r="C74">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74">
-        <v>591</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B75">
-        <v>3776</v>
+        <v>4055</v>
       </c>
       <c r="C75">
         <v>36</v>
       </c>
       <c r="D75">
-        <v>565</v>
+        <v>592</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B76">
-        <v>3602</v>
+        <v>3777</v>
       </c>
       <c r="C76">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B77">
-        <v>3448</v>
+        <v>3602</v>
       </c>
       <c r="C77">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>3138</v>
+        <v>3448</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78">
-        <v>487</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B79">
-        <v>2890</v>
+        <v>3138</v>
       </c>
       <c r="C79">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D79">
-        <v>446</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B80">
-        <v>2690</v>
+        <v>2890</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80">
-        <v>417</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B81">
-        <v>2503</v>
+        <v>2690</v>
       </c>
       <c r="C81">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D81">
-        <v>382</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B82">
-        <v>2271</v>
+        <v>2503</v>
       </c>
       <c r="C82">
         <v>20</v>
       </c>
       <c r="D82">
-        <v>341</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B83">
-        <v>2132</v>
+        <v>2271</v>
       </c>
       <c r="C83">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B84">
-        <v>2025</v>
+        <v>2132</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B85">
-        <v>1917</v>
+        <v>2025</v>
       </c>
       <c r="C85">
         <v>16</v>
       </c>
       <c r="D85">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B86">
-        <v>1772</v>
+        <v>1915</v>
       </c>
       <c r="C86">
         <v>14</v>
       </c>
       <c r="D86">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B87">
-        <v>1641</v>
+        <v>1770</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B88">
-        <v>1488</v>
+        <v>1640</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B89">
-        <v>1387</v>
+        <v>1487</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B90">
-        <v>1332</v>
+        <v>1386</v>
       </c>
       <c r="C90">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B91">
-        <v>1227</v>
+        <v>1331</v>
       </c>
       <c r="C91">
         <v>10</v>
       </c>
       <c r="D91">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B92">
-        <v>1120</v>
+        <v>1226</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B93">
-        <v>1026</v>
+        <v>1119</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B94">
-        <v>934</v>
+        <v>1025</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B95">
-        <v>857</v>
+        <v>933</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B96">
-        <v>781</v>
+        <v>856</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B97">
-        <v>752</v>
+        <v>780</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B98">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B99">
-        <v>603</v>
+        <v>708</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B100">
-        <v>488</v>
+        <v>603</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B101">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B102">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B103">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6785,38 +6816,38 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B104">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B105">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B106">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6827,10 +6858,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B107">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6841,10 +6872,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B108">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6855,10 +6886,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B109">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6869,10 +6900,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B110">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6883,10 +6914,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B111">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6897,10 +6928,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B112">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6911,24 +6942,24 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B113">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B114">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6939,10 +6970,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B115">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6953,10 +6984,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B116">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6967,10 +6998,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B117">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6981,24 +7012,24 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B118">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B119">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7009,13 +7040,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B120">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -7023,10 +7054,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -7037,10 +7068,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -7051,10 +7082,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7065,10 +7096,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7079,10 +7110,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7093,10 +7124,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7107,10 +7138,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -7121,10 +7152,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -7135,10 +7166,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -7149,10 +7180,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -7163,20 +7194,34 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
         <v>43853</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>2</v>
       </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D131">
+  <sortState ref="A2:D132">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -14,17 +14,17 @@
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
     <sheet name="Cases by Outcome" sheetId="16" r:id="rId2"/>
-    <sheet name="Outbreaks" sheetId="22" r:id="rId3"/>
+    <sheet name="Outbreaks" sheetId="24" r:id="rId3"/>
     <sheet name="Cases by Age" sheetId="13" r:id="rId4"/>
     <sheet name="Cases by Episode Date" sheetId="14" r:id="rId5"/>
-    <sheet name="Cases by Gender" sheetId="15" r:id="rId6"/>
-    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId7"/>
-    <sheet name="Cumulative Cases by Episode Dat" sheetId="18" r:id="rId8"/>
-    <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
-    <sheet name="Currently Hospitalized" sheetId="20" r:id="rId10"/>
-    <sheet name="Ever Hospitalized" sheetId="21" r:id="rId11"/>
-    <sheet name="Severity Indicators by Age Grou" sheetId="23" r:id="rId12"/>
-    <sheet name="Source of Infection" sheetId="24" r:id="rId13"/>
+    <sheet name="Cases by Reported Date" sheetId="22" r:id="rId6"/>
+    <sheet name="Cases by Gender" sheetId="15" r:id="rId7"/>
+    <sheet name="Cumulative Cases by Episode Dat" sheetId="17" r:id="rId8"/>
+    <sheet name="Cumulative Cases by Reported Da" sheetId="18" r:id="rId9"/>
+    <sheet name="Currently Hospitalized" sheetId="19" r:id="rId10"/>
+    <sheet name="Ever Hospitalized" sheetId="20" r:id="rId11"/>
+    <sheet name="Severity Indicators by Age Grou" sheetId="21" r:id="rId12"/>
+    <sheet name="Source of Infection" sheetId="23" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of July 4, 2020</t>
+    <t>Data as of July 5, 2020</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
@@ -53,34 +53,34 @@
     <t>Case Count</t>
   </si>
   <si>
+    <t>40-49</t>
+  </si>
+  <si>
     <t>50-59</t>
+  </si>
+  <si>
+    <t>90+</t>
+  </si>
+  <si>
+    <t>≤19</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>70-79</t>
   </si>
   <si>
     <t>20-29</t>
   </si>
   <si>
-    <t>30-39</t>
-  </si>
-  <si>
-    <t>90+</t>
-  </si>
-  <si>
-    <t>60-69</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t>80-89</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>40-49</t>
-  </si>
-  <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t>≤19</t>
+    <t>60-69</t>
   </si>
   <si>
     <t>Episode Date</t>
@@ -89,13 +89,13 @@
     <t>Client Gender</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
   <si>
     <t>Transgender</t>
@@ -113,10 +113,10 @@
     <t>All Cases</t>
   </si>
   <si>
-    <t>Reported Date</t>
+    <t>Active Cases</t>
   </si>
   <si>
-    <t>Active Cases</t>
+    <t>Reported Date</t>
   </si>
   <si>
     <t>Intervention</t>
@@ -125,16 +125,13 @@
     <t>% of Total Cases</t>
   </si>
   <si>
-    <t>Currently Intubated</t>
-  </si>
-  <si>
     <t>Currently in ICU</t>
   </si>
   <si>
     <t>Currently Hospitalized</t>
   </si>
   <si>
-    <t>Ever Hospitalized</t>
+    <t>Currently Intubated</t>
   </si>
   <si>
     <t>Ever Intubated</t>
@@ -143,7 +140,7 @@
     <t>Ever in ICU</t>
   </si>
   <si>
-    <t>Outbreak Count</t>
+    <t>Ever Hospitalized</t>
   </si>
   <si>
     <t>ICU Cases</t>
@@ -161,16 +158,19 @@
     <t>Travel</t>
   </si>
   <si>
-    <t>Institutional</t>
+    <t>Close contact with a case</t>
   </si>
   <si>
     <t>Community</t>
   </si>
   <si>
-    <t>Close contact with a case</t>
+    <t>Healthcare</t>
   </si>
   <si>
-    <t>Healthcare</t>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>Outbreak Count</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,11 +520,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -542,10 +537,10 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>0.23270138900000001</v>
+        <v>0.272516692</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -553,10 +548,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="C3">
-        <v>0.28061049900000001</v>
+        <v>1.0900667669999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -564,10 +559,10 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>1.1635069469999999</v>
+        <v>0.231639188</v>
       </c>
     </row>
   </sheetData>
@@ -582,11 +577,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -604,10 +594,10 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>1825</v>
+        <v>287</v>
       </c>
       <c r="C2">
-        <v>12.490589282</v>
+        <v>1.9553072629999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -615,10 +605,10 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="C3">
-        <v>1.9642734930000001</v>
+        <v>2.7183539990000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -626,10 +616,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>399</v>
+        <v>1827</v>
       </c>
       <c r="C4">
-        <v>2.7308192459999998</v>
+        <v>12.447199891</v>
       </c>
     </row>
   </sheetData>
@@ -641,37 +631,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -688,7 +671,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -705,7 +688,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -722,7 +705,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -739,7 +722,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>96</v>
@@ -748,7 +731,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E6">
         <v>77</v>
@@ -756,7 +739,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>109</v>
@@ -765,7 +748,7 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E7">
         <v>80</v>
@@ -773,7 +756,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>87</v>
@@ -790,7 +773,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>36</v>
@@ -807,7 +790,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -824,7 +807,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -852,18 +835,14 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -871,42 +850,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>5.5562222490000002</v>
+        <v>5.5482639300000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>3.4561382460000001</v>
+        <v>56.520701586999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>24.216968679000001</v>
+        <v>24.269180289000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>56.510260410000001</v>
+        <v>10.225510082</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>10.260410415999999</v>
+        <v>3.436344112</v>
       </c>
     </row>
   </sheetData>
@@ -918,15 +897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -941,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>14611</v>
+        <v>14678</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -957,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>12773</v>
+        <v>12844</v>
       </c>
     </row>
   </sheetData>
@@ -975,13 +948,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -998,136 +968,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>872</v>
+        <v>5.9476767949999996</v>
       </c>
       <c r="C2">
-        <v>5.9681062210000002</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>2089</v>
+        <v>14.286687560000001</v>
       </c>
       <c r="C3">
-        <v>14.297447129</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2049</v>
+        <v>14.048235454</v>
       </c>
       <c r="C4">
-        <v>14.023680788</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2048</v>
+        <v>14.041422537000001</v>
       </c>
       <c r="C5">
-        <v>14.01683663</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2306</v>
+        <v>15.826406866999999</v>
       </c>
       <c r="C6">
-        <v>15.782629525999999</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>1588</v>
+        <v>10.832538492999999</v>
       </c>
       <c r="C7">
-        <v>10.868523715</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1034</v>
+        <v>7.1058727350000002</v>
       </c>
       <c r="C8">
-        <v>7.0768598999999996</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
+        <v>10.280692192</v>
+      </c>
+      <c r="C9">
         <v>1509</v>
-      </c>
-      <c r="C9">
-        <v>10.327835193</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>1085</v>
+        <v>7.4124540129999996</v>
       </c>
       <c r="C10">
-        <v>7.4259119839999999</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>0.21801335299999999</v>
       </c>
       <c r="C11">
-        <v>0.21216891399999999</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1140,16 +1103,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,143 +1124,143 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44015</v>
+        <v>44016</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B16">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B18">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B19">
         <v>64</v>
@@ -1306,63 +1268,63 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B23">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B24">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B27">
         <v>75</v>
@@ -1370,599 +1332,599 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B29">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B30">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B31">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B35">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B40">
-        <v>164</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B41">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B42">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B43">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B44">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B45">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B46">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B47">
-        <v>155</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B48">
-        <v>207</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B49">
-        <v>161</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B50">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B51">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B52">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B53">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B54">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B55">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B56">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B57">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B58">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B59">
-        <v>184</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B60">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B61">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B62">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B63">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B64">
-        <v>111</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B65">
-        <v>152</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B66">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B67">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B68">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B69">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B70">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B71">
-        <v>131</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B72">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B73">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B74">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B75">
-        <v>221</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B76">
-        <v>172</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B77">
-        <v>222</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B78">
-        <v>145</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B79">
-        <v>248</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B80">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B81">
-        <v>205</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B82">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B83">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B84">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B85">
-        <v>187</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B86">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B87">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B88">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B89">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B90">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B91">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B92">
-        <v>120</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B93">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B94">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B95">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B96">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B97">
-        <v>110</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B98">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B99">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B100">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B101">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B102">
         <v>94</v>
@@ -1970,159 +1932,159 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B103">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B104">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B105">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B106">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B107">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B108">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B109">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B110">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B111">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B112">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B113">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B114">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B115">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B116">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B117">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B118">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B119">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B122">
         <v>10</v>
@@ -2130,71 +2092,71 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B124">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2202,7 +2164,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -2210,23 +2172,23 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2234,23 +2196,23 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2258,7 +2220,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2266,7 +2228,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2274,14 +2236,22 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
     </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B141">
+  <sortState ref="A2:B142">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2290,88 +2260,1100 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B22">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B26">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B27">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B28">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B29">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B30">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B32">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B33">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B34">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B36">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B37">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B38">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B39">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B40">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B41">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B42">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B43">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B44">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B46">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B47">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B48">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B49">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B50">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B51">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B52">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B53">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B54">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B55">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B56">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B57">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B58">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B59">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B60">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B61">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B62">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B65">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B66">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B67">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B68">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B69">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B70">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B71">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B72">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B73">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B74">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B75">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B76">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B77">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B78">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B79">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B80">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B81">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B82">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B83">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B84">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B85">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B86">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B87">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B88">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B89">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B90">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B91">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B92">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B93">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B94">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B95">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B96">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B97">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B98">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B99">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B100">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B101">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B102">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B103">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B104">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B105">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B106">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B107">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B109">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B110">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B111">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B112">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B113">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B114">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B117">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B120">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>7762</v>
-      </c>
-      <c r="C2">
-        <v>53.124358360000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>6598</v>
-      </c>
-      <c r="C3">
-        <v>45.157757854000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>4.1064951000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>4.7909109999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>238</v>
-      </c>
-      <c r="C6">
-        <v>1.6289097260000001</v>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C6">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:B135">
+    <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2379,1112 +3361,96 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44016</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44015</v>
+        <v>53.09306445</v>
+      </c>
+      <c r="C2">
+        <v>7793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44014</v>
+        <v>4.0877504000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44013</v>
+        <v>45.19689331</v>
+      </c>
+      <c r="C4">
+        <v>6634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>44012</v>
+        <v>4.7690420999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>44011</v>
-      </c>
-      <c r="B7">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44010</v>
-      </c>
-      <c r="B8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44009</v>
-      </c>
-      <c r="B9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44008</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>44007</v>
-      </c>
-      <c r="B11">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>44006</v>
-      </c>
-      <c r="B12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>44005</v>
-      </c>
-      <c r="B13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>44004</v>
-      </c>
-      <c r="B14">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>44003</v>
-      </c>
-      <c r="B15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>44002</v>
-      </c>
-      <c r="B16">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>44001</v>
-      </c>
-      <c r="B17">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>44000</v>
-      </c>
-      <c r="B18">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43999</v>
-      </c>
-      <c r="B19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43998</v>
-      </c>
-      <c r="B20">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43997</v>
-      </c>
-      <c r="B21">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43996</v>
-      </c>
-      <c r="B22">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43995</v>
-      </c>
-      <c r="B23">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43994</v>
-      </c>
-      <c r="B24">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43993</v>
-      </c>
-      <c r="B25">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43992</v>
-      </c>
-      <c r="B26">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43991</v>
-      </c>
-      <c r="B27">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43990</v>
-      </c>
-      <c r="B28">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43989</v>
-      </c>
-      <c r="B29">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43988</v>
-      </c>
-      <c r="B30">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43987</v>
-      </c>
-      <c r="B31">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43986</v>
-      </c>
-      <c r="B32">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43985</v>
-      </c>
-      <c r="B33">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43984</v>
-      </c>
-      <c r="B34">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B35">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43982</v>
-      </c>
-      <c r="B36">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43981</v>
-      </c>
-      <c r="B37">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43980</v>
-      </c>
-      <c r="B38">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43979</v>
-      </c>
-      <c r="B39">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B40">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43977</v>
-      </c>
-      <c r="B41">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>43976</v>
-      </c>
-      <c r="B42">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43975</v>
-      </c>
-      <c r="B43">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43974</v>
-      </c>
-      <c r="B44">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43973</v>
-      </c>
-      <c r="B45">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>43972</v>
-      </c>
-      <c r="B46">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>43971</v>
-      </c>
-      <c r="B47">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>43970</v>
-      </c>
-      <c r="B48">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>43969</v>
-      </c>
-      <c r="B49">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>43968</v>
-      </c>
-      <c r="B50">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>43967</v>
-      </c>
-      <c r="B51">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B52">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>43965</v>
-      </c>
-      <c r="B53">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>43964</v>
-      </c>
-      <c r="B54">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>43963</v>
-      </c>
-      <c r="B55">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>43962</v>
-      </c>
-      <c r="B56">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43961</v>
-      </c>
-      <c r="B57">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43960</v>
-      </c>
-      <c r="B58">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>43959</v>
-      </c>
-      <c r="B59">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B60">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>43957</v>
-      </c>
-      <c r="B61">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B62">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>43955</v>
-      </c>
-      <c r="B63">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>43954</v>
-      </c>
-      <c r="B64">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>43953</v>
-      </c>
-      <c r="B65">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B66">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>43951</v>
-      </c>
-      <c r="B67">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>43950</v>
-      </c>
-      <c r="B68">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>43949</v>
-      </c>
-      <c r="B69">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>43948</v>
-      </c>
-      <c r="B70">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>43947</v>
-      </c>
-      <c r="B71">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B72">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>43945</v>
-      </c>
-      <c r="B73">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>43944</v>
-      </c>
-      <c r="B74">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>43943</v>
-      </c>
-      <c r="B75">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>43942</v>
-      </c>
-      <c r="B76">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>43941</v>
-      </c>
-      <c r="B77">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>43940</v>
-      </c>
-      <c r="B78">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B79">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B80">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B81">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B82">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B83">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>43934</v>
-      </c>
-      <c r="B84">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>43933</v>
-      </c>
-      <c r="B85">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>43932</v>
-      </c>
-      <c r="B86">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B87">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B88">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B89">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B90">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B91">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B92">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>43925</v>
-      </c>
-      <c r="B93">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B94">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B95">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B96">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B97">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>43920</v>
-      </c>
-      <c r="B98">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B99">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B100">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B101">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B102">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B103">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B104">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B105">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B106">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B107">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B108">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B109">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>43908</v>
-      </c>
-      <c r="B110">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B111">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B112">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B113">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B114">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B115">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B116">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B117">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B118">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>43853</v>
-      </c>
-      <c r="B134">
-        <v>2</v>
+        <v>1.6214743149999999</v>
+      </c>
+      <c r="C6">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B134">
-    <sortCondition descending="1" ref="A1"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3495,7 +3461,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -3503,13 +3469,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="B2">
-        <v>12773</v>
+        <v>12844</v>
       </c>
       <c r="C2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D2">
         <v>1105</v>
@@ -3517,13 +3483,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44015</v>
+        <v>44016</v>
       </c>
       <c r="B3">
-        <v>12773</v>
+        <v>12844</v>
       </c>
       <c r="C3">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D3">
         <v>1105</v>
@@ -3531,13 +3497,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B4">
-        <v>12773</v>
+        <v>12844</v>
       </c>
       <c r="C4">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="D4">
         <v>1105</v>
@@ -3545,13 +3511,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B5">
-        <v>12773</v>
+        <v>12844</v>
       </c>
       <c r="C5">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="D5">
         <v>1105</v>
@@ -3559,13 +3525,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B6">
-        <v>12771</v>
+        <v>12844</v>
       </c>
       <c r="C6">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="D6">
         <v>1105</v>
@@ -3573,27 +3539,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B7">
-        <v>12771</v>
+        <v>12842</v>
       </c>
       <c r="C7">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D7">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B8">
-        <v>12769</v>
+        <v>12841</v>
       </c>
       <c r="C8">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="D8">
         <v>1104</v>
@@ -3601,13 +3567,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B9">
-        <v>12769</v>
+        <v>12839</v>
       </c>
       <c r="C9">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="D9">
         <v>1104</v>
@@ -3615,13 +3581,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B10">
-        <v>12768</v>
+        <v>12839</v>
       </c>
       <c r="C10">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="D10">
         <v>1104</v>
@@ -3629,13 +3595,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B11">
-        <v>12767</v>
+        <v>12838</v>
       </c>
       <c r="C11">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="D11">
         <v>1104</v>
@@ -3643,55 +3609,55 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B12">
-        <v>12764</v>
+        <v>12837</v>
       </c>
       <c r="C12">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D12">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B13">
-        <v>12762</v>
+        <v>12834</v>
       </c>
       <c r="C13">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D13">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B14">
-        <v>12761</v>
+        <v>12832</v>
       </c>
       <c r="C14">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D14">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B15">
-        <v>12755</v>
+        <v>12830</v>
       </c>
       <c r="C15">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D15">
         <v>1101</v>
@@ -3699,13 +3665,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B16">
-        <v>12752</v>
+        <v>12824</v>
       </c>
       <c r="C16">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D16">
         <v>1101</v>
@@ -3713,27 +3679,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B17">
-        <v>12745</v>
+        <v>12815</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D17">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B18">
-        <v>12692</v>
+        <v>12766</v>
       </c>
       <c r="C18">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D18">
         <v>1099</v>
@@ -3741,69 +3707,69 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B19">
-        <v>12633</v>
+        <v>12713</v>
       </c>
       <c r="C19">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D19">
-        <v>1096</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B20">
-        <v>12573</v>
+        <v>12654</v>
       </c>
       <c r="C20">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D20">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B21">
-        <v>12524</v>
+        <v>12594</v>
       </c>
       <c r="C21">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D21">
-        <v>1090</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B22">
-        <v>12450</v>
+        <v>12545</v>
       </c>
       <c r="C22">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D22">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B23">
-        <v>12387</v>
+        <v>12467</v>
       </c>
       <c r="C23">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D23">
         <v>1089</v>
@@ -3811,27 +3777,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B24">
-        <v>12350</v>
+        <v>12404</v>
       </c>
       <c r="C24">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D24">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B25">
-        <v>12282</v>
+        <v>12367</v>
       </c>
       <c r="C25">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D25">
         <v>1088</v>
@@ -3839,164 +3805,164 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B26">
-        <v>12191</v>
+        <v>12297</v>
       </c>
       <c r="C26">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D26">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B27">
-        <v>12120</v>
+        <v>12206</v>
       </c>
       <c r="C27">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D27">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B28">
-        <v>12052</v>
+        <v>12135</v>
       </c>
       <c r="C28">
         <v>130</v>
       </c>
       <c r="D28">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B29">
-        <v>11956</v>
+        <v>12067</v>
       </c>
       <c r="C29">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D29">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B30">
-        <v>11866</v>
+        <v>11971</v>
       </c>
       <c r="C30">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D30">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B31">
-        <v>11788</v>
+        <v>11881</v>
       </c>
       <c r="C31">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B32">
-        <v>11696</v>
+        <v>11803</v>
       </c>
       <c r="C32">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D32">
-        <v>1072</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B33">
-        <v>11581</v>
+        <v>11711</v>
       </c>
       <c r="C33">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D33">
-        <v>1068</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B34">
-        <v>11475</v>
+        <v>11595</v>
       </c>
       <c r="C34">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D34">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B35">
-        <v>11362</v>
+        <v>11489</v>
       </c>
       <c r="C35">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B36">
-        <v>11176</v>
+        <v>11376</v>
       </c>
       <c r="C36">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B37">
-        <v>11084</v>
+        <v>11190</v>
       </c>
       <c r="C37">
         <v>114</v>
@@ -4007,1144 +3973,1144 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B38">
-        <v>10982</v>
+        <v>11098</v>
       </c>
       <c r="C38">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B39">
-        <v>10860</v>
+        <v>10996</v>
       </c>
       <c r="C39">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D39">
-        <v>1052</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B40">
-        <v>10745</v>
+        <v>10874</v>
       </c>
       <c r="C40">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D40">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B41">
-        <v>10590</v>
+        <v>10759</v>
       </c>
       <c r="C41">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D41">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B42">
-        <v>10414</v>
+        <v>10604</v>
       </c>
       <c r="C42">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D42">
-        <v>1036</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B43">
-        <v>10244</v>
+        <v>10428</v>
       </c>
       <c r="C43">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43">
-        <v>1030</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B44">
-        <v>10103</v>
+        <v>10255</v>
       </c>
       <c r="C44">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B45">
-        <v>9974</v>
+        <v>10113</v>
       </c>
       <c r="C45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B46">
-        <v>9832</v>
+        <v>9984</v>
       </c>
       <c r="C46">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D46">
-        <v>1021</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B47">
-        <v>9646</v>
+        <v>9842</v>
       </c>
       <c r="C47">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D47">
-        <v>1017</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B48">
-        <v>9494</v>
+        <v>9656</v>
       </c>
       <c r="C48">
         <v>95</v>
       </c>
       <c r="D48">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B49">
-        <v>9297</v>
+        <v>9504</v>
       </c>
       <c r="C49">
         <v>94</v>
       </c>
       <c r="D49">
-        <v>1006</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B50">
-        <v>9143</v>
+        <v>9307</v>
       </c>
       <c r="C50">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D50">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B51">
-        <v>8999</v>
+        <v>9152</v>
       </c>
       <c r="C51">
         <v>90</v>
       </c>
       <c r="D51">
-        <v>988</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B52">
-        <v>8829</v>
+        <v>9008</v>
       </c>
       <c r="C52">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D52">
-        <v>979</v>
+        <v>988</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B53">
-        <v>8625</v>
+        <v>8838</v>
       </c>
       <c r="C53">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D53">
-        <v>974</v>
+        <v>979</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B54">
-        <v>8463</v>
+        <v>8634</v>
       </c>
       <c r="C54">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D54">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B55">
-        <v>8323</v>
+        <v>8472</v>
       </c>
       <c r="C55">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D55">
-        <v>955</v>
+        <v>967</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B56">
-        <v>8190</v>
+        <v>8330</v>
       </c>
       <c r="C56">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D56">
-        <v>943</v>
+        <v>955</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B57">
-        <v>8017</v>
+        <v>8197</v>
       </c>
       <c r="C57">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D57">
-        <v>932</v>
+        <v>943</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B58">
-        <v>7909</v>
+        <v>8023</v>
       </c>
       <c r="C58">
         <v>76</v>
       </c>
       <c r="D58">
-        <v>928</v>
+        <v>932</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B59">
-        <v>7787</v>
+        <v>7915</v>
       </c>
       <c r="C59">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D59">
-        <v>913</v>
+        <v>928</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B60">
-        <v>7617</v>
+        <v>7793</v>
       </c>
       <c r="C60">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D60">
-        <v>901</v>
+        <v>913</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B61">
-        <v>7447</v>
+        <v>7621</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D61">
-        <v>890</v>
+        <v>901</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B62">
-        <v>7336</v>
+        <v>7451</v>
       </c>
       <c r="C62">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D62">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B63">
-        <v>7192</v>
+        <v>7340</v>
       </c>
       <c r="C63">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D63">
-        <v>873</v>
+        <v>880</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B64">
-        <v>7047</v>
+        <v>7196</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D64">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B65">
-        <v>6943</v>
+        <v>7051</v>
       </c>
       <c r="C65">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D65">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B66">
-        <v>6802</v>
+        <v>6947</v>
       </c>
       <c r="C66">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D66">
-        <v>847</v>
+        <v>857</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B67">
-        <v>6616</v>
+        <v>6806</v>
       </c>
       <c r="C67">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D67">
-        <v>835</v>
+        <v>847</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B68">
-        <v>6445</v>
+        <v>6622</v>
       </c>
       <c r="C68">
         <v>56</v>
       </c>
       <c r="D68">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B69">
-        <v>6281</v>
+        <v>6451</v>
       </c>
       <c r="C69">
         <v>56</v>
       </c>
       <c r="D69">
-        <v>800</v>
+        <v>822</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B70">
-        <v>6089</v>
+        <v>6288</v>
       </c>
       <c r="C70">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D70">
-        <v>779</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B71">
-        <v>5901</v>
+        <v>6096</v>
       </c>
       <c r="C71">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D71">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B72">
-        <v>5782</v>
+        <v>5908</v>
       </c>
       <c r="C72">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D72">
-        <v>755</v>
+        <v>766</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B73">
-        <v>5644</v>
+        <v>5789</v>
       </c>
       <c r="C73">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D73">
-        <v>740</v>
+        <v>755</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B74">
-        <v>5468</v>
+        <v>5651</v>
       </c>
       <c r="C74">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D74">
-        <v>729</v>
+        <v>740</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B75">
-        <v>5310</v>
+        <v>5473</v>
       </c>
       <c r="C75">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D75">
-        <v>710</v>
+        <v>729</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B76">
-        <v>5122</v>
+        <v>5315</v>
       </c>
       <c r="C76">
         <v>45</v>
       </c>
       <c r="D76">
-        <v>677</v>
+        <v>710</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B77">
-        <v>4969</v>
+        <v>5127</v>
       </c>
       <c r="C77">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D77">
-        <v>659</v>
+        <v>677</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B78">
-        <v>4767</v>
+        <v>4973</v>
       </c>
       <c r="C78">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D78">
-        <v>640</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B79">
-        <v>4649</v>
+        <v>4770</v>
       </c>
       <c r="C79">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D79">
-        <v>614</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B80">
-        <v>4427</v>
+        <v>4652</v>
       </c>
       <c r="C80">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D80">
-        <v>590</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B81">
-        <v>4175</v>
+        <v>4430</v>
       </c>
       <c r="C81">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D81">
-        <v>566</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B82">
-        <v>3993</v>
+        <v>4178</v>
       </c>
       <c r="C82">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82">
-        <v>544</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B83">
-        <v>3743</v>
+        <v>3996</v>
       </c>
       <c r="C83">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D83">
-        <v>507</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B84">
-        <v>3502</v>
+        <v>3746</v>
       </c>
       <c r="C84">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D84">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B85">
-        <v>3261</v>
+        <v>3504</v>
       </c>
       <c r="C85">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D85">
-        <v>453</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B86">
-        <v>3098</v>
+        <v>3262</v>
       </c>
       <c r="C86">
         <v>22</v>
       </c>
       <c r="D86">
-        <v>429</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B87">
-        <v>2943</v>
+        <v>3098</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D87">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B88">
-        <v>2765</v>
+        <v>2942</v>
       </c>
       <c r="C88">
         <v>20</v>
       </c>
       <c r="D88">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B89">
-        <v>2619</v>
+        <v>2763</v>
       </c>
       <c r="C89">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89">
-        <v>352</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B90">
-        <v>2483</v>
+        <v>2617</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D90">
-        <v>313</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B91">
-        <v>2336</v>
+        <v>2481</v>
       </c>
       <c r="C91">
         <v>16</v>
       </c>
       <c r="D91">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B92">
-        <v>2206</v>
+        <v>2334</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B93">
-        <v>2112</v>
+        <v>2204</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B94">
-        <v>2005</v>
+        <v>2110</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B95">
-        <v>1892</v>
+        <v>2003</v>
       </c>
       <c r="C95">
         <v>11</v>
       </c>
       <c r="D95">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B96">
-        <v>1771</v>
+        <v>1890</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B97">
-        <v>1646</v>
+        <v>1771</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B98">
-        <v>1547</v>
+        <v>1646</v>
       </c>
       <c r="C98">
         <v>8</v>
       </c>
       <c r="D98">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B99">
-        <v>1465</v>
+        <v>1547</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B100">
-        <v>1391</v>
+        <v>1466</v>
       </c>
       <c r="C100">
         <v>7</v>
       </c>
       <c r="D100">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B101">
-        <v>1302</v>
+        <v>1392</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B102">
-        <v>1221</v>
+        <v>1303</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B103">
-        <v>1143</v>
+        <v>1221</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B104">
-        <v>1070</v>
+        <v>1143</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B105">
-        <v>996</v>
+        <v>1070</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B106">
-        <v>906</v>
+        <v>996</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B107">
-        <v>855</v>
+        <v>906</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B108">
-        <v>790</v>
+        <v>855</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B109">
-        <v>714</v>
+        <v>790</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B110">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B111">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B112">
-        <v>451</v>
+        <v>550</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B113">
-        <v>376</v>
+        <v>451</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B114">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B115">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B116">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B117">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B118">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B119">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -5155,10 +5121,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B120">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -5169,10 +5135,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B121">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5183,10 +5149,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B122">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5197,10 +5163,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B123">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5211,10 +5177,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B124">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5225,10 +5191,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B125">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5239,10 +5205,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B126">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5253,10 +5219,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B127">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5267,10 +5233,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B128">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5281,10 +5247,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5295,10 +5261,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B130">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5309,10 +5275,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B131">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5323,10 +5289,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B132">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5337,10 +5303,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B133">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5351,10 +5317,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B134">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5365,10 +5331,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5379,10 +5345,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5393,10 +5359,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B137">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -5407,10 +5373,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -5421,10 +5387,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5435,10 +5401,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43852</v>
+        <v>43862</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5449,20 +5415,34 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>43851</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <v>1</v>
       </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D141">
+  <sortState ref="A2:D142">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5471,29 +5451,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -5501,13 +5476,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="B2">
-        <v>12773</v>
+        <v>12844</v>
       </c>
       <c r="C2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D2">
         <v>1105</v>
@@ -5515,13 +5490,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44015</v>
+        <v>44016</v>
       </c>
       <c r="B3">
-        <v>12773</v>
+        <v>12844</v>
       </c>
       <c r="C3">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D3">
         <v>1105</v>
@@ -5529,13 +5504,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B4">
-        <v>12772</v>
+        <v>12837</v>
       </c>
       <c r="C4">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="D4">
         <v>1105</v>
@@ -5543,27 +5518,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B5">
-        <v>12763</v>
+        <v>12836</v>
       </c>
       <c r="C5">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="D5">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B6">
-        <v>12752</v>
+        <v>12822</v>
       </c>
       <c r="C6">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="D6">
         <v>1104</v>
@@ -5571,27 +5546,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B7">
-        <v>12740</v>
+        <v>12809</v>
       </c>
       <c r="C7">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="D7">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B8">
-        <v>12736</v>
+        <v>12792</v>
       </c>
       <c r="C8">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D8">
         <v>1103</v>
@@ -5599,13 +5574,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B9">
-        <v>12726</v>
+        <v>12787</v>
       </c>
       <c r="C9">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D9">
         <v>1103</v>
@@ -5613,13 +5588,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B10">
-        <v>12712</v>
+        <v>12773</v>
       </c>
       <c r="C10">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D10">
         <v>1103</v>
@@ -5627,181 +5602,181 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B11">
-        <v>12690</v>
+        <v>12754</v>
       </c>
       <c r="C11">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D11">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B12">
-        <v>12674</v>
+        <v>12725</v>
       </c>
       <c r="C12">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D12">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B13">
-        <v>12649</v>
+        <v>12708</v>
       </c>
       <c r="C13">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D13">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B14">
-        <v>12617</v>
+        <v>12681</v>
       </c>
       <c r="C14">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D14">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B15">
-        <v>12577</v>
+        <v>12640</v>
       </c>
       <c r="C15">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D15">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B16">
-        <v>12544</v>
+        <v>12591</v>
       </c>
       <c r="C16">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D16">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B17">
-        <v>12487</v>
+        <v>12554</v>
       </c>
       <c r="C17">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D17">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B18">
-        <v>12421</v>
+        <v>12495</v>
       </c>
       <c r="C18">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D18">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B19">
-        <v>12374</v>
+        <v>12430</v>
       </c>
       <c r="C19">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D19">
-        <v>1085</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B20">
-        <v>12300</v>
+        <v>12383</v>
       </c>
       <c r="C20">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D20">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B21">
-        <v>12218</v>
+        <v>12308</v>
       </c>
       <c r="C21">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D21">
-        <v>1078</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B22">
-        <v>12150</v>
+        <v>12224</v>
       </c>
       <c r="C22">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D22">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B23">
-        <v>12081</v>
+        <v>12154</v>
       </c>
       <c r="C23">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D23">
         <v>1077</v>
@@ -5809,97 +5784,97 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B24">
-        <v>11990</v>
+        <v>12085</v>
       </c>
       <c r="C24">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D24">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B25">
-        <v>11908</v>
+        <v>11994</v>
       </c>
       <c r="C25">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D25">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B26">
-        <v>11820</v>
+        <v>11912</v>
       </c>
       <c r="C26">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D26">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B27">
-        <v>11683</v>
+        <v>11824</v>
       </c>
       <c r="C27">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D27">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B28">
-        <v>11601</v>
+        <v>11687</v>
       </c>
       <c r="C28">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D28">
-        <v>1068</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B29">
-        <v>11503</v>
+        <v>11605</v>
       </c>
       <c r="C29">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D29">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B30">
-        <v>11402</v>
+        <v>11507</v>
       </c>
       <c r="C30">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D30">
         <v>1065</v>
@@ -5907,69 +5882,69 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B31">
-        <v>11270</v>
+        <v>11406</v>
       </c>
       <c r="C31">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B32">
-        <v>11147</v>
+        <v>11274</v>
       </c>
       <c r="C32">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D32">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B33">
-        <v>11005</v>
+        <v>11151</v>
       </c>
       <c r="C33">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D33">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B34">
-        <v>10827</v>
+        <v>11009</v>
       </c>
       <c r="C34">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D34">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B35">
-        <v>10655</v>
+        <v>10830</v>
       </c>
       <c r="C35">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35">
         <v>1054</v>
@@ -5977,990 +5952,990 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B36">
-        <v>10490</v>
+        <v>10658</v>
       </c>
       <c r="C36">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D36">
-        <v>1049</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B37">
-        <v>10366</v>
+        <v>10492</v>
       </c>
       <c r="C37">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B38">
-        <v>10187</v>
+        <v>10368</v>
       </c>
       <c r="C38">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38">
-        <v>1042</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B39">
-        <v>9759</v>
+        <v>10189</v>
       </c>
       <c r="C39">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D39">
-        <v>1031</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B40">
-        <v>9597</v>
+        <v>9761</v>
       </c>
       <c r="C40">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B41">
-        <v>9451</v>
+        <v>9599</v>
       </c>
       <c r="C41">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D41">
-        <v>1018</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B42">
-        <v>9317</v>
+        <v>9451</v>
       </c>
       <c r="C42">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B43">
-        <v>9149</v>
+        <v>9316</v>
       </c>
       <c r="C43">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D43">
-        <v>1011</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B44">
-        <v>9004</v>
+        <v>9148</v>
       </c>
       <c r="C44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D44">
-        <v>1006</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B45">
-        <v>8839</v>
+        <v>9003</v>
       </c>
       <c r="C45">
         <v>92</v>
       </c>
       <c r="D45">
-        <v>1000</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B46">
-        <v>8697</v>
+        <v>8838</v>
       </c>
       <c r="C46">
         <v>91</v>
       </c>
       <c r="D46">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B47">
-        <v>8539</v>
+        <v>8696</v>
       </c>
       <c r="C47">
         <v>90</v>
       </c>
       <c r="D47">
-        <v>989</v>
+        <v>995</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B48">
-        <v>8344</v>
+        <v>8537</v>
       </c>
       <c r="C48">
         <v>89</v>
       </c>
       <c r="D48">
-        <v>976</v>
+        <v>989</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B49">
-        <v>8170</v>
+        <v>8342</v>
       </c>
       <c r="C49">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D49">
-        <v>969</v>
+        <v>976</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B50">
-        <v>8009</v>
+        <v>8167</v>
       </c>
       <c r="C50">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>955</v>
+        <v>969</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B51">
-        <v>7836</v>
+        <v>8006</v>
       </c>
       <c r="C51">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D51">
-        <v>942</v>
+        <v>955</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B52">
-        <v>7659</v>
+        <v>7833</v>
       </c>
       <c r="C52">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D52">
-        <v>933</v>
+        <v>942</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B53">
-        <v>7524</v>
+        <v>7656</v>
       </c>
       <c r="C53">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B54">
-        <v>7403</v>
+        <v>7521</v>
       </c>
       <c r="C54">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D54">
-        <v>922</v>
+        <v>928</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B55">
-        <v>7237</v>
+        <v>7400</v>
       </c>
       <c r="C55">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>914</v>
+        <v>922</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B56">
-        <v>7152</v>
+        <v>7234</v>
       </c>
       <c r="C56">
         <v>74</v>
       </c>
       <c r="D56">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B57">
-        <v>7059</v>
+        <v>7149</v>
       </c>
       <c r="C57">
         <v>74</v>
       </c>
       <c r="D57">
-        <v>891</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B58">
-        <v>6919</v>
+        <v>7056</v>
       </c>
       <c r="C58">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D58">
-        <v>880</v>
+        <v>891</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B59">
-        <v>6804</v>
+        <v>6916</v>
       </c>
       <c r="C59">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D59">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B60">
-        <v>6667</v>
+        <v>6801</v>
       </c>
       <c r="C60">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D60">
-        <v>859</v>
+        <v>868</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B61">
-        <v>6551</v>
+        <v>6664</v>
       </c>
       <c r="C61">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D61">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B62">
-        <v>6388</v>
+        <v>6548</v>
       </c>
       <c r="C62">
         <v>63</v>
       </c>
       <c r="D62">
-        <v>844</v>
+        <v>853</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B63">
-        <v>6236</v>
+        <v>6385</v>
       </c>
       <c r="C63">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D63">
-        <v>832</v>
+        <v>844</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B64">
-        <v>6094</v>
+        <v>6233</v>
       </c>
       <c r="C64">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D64">
-        <v>823</v>
+        <v>832</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B65">
-        <v>5954</v>
+        <v>6091</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D65">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B66">
-        <v>5813</v>
+        <v>5951</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D66">
-        <v>799</v>
+        <v>810</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B67">
-        <v>5640</v>
+        <v>5812</v>
       </c>
       <c r="C67">
         <v>53</v>
       </c>
       <c r="D67">
-        <v>784</v>
+        <v>799</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B68">
-        <v>5453</v>
+        <v>5639</v>
       </c>
       <c r="C68">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D68">
-        <v>759</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B69">
-        <v>5302</v>
+        <v>5452</v>
       </c>
       <c r="C69">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D69">
-        <v>745</v>
+        <v>759</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B70">
-        <v>5135</v>
+        <v>5301</v>
       </c>
       <c r="C70">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D70">
-        <v>729</v>
+        <v>745</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B71">
-        <v>4996</v>
+        <v>5134</v>
       </c>
       <c r="C71">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D71">
-        <v>711</v>
+        <v>729</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B72">
-        <v>4903</v>
+        <v>4995</v>
       </c>
       <c r="C72">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D72">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B73">
-        <v>4782</v>
+        <v>4901</v>
       </c>
       <c r="C73">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D73">
-        <v>682</v>
+        <v>702</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B74">
-        <v>4621</v>
+        <v>4780</v>
       </c>
       <c r="C74">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D74">
-        <v>666</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B75">
-        <v>4442</v>
+        <v>4619</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D75">
-        <v>640</v>
+        <v>666</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B76">
-        <v>4246</v>
+        <v>4440</v>
       </c>
       <c r="C76">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D76">
-        <v>613</v>
+        <v>640</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B77">
-        <v>4059</v>
+        <v>4244</v>
       </c>
       <c r="C77">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D77">
-        <v>592</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B78">
-        <v>3781</v>
+        <v>4057</v>
       </c>
       <c r="C78">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D78">
-        <v>566</v>
+        <v>592</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B79">
-        <v>3607</v>
+        <v>3780</v>
       </c>
       <c r="C79">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D79">
-        <v>550</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B80">
-        <v>3453</v>
+        <v>3606</v>
       </c>
       <c r="C80">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B81">
-        <v>3143</v>
+        <v>3452</v>
       </c>
       <c r="C81">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D81">
-        <v>488</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B82">
-        <v>2895</v>
+        <v>3142</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>447</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B83">
-        <v>2695</v>
+        <v>2894</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>418</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B84">
-        <v>2509</v>
+        <v>2694</v>
       </c>
       <c r="C84">
         <v>18</v>
       </c>
       <c r="D84">
-        <v>383</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B85">
-        <v>2277</v>
+        <v>2508</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>342</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B86">
-        <v>2138</v>
+        <v>2276</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86">
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B87">
-        <v>2030</v>
+        <v>2137</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B88">
-        <v>1920</v>
+        <v>2029</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D88">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B89">
-        <v>1775</v>
+        <v>1919</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D89">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B90">
-        <v>1645</v>
+        <v>1774</v>
       </c>
       <c r="C90">
         <v>10</v>
       </c>
       <c r="D90">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B91">
-        <v>1491</v>
+        <v>1644</v>
       </c>
       <c r="C91">
         <v>10</v>
       </c>
       <c r="D91">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B92">
-        <v>1390</v>
+        <v>1490</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B93">
-        <v>1335</v>
+        <v>1390</v>
       </c>
       <c r="C93">
         <v>8</v>
       </c>
       <c r="D93">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B94">
-        <v>1230</v>
+        <v>1335</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D94">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B95">
-        <v>1123</v>
+        <v>1230</v>
       </c>
       <c r="C95">
         <v>7</v>
       </c>
       <c r="D95">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B96">
-        <v>1027</v>
+        <v>1123</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B97">
-        <v>935</v>
+        <v>1027</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B98">
-        <v>858</v>
+        <v>935</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B99">
-        <v>782</v>
+        <v>858</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B100">
-        <v>753</v>
+        <v>782</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B101">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B102">
-        <v>603</v>
+        <v>710</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B103">
-        <v>487</v>
+        <v>603</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B104">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B105">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B106">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6971,38 +6946,38 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B107">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B108">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B109">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -7013,10 +6988,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B110">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -7027,10 +7002,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B111">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -7041,10 +7016,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B112">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -7055,10 +7030,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B113">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -7069,10 +7044,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B114">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -7083,10 +7058,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B115">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -7097,24 +7072,24 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B116">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B117">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -7125,10 +7100,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B118">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7139,10 +7114,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B119">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7153,10 +7128,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B120">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7167,24 +7142,24 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B121">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B122">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -7195,13 +7170,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -7209,10 +7184,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7223,10 +7198,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7237,10 +7212,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7251,10 +7226,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B127">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -7265,10 +7240,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -7279,10 +7254,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -7293,10 +7268,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -7307,10 +7282,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -7321,10 +7296,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -7335,10 +7310,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -7349,20 +7324,34 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
         <v>43853</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>2</v>
       </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D134">
+  <sortState ref="A2:D135">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -13,17 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
-    <sheet name="Cases by Outcome" sheetId="16" r:id="rId2"/>
+    <sheet name="Cases by Outcome" sheetId="14" r:id="rId2"/>
     <sheet name="Outbreaks" sheetId="24" r:id="rId3"/>
     <sheet name="Cases by Age" sheetId="13" r:id="rId4"/>
-    <sheet name="Cases by Episode Date" sheetId="14" r:id="rId5"/>
-    <sheet name="Cases by Reported Date" sheetId="22" r:id="rId6"/>
-    <sheet name="Cases by Gender" sheetId="15" r:id="rId7"/>
-    <sheet name="Cumulative Cases by Episode Dat" sheetId="17" r:id="rId8"/>
-    <sheet name="Cumulative Cases by Reported Da" sheetId="18" r:id="rId9"/>
-    <sheet name="Currently Hospitalized" sheetId="19" r:id="rId10"/>
-    <sheet name="Ever Hospitalized" sheetId="20" r:id="rId11"/>
-    <sheet name="Severity Indicators by Age Grou" sheetId="21" r:id="rId12"/>
+    <sheet name="Cases by Gender" sheetId="16" r:id="rId5"/>
+    <sheet name="Cases by Episode Date" sheetId="15" r:id="rId6"/>
+    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId7"/>
+    <sheet name="Cumulative Cases by Episode Dat" sheetId="18" r:id="rId8"/>
+    <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
+    <sheet name="Currently Hospitalized" sheetId="20" r:id="rId10"/>
+    <sheet name="Ever Hospitalized" sheetId="21" r:id="rId11"/>
+    <sheet name="Severity Indicators by Age Grou" sheetId="22" r:id="rId12"/>
     <sheet name="Source of Infection" sheetId="23" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -41,7 +41,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of July 5, 2020</t>
+    <t>Data as of July 7, 2020</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
@@ -53,52 +53,34 @@
     <t>Case Count</t>
   </si>
   <si>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>70-79</t>
+  </si>
+  <si>
+    <t>80-89</t>
+  </si>
+  <si>
     <t>40-49</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>90+</t>
   </si>
   <si>
     <t>50-59</t>
   </si>
   <si>
-    <t>90+</t>
-  </si>
-  <si>
     <t>≤19</t>
-  </si>
-  <si>
-    <t>30-39</t>
-  </si>
-  <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t>20-29</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>80-89</t>
   </si>
   <si>
     <t>60-69</t>
   </si>
   <si>
-    <t>Episode Date</t>
-  </si>
-  <si>
-    <t>Client Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Transgender</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -113,10 +95,28 @@
     <t>All Cases</t>
   </si>
   <si>
-    <t>Active Cases</t>
+    <t>Episode Date</t>
+  </si>
+  <si>
+    <t>Client Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Reported Date</t>
+  </si>
+  <si>
+    <t>Active Cases</t>
   </si>
   <si>
     <t>Intervention</t>
@@ -134,13 +134,13 @@
     <t>Currently Intubated</t>
   </si>
   <si>
-    <t>Ever Intubated</t>
-  </si>
-  <si>
     <t>Ever in ICU</t>
   </si>
   <si>
     <t>Ever Hospitalized</t>
+  </si>
+  <si>
+    <t>Ever Intubated</t>
   </si>
   <si>
     <t>ICU Cases</t>
@@ -155,19 +155,19 @@
     <t>Most Likely Source</t>
   </si>
   <si>
-    <t>Travel</t>
+    <t>Institutional</t>
   </si>
   <si>
     <t>Close contact with a case</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>Community</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Institutional</t>
+    <t>Travel</t>
   </si>
   <si>
     <t>Outbreak Count</t>
@@ -492,7 +492,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,10 +537,10 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>0.272516692</v>
+        <v>0.23752969099999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -548,10 +548,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3">
-        <v>1.0900667669999999</v>
+        <v>1.0722768920000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -559,10 +559,10 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>0.231639188</v>
+        <v>0.210383441</v>
       </c>
     </row>
   </sheetData>
@@ -594,10 +594,10 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>287</v>
+        <v>400</v>
       </c>
       <c r="C2">
-        <v>1.9553072629999999</v>
+        <v>2.7146250420000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,10 +605,10 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>399</v>
+        <v>1832</v>
       </c>
       <c r="C3">
-        <v>2.7183539990000001</v>
+        <v>12.432982694</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -616,10 +616,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>1827</v>
+        <v>287</v>
       </c>
       <c r="C4">
-        <v>12.447199891</v>
+        <v>1.9477434680000001</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +643,7 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>36</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -671,19 +671,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>11</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>96</v>
@@ -731,7 +731,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E6">
         <v>77</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>109</v>
@@ -748,7 +748,7 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E7">
         <v>80</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>87</v>
@@ -765,7 +765,7 @@
         <v>206</v>
       </c>
       <c r="D8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E8">
         <v>63</v>
@@ -773,33 +773,33 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D9">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D10">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -835,7 +835,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,7 +853,7 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>5.5482639300000001</v>
+        <v>3.461356093</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>56.520701586999998</v>
+        <v>56.472261734999996</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>41</v>
       </c>
       <c r="B4">
-        <v>24.269180289000001</v>
+        <v>10.158843054</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
         <v>42</v>
       </c>
       <c r="B5">
-        <v>10.225510082</v>
+        <v>24.359886201999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>43</v>
       </c>
       <c r="B6">
-        <v>3.436344112</v>
+        <v>5.5476529159999997</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -911,26 +911,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>14678</v>
+        <v>14735</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>12844</v>
+        <v>12935</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +956,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -985,24 +985,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>5.9476767949999996</v>
+        <v>6.0128944689999999</v>
       </c>
       <c r="C2">
-        <v>873</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>14.286687560000001</v>
+        <v>14.299287411</v>
       </c>
       <c r="C3">
-        <v>2097</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1010,84 +1010,84 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>14.048235454</v>
+        <v>14.075330845</v>
       </c>
       <c r="C4">
-        <v>2062</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>14.041422537000001</v>
+        <v>14.054971157000001</v>
       </c>
       <c r="C5">
-        <v>2061</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>15.826406866999999</v>
+        <v>15.771971496000001</v>
       </c>
       <c r="C6">
-        <v>2323</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>10.832538492999999</v>
+        <v>10.763488293</v>
       </c>
       <c r="C7">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>7.1058727350000002</v>
+        <v>7.1123176109999999</v>
       </c>
       <c r="C8">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>10.280692192</v>
+        <v>10.288428911</v>
       </c>
       <c r="C9">
-        <v>1509</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>7.4124540129999996</v>
+        <v>7.4041398029999996</v>
       </c>
       <c r="C10">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.21801335299999999</v>
+        <v>0.217170003</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -1103,11 +1103,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>53.070919578999998</v>
+      </c>
+      <c r="C2">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>45.198506956000003</v>
+      </c>
+      <c r="C3">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>4.7505937999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1.6355615880000001</v>
+      </c>
+      <c r="C5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>4.7505937999999998E-2</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1116,7 +1193,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1124,999 +1201,999 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B18">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B24">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B31">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B32">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B36">
-        <v>192</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B37">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B38">
-        <v>106</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B41">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B42">
-        <v>182</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B43">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B44">
-        <v>143</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B45">
-        <v>133</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B46">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B47">
-        <v>193</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B48">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B49">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B50">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B51">
-        <v>159</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B52">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B53">
-        <v>211</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B54">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B55">
-        <v>156</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B56">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B57">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B58">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B59">
-        <v>139</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B60">
-        <v>186</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B61">
-        <v>183</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B62">
-        <v>123</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B63">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B64">
-        <v>161</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B65">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B66">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B67">
-        <v>198</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B68">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B69">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B70">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B71">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B72">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B73">
-        <v>154</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B74">
-        <v>191</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B75">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B76">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B77">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B78">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B79">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B80">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B81">
-        <v>284</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B82">
-        <v>205</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B83">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B84">
-        <v>272</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B85">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B86">
-        <v>188</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B87">
-        <v>187</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B88">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B89">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B90">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B91">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B92">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B93">
-        <v>119</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B94">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B95">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B96">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B97">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B98">
-        <v>110</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B99">
-        <v>103</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B100">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B101">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B102">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B103">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B104">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B105">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B106">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B107">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B108">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B109">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B110">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B111">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B112">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B113">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B114">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B115">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B116">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B117">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B118">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B119">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B120">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B125">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B126">
         <v>11</v>
@@ -2124,39 +2201,39 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B127">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43887</v>
+        <v>43890</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2164,15 +2241,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43885</v>
+        <v>43889</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2180,15 +2257,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43877</v>
+        <v>43882</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2196,23 +2273,23 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43876</v>
+        <v>43881</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43875</v>
+        <v>43877</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43868</v>
+        <v>43876</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2220,15 +2297,15 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43866</v>
+        <v>43875</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43862</v>
+        <v>43868</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2236,7 +2313,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43852</v>
+        <v>43866</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -2244,27 +2321,41 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43851</v>
+        <v>43862</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
     </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B142">
+  <sortState ref="A2:B144">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2273,7 +2364,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -2281,1023 +2372,1023 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B12">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B27">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B29">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B31">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B33">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B34">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B35">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B36">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B38">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B39">
-        <v>440</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B40">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B41">
-        <v>159</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B42">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B43">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B44">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B45">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B46">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B47">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B48">
-        <v>209</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B49">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B50">
-        <v>176</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B51">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B52">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B53">
-        <v>141</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B54">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B55">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B56">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B57">
-        <v>102</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B58">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B59">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B60">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B61">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B62">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B63">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B64">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B65">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B66">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B67">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B68">
-        <v>214</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B69">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B70">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B71">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B72">
-        <v>106</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B73">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B74">
-        <v>178</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B75">
-        <v>206</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B76">
-        <v>225</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B77">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B78">
-        <v>305</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B79">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B80">
-        <v>167</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B81">
-        <v>364</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B82">
-        <v>294</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B83">
-        <v>230</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B84">
-        <v>221</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B85">
-        <v>275</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B86">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B87">
-        <v>129</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B88">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B89">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B90">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B91">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B92">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B93">
-        <v>72</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B94">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B95">
-        <v>121</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B96">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B97">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B98">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B99">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B100">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B101">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B102">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B103">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B104">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B105">
-        <v>52</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B106">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B107">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B108">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B109">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B110">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B111">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B112">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B114">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B117">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -3305,15 +3396,15 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43888</v>
+        <v>43890</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3321,7 +3412,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -3329,7 +3420,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3337,7 +3428,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -3345,108 +3436,41 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>43853</v>
       </c>
-      <c r="B135">
+      <c r="B137">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B135">
+  <sortState ref="A2:B137">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>53.09306445</v>
-      </c>
-      <c r="C2">
-        <v>7793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>4.0877504000000002E-2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>45.19689331</v>
-      </c>
-      <c r="C4">
-        <v>6634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>4.7690420999999997E-2</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1.6214743149999999</v>
-      </c>
-      <c r="C6">
-        <v>238</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3455,1690 +3479,1690 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B2">
-        <v>12844</v>
+        <v>12935</v>
       </c>
       <c r="C2">
-        <v>729</v>
+        <v>690</v>
       </c>
       <c r="D2">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B3">
-        <v>12844</v>
+        <v>12935</v>
       </c>
       <c r="C3">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="D3">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B4">
-        <v>12844</v>
+        <v>12935</v>
       </c>
       <c r="C4">
-        <v>712</v>
+        <v>654</v>
       </c>
       <c r="D4">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B5">
-        <v>12844</v>
+        <v>12935</v>
       </c>
       <c r="C5">
-        <v>685</v>
+        <v>637</v>
       </c>
       <c r="D5">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B6">
-        <v>12844</v>
+        <v>12935</v>
       </c>
       <c r="C6">
-        <v>653</v>
+        <v>618</v>
       </c>
       <c r="D6">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B7">
-        <v>12842</v>
+        <v>12935</v>
       </c>
       <c r="C7">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="D7">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B8">
-        <v>12841</v>
+        <v>12935</v>
       </c>
       <c r="C8">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D8">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B9">
-        <v>12839</v>
+        <v>12933</v>
       </c>
       <c r="C9">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="D9">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B10">
-        <v>12839</v>
+        <v>12932</v>
       </c>
       <c r="C10">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D10">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B11">
-        <v>12838</v>
+        <v>12929</v>
       </c>
       <c r="C11">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="D11">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B12">
-        <v>12837</v>
+        <v>12929</v>
       </c>
       <c r="C12">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="D12">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B13">
-        <v>12834</v>
+        <v>12927</v>
       </c>
       <c r="C13">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="D13">
-        <v>1103</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B14">
-        <v>12832</v>
+        <v>12926</v>
       </c>
       <c r="C14">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D14">
-        <v>1102</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B15">
-        <v>12830</v>
+        <v>12922</v>
       </c>
       <c r="C15">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D15">
-        <v>1101</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B16">
-        <v>12824</v>
+        <v>12919</v>
       </c>
       <c r="C16">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D16">
-        <v>1101</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B17">
-        <v>12815</v>
+        <v>12910</v>
       </c>
       <c r="C17">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17">
-        <v>1101</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B18">
-        <v>12766</v>
+        <v>12847</v>
       </c>
       <c r="C18">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D18">
-        <v>1099</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B19">
-        <v>12713</v>
+        <v>12804</v>
       </c>
       <c r="C19">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D19">
-        <v>1099</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B20">
-        <v>12654</v>
+        <v>12755</v>
       </c>
       <c r="C20">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D20">
-        <v>1096</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B21">
-        <v>12594</v>
+        <v>12700</v>
       </c>
       <c r="C21">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21">
-        <v>1094</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B22">
-        <v>12545</v>
+        <v>12639</v>
       </c>
       <c r="C22">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D22">
-        <v>1090</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B23">
-        <v>12467</v>
+        <v>12577</v>
       </c>
       <c r="C23">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D23">
-        <v>1089</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B24">
-        <v>12404</v>
+        <v>12529</v>
       </c>
       <c r="C24">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D24">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B25">
-        <v>12367</v>
+        <v>12451</v>
       </c>
       <c r="C25">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D25">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B26">
-        <v>12297</v>
+        <v>12388</v>
       </c>
       <c r="C26">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D26">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B27">
-        <v>12206</v>
+        <v>12352</v>
       </c>
       <c r="C27">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D27">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B28">
-        <v>12135</v>
+        <v>12282</v>
       </c>
       <c r="C28">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D28">
-        <v>1085</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B29">
-        <v>12067</v>
+        <v>12190</v>
       </c>
       <c r="C29">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D29">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B30">
-        <v>11971</v>
+        <v>12118</v>
       </c>
       <c r="C30">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D30">
-        <v>1081</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B31">
-        <v>11881</v>
+        <v>12050</v>
       </c>
       <c r="C31">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31">
-        <v>1078</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B32">
-        <v>11803</v>
+        <v>11956</v>
       </c>
       <c r="C32">
         <v>120</v>
       </c>
       <c r="D32">
-        <v>1076</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B33">
-        <v>11711</v>
+        <v>11866</v>
       </c>
       <c r="C33">
         <v>119</v>
       </c>
       <c r="D33">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B34">
-        <v>11595</v>
+        <v>11787</v>
       </c>
       <c r="C34">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D34">
-        <v>1068</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B35">
-        <v>11489</v>
+        <v>11696</v>
       </c>
       <c r="C35">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D35">
-        <v>1065</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B36">
-        <v>11376</v>
+        <v>11579</v>
       </c>
       <c r="C36">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36">
-        <v>1063</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B37">
-        <v>11190</v>
+        <v>11472</v>
       </c>
       <c r="C37">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37">
-        <v>1060</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B38">
-        <v>11098</v>
+        <v>11358</v>
       </c>
       <c r="C38">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D38">
-        <v>1060</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B39">
-        <v>10996</v>
+        <v>11174</v>
       </c>
       <c r="C39">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D39">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B40">
-        <v>10874</v>
+        <v>11082</v>
       </c>
       <c r="C40">
         <v>108</v>
       </c>
       <c r="D40">
-        <v>1052</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B41">
-        <v>10759</v>
+        <v>10980</v>
       </c>
       <c r="C41">
         <v>107</v>
       </c>
       <c r="D41">
-        <v>1048</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B42">
-        <v>10604</v>
+        <v>10858</v>
       </c>
       <c r="C42">
         <v>106</v>
       </c>
       <c r="D42">
-        <v>1040</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B43">
-        <v>10428</v>
+        <v>10743</v>
       </c>
       <c r="C43">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D43">
-        <v>1036</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B44">
-        <v>10255</v>
+        <v>10588</v>
       </c>
       <c r="C44">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D44">
-        <v>1030</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B45">
-        <v>10113</v>
+        <v>10412</v>
       </c>
       <c r="C45">
         <v>102</v>
       </c>
       <c r="D45">
-        <v>1029</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B46">
-        <v>9984</v>
+        <v>10241</v>
       </c>
       <c r="C46">
         <v>100</v>
       </c>
       <c r="D46">
-        <v>1027</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B47">
-        <v>9842</v>
+        <v>10100</v>
       </c>
       <c r="C47">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D47">
-        <v>1021</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B48">
-        <v>9656</v>
+        <v>9971</v>
       </c>
       <c r="C48">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D48">
-        <v>1017</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B49">
-        <v>9504</v>
+        <v>9829</v>
       </c>
       <c r="C49">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D49">
-        <v>1015</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B50">
-        <v>9307</v>
+        <v>9643</v>
       </c>
       <c r="C50">
         <v>93</v>
       </c>
       <c r="D50">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B51">
-        <v>9152</v>
+        <v>9491</v>
       </c>
       <c r="C51">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D51">
-        <v>1003</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B52">
-        <v>9008</v>
+        <v>9294</v>
       </c>
       <c r="C52">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D52">
-        <v>988</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B53">
-        <v>8838</v>
+        <v>9138</v>
       </c>
       <c r="C53">
         <v>88</v>
       </c>
       <c r="D53">
-        <v>979</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B54">
-        <v>8634</v>
+        <v>8997</v>
       </c>
       <c r="C54">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D54">
-        <v>974</v>
+        <v>989</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B55">
-        <v>8472</v>
+        <v>8827</v>
       </c>
       <c r="C55">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D55">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B56">
-        <v>8330</v>
+        <v>8624</v>
       </c>
       <c r="C56">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D56">
-        <v>955</v>
+        <v>975</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B57">
-        <v>8197</v>
+        <v>8461</v>
       </c>
       <c r="C57">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D57">
-        <v>943</v>
+        <v>969</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B58">
-        <v>8023</v>
+        <v>8320</v>
       </c>
       <c r="C58">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>932</v>
+        <v>957</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B59">
-        <v>7915</v>
+        <v>8186</v>
       </c>
       <c r="C59">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D59">
-        <v>928</v>
+        <v>945</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B60">
-        <v>7793</v>
+        <v>8012</v>
       </c>
       <c r="C60">
         <v>74</v>
       </c>
       <c r="D60">
-        <v>913</v>
+        <v>933</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B61">
-        <v>7621</v>
+        <v>7903</v>
       </c>
       <c r="C61">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D61">
-        <v>901</v>
+        <v>929</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B62">
-        <v>7451</v>
+        <v>7783</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>890</v>
+        <v>915</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B63">
-        <v>7340</v>
+        <v>7612</v>
       </c>
       <c r="C63">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D63">
-        <v>880</v>
+        <v>902</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B64">
-        <v>7196</v>
+        <v>7441</v>
       </c>
       <c r="C64">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D64">
-        <v>873</v>
+        <v>891</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B65">
-        <v>7051</v>
+        <v>7331</v>
       </c>
       <c r="C65">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D65">
-        <v>860</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B66">
-        <v>6947</v>
+        <v>7188</v>
       </c>
       <c r="C66">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D66">
-        <v>857</v>
+        <v>873</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B67">
-        <v>6806</v>
+        <v>7041</v>
       </c>
       <c r="C67">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D67">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B68">
-        <v>6622</v>
+        <v>6936</v>
       </c>
       <c r="C68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D68">
-        <v>835</v>
+        <v>857</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B69">
-        <v>6451</v>
+        <v>6795</v>
       </c>
       <c r="C69">
         <v>56</v>
       </c>
       <c r="D69">
-        <v>822</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B70">
-        <v>6288</v>
+        <v>6610</v>
       </c>
       <c r="C70">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D70">
-        <v>800</v>
+        <v>835</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B71">
-        <v>6096</v>
+        <v>6439</v>
       </c>
       <c r="C71">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D71">
-        <v>779</v>
+        <v>822</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B72">
-        <v>5908</v>
+        <v>6276</v>
       </c>
       <c r="C72">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D72">
-        <v>766</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B73">
-        <v>5789</v>
+        <v>6082</v>
       </c>
       <c r="C73">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D73">
-        <v>755</v>
+        <v>779</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B74">
-        <v>5651</v>
+        <v>5893</v>
       </c>
       <c r="C74">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D74">
-        <v>740</v>
+        <v>766</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B75">
-        <v>5473</v>
+        <v>5774</v>
       </c>
       <c r="C75">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D75">
-        <v>729</v>
+        <v>755</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B76">
-        <v>5315</v>
+        <v>5634</v>
       </c>
       <c r="C76">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D76">
-        <v>710</v>
+        <v>740</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B77">
-        <v>5127</v>
+        <v>5454</v>
       </c>
       <c r="C77">
         <v>45</v>
       </c>
       <c r="D77">
-        <v>677</v>
+        <v>729</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B78">
-        <v>4973</v>
+        <v>5297</v>
       </c>
       <c r="C78">
         <v>44</v>
       </c>
       <c r="D78">
-        <v>659</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B79">
-        <v>4770</v>
+        <v>5109</v>
       </c>
       <c r="C79">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D79">
-        <v>640</v>
+        <v>677</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B80">
-        <v>4652</v>
+        <v>4955</v>
       </c>
       <c r="C80">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D80">
-        <v>614</v>
+        <v>659</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B81">
-        <v>4430</v>
+        <v>4755</v>
       </c>
       <c r="C81">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D81">
-        <v>590</v>
+        <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B82">
-        <v>4178</v>
+        <v>4637</v>
       </c>
       <c r="C82">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D82">
-        <v>566</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B83">
-        <v>3996</v>
+        <v>4415</v>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D83">
-        <v>544</v>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B84">
-        <v>3746</v>
+        <v>4166</v>
       </c>
       <c r="C84">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D84">
-        <v>507</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B85">
-        <v>3504</v>
+        <v>3985</v>
       </c>
       <c r="C85">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D85">
-        <v>481</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B86">
-        <v>3262</v>
+        <v>3738</v>
       </c>
       <c r="C86">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D86">
-        <v>453</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B87">
-        <v>3098</v>
+        <v>3495</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>429</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B88">
-        <v>2942</v>
+        <v>3258</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D88">
-        <v>400</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B89">
-        <v>2763</v>
+        <v>3096</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>378</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B90">
-        <v>2617</v>
+        <v>2941</v>
       </c>
       <c r="C90">
         <v>19</v>
       </c>
       <c r="D90">
-        <v>352</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B91">
-        <v>2481</v>
+        <v>2763</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D91">
-        <v>313</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B92">
-        <v>2334</v>
+        <v>2617</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>291</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B93">
-        <v>2204</v>
+        <v>2481</v>
       </c>
       <c r="C93">
         <v>15</v>
       </c>
       <c r="D93">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B94">
-        <v>2110</v>
+        <v>2333</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>243</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B95">
-        <v>2003</v>
+        <v>2202</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>219</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B96">
-        <v>1890</v>
+        <v>2109</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>187</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B97">
-        <v>1771</v>
+        <v>2002</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B98">
-        <v>1646</v>
+        <v>1888</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B99">
-        <v>1547</v>
+        <v>1768</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D99">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B100">
-        <v>1466</v>
+        <v>1644</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D100">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B101">
-        <v>1392</v>
+        <v>1545</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B102">
-        <v>1303</v>
+        <v>1465</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D102">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B103">
-        <v>1221</v>
+        <v>1391</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D103">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B104">
-        <v>1143</v>
+        <v>1301</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B105">
-        <v>1070</v>
+        <v>1220</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B106">
-        <v>996</v>
+        <v>1143</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B107">
-        <v>906</v>
+        <v>1072</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B108">
-        <v>855</v>
+        <v>998</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B109">
-        <v>790</v>
+        <v>907</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B110">
-        <v>714</v>
+        <v>856</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B111">
-        <v>638</v>
+        <v>791</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B112">
-        <v>550</v>
+        <v>715</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B113">
-        <v>451</v>
+        <v>639</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B114">
-        <v>376</v>
+        <v>551</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B115">
-        <v>326</v>
+        <v>451</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B116">
-        <v>270</v>
+        <v>376</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B117">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B118">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B119">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B120">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B121">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5149,10 +5173,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B122">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5163,10 +5187,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B123">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5177,10 +5201,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B124">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5191,10 +5215,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B125">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5205,10 +5229,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B126">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5219,10 +5243,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B127">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5233,10 +5257,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B128">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5247,10 +5271,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5261,10 +5285,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5275,10 +5299,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43887</v>
+        <v>43890</v>
       </c>
       <c r="B131">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5289,10 +5313,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43885</v>
+        <v>43889</v>
       </c>
       <c r="B132">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5303,10 +5327,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B133">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5317,10 +5341,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="B134">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5331,10 +5355,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43877</v>
+        <v>43882</v>
       </c>
       <c r="B135">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5345,10 +5369,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43876</v>
+        <v>43881</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5359,10 +5383,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43875</v>
+        <v>43877</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -5373,10 +5397,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43868</v>
+        <v>43876</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -5387,10 +5411,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43866</v>
+        <v>43875</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5401,10 +5425,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43862</v>
+        <v>43868</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5415,10 +5439,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43852</v>
+        <v>43866</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -5429,20 +5453,48 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
         <v>43851</v>
       </c>
-      <c r="B142">
+      <c r="B144">
         <v>1</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D142">
+  <sortState ref="A2:D144">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5451,7 +5503,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5462,1550 +5514,1550 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B2">
-        <v>12844</v>
+        <v>12935</v>
       </c>
       <c r="C2">
-        <v>729</v>
+        <v>690</v>
       </c>
       <c r="D2">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B3">
-        <v>12844</v>
+        <v>12933</v>
       </c>
       <c r="C3">
-        <v>709</v>
+        <v>660</v>
       </c>
       <c r="D3">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B4">
-        <v>12837</v>
+        <v>12932</v>
       </c>
       <c r="C4">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="D4">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B5">
-        <v>12836</v>
+        <v>12930</v>
       </c>
       <c r="C5">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="D5">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B6">
-        <v>12822</v>
+        <v>12922</v>
       </c>
       <c r="C6">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="D6">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B7">
-        <v>12809</v>
+        <v>12922</v>
       </c>
       <c r="C7">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D7">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B8">
-        <v>12792</v>
+        <v>12910</v>
       </c>
       <c r="C8">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="D8">
-        <v>1103</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B9">
-        <v>12787</v>
+        <v>12895</v>
       </c>
       <c r="C9">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="D9">
-        <v>1103</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B10">
-        <v>12773</v>
+        <v>12868</v>
       </c>
       <c r="C10">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D10">
-        <v>1103</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B11">
-        <v>12754</v>
+        <v>12859</v>
       </c>
       <c r="C11">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D11">
-        <v>1103</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B12">
-        <v>12725</v>
+        <v>12836</v>
       </c>
       <c r="C12">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D12">
-        <v>1101</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B13">
-        <v>12708</v>
+        <v>12810</v>
       </c>
       <c r="C13">
         <v>208</v>
       </c>
       <c r="D13">
-        <v>1100</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B14">
-        <v>12681</v>
+        <v>12774</v>
       </c>
       <c r="C14">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D14">
-        <v>1099</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B15">
-        <v>12640</v>
+        <v>12741</v>
       </c>
       <c r="C15">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D15">
-        <v>1098</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B16">
-        <v>12591</v>
+        <v>12687</v>
       </c>
       <c r="C16">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16">
-        <v>1097</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B17">
-        <v>12554</v>
+        <v>12634</v>
       </c>
       <c r="C17">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17">
-        <v>1095</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B18">
-        <v>12495</v>
+        <v>12582</v>
       </c>
       <c r="C18">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18">
-        <v>1091</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B19">
-        <v>12430</v>
+        <v>12544</v>
       </c>
       <c r="C19">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D19">
-        <v>1090</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B20">
-        <v>12383</v>
+        <v>12486</v>
       </c>
       <c r="C20">
         <v>129</v>
       </c>
       <c r="D20">
-        <v>1085</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B21">
-        <v>12308</v>
+        <v>12420</v>
       </c>
       <c r="C21">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D21">
-        <v>1082</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B22">
-        <v>12224</v>
+        <v>12373</v>
       </c>
       <c r="C22">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22">
-        <v>1078</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B23">
-        <v>12154</v>
+        <v>12297</v>
       </c>
       <c r="C23">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23">
-        <v>1077</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B24">
-        <v>12085</v>
+        <v>12214</v>
       </c>
       <c r="C24">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D24">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B25">
-        <v>11994</v>
+        <v>12144</v>
       </c>
       <c r="C25">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D25">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B26">
-        <v>11912</v>
+        <v>12075</v>
       </c>
       <c r="C26">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B27">
-        <v>11824</v>
+        <v>11984</v>
       </c>
       <c r="C27">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B28">
-        <v>11687</v>
+        <v>11902</v>
       </c>
       <c r="C28">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28">
-        <v>1072</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B29">
-        <v>11605</v>
+        <v>11814</v>
       </c>
       <c r="C29">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29">
-        <v>1068</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B30">
-        <v>11507</v>
+        <v>11677</v>
       </c>
       <c r="C30">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30">
-        <v>1065</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B31">
-        <v>11406</v>
+        <v>11595</v>
       </c>
       <c r="C31">
         <v>118</v>
       </c>
       <c r="D31">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B32">
-        <v>11274</v>
+        <v>11495</v>
       </c>
       <c r="C32">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D32">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B33">
-        <v>11151</v>
+        <v>11394</v>
       </c>
       <c r="C33">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D33">
-        <v>1058</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B34">
-        <v>11009</v>
+        <v>11262</v>
       </c>
       <c r="C34">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34">
-        <v>1056</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B35">
-        <v>10830</v>
+        <v>11139</v>
       </c>
       <c r="C35">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B36">
-        <v>10658</v>
+        <v>10997</v>
       </c>
       <c r="C36">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B37">
-        <v>10492</v>
+        <v>10818</v>
       </c>
       <c r="C37">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37">
-        <v>1049</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B38">
-        <v>10368</v>
+        <v>10647</v>
       </c>
       <c r="C38">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38">
-        <v>1047</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B39">
-        <v>10189</v>
+        <v>10482</v>
       </c>
       <c r="C39">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39">
-        <v>1042</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B40">
-        <v>9761</v>
+        <v>10358</v>
       </c>
       <c r="C40">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40">
-        <v>1031</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B41">
-        <v>9599</v>
+        <v>10179</v>
       </c>
       <c r="C41">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D41">
-        <v>1024</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B42">
-        <v>9451</v>
+        <v>9751</v>
       </c>
       <c r="C42">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D42">
-        <v>1018</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B43">
-        <v>9316</v>
+        <v>9589</v>
       </c>
       <c r="C43">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D43">
-        <v>1017</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B44">
-        <v>9148</v>
+        <v>9441</v>
       </c>
       <c r="C44">
         <v>94</v>
       </c>
       <c r="D44">
-        <v>1011</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B45">
-        <v>9003</v>
+        <v>9307</v>
       </c>
       <c r="C45">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D45">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B46">
-        <v>8838</v>
+        <v>9140</v>
       </c>
       <c r="C46">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B47">
-        <v>8696</v>
+        <v>8995</v>
       </c>
       <c r="C47">
         <v>90</v>
       </c>
       <c r="D47">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B48">
-        <v>8537</v>
+        <v>8830</v>
       </c>
       <c r="C48">
         <v>89</v>
       </c>
       <c r="D48">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B49">
-        <v>8342</v>
+        <v>8688</v>
       </c>
       <c r="C49">
         <v>88</v>
       </c>
       <c r="D49">
-        <v>976</v>
+        <v>996</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B50">
-        <v>8167</v>
+        <v>8529</v>
       </c>
       <c r="C50">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D50">
-        <v>969</v>
+        <v>990</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B51">
-        <v>8006</v>
+        <v>8334</v>
       </c>
       <c r="C51">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D51">
-        <v>955</v>
+        <v>977</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B52">
-        <v>7833</v>
+        <v>8159</v>
       </c>
       <c r="C52">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D52">
-        <v>942</v>
+        <v>970</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B53">
-        <v>7656</v>
+        <v>7998</v>
       </c>
       <c r="C53">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D53">
-        <v>933</v>
+        <v>956</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B54">
-        <v>7521</v>
+        <v>7825</v>
       </c>
       <c r="C54">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D54">
-        <v>928</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B55">
-        <v>7400</v>
+        <v>7648</v>
       </c>
       <c r="C55">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D55">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B56">
-        <v>7234</v>
+        <v>7514</v>
       </c>
       <c r="C56">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D56">
-        <v>914</v>
+        <v>929</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B57">
-        <v>7149</v>
+        <v>7393</v>
       </c>
       <c r="C57">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57">
-        <v>900</v>
+        <v>923</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B58">
-        <v>7056</v>
+        <v>7227</v>
       </c>
       <c r="C58">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D58">
-        <v>891</v>
+        <v>914</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B59">
-        <v>6916</v>
+        <v>7142</v>
       </c>
       <c r="C59">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D59">
-        <v>880</v>
+        <v>900</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B60">
-        <v>6801</v>
+        <v>7049</v>
       </c>
       <c r="C60">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D60">
-        <v>868</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B61">
-        <v>6664</v>
+        <v>6909</v>
       </c>
       <c r="C61">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D61">
-        <v>859</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B62">
-        <v>6548</v>
+        <v>6794</v>
       </c>
       <c r="C62">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D62">
-        <v>853</v>
+        <v>868</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B63">
-        <v>6385</v>
+        <v>6657</v>
       </c>
       <c r="C63">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D63">
-        <v>844</v>
+        <v>859</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B64">
-        <v>6233</v>
+        <v>6540</v>
       </c>
       <c r="C64">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>832</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B65">
-        <v>6091</v>
+        <v>6377</v>
       </c>
       <c r="C65">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D65">
-        <v>823</v>
+        <v>844</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B66">
-        <v>5951</v>
+        <v>6224</v>
       </c>
       <c r="C66">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D66">
-        <v>810</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B67">
-        <v>5812</v>
+        <v>6082</v>
       </c>
       <c r="C67">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D67">
-        <v>799</v>
+        <v>823</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B68">
-        <v>5639</v>
+        <v>5942</v>
       </c>
       <c r="C68">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D68">
-        <v>784</v>
+        <v>810</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B69">
-        <v>5452</v>
+        <v>5803</v>
       </c>
       <c r="C69">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D69">
-        <v>759</v>
+        <v>799</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B70">
-        <v>5301</v>
+        <v>5630</v>
       </c>
       <c r="C70">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D70">
-        <v>745</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B71">
-        <v>5134</v>
+        <v>5443</v>
       </c>
       <c r="C71">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D71">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B72">
-        <v>4995</v>
+        <v>5292</v>
       </c>
       <c r="C72">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D72">
-        <v>711</v>
+        <v>745</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B73">
-        <v>4901</v>
+        <v>5125</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D73">
-        <v>702</v>
+        <v>729</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B74">
-        <v>4780</v>
+        <v>4986</v>
       </c>
       <c r="C74">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D74">
-        <v>682</v>
+        <v>711</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B75">
-        <v>4619</v>
+        <v>4891</v>
       </c>
       <c r="C75">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D75">
-        <v>666</v>
+        <v>702</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B76">
-        <v>4440</v>
+        <v>4770</v>
       </c>
       <c r="C76">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76">
-        <v>640</v>
+        <v>682</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B77">
-        <v>4244</v>
+        <v>4609</v>
       </c>
       <c r="C77">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D77">
-        <v>613</v>
+        <v>666</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B78">
-        <v>4057</v>
+        <v>4430</v>
       </c>
       <c r="C78">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D78">
-        <v>592</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B79">
-        <v>3780</v>
+        <v>4235</v>
       </c>
       <c r="C79">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D79">
-        <v>566</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B80">
-        <v>3606</v>
+        <v>4048</v>
       </c>
       <c r="C80">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D80">
-        <v>550</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B81">
-        <v>3452</v>
+        <v>3772</v>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D81">
-        <v>538</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B82">
-        <v>3142</v>
+        <v>3598</v>
       </c>
       <c r="C82">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D82">
-        <v>488</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B83">
-        <v>2894</v>
+        <v>3444</v>
       </c>
       <c r="C83">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>447</v>
+        <v>538</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B84">
-        <v>2694</v>
+        <v>3134</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D84">
-        <v>418</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B85">
-        <v>2508</v>
+        <v>2887</v>
       </c>
       <c r="C85">
         <v>18</v>
       </c>
       <c r="D85">
-        <v>383</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B86">
-        <v>2276</v>
+        <v>2688</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86">
-        <v>342</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B87">
-        <v>2137</v>
+        <v>2502</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D87">
-        <v>312</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B88">
-        <v>2029</v>
+        <v>2272</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>292</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B89">
-        <v>1919</v>
+        <v>2133</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D89">
-        <v>261</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B90">
-        <v>1774</v>
+        <v>2025</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D90">
-        <v>235</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B91">
-        <v>1644</v>
+        <v>1915</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D91">
-        <v>202</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B92">
-        <v>1490</v>
+        <v>1770</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B93">
-        <v>1390</v>
+        <v>1640</v>
       </c>
       <c r="C93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>134</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B94">
-        <v>1335</v>
+        <v>1486</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>117</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B95">
-        <v>1230</v>
+        <v>1387</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B96">
-        <v>1123</v>
+        <v>1332</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B97">
-        <v>1027</v>
+        <v>1226</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D97">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B98">
-        <v>935</v>
+        <v>1120</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B99">
-        <v>858</v>
+        <v>1024</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B100">
-        <v>782</v>
+        <v>933</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B101">
-        <v>753</v>
+        <v>856</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B102">
-        <v>710</v>
+        <v>782</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B103">
-        <v>603</v>
+        <v>752</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B104">
-        <v>487</v>
+        <v>709</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B105">
-        <v>445</v>
+        <v>602</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B106">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B107">
-        <v>341</v>
+        <v>445</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B108">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B109">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B110">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B111">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -7016,10 +7068,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B112">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -7030,10 +7082,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B113">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -7044,10 +7096,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B114">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -7058,10 +7110,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B115">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -7072,10 +7124,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B116">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7086,38 +7138,38 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B117">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B118">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B119">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7128,10 +7180,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B120">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7142,10 +7194,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B121">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -7156,41 +7208,41 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B122">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B123">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -7198,13 +7250,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -7212,10 +7264,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7226,10 +7278,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B127">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -7240,10 +7292,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B128">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -7254,10 +7306,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -7268,10 +7320,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -7282,10 +7334,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43888</v>
+        <v>43890</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -7296,10 +7348,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -7310,10 +7362,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -7324,10 +7376,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -7338,20 +7390,48 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>43853</v>
       </c>
-      <c r="B135">
+      <c r="B137">
         <v>2</v>
       </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D135">
+  <sortState ref="A2:D137">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -13,18 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
-    <sheet name="Cases by Outcome" sheetId="14" r:id="rId2"/>
+    <sheet name="Cases by Outcome" sheetId="15" r:id="rId2"/>
     <sheet name="Outbreaks" sheetId="24" r:id="rId3"/>
-    <sheet name="Cases by Age" sheetId="13" r:id="rId4"/>
-    <sheet name="Cases by Gender" sheetId="16" r:id="rId5"/>
-    <sheet name="Cases by Episode Date" sheetId="15" r:id="rId6"/>
-    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId7"/>
-    <sheet name="Cumulative Cases by Episode Dat" sheetId="18" r:id="rId8"/>
-    <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
-    <sheet name="Currently Hospitalized" sheetId="20" r:id="rId10"/>
-    <sheet name="Ever Hospitalized" sheetId="21" r:id="rId11"/>
-    <sheet name="Severity Indicators by Age Grou" sheetId="22" r:id="rId12"/>
-    <sheet name="Source of Infection" sheetId="23" r:id="rId13"/>
+    <sheet name="Cases by Episode Date" sheetId="13" r:id="rId4"/>
+    <sheet name="Cases by Reported Date" sheetId="22" r:id="rId5"/>
+    <sheet name="Cases by Gender" sheetId="14" r:id="rId6"/>
+    <sheet name="Cases by Age" sheetId="21" r:id="rId7"/>
+    <sheet name="Cumulative Cases by Episode Dat" sheetId="16" r:id="rId8"/>
+    <sheet name="Cumulative Cases by Reported Da" sheetId="17" r:id="rId9"/>
+    <sheet name="Currently Hospitalized" sheetId="18" r:id="rId10"/>
+    <sheet name="Ever Hospitalized" sheetId="23" r:id="rId11"/>
+    <sheet name="Severity Indicators by Age Grou" sheetId="19" r:id="rId12"/>
+    <sheet name="Source of Infection" sheetId="20" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,46 +41,34 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of July 7, 2020</t>
+    <t>Data as of July 9, 2020</t>
+  </si>
+  <si>
+    <t>Episode Date</t>
+  </si>
+  <si>
+    <t>Case Count</t>
   </si>
   <si>
     <t>% of Total Case Count</t>
   </si>
   <si>
-    <t>Age Group</t>
-  </si>
-  <si>
-    <t>Case Count</t>
-  </si>
-  <si>
-    <t>20-29</t>
-  </si>
-  <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t>80-89</t>
-  </si>
-  <si>
-    <t>40-49</t>
-  </si>
-  <si>
-    <t>30-39</t>
-  </si>
-  <si>
-    <t>90+</t>
-  </si>
-  <si>
-    <t>50-59</t>
-  </si>
-  <si>
-    <t>≤19</t>
-  </si>
-  <si>
-    <t>60-69</t>
+    <t>Client Gender</t>
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Transgender</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -95,28 +83,10 @@
     <t>All Cases</t>
   </si>
   <si>
-    <t>Episode Date</t>
-  </si>
-  <si>
-    <t>Client Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Transgender</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>Active Cases</t>
   </si>
   <si>
     <t>Reported Date</t>
-  </si>
-  <si>
-    <t>Active Cases</t>
   </si>
   <si>
     <t>Intervention</t>
@@ -125,25 +95,19 @@
     <t>% of Total Cases</t>
   </si>
   <si>
-    <t>Currently in ICU</t>
+    <t>Currently Hospitalized</t>
   </si>
   <si>
-    <t>Currently Hospitalized</t>
+    <t>Currently in ICU</t>
   </si>
   <si>
     <t>Currently Intubated</t>
   </si>
   <si>
-    <t>Ever in ICU</t>
+    <t>ICU Cases</t>
   </si>
   <si>
-    <t>Ever Hospitalized</t>
-  </si>
-  <si>
-    <t>Ever Intubated</t>
-  </si>
-  <si>
-    <t>ICU Cases</t>
+    <t>Age Group</t>
   </si>
   <si>
     <t>Hospitalized Cases</t>
@@ -152,7 +116,40 @@
     <t>Intubated Cases</t>
   </si>
   <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>40-49</t>
+  </si>
+  <si>
+    <t>60-69</t>
+  </si>
+  <si>
+    <t>90+</t>
+  </si>
+  <si>
+    <t>80-89</t>
+  </si>
+  <si>
+    <t>≤19</t>
+  </si>
+  <si>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>70-79</t>
+  </si>
+  <si>
+    <t>50-59</t>
+  </si>
+  <si>
     <t>Most Likely Source</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Travel</t>
   </si>
   <si>
     <t>Institutional</t>
@@ -161,13 +158,16 @@
     <t>Close contact with a case</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>Community</t>
   </si>
   <si>
-    <t>Travel</t>
+    <t>Ever Intubated</t>
+  </si>
+  <si>
+    <t>Ever Hospitalized</t>
+  </si>
+  <si>
+    <t>Ever in ICU</t>
   </si>
   <si>
     <t>Outbreak Count</t>
@@ -492,7 +492,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -517,52 +517,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="C2">
-        <v>0.23752969099999999</v>
+        <v>1.048927387</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>1.0722768920000001</v>
+        <v>0.209785477</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>0.210383441</v>
+        <v>0.18271638400000001</v>
       </c>
     </row>
   </sheetData>
@@ -580,46 +585,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="C2">
-        <v>2.7146250420000002</v>
+        <v>1.935440211</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="C3">
-        <v>12.432982694</v>
+        <v>12.431481356000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="C4">
-        <v>1.9477434680000001</v>
+        <v>2.7001421130000001</v>
       </c>
     </row>
   </sheetData>
@@ -637,24 +642,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -663,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -671,7 +676,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -688,7 +693,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -705,13 +710,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>146</v>
@@ -722,7 +727,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>96</v>
@@ -739,33 +744,33 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E8">
         <v>63</v>
@@ -773,16 +778,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D9">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -790,16 +795,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D10">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -807,7 +812,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -835,57 +840,57 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>3.461356093</v>
+        <v>10.188457008</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>56.472261734999996</v>
+        <v>5.4652532389999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>10.158843054</v>
+        <v>3.3922261480000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>24.359886201999998</v>
+        <v>56.760895171000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>5.5476529159999997</v>
+        <v>24.193168433</v>
       </c>
     </row>
   </sheetData>
@@ -903,34 +908,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>14735</v>
+        <v>14777</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>12935</v>
+        <v>13028</v>
       </c>
     </row>
   </sheetData>
@@ -966,225 +971,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>6.0128944689999999</v>
-      </c>
-      <c r="C2">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>14.299287411</v>
-      </c>
-      <c r="C3">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>14.075330845</v>
-      </c>
-      <c r="C4">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>14.054971157000001</v>
-      </c>
-      <c r="C5">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>15.771971496000001</v>
-      </c>
-      <c r="C6">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>10.763488293</v>
-      </c>
-      <c r="C7">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7.1123176109999999</v>
-      </c>
-      <c r="C8">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10.288428911</v>
-      </c>
-      <c r="C9">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>7.4041398029999996</v>
-      </c>
-      <c r="C10">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>0.217170003</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:C11">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>53.070919578999998</v>
-      </c>
-      <c r="C2">
-        <v>7820</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>45.198506956000003</v>
-      </c>
-      <c r="C3">
-        <v>6660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>4.7505937999999998E-2</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>1.6355615880000001</v>
-      </c>
-      <c r="C5">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>4.7505937999999998E-2</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B144"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1193,1063 +984,1063 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B12">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B14">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B18">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B20">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B28">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B29">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B31">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B33">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B38">
-        <v>190</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B40">
-        <v>106</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B41">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B42">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B43">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B44">
-        <v>182</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B45">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B46">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B47">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B48">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B49">
-        <v>193</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B50">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B51">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B52">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B53">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B54">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B55">
-        <v>210</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B56">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B57">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B58">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B59">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B60">
-        <v>113</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B61">
-        <v>136</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B62">
-        <v>186</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B63">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B64">
-        <v>122</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B65">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B66">
-        <v>163</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B67">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B68">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B69">
-        <v>199</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B70">
-        <v>184</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B71">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B72">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B73">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B74">
-        <v>131</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B75">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B76">
-        <v>193</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B77">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B78">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B79">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B80">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B81">
-        <v>144</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B82">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B83">
-        <v>279</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B84">
-        <v>204</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B85">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B86">
-        <v>273</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B87">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B88">
-        <v>186</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B89">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B90">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B91">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B92">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B93">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B94">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B95">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B96">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B97">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B98">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B99">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B100">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B101">
-        <v>102</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B102">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B103">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B104">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B105">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B106">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B107">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B108">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B109">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B110">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B111">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B112">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B113">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B114">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B115">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B116">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B117">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B118">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B119">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B120">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B121">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B122">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B128">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43887</v>
+        <v>43890</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2257,15 +2048,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43885</v>
+        <v>43889</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2273,15 +2064,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43877</v>
+        <v>43882</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -2289,23 +2080,23 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43876</v>
+        <v>43881</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43875</v>
+        <v>43877</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43868</v>
+        <v>43876</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2313,15 +2104,15 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43866</v>
+        <v>43875</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43862</v>
+        <v>43868</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -2329,7 +2120,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>43852</v>
+        <v>43866</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2337,23 +2128,39 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>43851</v>
+        <v>43862</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
     </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B144">
+  <sortState ref="A2:B146">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2364,1103 +2171,1340 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B26">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B29">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B33">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B36">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B37">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B38">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B39">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B40">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B41">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B42">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B43">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B44">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B46">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B47">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B48">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B49">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B50">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B51">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B52">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B53">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B54">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B55">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B56">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B57">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B58">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B59">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B60">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B61">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B62">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B63">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B64">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B65">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B66">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B67">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B68">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B69">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B70">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B71">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B72">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B73">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B74">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B75">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B76">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B77">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B78">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B79">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B80">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B81">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B82">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B83">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B84">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B85">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B86">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B87">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B88">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B89">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B90">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B91">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B92">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B93">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B94">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B95">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B96">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B97">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B98">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B99">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B100">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B101">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B102">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B103">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B104">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B105">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B106">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B107">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B108">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B109">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B110">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B111">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B113">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B114">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B115">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B116">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B117">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B121">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B139">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44019</v>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
+        <v>53.109562156999999</v>
+      </c>
+      <c r="C2">
+        <v>7848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>45.164783108999998</v>
+      </c>
+      <c r="C3">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>4.0603641000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4.7370914E-2</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.637680179</v>
+      </c>
+      <c r="C6">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C6">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>6.077011572</v>
+      </c>
+      <c r="C2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44018</v>
-      </c>
       <c r="B3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44017</v>
+        <v>14.326317927</v>
+      </c>
+      <c r="C3">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44016</v>
+        <v>14.048859714000001</v>
+      </c>
+      <c r="C4">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>44015</v>
+        <v>14.055626988</v>
+      </c>
+      <c r="C5">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>44014</v>
+        <v>15.754212627999999</v>
+      </c>
+      <c r="C6">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44013</v>
+        <v>10.732895716</v>
+      </c>
+      <c r="C7">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44012</v>
+        <v>7.0921025919999998</v>
+      </c>
+      <c r="C8">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44011</v>
+        <v>10.299790215</v>
+      </c>
+      <c r="C9">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>44010</v>
+        <v>7.3966298979999996</v>
+      </c>
+      <c r="C10">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>44009</v>
-      </c>
-      <c r="B12">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>44008</v>
-      </c>
-      <c r="B13">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>44007</v>
-      </c>
-      <c r="B14">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>44006</v>
-      </c>
-      <c r="B15">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>44005</v>
-      </c>
-      <c r="B16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>44004</v>
-      </c>
-      <c r="B17">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>44003</v>
-      </c>
-      <c r="B18">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>44002</v>
-      </c>
-      <c r="B19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>44001</v>
-      </c>
-      <c r="B20">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>44000</v>
-      </c>
-      <c r="B21">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43999</v>
-      </c>
-      <c r="B22">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43998</v>
-      </c>
-      <c r="B23">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43997</v>
-      </c>
-      <c r="B24">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43996</v>
-      </c>
-      <c r="B25">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43995</v>
-      </c>
-      <c r="B26">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43994</v>
-      </c>
-      <c r="B27">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43993</v>
-      </c>
-      <c r="B28">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43992</v>
-      </c>
-      <c r="B29">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43991</v>
-      </c>
-      <c r="B30">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43990</v>
-      </c>
-      <c r="B31">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43989</v>
-      </c>
-      <c r="B32">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43988</v>
-      </c>
-      <c r="B33">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43987</v>
-      </c>
-      <c r="B34">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43986</v>
-      </c>
-      <c r="B35">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43985</v>
-      </c>
-      <c r="B36">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43984</v>
-      </c>
-      <c r="B37">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B38">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43982</v>
-      </c>
-      <c r="B39">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43981</v>
-      </c>
-      <c r="B40">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43980</v>
-      </c>
-      <c r="B41">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>43979</v>
-      </c>
-      <c r="B42">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B43">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43977</v>
-      </c>
-      <c r="B44">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43976</v>
-      </c>
-      <c r="B45">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>43975</v>
-      </c>
-      <c r="B46">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>43974</v>
-      </c>
-      <c r="B47">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>43973</v>
-      </c>
-      <c r="B48">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>43972</v>
-      </c>
-      <c r="B49">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>43971</v>
-      </c>
-      <c r="B50">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>43970</v>
-      </c>
-      <c r="B51">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>43969</v>
-      </c>
-      <c r="B52">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>43968</v>
-      </c>
-      <c r="B53">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>43967</v>
-      </c>
-      <c r="B54">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B55">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>43965</v>
-      </c>
-      <c r="B56">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43964</v>
-      </c>
-      <c r="B57">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43963</v>
-      </c>
-      <c r="B58">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>43962</v>
-      </c>
-      <c r="B59">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>43961</v>
-      </c>
-      <c r="B60">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>43960</v>
-      </c>
-      <c r="B61">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>43959</v>
-      </c>
-      <c r="B62">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B63">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>43957</v>
-      </c>
-      <c r="B64">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B65">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>43955</v>
-      </c>
-      <c r="B66">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>43954</v>
-      </c>
-      <c r="B67">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>43953</v>
-      </c>
-      <c r="B68">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B69">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>43951</v>
-      </c>
-      <c r="B70">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>43950</v>
-      </c>
-      <c r="B71">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>43949</v>
-      </c>
-      <c r="B72">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>43948</v>
-      </c>
-      <c r="B73">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>43947</v>
-      </c>
-      <c r="B74">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B75">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>43945</v>
-      </c>
-      <c r="B76">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>43944</v>
-      </c>
-      <c r="B77">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>43943</v>
-      </c>
-      <c r="B78">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>43942</v>
-      </c>
-      <c r="B79">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>43941</v>
-      </c>
-      <c r="B80">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>43940</v>
-      </c>
-      <c r="B81">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B82">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B83">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B84">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B85">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B86">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>43934</v>
-      </c>
-      <c r="B87">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>43933</v>
-      </c>
-      <c r="B88">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>43932</v>
-      </c>
-      <c r="B89">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B90">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B91">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B92">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B93">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B94">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B95">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>43925</v>
-      </c>
-      <c r="B96">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B97">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B98">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B99">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B100">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>43920</v>
-      </c>
-      <c r="B101">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B102">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B103">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B104">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B105">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B106">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B107">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B108">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B109">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B110">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B111">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B112">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>43908</v>
-      </c>
-      <c r="B113">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B114">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B115">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B116">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B117">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B118">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B119">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B120">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B121">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>43853</v>
-      </c>
-      <c r="B137">
-        <v>2</v>
+        <v>0.21655275099999999</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B137">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState ref="A2:C11">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3468,9 +3512,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F2:F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3479,1718 +3525,1718 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B2">
-        <v>12935</v>
+        <v>13028</v>
       </c>
       <c r="C2">
-        <v>690</v>
+        <v>632</v>
       </c>
       <c r="D2">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B3">
-        <v>12935</v>
+        <v>13028</v>
       </c>
       <c r="C3">
-        <v>688</v>
+        <v>629</v>
       </c>
       <c r="D3">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B4">
-        <v>12935</v>
+        <v>13028</v>
       </c>
       <c r="C4">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="D4">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B5">
-        <v>12935</v>
+        <v>13028</v>
       </c>
       <c r="C5">
-        <v>637</v>
+        <v>585</v>
       </c>
       <c r="D5">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B6">
-        <v>12935</v>
+        <v>13028</v>
       </c>
       <c r="C6">
-        <v>618</v>
+        <v>538</v>
       </c>
       <c r="D6">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B7">
-        <v>12935</v>
+        <v>13028</v>
       </c>
       <c r="C7">
-        <v>590</v>
+        <v>514</v>
       </c>
       <c r="D7">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B8">
-        <v>12935</v>
+        <v>13028</v>
       </c>
       <c r="C8">
-        <v>558</v>
+        <v>493</v>
       </c>
       <c r="D8">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B9">
-        <v>12933</v>
+        <v>13027</v>
       </c>
       <c r="C9">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="D9">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B10">
-        <v>12932</v>
+        <v>13027</v>
       </c>
       <c r="C10">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="D10">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B11">
-        <v>12929</v>
+        <v>13025</v>
       </c>
       <c r="C11">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D11">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B12">
-        <v>12929</v>
+        <v>13023</v>
       </c>
       <c r="C12">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D12">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B13">
-        <v>12927</v>
+        <v>13020</v>
       </c>
       <c r="C13">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="D13">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B14">
-        <v>12926</v>
+        <v>13019</v>
       </c>
       <c r="C14">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="D14">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B15">
-        <v>12922</v>
+        <v>13013</v>
       </c>
       <c r="C15">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="D15">
-        <v>1108</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B16">
-        <v>12919</v>
+        <v>13010</v>
       </c>
       <c r="C16">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D16">
-        <v>1107</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B17">
-        <v>12910</v>
+        <v>13000</v>
       </c>
       <c r="C17">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D17">
-        <v>1106</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B18">
-        <v>12847</v>
+        <v>12940</v>
       </c>
       <c r="C18">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D18">
-        <v>1105</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B19">
-        <v>12804</v>
+        <v>12880</v>
       </c>
       <c r="C19">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D19">
-        <v>1104</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B20">
-        <v>12755</v>
+        <v>12816</v>
       </c>
       <c r="C20">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D20">
-        <v>1102</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B21">
-        <v>12700</v>
+        <v>12773</v>
       </c>
       <c r="C21">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D21">
-        <v>1102</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B22">
-        <v>12639</v>
+        <v>12724</v>
       </c>
       <c r="C22">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D22">
-        <v>1098</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B23">
-        <v>12577</v>
+        <v>12670</v>
       </c>
       <c r="C23">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23">
-        <v>1096</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B24">
-        <v>12529</v>
+        <v>12609</v>
       </c>
       <c r="C24">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D24">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B25">
-        <v>12451</v>
+        <v>12547</v>
       </c>
       <c r="C25">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D25">
-        <v>1091</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B26">
-        <v>12388</v>
+        <v>12499</v>
       </c>
       <c r="C26">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D26">
-        <v>1091</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B27">
-        <v>12352</v>
+        <v>12421</v>
       </c>
       <c r="C27">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D27">
-        <v>1090</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B28">
-        <v>12282</v>
+        <v>12357</v>
       </c>
       <c r="C28">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28">
-        <v>1090</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B29">
-        <v>12190</v>
+        <v>12319</v>
       </c>
       <c r="C29">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D29">
-        <v>1089</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B30">
-        <v>12118</v>
+        <v>12251</v>
       </c>
       <c r="C30">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>1087</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B31">
-        <v>12050</v>
+        <v>12159</v>
       </c>
       <c r="C31">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31">
-        <v>1085</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B32">
-        <v>11956</v>
+        <v>12088</v>
       </c>
       <c r="C32">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D32">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B33">
-        <v>11866</v>
+        <v>12019</v>
       </c>
       <c r="C33">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D33">
-        <v>1080</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B34">
-        <v>11787</v>
+        <v>11925</v>
       </c>
       <c r="C34">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34">
-        <v>1078</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B35">
-        <v>11696</v>
+        <v>11835</v>
       </c>
       <c r="C35">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35">
-        <v>1074</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B36">
-        <v>11579</v>
+        <v>11755</v>
       </c>
       <c r="C36">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36">
-        <v>1070</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B37">
-        <v>11472</v>
+        <v>11664</v>
       </c>
       <c r="C37">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37">
-        <v>1067</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B38">
-        <v>11358</v>
+        <v>11547</v>
       </c>
       <c r="C38">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38">
-        <v>1064</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B39">
-        <v>11174</v>
+        <v>11440</v>
       </c>
       <c r="C39">
         <v>112</v>
       </c>
       <c r="D39">
-        <v>1061</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B40">
-        <v>11082</v>
+        <v>11327</v>
       </c>
       <c r="C40">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D40">
-        <v>1061</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B41">
-        <v>10980</v>
+        <v>11143</v>
       </c>
       <c r="C41">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D41">
-        <v>1058</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B42">
-        <v>10858</v>
+        <v>11051</v>
       </c>
       <c r="C42">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42">
-        <v>1053</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B43">
-        <v>10743</v>
+        <v>10949</v>
       </c>
       <c r="C43">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43">
-        <v>1049</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B44">
-        <v>10588</v>
+        <v>10829</v>
       </c>
       <c r="C44">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44">
-        <v>1041</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B45">
-        <v>10412</v>
+        <v>10714</v>
       </c>
       <c r="C45">
         <v>102</v>
       </c>
       <c r="D45">
-        <v>1037</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B46">
-        <v>10241</v>
+        <v>10558</v>
       </c>
       <c r="C46">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46">
-        <v>1031</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B47">
-        <v>10100</v>
+        <v>10382</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47">
-        <v>1030</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B48">
-        <v>9971</v>
+        <v>10212</v>
       </c>
       <c r="C48">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48">
-        <v>1028</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B49">
-        <v>9829</v>
+        <v>10072</v>
       </c>
       <c r="C49">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D49">
-        <v>1022</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B50">
-        <v>9643</v>
+        <v>9943</v>
       </c>
       <c r="C50">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D50">
-        <v>1018</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B51">
-        <v>9491</v>
+        <v>9801</v>
       </c>
       <c r="C51">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D51">
-        <v>1016</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B52">
-        <v>9294</v>
+        <v>9617</v>
       </c>
       <c r="C52">
         <v>91</v>
       </c>
       <c r="D52">
-        <v>1007</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B53">
-        <v>9138</v>
+        <v>9465</v>
       </c>
       <c r="C53">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D53">
-        <v>1004</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B54">
-        <v>8997</v>
+        <v>9268</v>
       </c>
       <c r="C54">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D54">
-        <v>989</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B55">
-        <v>8827</v>
+        <v>9112</v>
       </c>
       <c r="C55">
         <v>86</v>
       </c>
       <c r="D55">
-        <v>980</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B56">
-        <v>8624</v>
+        <v>8971</v>
       </c>
       <c r="C56">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D56">
-        <v>975</v>
+        <v>994</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B57">
-        <v>8461</v>
+        <v>8802</v>
       </c>
       <c r="C57">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D57">
-        <v>969</v>
+        <v>985</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B58">
-        <v>8320</v>
+        <v>8599</v>
       </c>
       <c r="C58">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D58">
-        <v>957</v>
+        <v>980</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B59">
-        <v>8186</v>
+        <v>8437</v>
       </c>
       <c r="C59">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>945</v>
+        <v>973</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B60">
-        <v>8012</v>
+        <v>8296</v>
       </c>
       <c r="C60">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D60">
-        <v>933</v>
+        <v>961</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B61">
-        <v>7903</v>
+        <v>8161</v>
       </c>
       <c r="C61">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D61">
-        <v>929</v>
+        <v>949</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B62">
-        <v>7783</v>
+        <v>7986</v>
       </c>
       <c r="C62">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>915</v>
+        <v>937</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B63">
-        <v>7612</v>
+        <v>7877</v>
       </c>
       <c r="C63">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D63">
-        <v>902</v>
+        <v>933</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B64">
-        <v>7441</v>
+        <v>7758</v>
       </c>
       <c r="C64">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D64">
-        <v>891</v>
+        <v>918</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B65">
-        <v>7331</v>
+        <v>7589</v>
       </c>
       <c r="C65">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D65">
-        <v>881</v>
+        <v>905</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B66">
-        <v>7188</v>
+        <v>7417</v>
       </c>
       <c r="C66">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D66">
-        <v>873</v>
+        <v>894</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B67">
-        <v>7041</v>
+        <v>7307</v>
       </c>
       <c r="C67">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D67">
-        <v>860</v>
+        <v>884</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B68">
-        <v>6936</v>
+        <v>7164</v>
       </c>
       <c r="C68">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D68">
-        <v>857</v>
+        <v>876</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B69">
-        <v>6795</v>
+        <v>7018</v>
       </c>
       <c r="C69">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D69">
-        <v>847</v>
+        <v>863</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B70">
-        <v>6610</v>
+        <v>6913</v>
       </c>
       <c r="C70">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D70">
-        <v>835</v>
+        <v>860</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B71">
-        <v>6439</v>
+        <v>6773</v>
       </c>
       <c r="C71">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D71">
-        <v>822</v>
+        <v>850</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B72">
-        <v>6276</v>
+        <v>6588</v>
       </c>
       <c r="C72">
         <v>54</v>
       </c>
       <c r="D72">
-        <v>800</v>
+        <v>838</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B73">
-        <v>6082</v>
+        <v>6418</v>
       </c>
       <c r="C73">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D73">
-        <v>779</v>
+        <v>825</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B74">
-        <v>5893</v>
+        <v>6255</v>
       </c>
       <c r="C74">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D74">
-        <v>766</v>
+        <v>803</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B75">
-        <v>5774</v>
+        <v>6063</v>
       </c>
       <c r="C75">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D75">
-        <v>755</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B76">
-        <v>5634</v>
+        <v>5873</v>
       </c>
       <c r="C76">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D76">
-        <v>740</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B77">
-        <v>5454</v>
+        <v>5753</v>
       </c>
       <c r="C77">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D77">
-        <v>729</v>
+        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B78">
-        <v>5297</v>
+        <v>5611</v>
       </c>
       <c r="C78">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D78">
-        <v>710</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B79">
-        <v>5109</v>
+        <v>5435</v>
       </c>
       <c r="C79">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D79">
-        <v>677</v>
+        <v>732</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B80">
-        <v>4955</v>
+        <v>5280</v>
       </c>
       <c r="C80">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D80">
-        <v>659</v>
+        <v>713</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B81">
-        <v>4755</v>
+        <v>5090</v>
       </c>
       <c r="C81">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D81">
-        <v>640</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B82">
-        <v>4637</v>
+        <v>4937</v>
       </c>
       <c r="C82">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D82">
-        <v>615</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B83">
-        <v>4415</v>
+        <v>4738</v>
       </c>
       <c r="C83">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D83">
-        <v>591</v>
+        <v>643</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B84">
-        <v>4166</v>
+        <v>4619</v>
       </c>
       <c r="C84">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D84">
-        <v>568</v>
+        <v>618</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B85">
-        <v>3985</v>
+        <v>4397</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D85">
-        <v>546</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B86">
-        <v>3738</v>
+        <v>4153</v>
       </c>
       <c r="C86">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D86">
-        <v>509</v>
+        <v>570</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B87">
-        <v>3495</v>
+        <v>3976</v>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D87">
-        <v>483</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B88">
-        <v>3258</v>
+        <v>3726</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D88">
-        <v>455</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B89">
-        <v>3096</v>
+        <v>3484</v>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D89">
-        <v>431</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B90">
-        <v>2941</v>
+        <v>3248</v>
       </c>
       <c r="C90">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D90">
-        <v>401</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B91">
-        <v>2763</v>
+        <v>3087</v>
       </c>
       <c r="C91">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>379</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B92">
-        <v>2617</v>
+        <v>2929</v>
       </c>
       <c r="C92">
         <v>18</v>
       </c>
       <c r="D92">
-        <v>353</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B93">
-        <v>2481</v>
+        <v>2749</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D93">
-        <v>315</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B94">
-        <v>2333</v>
+        <v>2605</v>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D94">
-        <v>293</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B95">
-        <v>2202</v>
+        <v>2475</v>
       </c>
       <c r="C95">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95">
-        <v>265</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B96">
-        <v>2109</v>
+        <v>2327</v>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>244</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B97">
-        <v>2002</v>
+        <v>2196</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D97">
-        <v>220</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B98">
-        <v>1888</v>
+        <v>2103</v>
       </c>
       <c r="C98">
         <v>11</v>
       </c>
       <c r="D98">
-        <v>189</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B99">
-        <v>1768</v>
+        <v>1997</v>
       </c>
       <c r="C99">
         <v>10</v>
       </c>
       <c r="D99">
-        <v>165</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B100">
-        <v>1644</v>
+        <v>1880</v>
       </c>
       <c r="C100">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>133</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B101">
-        <v>1545</v>
+        <v>1756</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B102">
-        <v>1465</v>
+        <v>1634</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D102">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B103">
-        <v>1391</v>
+        <v>1534</v>
       </c>
       <c r="C103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D103">
-        <v>87</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B104">
-        <v>1301</v>
+        <v>1456</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D104">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B105">
-        <v>1220</v>
+        <v>1382</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D105">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B106">
-        <v>1143</v>
+        <v>1292</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B107">
-        <v>1072</v>
+        <v>1212</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B108">
-        <v>998</v>
+        <v>1134</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B109">
-        <v>907</v>
+        <v>1063</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B110">
-        <v>856</v>
+        <v>989</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B111">
-        <v>791</v>
+        <v>898</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B112">
-        <v>715</v>
+        <v>848</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B113">
-        <v>639</v>
+        <v>784</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B114">
-        <v>551</v>
+        <v>708</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B115">
-        <v>451</v>
+        <v>632</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B116">
-        <v>376</v>
+        <v>545</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B117">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B118">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B119">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B120">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B121">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B122">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B123">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5201,10 +5247,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B124">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5215,10 +5261,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B125">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5229,10 +5275,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B126">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5243,10 +5289,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B127">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5257,10 +5303,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B128">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5271,10 +5317,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B129">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5285,10 +5331,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B130">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5299,10 +5345,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5313,10 +5359,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B132">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5327,10 +5373,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43887</v>
+        <v>43890</v>
       </c>
       <c r="B133">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5341,10 +5387,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43885</v>
+        <v>43889</v>
       </c>
       <c r="B134">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5355,10 +5401,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B135">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5369,10 +5415,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="B136">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5383,10 +5429,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43877</v>
+        <v>43882</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -5397,10 +5443,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43876</v>
+        <v>43881</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -5411,10 +5457,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43875</v>
+        <v>43877</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5425,10 +5471,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43868</v>
+        <v>43876</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5439,10 +5485,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43866</v>
+        <v>43875</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -5453,10 +5499,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43862</v>
+        <v>43868</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -5467,10 +5513,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>43852</v>
+        <v>43866</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5481,20 +5527,48 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
         <v>43851</v>
       </c>
-      <c r="B144">
+      <c r="B146">
         <v>1</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D144">
+  <sortState ref="A2:D146">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5503,7 +5577,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5514,1578 +5588,1578 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B2">
-        <v>12935</v>
+        <v>13028</v>
       </c>
       <c r="C2">
-        <v>690</v>
+        <v>632</v>
       </c>
       <c r="D2">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B3">
-        <v>12933</v>
+        <v>13028</v>
       </c>
       <c r="C3">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="D3">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B4">
-        <v>12932</v>
+        <v>13025</v>
       </c>
       <c r="C4">
-        <v>624</v>
+        <v>552</v>
       </c>
       <c r="D4">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B5">
-        <v>12930</v>
+        <v>13022</v>
       </c>
       <c r="C5">
-        <v>586</v>
+        <v>511</v>
       </c>
       <c r="D5">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B6">
-        <v>12922</v>
+        <v>13021</v>
       </c>
       <c r="C6">
-        <v>537</v>
+        <v>478</v>
       </c>
       <c r="D6">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B7">
-        <v>12922</v>
+        <v>13017</v>
       </c>
       <c r="C7">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="D7">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B8">
-        <v>12910</v>
+        <v>13007</v>
       </c>
       <c r="C8">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="D8">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B9">
-        <v>12895</v>
+        <v>13005</v>
       </c>
       <c r="C9">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D9">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B10">
-        <v>12868</v>
+        <v>12988</v>
       </c>
       <c r="C10">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D10">
-        <v>1108</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B11">
-        <v>12859</v>
+        <v>12968</v>
       </c>
       <c r="C11">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D11">
-        <v>1108</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B12">
-        <v>12836</v>
+        <v>12935</v>
       </c>
       <c r="C12">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="D12">
-        <v>1108</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B13">
-        <v>12810</v>
+        <v>12915</v>
       </c>
       <c r="C13">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="D13">
-        <v>1108</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B14">
-        <v>12774</v>
+        <v>12884</v>
       </c>
       <c r="C14">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D14">
-        <v>1106</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B15">
-        <v>12741</v>
+        <v>12838</v>
       </c>
       <c r="C15">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D15">
-        <v>1105</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B16">
-        <v>12687</v>
+        <v>12766</v>
       </c>
       <c r="C16">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D16">
-        <v>1103</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B17">
-        <v>12634</v>
+        <v>12722</v>
       </c>
       <c r="C17">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D17">
-        <v>1102</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B18">
-        <v>12582</v>
+        <v>12655</v>
       </c>
       <c r="C18">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D18">
-        <v>1100</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B19">
-        <v>12544</v>
+        <v>12597</v>
       </c>
       <c r="C19">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D19">
-        <v>1097</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B20">
-        <v>12486</v>
+        <v>12545</v>
       </c>
       <c r="C20">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D20">
-        <v>1093</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B21">
-        <v>12420</v>
+        <v>12506</v>
       </c>
       <c r="C21">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D21">
-        <v>1092</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B22">
-        <v>12373</v>
+        <v>12446</v>
       </c>
       <c r="C22">
         <v>124</v>
       </c>
       <c r="D22">
-        <v>1087</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B23">
-        <v>12297</v>
+        <v>12380</v>
       </c>
       <c r="C23">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23">
-        <v>1084</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B24">
-        <v>12214</v>
+        <v>12333</v>
       </c>
       <c r="C24">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24">
-        <v>1080</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B25">
-        <v>12144</v>
+        <v>12257</v>
       </c>
       <c r="C25">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D25">
-        <v>1078</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B26">
-        <v>12075</v>
+        <v>12175</v>
       </c>
       <c r="C26">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>1078</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B27">
-        <v>11984</v>
+        <v>12105</v>
       </c>
       <c r="C27">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D27">
-        <v>1077</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B28">
-        <v>11902</v>
+        <v>12036</v>
       </c>
       <c r="C28">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D28">
-        <v>1076</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B29">
-        <v>11814</v>
+        <v>11945</v>
       </c>
       <c r="C29">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29">
-        <v>1074</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B30">
-        <v>11677</v>
+        <v>11864</v>
       </c>
       <c r="C30">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30">
-        <v>1073</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B31">
-        <v>11595</v>
+        <v>11776</v>
       </c>
       <c r="C31">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D31">
-        <v>1069</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B32">
-        <v>11495</v>
+        <v>11638</v>
       </c>
       <c r="C32">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32">
-        <v>1066</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B33">
-        <v>11394</v>
+        <v>11556</v>
       </c>
       <c r="C33">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33">
-        <v>1066</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B34">
-        <v>11262</v>
+        <v>11456</v>
       </c>
       <c r="C34">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D34">
-        <v>1062</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B35">
-        <v>11139</v>
+        <v>11355</v>
       </c>
       <c r="C35">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35">
-        <v>1059</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B36">
-        <v>10997</v>
+        <v>11223</v>
       </c>
       <c r="C36">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36">
-        <v>1057</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B37">
-        <v>10818</v>
+        <v>11100</v>
       </c>
       <c r="C37">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37">
-        <v>1055</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B38">
-        <v>10647</v>
+        <v>10958</v>
       </c>
       <c r="C38">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D38">
-        <v>1055</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B39">
-        <v>10482</v>
+        <v>10780</v>
       </c>
       <c r="C39">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D39">
-        <v>1050</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B40">
-        <v>10358</v>
+        <v>10609</v>
       </c>
       <c r="C40">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40">
-        <v>1048</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B41">
-        <v>10179</v>
+        <v>10444</v>
       </c>
       <c r="C41">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41">
-        <v>1043</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B42">
-        <v>9751</v>
+        <v>10320</v>
       </c>
       <c r="C42">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42">
-        <v>1032</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B43">
-        <v>9589</v>
+        <v>10141</v>
       </c>
       <c r="C43">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43">
-        <v>1025</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B44">
-        <v>9441</v>
+        <v>9716</v>
       </c>
       <c r="C44">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D44">
-        <v>1019</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B45">
-        <v>9307</v>
+        <v>9554</v>
       </c>
       <c r="C45">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D45">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B46">
-        <v>9140</v>
+        <v>9408</v>
       </c>
       <c r="C46">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46">
-        <v>1012</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B47">
-        <v>8995</v>
+        <v>9274</v>
       </c>
       <c r="C47">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47">
-        <v>1007</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B48">
-        <v>8830</v>
+        <v>9107</v>
       </c>
       <c r="C48">
         <v>89</v>
       </c>
       <c r="D48">
-        <v>1001</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B49">
-        <v>8688</v>
+        <v>8963</v>
       </c>
       <c r="C49">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <v>996</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B50">
-        <v>8529</v>
+        <v>8798</v>
       </c>
       <c r="C50">
         <v>87</v>
       </c>
       <c r="D50">
-        <v>990</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B51">
-        <v>8334</v>
+        <v>8658</v>
       </c>
       <c r="C51">
         <v>86</v>
       </c>
       <c r="D51">
-        <v>977</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B52">
-        <v>8159</v>
+        <v>8500</v>
       </c>
       <c r="C52">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D52">
-        <v>970</v>
+        <v>994</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B53">
-        <v>7998</v>
+        <v>8305</v>
       </c>
       <c r="C53">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D53">
-        <v>956</v>
+        <v>981</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B54">
-        <v>7825</v>
+        <v>8131</v>
       </c>
       <c r="C54">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D54">
-        <v>943</v>
+        <v>974</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B55">
-        <v>7648</v>
+        <v>7971</v>
       </c>
       <c r="C55">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D55">
-        <v>934</v>
+        <v>960</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B56">
-        <v>7514</v>
+        <v>7798</v>
       </c>
       <c r="C56">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>929</v>
+        <v>947</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B57">
-        <v>7393</v>
+        <v>7621</v>
       </c>
       <c r="C57">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D57">
-        <v>923</v>
+        <v>938</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B58">
-        <v>7227</v>
+        <v>7487</v>
       </c>
       <c r="C58">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D58">
-        <v>914</v>
+        <v>933</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B59">
-        <v>7142</v>
+        <v>7366</v>
       </c>
       <c r="C59">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59">
-        <v>900</v>
+        <v>926</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B60">
-        <v>7049</v>
+        <v>7201</v>
       </c>
       <c r="C60">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>891</v>
+        <v>917</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B61">
-        <v>6909</v>
+        <v>7116</v>
       </c>
       <c r="C61">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D61">
-        <v>880</v>
+        <v>903</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B62">
-        <v>6794</v>
+        <v>7023</v>
       </c>
       <c r="C62">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>868</v>
+        <v>894</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B63">
-        <v>6657</v>
+        <v>6883</v>
       </c>
       <c r="C63">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D63">
-        <v>859</v>
+        <v>883</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B64">
-        <v>6540</v>
+        <v>6768</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D64">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B65">
-        <v>6377</v>
+        <v>6631</v>
       </c>
       <c r="C65">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D65">
-        <v>844</v>
+        <v>862</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B66">
-        <v>6224</v>
+        <v>6515</v>
       </c>
       <c r="C66">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D66">
-        <v>832</v>
+        <v>856</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B67">
-        <v>6082</v>
+        <v>6351</v>
       </c>
       <c r="C67">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D67">
-        <v>823</v>
+        <v>847</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B68">
-        <v>5942</v>
+        <v>6199</v>
       </c>
       <c r="C68">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D68">
-        <v>810</v>
+        <v>835</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B69">
-        <v>5803</v>
+        <v>6056</v>
       </c>
       <c r="C69">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D69">
-        <v>799</v>
+        <v>826</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B70">
-        <v>5630</v>
+        <v>5917</v>
       </c>
       <c r="C70">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D70">
-        <v>784</v>
+        <v>813</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B71">
-        <v>5443</v>
+        <v>5780</v>
       </c>
       <c r="C71">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D71">
-        <v>759</v>
+        <v>802</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B72">
-        <v>5292</v>
+        <v>5606</v>
       </c>
       <c r="C72">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D72">
-        <v>745</v>
+        <v>787</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B73">
-        <v>5125</v>
+        <v>5417</v>
       </c>
       <c r="C73">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D73">
-        <v>729</v>
+        <v>762</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B74">
-        <v>4986</v>
+        <v>5267</v>
       </c>
       <c r="C74">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D74">
-        <v>711</v>
+        <v>748</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B75">
-        <v>4891</v>
+        <v>5099</v>
       </c>
       <c r="C75">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D75">
-        <v>702</v>
+        <v>732</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B76">
-        <v>4770</v>
+        <v>4960</v>
       </c>
       <c r="C76">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D76">
-        <v>682</v>
+        <v>714</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B77">
-        <v>4609</v>
+        <v>4866</v>
       </c>
       <c r="C77">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D77">
-        <v>666</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B78">
-        <v>4430</v>
+        <v>4748</v>
       </c>
       <c r="C78">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D78">
-        <v>640</v>
+        <v>685</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B79">
-        <v>4235</v>
+        <v>4586</v>
       </c>
       <c r="C79">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D79">
-        <v>613</v>
+        <v>669</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B80">
-        <v>4048</v>
+        <v>4407</v>
       </c>
       <c r="C80">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D80">
-        <v>592</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B81">
-        <v>3772</v>
+        <v>4212</v>
       </c>
       <c r="C81">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D81">
-        <v>567</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B82">
-        <v>3598</v>
+        <v>4025</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D82">
-        <v>550</v>
+        <v>595</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B83">
-        <v>3444</v>
+        <v>3751</v>
       </c>
       <c r="C83">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D83">
-        <v>538</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B84">
-        <v>3134</v>
+        <v>3578</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D84">
-        <v>488</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B85">
-        <v>2887</v>
+        <v>3424</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D85">
-        <v>447</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B86">
-        <v>2688</v>
+        <v>3117</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D86">
-        <v>418</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B87">
-        <v>2502</v>
+        <v>2871</v>
       </c>
       <c r="C87">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>383</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B88">
-        <v>2272</v>
+        <v>2672</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>342</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B89">
-        <v>2133</v>
+        <v>2487</v>
       </c>
       <c r="C89">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D89">
-        <v>312</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B90">
-        <v>2025</v>
+        <v>2257</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B91">
-        <v>1915</v>
+        <v>2118</v>
       </c>
       <c r="C91">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D91">
-        <v>261</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B92">
-        <v>1770</v>
+        <v>2010</v>
       </c>
       <c r="C92">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>235</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B93">
-        <v>1640</v>
+        <v>1902</v>
       </c>
       <c r="C93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B94">
-        <v>1486</v>
+        <v>1757</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94">
-        <v>159</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B95">
-        <v>1387</v>
+        <v>1628</v>
       </c>
       <c r="C95">
         <v>8</v>
       </c>
       <c r="D95">
-        <v>134</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B96">
-        <v>1332</v>
+        <v>1476</v>
       </c>
       <c r="C96">
         <v>8</v>
       </c>
       <c r="D96">
-        <v>117</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B97">
-        <v>1226</v>
+        <v>1378</v>
       </c>
       <c r="C97">
         <v>7</v>
       </c>
       <c r="D97">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B98">
-        <v>1120</v>
+        <v>1323</v>
       </c>
       <c r="C98">
         <v>7</v>
       </c>
       <c r="D98">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B99">
-        <v>1024</v>
+        <v>1217</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
       <c r="D99">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B100">
-        <v>933</v>
+        <v>1111</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B101">
-        <v>856</v>
+        <v>1015</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B102">
-        <v>782</v>
+        <v>924</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B103">
-        <v>752</v>
+        <v>847</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B104">
-        <v>709</v>
+        <v>775</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B105">
-        <v>602</v>
+        <v>745</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B106">
-        <v>486</v>
+        <v>703</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B107">
-        <v>445</v>
+        <v>597</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B108">
-        <v>394</v>
+        <v>481</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B109">
-        <v>341</v>
+        <v>441</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B110">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B111">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B112">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B113">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -7096,10 +7170,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B114">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -7110,10 +7184,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B115">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -7124,10 +7198,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B116">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7138,10 +7212,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B117">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -7152,10 +7226,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B118">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7166,38 +7240,38 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B119">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B120">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B121">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -7208,10 +7282,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B122">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -7222,10 +7296,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B123">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -7236,41 +7310,41 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B124">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -7278,13 +7352,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -7292,10 +7366,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B128">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -7306,10 +7380,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B129">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -7320,10 +7394,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -7334,10 +7408,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B131">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -7348,10 +7422,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -7362,10 +7436,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43888</v>
+        <v>43890</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -7376,10 +7450,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -7390,10 +7464,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -7404,10 +7478,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -7418,20 +7492,48 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>43853</v>
       </c>
-      <c r="B137">
+      <c r="B139">
         <v>2</v>
       </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D137">
+  <sortState ref="A2:D139">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/covid19_Toronto.xlsx
+++ b/data/covid19_Toronto.xlsx
@@ -13,16 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
-    <sheet name="Cases by Outcome" sheetId="13" r:id="rId2"/>
+    <sheet name="Cases by Outcome" sheetId="15" r:id="rId2"/>
     <sheet name="Outbreaks" sheetId="24" r:id="rId3"/>
-    <sheet name="Cases by Age" sheetId="14" r:id="rId4"/>
-    <sheet name="Cases by Gender" sheetId="16" r:id="rId5"/>
-    <sheet name="Cases by Episode Date" sheetId="15" r:id="rId6"/>
-    <sheet name="Cases by Reported Date" sheetId="17" r:id="rId7"/>
-    <sheet name="Cumulative Cases by Episode Dat" sheetId="18" r:id="rId8"/>
-    <sheet name="Cumulative Cases by Reported Da" sheetId="19" r:id="rId9"/>
-    <sheet name="Currently Hospitalized" sheetId="20" r:id="rId10"/>
-    <sheet name="Ever Hospitalized" sheetId="21" r:id="rId11"/>
+    <sheet name="Cases by Gender" sheetId="14" r:id="rId4"/>
+    <sheet name="Cases by Age" sheetId="18" r:id="rId5"/>
+    <sheet name="Cases by Episode Date" sheetId="13" r:id="rId6"/>
+    <sheet name="Cases by Reported Date" sheetId="16" r:id="rId7"/>
+    <sheet name="Cumulative Cases by Episode Dat" sheetId="19" r:id="rId8"/>
+    <sheet name="Cumulative Cases by Reported Da" sheetId="20" r:id="rId9"/>
+    <sheet name="Ever Hospitalized" sheetId="17" r:id="rId10"/>
+    <sheet name="Currently Hospitalized" sheetId="21" r:id="rId11"/>
     <sheet name="Severity Indicators by Age Grou" sheetId="22" r:id="rId12"/>
     <sheet name="Source of Infection" sheetId="23" r:id="rId13"/>
   </sheets>
@@ -41,10 +41,34 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Data as of July 12, 2020</t>
+    <t>Data as of July 14, 2020</t>
+  </si>
+  <si>
+    <t>Episode Date</t>
   </si>
   <si>
     <t>Case Count</t>
+  </si>
+  <si>
+    <t>% of Total Case Count</t>
+  </si>
+  <si>
+    <t>Client Gender</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -59,25 +83,28 @@
     <t>All Cases</t>
   </si>
   <si>
-    <t>% of Total Case Count</t>
+    <t>Reported Date</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>% of Total Cases</t>
+  </si>
+  <si>
+    <t>Ever Hospitalized</t>
+  </si>
+  <si>
+    <t>Ever Intubated</t>
+  </si>
+  <si>
+    <t>Ever in ICU</t>
   </si>
   <si>
     <t>Age Group</t>
   </si>
   <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t>60-69</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>30-39</t>
-  </si>
-  <si>
-    <t>≤19</t>
+    <t>80-89</t>
   </si>
   <si>
     <t>50-59</t>
@@ -86,61 +113,34 @@
     <t>20-29</t>
   </si>
   <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>70-79</t>
+  </si>
+  <si>
     <t>90+</t>
   </si>
   <si>
     <t>40-49</t>
   </si>
   <si>
-    <t>80-89</t>
+    <t>≤19</t>
   </si>
   <si>
-    <t>Episode Date</t>
-  </si>
-  <si>
-    <t>Client Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Transgender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Reported Date</t>
+    <t>60-69</t>
   </si>
   <si>
     <t>Active Cases</t>
   </si>
   <si>
-    <t>Intervention</t>
-  </si>
-  <si>
-    <t>% of Total Cases</t>
+    <t>Currently Hospitalized</t>
   </si>
   <si>
     <t>Currently in ICU</t>
   </si>
   <si>
     <t>Currently Intubated</t>
-  </si>
-  <si>
-    <t>Currently Hospitalized</t>
-  </si>
-  <si>
-    <t>Ever in ICU</t>
-  </si>
-  <si>
-    <t>Ever Hospitalized</t>
-  </si>
-  <si>
-    <t>Ever Intubated</t>
   </si>
   <si>
     <t>ICU Cases</t>
@@ -155,16 +155,16 @@
     <t>Most Likely Source</t>
   </si>
   <si>
-    <t>Close contact with a case</t>
+    <t>Institutional</t>
   </si>
   <si>
-    <t>Community</t>
+    <t>Close contact with a case</t>
   </si>
   <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Institutional</t>
+    <t>Community</t>
   </si>
   <si>
     <t>Travel</t>
@@ -492,7 +492,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -521,51 +521,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>1849</v>
       </c>
       <c r="C2">
-        <v>0.20809559</v>
+        <v>12.362931265</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="C3">
-        <v>0.17453178499999999</v>
+        <v>1.918962289</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>151</v>
+        <v>402</v>
       </c>
       <c r="C4">
-        <v>1.013626905</v>
+        <v>2.6878844609999999</v>
       </c>
     </row>
   </sheetData>
@@ -577,22 +577,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -600,10 +602,10 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>145</v>
       </c>
       <c r="C2">
-        <v>2.6851043830000001</v>
+        <v>0.96951056400000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -611,10 +613,10 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>1846</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>12.391756730000001</v>
+        <v>0.200588393</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -622,10 +624,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>1.9265623949999999</v>
+        <v>0.153784434</v>
       </c>
     </row>
   </sheetData>
@@ -643,13 +645,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>36</v>
@@ -660,7 +662,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -677,7 +679,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -694,7 +696,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -711,7 +713,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -728,7 +730,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>96</v>
@@ -745,16 +747,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E7">
         <v>80</v>
@@ -762,16 +764,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>86</v>
       </c>
       <c r="C8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E8">
         <v>63</v>
@@ -779,16 +781,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D9">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -796,13 +798,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D10">
         <v>174</v>
@@ -813,7 +815,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -841,7 +843,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -854,7 +856,7 @@
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -862,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>57.421965317999998</v>
+        <v>3.4973053549999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -870,7 +872,7 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>23.260115606999999</v>
+        <v>57.676871918000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -878,7 +880,7 @@
         <v>41</v>
       </c>
       <c r="B4">
-        <v>10.277456646999999</v>
+        <v>10.262584565999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -886,7 +888,7 @@
         <v>42</v>
       </c>
       <c r="B5">
-        <v>3.456647399</v>
+        <v>22.921683293000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -894,7 +896,7 @@
         <v>43</v>
       </c>
       <c r="B6">
-        <v>5.5838150290000002</v>
+        <v>5.6415548680000001</v>
       </c>
     </row>
   </sheetData>
@@ -912,34 +914,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>14897</v>
+        <v>14956</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>13148</v>
+        <v>13259</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +977,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>53.048943567999999</v>
+      </c>
+      <c r="C2">
+        <v>7934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>45.246055095000003</v>
+      </c>
+      <c r="C3">
+        <v>6767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4.0117679000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4.6803958E-2</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.6180797</v>
+      </c>
+      <c r="C6">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C6">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -983,87 +1067,87 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>6.1220379940000003</v>
+        <v>6.1647499330000004</v>
       </c>
       <c r="C2">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>14.298180842000001</v>
+        <v>14.308638673000001</v>
       </c>
       <c r="C3">
-        <v>2130</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>14.063234208000001</v>
+        <v>14.094677721</v>
       </c>
       <c r="C4">
-        <v>2095</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>14.076659729999999</v>
+        <v>14.054560043</v>
       </c>
       <c r="C5">
-        <v>2097</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>15.808552057</v>
+        <v>15.779620219</v>
       </c>
       <c r="C6">
-        <v>2355</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>10.706853729000001</v>
+        <v>10.731479005000001</v>
       </c>
       <c r="C7">
-        <v>1595</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>7.068537289</v>
+        <v>7.0406525809999998</v>
       </c>
       <c r="C8">
         <v>1053</v>
@@ -1071,32 +1155,32 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>10.263811506</v>
+        <v>10.256753142999999</v>
       </c>
       <c r="C9">
-        <v>1529</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>7.377324293</v>
+        <v>7.3549077289999998</v>
       </c>
       <c r="C10">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.21480835100000001</v>
+        <v>0.21396095200000001</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -1110,98 +1194,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.3828125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>53.050949856000003</v>
-      </c>
-      <c r="C2">
-        <v>7903</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>45.244008860999998</v>
-      </c>
-      <c r="C3">
-        <v>6740</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>4.0276566E-2</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>4.6989326999999997E-2</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1.6177753909999999</v>
-      </c>
-      <c r="C6">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:C6">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B149"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1210,23 +1207,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44024</v>
+        <v>44026</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44023</v>
+        <v>44025</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -1234,959 +1231,959 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44022</v>
+        <v>44024</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>44021</v>
+        <v>44023</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44020</v>
+        <v>44022</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B19">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B23">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B24">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B25">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B27">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B28">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B30">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B31">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B32">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B34">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B35">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B40">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B41">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B42">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B43">
-        <v>190</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B44">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B46">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B47">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B48">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B49">
-        <v>183</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B50">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B51">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B52">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B53">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B54">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B55">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B56">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B57">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B58">
-        <v>155</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B59">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B60">
-        <v>210</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B61">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B62">
-        <v>153</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B63">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B64">
-        <v>190</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B65">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B66">
-        <v>136</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B67">
-        <v>185</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B68">
-        <v>182</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B69">
-        <v>121</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B70">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B71">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B72">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B73">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B74">
-        <v>198</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B75">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B76">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B77">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B78">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B79">
-        <v>132</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B80">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B81">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B82">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B83">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B84">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B85">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B86">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B87">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B88">
-        <v>274</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B89">
-        <v>201</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B90">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B91">
-        <v>272</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B92">
-        <v>267</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B93">
-        <v>186</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B94">
-        <v>189</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B95">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B96">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B97">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B98">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B99">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B100">
-        <v>117</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B101">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B102">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B103">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B104">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B105">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B106">
-        <v>100</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B107">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B108">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B109">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B110">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B111">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B112">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B113">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B114">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B115">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B116">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B117">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B118">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B119">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B120">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B121">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B122">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B123">
         <v>53</v>
@@ -2194,119 +2191,119 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B124">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B125">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B126">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B127">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B131">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B133">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>43887</v>
+        <v>43890</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2314,15 +2311,15 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>43885</v>
+        <v>43889</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2330,15 +2327,15 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>43877</v>
+        <v>43882</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -2346,23 +2343,23 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>43876</v>
+        <v>43881</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>43875</v>
+        <v>43877</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>43868</v>
+        <v>43876</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -2370,15 +2367,15 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>43866</v>
+        <v>43875</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>43862</v>
+        <v>43868</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -2386,7 +2383,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>43852</v>
+        <v>43866</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -2394,14 +2391,30 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>43851</v>
+        <v>43862</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
     </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B149">
+  <sortState ref="A2:B151">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2410,7 +2423,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2421,1055 +2434,1055 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44024</v>
+        <v>44026</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44023</v>
+        <v>44025</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44022</v>
+        <v>44024</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>44021</v>
+        <v>44023</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44020</v>
+        <v>44022</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B20">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B21">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B22">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B23">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B25">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B28">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B29">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B31">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B32">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B34">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B38">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B40">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B41">
-        <v>182</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B42">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B43">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B44">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B45">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B46">
-        <v>437</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B47">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B48">
-        <v>158</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B49">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B50">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B51">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B52">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B53">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B54">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B55">
-        <v>209</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B56">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B57">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B58">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B59">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B60">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B61">
-        <v>130</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B62">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B63">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B64">
-        <v>102</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B65">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B66">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B67">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B68">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B69">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B70">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B71">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B72">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B73">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B74">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B75">
-        <v>216</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B76">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B77">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B78">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B79">
-        <v>106</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B80">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B81">
-        <v>179</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B82">
-        <v>206</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B83">
-        <v>224</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B84">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B85">
-        <v>301</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B86">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B87">
-        <v>168</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B88">
-        <v>361</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B89">
-        <v>291</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B90">
-        <v>231</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B91">
-        <v>220</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B92">
-        <v>272</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B93">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B94">
-        <v>130</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B95">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B96">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B97">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B98">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B99">
-        <v>124</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B100">
-        <v>73</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B101">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B102">
-        <v>119</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B103">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B104">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B105">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B106">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B107">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B108">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B109">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B110">
-        <v>120</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B111">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B112">
-        <v>52</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B113">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B114">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B115">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B116">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B117">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B118">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B119">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B121">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B123">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B124">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3477,31 +3490,31 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -3509,15 +3522,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>43888</v>
+        <v>43890</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -3525,7 +3538,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>43887</v>
+        <v>43889</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3533,7 +3546,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -3541,7 +3554,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3549,14 +3562,30 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
         <v>43853</v>
       </c>
-      <c r="B142">
+      <c r="B144">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B142">
+  <sortState ref="A2:B144">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3565,11 +3594,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3578,1788 +3605,1788 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44024</v>
+        <v>44026</v>
       </c>
       <c r="B2">
-        <v>13148</v>
+        <v>13259</v>
       </c>
       <c r="C2">
-        <v>629</v>
+        <v>571</v>
       </c>
       <c r="D2">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44023</v>
+        <v>44025</v>
       </c>
       <c r="B3">
-        <v>13148</v>
+        <v>13259</v>
       </c>
       <c r="C3">
-        <v>628</v>
+        <v>568</v>
       </c>
       <c r="D3">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44022</v>
+        <v>44024</v>
       </c>
       <c r="B4">
-        <v>13148</v>
+        <v>13259</v>
       </c>
       <c r="C4">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="D4">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>44021</v>
+        <v>44023</v>
       </c>
       <c r="B5">
-        <v>13148</v>
+        <v>13258</v>
       </c>
       <c r="C5">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="D5">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44020</v>
+        <v>44022</v>
       </c>
       <c r="B6">
-        <v>13147</v>
+        <v>13258</v>
       </c>
       <c r="C6">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="D6">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B7">
-        <v>13147</v>
+        <v>13257</v>
       </c>
       <c r="C7">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="D7">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B8">
-        <v>13147</v>
+        <v>13256</v>
       </c>
       <c r="C8">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="D8">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B9">
-        <v>13147</v>
+        <v>13256</v>
       </c>
       <c r="C9">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D9">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B10">
-        <v>13147</v>
+        <v>13256</v>
       </c>
       <c r="C10">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="D10">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B11">
-        <v>13147</v>
+        <v>13256</v>
       </c>
       <c r="C11">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="D11">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B12">
-        <v>13146</v>
+        <v>13256</v>
       </c>
       <c r="C12">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="D12">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B13">
-        <v>13143</v>
+        <v>13256</v>
       </c>
       <c r="C13">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="D13">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B14">
-        <v>13140</v>
+        <v>13252</v>
       </c>
       <c r="C14">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="D14">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B15">
-        <v>13136</v>
+        <v>13249</v>
       </c>
       <c r="C15">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="D15">
-        <v>1119</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B16">
-        <v>13133</v>
+        <v>13245</v>
       </c>
       <c r="C16">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D16">
-        <v>1119</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B17">
-        <v>13127</v>
+        <v>13235</v>
       </c>
       <c r="C17">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17">
-        <v>1119</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B18">
-        <v>13088</v>
+        <v>13169</v>
       </c>
       <c r="C18">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D18">
-        <v>1118</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B19">
-        <v>13052</v>
+        <v>13125</v>
       </c>
       <c r="C19">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D19">
-        <v>1118</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B20">
-        <v>13005</v>
+        <v>13087</v>
       </c>
       <c r="C20">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D20">
-        <v>1117</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B21">
-        <v>12942</v>
+        <v>13050</v>
       </c>
       <c r="C21">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D21">
-        <v>1116</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B22">
-        <v>12882</v>
+        <v>13004</v>
       </c>
       <c r="C22">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D22">
-        <v>1115</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B23">
-        <v>12818</v>
+        <v>12941</v>
       </c>
       <c r="C23">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D23">
-        <v>1113</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B24">
-        <v>12774</v>
+        <v>12882</v>
       </c>
       <c r="C24">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B25">
-        <v>12724</v>
+        <v>12818</v>
       </c>
       <c r="C25">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B26">
-        <v>12670</v>
+        <v>12774</v>
       </c>
       <c r="C26">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B27">
-        <v>12605</v>
+        <v>12724</v>
       </c>
       <c r="C27">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>1106</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B28">
-        <v>12541</v>
+        <v>12670</v>
       </c>
       <c r="C28">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D28">
-        <v>1104</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B29">
-        <v>12493</v>
+        <v>12605</v>
       </c>
       <c r="C29">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D29">
-        <v>1100</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B30">
-        <v>12415</v>
+        <v>12540</v>
       </c>
       <c r="C30">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D30">
-        <v>1099</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B31">
-        <v>12351</v>
+        <v>12491</v>
       </c>
       <c r="C31">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31">
-        <v>1099</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B32">
-        <v>12313</v>
+        <v>12413</v>
       </c>
       <c r="C32">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>1098</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B33">
-        <v>12244</v>
+        <v>12349</v>
       </c>
       <c r="C33">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33">
-        <v>1098</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B34">
-        <v>12152</v>
+        <v>12311</v>
       </c>
       <c r="C34">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D34">
-        <v>1097</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B35">
-        <v>12080</v>
+        <v>12242</v>
       </c>
       <c r="C35">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D35">
-        <v>1095</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B36">
-        <v>12012</v>
+        <v>12150</v>
       </c>
       <c r="C36">
         <v>108</v>
       </c>
       <c r="D36">
-        <v>1093</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B37">
-        <v>11918</v>
+        <v>12078</v>
       </c>
       <c r="C37">
         <v>108</v>
       </c>
       <c r="D37">
-        <v>1091</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B38">
-        <v>11828</v>
+        <v>12010</v>
       </c>
       <c r="C38">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D38">
-        <v>1088</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B39">
-        <v>11747</v>
+        <v>11916</v>
       </c>
       <c r="C39">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D39">
-        <v>1086</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B40">
-        <v>11656</v>
+        <v>11827</v>
       </c>
       <c r="C40">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D40">
-        <v>1082</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B41">
-        <v>11539</v>
+        <v>11746</v>
       </c>
       <c r="C41">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D41">
-        <v>1078</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B42">
-        <v>11432</v>
+        <v>11655</v>
       </c>
       <c r="C42">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D42">
-        <v>1075</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B43">
-        <v>11319</v>
+        <v>11538</v>
       </c>
       <c r="C43">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D43">
-        <v>1072</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B44">
-        <v>11135</v>
+        <v>11431</v>
       </c>
       <c r="C44">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44">
-        <v>1069</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B45">
-        <v>11043</v>
+        <v>11318</v>
       </c>
       <c r="C45">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D45">
-        <v>1069</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B46">
-        <v>10941</v>
+        <v>11133</v>
       </c>
       <c r="C46">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46">
-        <v>1066</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B47">
-        <v>10822</v>
+        <v>11041</v>
       </c>
       <c r="C47">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47">
-        <v>1061</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B48">
-        <v>10707</v>
+        <v>10939</v>
       </c>
       <c r="C48">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48">
-        <v>1057</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B49">
-        <v>10550</v>
+        <v>10820</v>
       </c>
       <c r="C49">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D49">
-        <v>1049</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B50">
-        <v>10374</v>
+        <v>10704</v>
       </c>
       <c r="C50">
         <v>93</v>
       </c>
       <c r="D50">
-        <v>1044</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B51">
-        <v>10204</v>
+        <v>10547</v>
       </c>
       <c r="C51">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D51">
-        <v>1038</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B52">
-        <v>10065</v>
+        <v>10371</v>
       </c>
       <c r="C52">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D52">
-        <v>1037</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B53">
-        <v>9936</v>
+        <v>10201</v>
       </c>
       <c r="C53">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D53">
-        <v>1034</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B54">
-        <v>9794</v>
+        <v>10062</v>
       </c>
       <c r="C54">
         <v>88</v>
       </c>
       <c r="D54">
-        <v>1028</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B55">
-        <v>9610</v>
+        <v>9933</v>
       </c>
       <c r="C55">
         <v>87</v>
       </c>
       <c r="D55">
-        <v>1023</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B56">
-        <v>9458</v>
+        <v>9791</v>
       </c>
       <c r="C56">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56">
-        <v>1021</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B57">
-        <v>9261</v>
+        <v>9607</v>
       </c>
       <c r="C57">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57">
-        <v>1012</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B58">
-        <v>9104</v>
+        <v>9455</v>
       </c>
       <c r="C58">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D58">
-        <v>1009</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B59">
-        <v>8964</v>
+        <v>9258</v>
       </c>
       <c r="C59">
         <v>82</v>
       </c>
       <c r="D59">
-        <v>994</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B60">
-        <v>8795</v>
+        <v>9102</v>
       </c>
       <c r="C60">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60">
-        <v>985</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B61">
-        <v>8592</v>
+        <v>8963</v>
       </c>
       <c r="C61">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D61">
-        <v>980</v>
+        <v>997</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B62">
-        <v>8431</v>
+        <v>8794</v>
       </c>
       <c r="C62">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D62">
-        <v>973</v>
+        <v>988</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B63">
-        <v>8291</v>
+        <v>8591</v>
       </c>
       <c r="C63">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B64">
-        <v>8156</v>
+        <v>8431</v>
       </c>
       <c r="C64">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64">
-        <v>949</v>
+        <v>976</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B65">
-        <v>7981</v>
+        <v>8292</v>
       </c>
       <c r="C65">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D65">
-        <v>937</v>
+        <v>963</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B66">
-        <v>7873</v>
+        <v>8157</v>
       </c>
       <c r="C66">
         <v>70</v>
       </c>
       <c r="D66">
-        <v>933</v>
+        <v>951</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B67">
-        <v>7753</v>
+        <v>7983</v>
       </c>
       <c r="C67">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D67">
-        <v>918</v>
+        <v>938</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B68">
-        <v>7583</v>
+        <v>7875</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="D68">
-        <v>905</v>
+        <v>934</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B69">
-        <v>7412</v>
+        <v>7755</v>
       </c>
       <c r="C69">
         <v>66</v>
       </c>
       <c r="D69">
-        <v>895</v>
+        <v>919</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B70">
-        <v>7302</v>
+        <v>7585</v>
       </c>
       <c r="C70">
         <v>64</v>
       </c>
       <c r="D70">
-        <v>886</v>
+        <v>906</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B71">
-        <v>7161</v>
+        <v>7414</v>
       </c>
       <c r="C71">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D71">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B72">
-        <v>7015</v>
+        <v>7304</v>
       </c>
       <c r="C72">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D72">
-        <v>863</v>
+        <v>887</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B73">
-        <v>6910</v>
+        <v>7163</v>
       </c>
       <c r="C73">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D73">
-        <v>860</v>
+        <v>879</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B74">
-        <v>6769</v>
+        <v>7017</v>
       </c>
       <c r="C74">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D74">
-        <v>850</v>
+        <v>865</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B75">
-        <v>6585</v>
+        <v>6913</v>
       </c>
       <c r="C75">
         <v>53</v>
       </c>
       <c r="D75">
-        <v>838</v>
+        <v>862</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B76">
-        <v>6416</v>
+        <v>6772</v>
       </c>
       <c r="C76">
         <v>53</v>
       </c>
       <c r="D76">
-        <v>825</v>
+        <v>851</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B77">
-        <v>6253</v>
+        <v>6588</v>
       </c>
       <c r="C77">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D77">
-        <v>804</v>
+        <v>839</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B78">
-        <v>6061</v>
+        <v>6419</v>
       </c>
       <c r="C78">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78">
-        <v>782</v>
+        <v>826</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B79">
-        <v>5873</v>
+        <v>6255</v>
       </c>
       <c r="C79">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D79">
-        <v>769</v>
+        <v>805</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B80">
-        <v>5753</v>
+        <v>6063</v>
       </c>
       <c r="C80">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D80">
-        <v>758</v>
+        <v>783</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B81">
-        <v>5609</v>
+        <v>5876</v>
       </c>
       <c r="C81">
         <v>46</v>
       </c>
       <c r="D81">
-        <v>743</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B82">
-        <v>5433</v>
+        <v>5756</v>
       </c>
       <c r="C82">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D82">
-        <v>732</v>
+        <v>759</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B83">
-        <v>5280</v>
+        <v>5613</v>
       </c>
       <c r="C83">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D83">
-        <v>713</v>
+        <v>744</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B84">
-        <v>5090</v>
+        <v>5435</v>
       </c>
       <c r="C84">
         <v>43</v>
       </c>
       <c r="D84">
-        <v>680</v>
+        <v>733</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B85">
-        <v>4937</v>
+        <v>5282</v>
       </c>
       <c r="C85">
         <v>42</v>
       </c>
       <c r="D85">
-        <v>662</v>
+        <v>714</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B86">
-        <v>4736</v>
+        <v>5092</v>
       </c>
       <c r="C86">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D86">
-        <v>644</v>
+        <v>681</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B87">
-        <v>4617</v>
+        <v>4937</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D87">
-        <v>618</v>
+        <v>663</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B88">
-        <v>4396</v>
+        <v>4736</v>
       </c>
       <c r="C88">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D88">
-        <v>593</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B89">
-        <v>4152</v>
+        <v>4617</v>
       </c>
       <c r="C89">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D89">
-        <v>570</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B90">
-        <v>3974</v>
+        <v>4397</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D90">
-        <v>548</v>
+        <v>594</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B91">
-        <v>3723</v>
+        <v>4153</v>
       </c>
       <c r="C91">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D91">
-        <v>511</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B92">
-        <v>3479</v>
+        <v>3976</v>
       </c>
       <c r="C92">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D92">
-        <v>486</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B93">
-        <v>3243</v>
+        <v>3725</v>
       </c>
       <c r="C93">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D93">
-        <v>457</v>
+        <v>512</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B94">
-        <v>3082</v>
+        <v>3481</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D94">
-        <v>433</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B95">
-        <v>2925</v>
+        <v>3247</v>
       </c>
       <c r="C95">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D95">
-        <v>403</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="B96">
-        <v>2747</v>
+        <v>3086</v>
       </c>
       <c r="C96">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="B97">
-        <v>2603</v>
+        <v>2929</v>
       </c>
       <c r="C97">
         <v>17</v>
       </c>
       <c r="D97">
-        <v>354</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="B98">
-        <v>2472</v>
+        <v>2751</v>
       </c>
       <c r="C98">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>316</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="B99">
-        <v>2326</v>
+        <v>2607</v>
       </c>
       <c r="C99">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B100">
-        <v>2193</v>
+        <v>2477</v>
       </c>
       <c r="C100">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D100">
-        <v>266</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B101">
-        <v>2100</v>
+        <v>2332</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101">
-        <v>245</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B102">
-        <v>1995</v>
+        <v>2199</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D102">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B103">
-        <v>1877</v>
+        <v>2106</v>
       </c>
       <c r="C103">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103">
-        <v>190</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B104">
-        <v>1753</v>
+        <v>2001</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104">
-        <v>166</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B105">
-        <v>1631</v>
+        <v>1884</v>
       </c>
       <c r="C105">
         <v>8</v>
       </c>
       <c r="D105">
-        <v>134</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B106">
-        <v>1532</v>
+        <v>1760</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B107">
-        <v>1455</v>
+        <v>1637</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="B108">
-        <v>1381</v>
+        <v>1537</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="B109">
-        <v>1292</v>
+        <v>1458</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="B110">
-        <v>1212</v>
+        <v>1383</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B111">
-        <v>1133</v>
+        <v>1294</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B112">
-        <v>1062</v>
+        <v>1214</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B113">
-        <v>988</v>
+        <v>1136</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B114">
-        <v>898</v>
+        <v>1065</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B115">
-        <v>848</v>
+        <v>990</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B116">
-        <v>784</v>
+        <v>898</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B117">
-        <v>708</v>
+        <v>848</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B118">
-        <v>632</v>
+        <v>784</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B119">
-        <v>545</v>
+        <v>708</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B120">
-        <v>447</v>
+        <v>632</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B121">
-        <v>372</v>
+        <v>545</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B122">
-        <v>322</v>
+        <v>447</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B123">
-        <v>266</v>
+        <v>372</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B124">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B125">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B126">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B127">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B128">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5370,10 +5397,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B129">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5384,10 +5411,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B130">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5398,10 +5425,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="B131">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5412,10 +5439,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="B132">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5426,10 +5453,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="B133">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5440,10 +5467,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="B134">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5454,10 +5481,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="B135">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5468,10 +5495,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="B136">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5482,10 +5509,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="B137">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -5496,10 +5523,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>43887</v>
+        <v>43890</v>
       </c>
       <c r="B138">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -5510,10 +5537,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>43885</v>
+        <v>43889</v>
       </c>
       <c r="B139">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5524,10 +5551,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="B140">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5538,10 +5565,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -5552,10 +5579,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>43877</v>
+        <v>43882</v>
       </c>
       <c r="B142">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -5566,10 +5593,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>43876</v>
+        <v>43881</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5580,10 +5607,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>43875</v>
+        <v>43877</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -5594,10 +5621,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>43868</v>
+        <v>43876</v>
       </c>
       <c r="B145">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5608,10 +5635,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>43866</v>
+        <v>43875</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5622,10 +5649,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>43862</v>
+        <v>43868</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -5636,10 +5663,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>43852</v>
+        <v>43866</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5650,20 +5677,48 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
         <v>43851</v>
       </c>
-      <c r="B149">
+      <c r="B151">
         <v>1</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D149">
+  <sortState ref="A2:D151">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5672,7 +5727,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5683,1648 +5738,1648 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44024</v>
+        <v>44026</v>
       </c>
       <c r="B2">
-        <v>13148</v>
+        <v>13259</v>
       </c>
       <c r="C2">
-        <v>629</v>
+        <v>571</v>
       </c>
       <c r="D2">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44023</v>
+        <v>44025</v>
       </c>
       <c r="B3">
-        <v>13147</v>
+        <v>13259</v>
       </c>
       <c r="C3">
-        <v>609</v>
+        <v>548</v>
       </c>
       <c r="D3">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44022</v>
+        <v>44024</v>
       </c>
       <c r="B4">
-        <v>13143</v>
+        <v>13257</v>
       </c>
       <c r="C4">
-        <v>565</v>
+        <v>513</v>
       </c>
       <c r="D4">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>44021</v>
+        <v>44023</v>
       </c>
       <c r="B5">
-        <v>13141</v>
+        <v>13252</v>
       </c>
       <c r="C5">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="D5">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44020</v>
+        <v>44022</v>
       </c>
       <c r="B6">
-        <v>13141</v>
+        <v>13247</v>
       </c>
       <c r="C6">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="D6">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B7">
-        <v>13140</v>
+        <v>13244</v>
       </c>
       <c r="C7">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D7">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B8">
-        <v>13136</v>
+        <v>13242</v>
       </c>
       <c r="C8">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="D8">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44017</v>
+        <v>44019</v>
       </c>
       <c r="B9">
-        <v>13131</v>
+        <v>13239</v>
       </c>
       <c r="C9">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="D9">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="B10">
-        <v>13125</v>
+        <v>13233</v>
       </c>
       <c r="C10">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="D10">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B11">
-        <v>13108</v>
+        <v>13227</v>
       </c>
       <c r="C11">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="D11">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>44014</v>
+        <v>44016</v>
       </c>
       <c r="B12">
-        <v>13099</v>
+        <v>13215</v>
       </c>
       <c r="C12">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="D12">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>44013</v>
+        <v>44015</v>
       </c>
       <c r="B13">
-        <v>13077</v>
+        <v>13189</v>
       </c>
       <c r="C13">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="D13">
-        <v>1118</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="B14">
-        <v>13047</v>
+        <v>13170</v>
       </c>
       <c r="C14">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D14">
-        <v>1118</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B15">
-        <v>12991</v>
+        <v>13137</v>
       </c>
       <c r="C15">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D15">
-        <v>1117</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B16">
-        <v>12949</v>
+        <v>13080</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D16">
-        <v>1117</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44009</v>
+        <v>44011</v>
       </c>
       <c r="B17">
-        <v>12897</v>
+        <v>12996</v>
       </c>
       <c r="C17">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17">
-        <v>1116</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44008</v>
+        <v>44010</v>
       </c>
       <c r="B18">
-        <v>12842</v>
+        <v>12949</v>
       </c>
       <c r="C18">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18">
-        <v>1116</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B19">
-        <v>12766</v>
+        <v>12894</v>
       </c>
       <c r="C19">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D19">
-        <v>1114</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B20">
-        <v>12720</v>
+        <v>12839</v>
       </c>
       <c r="C20">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>1113</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B21">
-        <v>12651</v>
+        <v>12763</v>
       </c>
       <c r="C21">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D21">
-        <v>1111</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B22">
-        <v>12595</v>
+        <v>12718</v>
       </c>
       <c r="C22">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D22">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="B23">
-        <v>12543</v>
+        <v>12649</v>
       </c>
       <c r="C23">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>1108</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44002</v>
+        <v>44004</v>
       </c>
       <c r="B24">
-        <v>12504</v>
+        <v>12593</v>
       </c>
       <c r="C24">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>1105</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44001</v>
+        <v>44003</v>
       </c>
       <c r="B25">
-        <v>12444</v>
+        <v>12541</v>
       </c>
       <c r="C25">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D25">
-        <v>1101</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="B26">
-        <v>12378</v>
+        <v>12502</v>
       </c>
       <c r="C26">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D26">
-        <v>1100</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>43999</v>
+        <v>44001</